--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragon-verse\Dragon-verse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD33E99-354E-456D-80F7-F910E86D2C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1100467F-0A88-4CE6-9FBB-FE7A6F1443DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1330">
   <si>
     <t>int</t>
   </si>
@@ -4397,6 +4397,30 @@
   </si>
   <si>
     <t>木のエネルギー？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obby_GoldReward</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obby_RedTips</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币奖励</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能触碰到红色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive gold coin award</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not touch the red</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4780,10 +4804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H650"/>
+  <dimension ref="A1:H653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -6857,4193 +6881,4238 @@
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>105001</v>
+      <c r="A108" s="7">
+        <v>103001</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>229</v>
+        <v>1324</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>212</v>
+        <v>1328</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>1326</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1071</v>
+        <v>1328</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>105002</v>
+      <c r="A109" s="7">
+        <v>103002</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>230</v>
+        <v>1325</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>700</v>
+        <v>1329</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>607</v>
+        <v>1327</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1234</v>
+        <v>1329</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>700</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>105003</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>105004</v>
+        <v>105001</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>960</v>
+        <v>229</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>105005</v>
+        <v>105002</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>336</v>
+        <v>230</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>700</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>336</v>
+        <v>607</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>105006</v>
+        <v>105003</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>452</v>
+        <v>231</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>452</v>
+        <v>232</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>105051</v>
+        <v>105004</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>609</v>
+        <v>960</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>966</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>1073</v>
+        <v>1235</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>337</v>
+        <v>960</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>105101</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>213</v>
+        <v>105005</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>610</v>
+        <v>336</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>105102</v>
+        <v>105006</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>235</v>
+        <v>453</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>1304</v>
+        <v>452</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>339</v>
+        <v>608</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>105103</v>
+        <v>105051</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>612</v>
+        <v>337</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>1240</v>
+        <v>1073</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>105201</v>
+        <v>105101</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>105202</v>
+        <v>105102</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>611</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>105203</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>614</v>
+        <v>105103</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>612</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>105204</v>
+        <v>105201</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>105205</v>
+        <v>105202</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>345</v>
+        <v>237</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>105206</v>
+        <v>105203</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>346</v>
+        <v>1311</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>105301</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>524</v>
+        <v>105204</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>105302</v>
+        <v>105205</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>538</v>
+        <v>238</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>538</v>
+        <v>228</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>105303</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>314</v>
+        <v>105206</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>451</v>
+        <v>346</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>616</v>
+        <v>227</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1075</v>
+        <v>1246</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>451</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>105304</v>
+        <v>105301</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>347</v>
+        <v>524</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>347</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>105305</v>
+        <v>105302</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>1305</v>
+        <v>313</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>1317</v>
+        <v>538</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>1314</v>
+        <v>695</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1318</v>
+        <v>1247</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>1317</v>
+        <v>538</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>105306</v>
+        <v>105303</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>1306</v>
+        <v>314</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>1315</v>
+        <v>451</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>1309</v>
+        <v>616</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1319</v>
+        <v>1075</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>1315</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>105307</v>
+        <v>105304</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>1307</v>
+        <v>315</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>1312</v>
+        <v>347</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>1310</v>
+        <v>617</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1320</v>
+        <v>1076</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>1312</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>105308</v>
+        <v>105305</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>105401</v>
+        <v>105306</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>316</v>
+        <v>1306</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>348</v>
+        <v>1315</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>618</v>
+        <v>1309</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>1077</v>
+        <v>1319</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>348</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>105402</v>
+        <v>105307</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>318</v>
+        <v>1307</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>349</v>
+        <v>1312</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>619</v>
+        <v>1310</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>1078</v>
+        <v>1320</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>349</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>105403</v>
+        <v>105308</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>323</v>
+        <v>1308</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>350</v>
+        <v>1316</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>620</v>
+        <v>1313</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>1079</v>
+        <v>1321</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>350</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>105404</v>
+        <v>105401</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>105405</v>
+        <v>105402</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>319</v>
+        <v>619</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>105406</v>
+        <v>105403</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>105407</v>
+        <v>105404</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>105501</v>
+        <v>105405</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>435</v>
+        <v>322</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>438</v>
+        <v>319</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>105502</v>
+        <v>105406</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>105503</v>
+        <v>105407</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>437</v>
+        <v>324</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>1248</v>
+        <v>1082</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>105504</v>
+        <v>105501</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>693</v>
+        <v>435</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>961</v>
+        <v>441</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>701</v>
+        <v>438</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>1249</v>
+        <v>1083</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>961</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>105505</v>
+        <v>105502</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>969</v>
+        <v>436</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>973</v>
+        <v>440</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>977</v>
+        <v>439</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>1250</v>
+        <v>1084</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>973</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>105506</v>
+        <v>105503</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>970</v>
+        <v>437</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>974</v>
+        <v>448</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>978</v>
+        <v>622</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>974</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>105507</v>
+        <v>105504</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>971</v>
+        <v>693</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>979</v>
+        <v>701</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
     </row>
     <row r="146" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>105508</v>
+        <v>105505</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="A147" s="1">
+        <v>105506</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="148" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>105601</v>
+        <v>105507</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="G148" s="5"/>
+        <v>971</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="149" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>105602</v>
+        <v>105508</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="G149" s="5"/>
+        <v>972</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="150" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
-        <v>105603</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
+      <c r="A150" s="1"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>105604</v>
+        <v>105601</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>105605</v>
+        <v>105602</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>105606</v>
+        <v>105603</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
     </row>
     <row r="154" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>105607</v>
+        <v>105604</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>105608</v>
+        <v>105605</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>105609</v>
+        <v>105606</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>105610</v>
+        <v>105607</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>105611</v>
+        <v>105608</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>991</v>
+        <v>461</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>988</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>847</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>105612</v>
+        <v>105609</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>992</v>
+        <v>462</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>989</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>848</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>105613</v>
+        <v>105610</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>993</v>
+        <v>463</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>849</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>105614</v>
+        <v>105611</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>105615</v>
+        <v>105612</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>105616</v>
+        <v>105613</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>852</v>
+        <v>466</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>849</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>105617</v>
+        <v>105614</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>853</v>
+        <v>467</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>850</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>105618</v>
+        <v>105615</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>854</v>
+        <v>468</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>851</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>105619</v>
+        <v>105616</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>105620</v>
+        <v>105617</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>105621</v>
+        <v>105618</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>1001</v>
+        <v>854</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>998</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>105622</v>
+        <v>105619</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>1002</v>
+        <v>855</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>999</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>105623</v>
+        <v>105620</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>1003</v>
+        <v>856</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>1000</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>105624</v>
+        <v>105621</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>105625</v>
+        <v>105622</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>105626</v>
+        <v>105623</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="174" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>105627</v>
+        <v>105624</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>105628</v>
+        <v>105625</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>105629</v>
+        <v>105626</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>105630</v>
+        <v>105627</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>105631</v>
+        <v>105628</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>1011</v>
+        <v>483</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>1008</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="179" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>105632</v>
+        <v>105629</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>1012</v>
+        <v>484</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>1009</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="180" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>105633</v>
+        <v>105630</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>1013</v>
+        <v>485</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>1010</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>105634</v>
+        <v>105631</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>105635</v>
+        <v>105632</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>105636</v>
+        <v>105633</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>872</v>
+        <v>488</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>869</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>105637</v>
+        <v>105634</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>873</v>
+        <v>489</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>870</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>105638</v>
+        <v>105635</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>874</v>
+        <v>490</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>871</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>105639</v>
+        <v>105636</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>105640</v>
+        <v>105637</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>105641</v>
+        <v>105638</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>877</v>
+        <v>493</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>874</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>105642</v>
+        <v>105639</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>878</v>
+        <v>494</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>875</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>105643</v>
+        <v>105640</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>879</v>
+        <v>495</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>876</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="191" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>105644</v>
+        <v>105641</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>105645</v>
+        <v>105642</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>105646</v>
+        <v>105643</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>882</v>
+        <v>498</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>879</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>105647</v>
+        <v>105644</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>883</v>
+        <v>499</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>880</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>105648</v>
+        <v>105645</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>884</v>
+        <v>500</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>881</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>105649</v>
+        <v>105646</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
+        <v>105647</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>105648</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>105649</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
         <v>105650</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B200" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D200" s="5" t="s">
         <v>1030</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E200" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="F197" s="2" t="s">
+      <c r="F200" s="2" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C198"/>
-      <c r="D198"/>
-    </row>
-    <row r="199" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="11">
-        <v>200001</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D199" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="E199" s="13" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F199" s="13" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="11">
-        <v>200002</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="D200" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F200" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="11">
-        <v>200003</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D201" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="E201" s="13" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F201" s="13" t="s">
-        <v>888</v>
-      </c>
+    <row r="201" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C201"/>
+      <c r="D201"/>
     </row>
     <row r="202" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="11">
-        <v>200004</v>
+        <v>200001</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="11">
-        <v>200005</v>
+        <v>200002</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="11">
-        <v>200006</v>
+        <v>200003</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E204" s="13" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F204" s="13" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
-        <v>200007</v>
+        <v>200004</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F205" s="13" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
-        <v>200008</v>
+        <v>200005</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="F206" s="13" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
-        <v>200009</v>
+        <v>200006</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="208" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="11">
-        <v>200010</v>
+        <v>200007</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="11">
-        <v>200011</v>
+        <v>200008</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="11">
-        <v>200012</v>
+        <v>200009</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E210" s="13" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="11">
-        <v>200013</v>
+        <v>200010</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="11">
-        <v>200014</v>
+        <v>200011</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>431</v>
+        <v>262</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>431</v>
+        <v>896</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="11">
-        <v>200015</v>
+        <v>200012</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F213" s="13" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="11">
-        <v>200016</v>
+        <v>200013</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>432</v>
+        <v>266</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E214" s="13" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F214" s="13" t="s">
-        <v>432</v>
+        <v>898</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="11">
-        <v>200017</v>
+        <v>200014</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>272</v>
+        <v>431</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="11">
-        <v>200018</v>
+        <v>200015</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E216" s="13" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="11">
-        <v>200019</v>
+        <v>200016</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E217" s="13" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F217" s="13" t="s">
-        <v>902</v>
+        <v>432</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="11">
-        <v>200020</v>
+        <v>200017</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="F218" s="13" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="11">
-        <v>200021</v>
+        <v>200018</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>697</v>
+        <v>274</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>697</v>
+        <v>901</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="11">
-        <v>200022</v>
+        <v>200019</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>698</v>
+        <v>276</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E220" s="13" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>698</v>
+        <v>902</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="11">
-        <v>200023</v>
+        <v>200020</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>699</v>
+        <v>278</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="11">
-        <v>200024</v>
+        <v>200021</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>283</v>
+        <v>697</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E222" s="13" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>904</v>
+        <v>697</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="11">
-        <v>200025</v>
+        <v>200022</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>285</v>
+        <v>698</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E223" s="13" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>905</v>
+        <v>698</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="11">
-        <v>200026</v>
+        <v>200023</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>287</v>
+        <v>699</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F224" s="13" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="11">
-        <v>200027</v>
+        <v>200024</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="F225" s="13" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="11">
-        <v>200028</v>
+        <v>200025</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="F226" s="13" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="11">
-        <v>200029</v>
+        <v>200026</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F227" s="13" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="11">
-        <v>200030</v>
+        <v>200027</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="F228" s="13" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
-        <v>200031</v>
+        <v>200028</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="F229" s="13" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="11">
-        <v>200032</v>
+        <v>200029</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E230" s="13" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="F230" s="13" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="11">
-        <v>200033</v>
+        <v>200030</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>433</v>
+        <v>295</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E231" s="13" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F231" s="13" t="s">
-        <v>433</v>
+        <v>910</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
-        <v>200034</v>
+        <v>200031</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F232" s="13" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
-        <v>200035</v>
+        <v>200032</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F233" s="13" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
-        <v>200036</v>
+        <v>200033</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="F234" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="11">
-        <v>200037</v>
+        <v>200034</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E235" s="13" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="F235" s="13" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="11">
-        <v>200038</v>
+        <v>200035</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F236" s="13" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="11">
-        <v>200039</v>
+        <v>200036</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F237" s="13" t="s">
-        <v>917</v>
+        <v>434</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="11">
-        <v>200040</v>
+        <v>200037</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D238" s="14" t="s">
-        <v>662</v>
+        <v>306</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>659</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F238" s="13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="11">
-        <v>200041</v>
+        <v>200038</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C239" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="D239" s="14" t="s">
-        <v>663</v>
+        <v>308</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>660</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F239" s="13" t="s">
-        <v>382</v>
+        <v>916</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="11">
-        <v>200042</v>
+        <v>200039</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C240" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D240" s="13" t="s">
-        <v>664</v>
+        <v>310</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>661</v>
       </c>
       <c r="E240" s="13" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F240" s="13" t="s">
-        <v>376</v>
+        <v>917</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="11">
-        <v>200043</v>
+        <v>200040</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D241" s="13" t="s">
-        <v>665</v>
+        <v>375</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>662</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F241" s="13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="11">
-        <v>200044</v>
+        <v>200041</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="D242" s="13" t="s">
-        <v>666</v>
+        <v>365</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D242" s="14" t="s">
+        <v>663</v>
       </c>
       <c r="E242" s="13" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="F242" s="13" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="243" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="11">
-        <v>200045</v>
+        <v>200042</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>379</v>
+        <v>366</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="F243" s="13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="244" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
-        <v>200046</v>
+        <v>200043</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D244" s="13" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="F244" s="13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="11">
-        <v>200047</v>
+        <v>200044</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C245" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="D245" s="14" t="s">
-        <v>669</v>
+        <v>368</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D245" s="13" t="s">
+        <v>666</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="F245" s="13" t="s">
-        <v>918</v>
+        <v>378</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="11">
-        <v>200048</v>
+        <v>200045</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E246" s="13" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="F246" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="247" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="11">
-        <v>200049</v>
+        <v>200046</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C247" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="D247" s="14" t="s">
-        <v>671</v>
+        <v>370</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D247" s="13" t="s">
+        <v>668</v>
       </c>
       <c r="E247" s="13" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="11">
-        <v>200050</v>
+        <v>200047</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="F248" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="11">
-        <v>200051</v>
+        <v>200048</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F249" s="13" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="11">
-        <v>200052</v>
+        <v>200049</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D250" s="13" t="s">
-        <v>674</v>
+        <v>373</v>
+      </c>
+      <c r="C250" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D250" s="14" t="s">
+        <v>671</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="F250" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
-        <v>200053</v>
+        <v>200050</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="D251" s="13" t="s">
-        <v>675</v>
+        <v>374</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D251" s="14" t="s">
+        <v>672</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="F251" s="13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="11">
-        <v>200054</v>
+        <v>200051</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D252" s="13" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="F252" s="13" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="11">
-        <v>200055</v>
+        <v>200052</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D253" s="13" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E253" s="13" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="F253" s="13" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="11">
-        <v>200056</v>
+        <v>200053</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C254" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D254" s="14" t="s">
-        <v>678</v>
+        <v>395</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>675</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="F254" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" s="11">
-        <v>200057</v>
+        <v>200054</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D255" s="13" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="F255" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="11">
-        <v>200058</v>
+        <v>200055</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C256" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="D256" s="14" t="s">
-        <v>680</v>
+        <v>397</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D256" s="13" t="s">
+        <v>677</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="F256" s="13" t="s">
-        <v>919</v>
+        <v>389</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="11">
-        <v>200059</v>
+        <v>200056</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="F257" s="13" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="11">
-        <v>200060</v>
+        <v>200057</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="D258" s="14" t="s">
-        <v>682</v>
+        <v>390</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>679</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="F258" s="13" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="11">
-        <v>200061</v>
+        <v>200058</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C259" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="D259" s="13" t="s">
-        <v>683</v>
+        <v>404</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="D259" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>401</v>
+        <v>919</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="11">
-        <v>200062</v>
+        <v>200059</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>402</v>
+        <v>405</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>403</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="F260" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="11">
-        <v>200063</v>
+        <v>200060</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C261" s="14" t="s">
-        <v>685</v>
+        <v>406</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="D261" s="14" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="F261" s="13" t="s">
-        <v>920</v>
+        <v>400</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="11">
-        <v>200064</v>
+        <v>200061</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C262" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="D262" s="14" t="s">
-        <v>686</v>
+        <v>407</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>683</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F262" s="13" t="s">
-        <v>921</v>
+        <v>401</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="11">
-        <v>200065</v>
+        <v>200062</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C263" s="14" t="s">
-        <v>413</v>
+        <v>408</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F263" s="13" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="11">
-        <v>200066</v>
+        <v>200063</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>416</v>
+        <v>685</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="F264" s="13" t="s">
-        <v>416</v>
+        <v>920</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11">
-        <v>200067</v>
+        <v>200064</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>414</v>
+        <v>410</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>412</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F265" s="13" t="s">
-        <v>414</v>
+        <v>921</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="11">
-        <v>200068</v>
+        <v>200065</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D266" s="13" t="s">
-        <v>690</v>
+        <v>411</v>
+      </c>
+      <c r="C266" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D266" s="14" t="s">
+        <v>687</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="F266" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="11">
-        <v>200069</v>
+        <v>200066</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>685</v>
+        <v>416</v>
       </c>
       <c r="D267" s="14" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>1140</v>
+        <v>1149</v>
       </c>
       <c r="F267" s="13" t="s">
-        <v>920</v>
+        <v>416</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="11">
-        <v>200070</v>
+        <v>200067</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C268" s="14" t="s">
-        <v>537</v>
+        <v>418</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>414</v>
       </c>
       <c r="D268" s="14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F268" s="13" t="s">
-        <v>537</v>
+        <v>414</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="11">
+        <v>200068</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F269" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="11">
+        <v>200069</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D270" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F270" s="13" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="11">
+        <v>200070</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D271" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F271" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="11">
         <v>200071</v>
       </c>
-      <c r="B269" s="11" t="s">
+      <c r="B272" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="C269" s="14" t="s">
+      <c r="C272" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D269" s="14" t="s">
+      <c r="D272" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="E269" s="13" t="s">
+      <c r="E272" s="13" t="s">
         <v>1153</v>
       </c>
-      <c r="F269" s="13" t="s">
+      <c r="F272" s="13" t="s">
         <v>922</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="6">
-        <v>200072</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="6">
-        <v>200073</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="E271" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="6">
-        <v>200074</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="273" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
-        <v>200075</v>
+        <v>200072</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="E273" s="5" t="s">
-        <v>1322</v>
+        <v>712</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>1154</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>782</v>
+        <v>923</v>
       </c>
     </row>
     <row r="274" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
-        <v>200076</v>
+        <v>200073</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>1157</v>
+        <v>713</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>1323</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
-        <v>200077</v>
+        <v>200074</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
-        <v>200078</v>
+        <v>200075</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>1159</v>
+        <v>714</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>1322</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>928</v>
+        <v>782</v>
       </c>
     </row>
     <row r="277" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
-        <v>200079</v>
+        <v>200076</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
-        <v>200080</v>
+        <v>200077</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>782</v>
+        <v>927</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
-        <v>200081</v>
+        <v>200078</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="280" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
-        <v>200082</v>
+        <v>200079</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="E280" s="10" t="s">
-        <v>1166</v>
+        <v>723</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>1160</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6">
-        <v>200083</v>
+        <v>200080</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>748</v>
+        <v>719</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="E281" s="10" t="s">
-        <v>1167</v>
+        <v>714</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>1156</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>932</v>
+        <v>782</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
-        <v>200084</v>
+        <v>200081</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="E282" s="10" t="s">
-        <v>1168</v>
+        <v>724</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>1161</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6">
-        <v>200085</v>
+        <v>200082</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>714</v>
+        <v>752</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>782</v>
+        <v>931</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="6">
+        <v>200083</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E284" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="6">
+        <v>200084</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="E285" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="6">
+        <v>200085</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="E286" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="6">
         <v>200086</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B287" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="C284" s="5" t="s">
+      <c r="C287" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="D284" s="5" t="s">
+      <c r="D287" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="E284" s="10" t="s">
+      <c r="E287" s="10" t="s">
         <v>1169</v>
       </c>
-      <c r="F284" s="2" t="s">
+      <c r="F287" s="2" t="s">
         <v>934</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="6">
-        <v>200087</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="E285" s="10" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="6">
-        <v>200088</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="E286" s="10" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="6">
-        <v>200089</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="D287" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="E287" s="10" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="288" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6">
-        <v>200090</v>
+        <v>200087</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>782</v>
+        <v>935</v>
       </c>
     </row>
     <row r="289" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6">
-        <v>200091</v>
+        <v>200088</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="290" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6">
-        <v>200092</v>
+        <v>200089</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>942</v>
+        <v>755</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>768</v>
+        <v>937</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6">
-        <v>200093</v>
+        <v>200090</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>771</v>
+        <v>719</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>758</v>
+        <v>714</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
     </row>
     <row r="292" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="6">
-        <v>200094</v>
+        <v>200091</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>773</v>
+        <v>744</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>943</v>
+        <v>756</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>772</v>
+        <v>938</v>
       </c>
     </row>
     <row r="293" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6">
-        <v>200095</v>
+        <v>200092</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="294" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="6">
-        <v>200096</v>
+        <v>200093</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>945</v>
+        <v>758</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6">
-        <v>200097</v>
+        <v>200094</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E295" s="10" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6">
-        <v>200098</v>
+        <v>200095</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E296" s="10" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="297" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6">
-        <v>200099</v>
+        <v>200096</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>719</v>
+        <v>777</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>714</v>
+        <v>945</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="298" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="6">
-        <v>200100</v>
+        <v>200097</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="299" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6">
-        <v>200101</v>
+        <v>200098</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>808</v>
+        <v>765</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="300" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6">
-        <v>200102</v>
+        <v>200099</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>809</v>
+        <v>766</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>791</v>
+        <v>719</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>787</v>
+        <v>714</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>1179</v>
+        <v>1156</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="301" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6">
-        <v>200103</v>
+        <v>200100</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>810</v>
+        <v>767</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6">
-        <v>200104</v>
+        <v>200101</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
     </row>
     <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6">
-        <v>200105</v>
+        <v>200102</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>952</v>
+        <v>787</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="6">
-        <v>200106</v>
+        <v>200103</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>788</v>
+        <v>950</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6">
-        <v>200107</v>
+        <v>200104</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6">
-        <v>200108</v>
+        <v>200105</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>789</v>
+        <v>952</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6">
-        <v>200109</v>
+        <v>200106</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>954</v>
+        <v>788</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6">
-        <v>200110</v>
+        <v>200107</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>719</v>
+        <v>801</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>714</v>
+        <v>953</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>1156</v>
+        <v>1184</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="6">
-        <v>200111</v>
+        <v>200108</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>955</v>
+        <v>789</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="6">
-        <v>200112</v>
+        <v>200109</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
     </row>
     <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A311" s="6">
-        <v>200113</v>
+        <v>200110</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>820</v>
+        <v>719</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>957</v>
+        <v>714</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>1189</v>
+        <v>1156</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>819</v>
+        <v>782</v>
       </c>
     </row>
     <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A312" s="6">
-        <v>200114</v>
+        <v>200111</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
     </row>
     <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" s="6">
-        <v>200115</v>
+        <v>200112</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>719</v>
+        <v>831</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>714</v>
+        <v>956</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>1156</v>
+        <v>1188</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>782</v>
+        <v>830</v>
       </c>
     </row>
     <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" s="6">
-        <v>200116</v>
+        <v>200113</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6">
-        <v>200117</v>
+        <v>200114</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>962</v>
+        <v>822</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F315" s="5" t="s">
-        <v>962</v>
+        <v>1190</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" s="6">
-        <v>200118</v>
+        <v>200115</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>963</v>
+        <v>719</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>965</v>
+        <v>714</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F316" s="5" t="s">
-        <v>963</v>
+        <v>1156</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6">
+        <v>200116</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="6">
+        <v>200117</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="E318" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="6">
+        <v>200118</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="E319" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="6">
         <v>200119</v>
       </c>
-      <c r="B317" s="6" t="s">
+      <c r="B320" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="C317" s="5" t="s">
+      <c r="C320" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="D317" s="5" t="s">
+      <c r="D320" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="E317" s="10" t="s">
+      <c r="E320" s="10" t="s">
         <v>1194</v>
       </c>
-      <c r="F317" s="5" t="s">
+      <c r="F320" s="5" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -11274,15 +11343,15 @@
     <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="554" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="555" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="556" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -11347,10 +11416,10 @@
     <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -11366,15 +11435,9 @@
     <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="641" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="642" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E643"/>
-    </row>
-    <row r="644" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E644"/>
-    </row>
-    <row r="645" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E645"/>
-    </row>
+    <row r="643" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="646" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E646"/>
     </row>
@@ -11385,12 +11448,21 @@
       <c r="E648"/>
     </row>
     <row r="649" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C649"/>
       <c r="E649"/>
     </row>
     <row r="650" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C650"/>
       <c r="E650"/>
+    </row>
+    <row r="651" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E651"/>
+    </row>
+    <row r="652" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C652"/>
+      <c r="E652"/>
+    </row>
+    <row r="653" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C653"/>
+      <c r="E653"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1100467F-0A88-4CE6-9FBB-FE7A6F1443DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7288B8ED-15B9-4E92-9AF5-CEA1B6907B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1336">
   <si>
     <t>int</t>
   </si>
@@ -4421,6 +4421,30 @@
   </si>
   <si>
     <t>Do not touch the red</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obby_CheckPoint_001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obby_CheckPoint_002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4804,10 +4828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H653"/>
+  <dimension ref="A1:H655"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -6929,4206 +6953,4244 @@
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="A110" s="7">
+        <v>103003</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>105001</v>
+      <c r="A111" s="7">
+        <v>103004</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>229</v>
+        <v>1335</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>212</v>
+        <v>1334</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>1332</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>1071</v>
+        <v>1334</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>334</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>105002</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>700</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>105003</v>
+        <v>105001</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>335</v>
+        <v>229</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>105004</v>
+        <v>105002</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>960</v>
+        <v>230</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>700</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>960</v>
+        <v>607</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>105005</v>
+        <v>105003</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>1236</v>
+        <v>1072</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>105006</v>
+        <v>105004</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>452</v>
+        <v>239</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>960</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>452</v>
+        <v>966</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>105051</v>
+        <v>105005</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>609</v>
+        <v>336</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>1073</v>
+        <v>1236</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>105101</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>338</v>
+        <v>105006</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>105102</v>
+        <v>105051</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>611</v>
+        <v>234</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>1239</v>
+        <v>1073</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>105103</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>236</v>
+        <v>105101</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>612</v>
+        <v>338</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>105201</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>613</v>
+        <v>105102</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>611</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>105202</v>
+        <v>105103</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>211</v>
+        <v>340</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>612</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>105203</v>
+        <v>105201</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>1311</v>
+        <v>214</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>105204</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>216</v>
+        <v>105202</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>615</v>
+        <v>211</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>105205</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>345</v>
+        <v>105203</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>105206</v>
+        <v>105204</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>346</v>
+        <v>216</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>105301</v>
+        <v>105205</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>524</v>
+        <v>238</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>524</v>
+        <v>228</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>105302</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>313</v>
+        <v>105206</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>538</v>
+        <v>346</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>695</v>
+        <v>227</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>538</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>105303</v>
+        <v>105301</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>105304</v>
+        <v>105302</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>347</v>
+        <v>538</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>617</v>
+        <v>695</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1076</v>
+        <v>1247</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>347</v>
+        <v>538</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>105305</v>
+        <v>105303</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>1305</v>
+        <v>314</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>1317</v>
+        <v>451</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>1314</v>
+        <v>616</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1318</v>
+        <v>1075</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>1317</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>105306</v>
+        <v>105304</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>1306</v>
+        <v>315</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>1315</v>
+        <v>347</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>1309</v>
+        <v>617</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>1319</v>
+        <v>1076</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>1315</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>105307</v>
+        <v>105305</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>105308</v>
+        <v>105306</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>105401</v>
+        <v>105307</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>316</v>
+        <v>1307</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>348</v>
+        <v>1312</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>618</v>
+        <v>1310</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>1077</v>
+        <v>1320</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>348</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>105402</v>
+        <v>105308</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>318</v>
+        <v>1308</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>349</v>
+        <v>1316</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>619</v>
+        <v>1313</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>1078</v>
+        <v>1321</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>349</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>105403</v>
+        <v>105401</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>105404</v>
+        <v>105402</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>105405</v>
+        <v>105403</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>319</v>
+        <v>620</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>105406</v>
+        <v>105404</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>320</v>
+        <v>617</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>105407</v>
+        <v>105405</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>621</v>
+        <v>319</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>105501</v>
+        <v>105406</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>435</v>
+        <v>321</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>441</v>
+        <v>352</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>438</v>
+        <v>320</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>441</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>105502</v>
+        <v>105407</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>436</v>
+        <v>324</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>439</v>
+        <v>621</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>105503</v>
+        <v>105501</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>622</v>
+        <v>438</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>1248</v>
+        <v>1083</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>105504</v>
+        <v>105502</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>693</v>
+        <v>436</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>961</v>
+        <v>440</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>701</v>
+        <v>439</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>1249</v>
+        <v>1084</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>961</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>105505</v>
+        <v>105503</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>969</v>
+        <v>437</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>973</v>
+        <v>448</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>977</v>
+        <v>622</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>973</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>105506</v>
+        <v>105504</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>970</v>
+        <v>693</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>978</v>
+        <v>701</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
     </row>
     <row r="148" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>105507</v>
+        <v>105505</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="149" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>105508</v>
+        <v>105506</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="150" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="A150" s="1">
+        <v>105507</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="151" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>105601</v>
+        <v>105508</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="G151" s="5"/>
+        <v>972</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="152" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
-        <v>105602</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="G152" s="5"/>
+      <c r="A152" s="1"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>105603</v>
+        <v>105601</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
     </row>
     <row r="154" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>105604</v>
+        <v>105602</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>105605</v>
+        <v>105603</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
     </row>
     <row r="156" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>105606</v>
+        <v>105604</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>105607</v>
+        <v>105605</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>105608</v>
+        <v>105606</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>105609</v>
+        <v>105607</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:8" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
+        <v>105608</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>105609</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
         <v>105610</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B162" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="G160" s="5"/>
-    </row>
-    <row r="161" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
         <v>105611</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B163" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C163" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
+    <row r="164" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
         <v>105612</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B164" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C164" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D164" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F164" s="2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
+    <row r="165" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
         <v>105613</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B165" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C165" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
+    <row r="166" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
         <v>105614</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B166" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C166" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D166" s="5" t="s">
         <v>994</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F166" s="2" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
+    <row r="167" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
         <v>105615</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B167" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C167" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E167" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="F167" s="2" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
+    <row r="168" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
         <v>105616</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B168" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="F168" s="2" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
+    <row r="169" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
         <v>105617</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D169" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="F167" s="2" t="s">
+      <c r="F169" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
+    <row r="170" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
         <v>105618</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B170" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D170" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
+    <row r="171" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
         <v>105619</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D171" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E171" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="F169" s="2" t="s">
+      <c r="F171" s="2" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
+    <row r="172" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
         <v>105620</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D172" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E172" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
+    <row r="173" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
         <v>105621</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B173" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
+    <row r="174" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
         <v>105622</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B174" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
+    <row r="175" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
         <v>105623</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B175" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
+    <row r="176" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
         <v>105624</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B176" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E176" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="F176" s="2" t="s">
         <v>860</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>105625</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
-        <v>105626</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>105627</v>
+        <v>105625</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>105628</v>
+        <v>105626</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="179" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>105629</v>
+        <v>105627</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="180" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>105630</v>
+        <v>105628</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>105631</v>
+        <v>105629</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>1011</v>
+        <v>484</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>1009</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>105632</v>
+        <v>105630</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>1012</v>
+        <v>485</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>1010</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>105633</v>
+        <v>105631</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>105634</v>
+        <v>105632</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>105635</v>
+        <v>105633</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>105636</v>
+        <v>105634</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>872</v>
+        <v>489</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>870</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>105637</v>
+        <v>105635</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>873</v>
+        <v>490</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>871</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>105638</v>
+        <v>105636</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>105639</v>
+        <v>105637</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>105640</v>
+        <v>105638</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="191" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>105641</v>
+        <v>105639</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>877</v>
+        <v>494</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>875</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>105642</v>
+        <v>105640</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>878</v>
+        <v>495</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>876</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>105643</v>
+        <v>105641</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>105644</v>
+        <v>105642</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>105645</v>
+        <v>105643</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>105646</v>
+        <v>105644</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>882</v>
+        <v>499</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>880</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>105647</v>
+        <v>105645</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>883</v>
+        <v>500</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>881</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>105648</v>
+        <v>105646</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>105649</v>
+        <v>105647</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
+        <v>105648</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>105649</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
         <v>105650</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B202" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D202" s="5" t="s">
         <v>1030</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="F200" s="2" t="s">
+      <c r="F202" s="2" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C201"/>
-      <c r="D201"/>
-    </row>
-    <row r="202" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="11">
+    <row r="203" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C203"/>
+      <c r="D203"/>
+    </row>
+    <row r="204" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="11">
         <v>200001</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B204" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="C204" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D202" s="12" t="s">
+      <c r="D204" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="E202" s="13" t="s">
+      <c r="E204" s="13" t="s">
         <v>1085</v>
       </c>
-      <c r="F202" s="13" t="s">
+      <c r="F204" s="13" t="s">
         <v>887</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="11">
-        <v>200002</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="D203" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="E203" s="13" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F203" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="11">
-        <v>200003</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D204" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F204" s="13" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
-        <v>200004</v>
+        <v>200002</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>248</v>
+        <v>430</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F205" s="13" t="s">
-        <v>889</v>
+        <v>430</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
-        <v>200005</v>
+        <v>200003</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F206" s="13" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
-        <v>200006</v>
+        <v>200004</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="11">
-        <v>200007</v>
+        <v>200005</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="11">
-        <v>200008</v>
+        <v>200006</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="11">
-        <v>200009</v>
+        <v>200007</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E210" s="13" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="11">
-        <v>200010</v>
+        <v>200008</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="11">
-        <v>200011</v>
+        <v>200009</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="11">
-        <v>200012</v>
+        <v>200010</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F213" s="13" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="11">
-        <v>200013</v>
+        <v>200011</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E214" s="13" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F214" s="13" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="11">
-        <v>200014</v>
+        <v>200012</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>431</v>
+        <v>264</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>431</v>
+        <v>897</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="11">
-        <v>200015</v>
+        <v>200013</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E216" s="13" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="11">
-        <v>200016</v>
+        <v>200014</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E217" s="13" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F217" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="11">
-        <v>200017</v>
+        <v>200015</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F218" s="13" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="11">
-        <v>200018</v>
+        <v>200016</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>274</v>
+        <v>432</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>901</v>
+        <v>432</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="11">
-        <v>200019</v>
+        <v>200017</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E220" s="13" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="11">
-        <v>200020</v>
+        <v>200018</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="11">
-        <v>200021</v>
+        <v>200019</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>697</v>
+        <v>276</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E222" s="13" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>697</v>
+        <v>902</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="11">
-        <v>200022</v>
+        <v>200020</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>698</v>
+        <v>278</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E223" s="13" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>698</v>
+        <v>903</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="11">
-        <v>200023</v>
+        <v>200021</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F224" s="13" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="11">
-        <v>200024</v>
+        <v>200022</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>283</v>
+        <v>698</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F225" s="13" t="s">
-        <v>904</v>
+        <v>698</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="11">
-        <v>200025</v>
+        <v>200023</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>285</v>
+        <v>699</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F226" s="13" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="11">
-        <v>200026</v>
+        <v>200024</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F227" s="13" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="11">
-        <v>200027</v>
+        <v>200025</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F228" s="13" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
-        <v>200028</v>
+        <v>200026</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F229" s="13" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="11">
-        <v>200029</v>
+        <v>200027</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E230" s="13" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F230" s="13" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="11">
-        <v>200030</v>
+        <v>200028</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E231" s="13" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F231" s="13" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
-        <v>200031</v>
+        <v>200029</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F232" s="13" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
-        <v>200032</v>
+        <v>200030</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="F233" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
-        <v>200033</v>
+        <v>200031</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>433</v>
+        <v>297</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F234" s="13" t="s">
-        <v>433</v>
+        <v>911</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="11">
-        <v>200034</v>
+        <v>200032</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E235" s="13" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F235" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="11">
-        <v>200035</v>
+        <v>200033</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>304</v>
+        <v>433</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F236" s="13" t="s">
-        <v>914</v>
+        <v>433</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="11">
-        <v>200036</v>
+        <v>200034</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>434</v>
+        <v>302</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F237" s="13" t="s">
-        <v>434</v>
+        <v>913</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="11">
-        <v>200037</v>
+        <v>200035</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F238" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="11">
-        <v>200038</v>
+        <v>200036</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>309</v>
+        <v>434</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F239" s="13" t="s">
-        <v>916</v>
+        <v>434</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="11">
-        <v>200039</v>
+        <v>200037</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E240" s="13" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F240" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="11">
-        <v>200040</v>
+        <v>200038</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D241" s="14" t="s">
-        <v>662</v>
+        <v>308</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>660</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F241" s="13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="11">
-        <v>200041</v>
+        <v>200039</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C242" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="D242" s="14" t="s">
-        <v>663</v>
+        <v>310</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>661</v>
       </c>
       <c r="E242" s="13" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F242" s="13" t="s">
-        <v>382</v>
+        <v>917</v>
       </c>
     </row>
     <row r="243" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="11">
-        <v>200042</v>
+        <v>200040</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C243" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D243" s="13" t="s">
-        <v>664</v>
+        <v>364</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>662</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F243" s="13" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
-        <v>200043</v>
+        <v>200041</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C244" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D244" s="13" t="s">
-        <v>665</v>
+        <v>365</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>663</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F244" s="13" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="11">
-        <v>200044</v>
+        <v>200042</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>378</v>
+        <v>366</v>
+      </c>
+      <c r="C245" s="14" t="s">
+        <v>376</v>
       </c>
       <c r="D245" s="13" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F245" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="11">
-        <v>200045</v>
+        <v>200043</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E246" s="13" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F246" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="247" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="11">
-        <v>200046</v>
+        <v>200044</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D247" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E247" s="13" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="11">
-        <v>200047</v>
+        <v>200045</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C248" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="D248" s="14" t="s">
-        <v>669</v>
+        <v>369</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D248" s="13" t="s">
+        <v>667</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F248" s="13" t="s">
-        <v>918</v>
+        <v>379</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="11">
-        <v>200048</v>
+        <v>200046</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F249" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="11">
+        <v>200047</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C250" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D250" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="E250" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F250" s="13" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="11">
+        <v>200048</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="E251" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F251" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="11">
         <v>200049</v>
       </c>
-      <c r="B250" s="11" t="s">
+      <c r="B252" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C250" s="14" t="s">
+      <c r="C252" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="D250" s="14" t="s">
+      <c r="D252" s="14" t="s">
         <v>671</v>
       </c>
-      <c r="E250" s="13" t="s">
+      <c r="E252" s="13" t="s">
         <v>1133</v>
       </c>
-      <c r="F250" s="13" t="s">
+      <c r="F252" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="11">
+    <row r="253" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="11">
         <v>200050</v>
       </c>
-      <c r="B251" s="11" t="s">
+      <c r="B253" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C251" s="14" t="s">
+      <c r="C253" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D251" s="14" t="s">
+      <c r="D253" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="E251" s="13" t="s">
+      <c r="E253" s="13" t="s">
         <v>1134</v>
       </c>
-      <c r="F251" s="13" t="s">
+      <c r="F253" s="13" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="11">
+    <row r="254" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="11">
         <v>200051</v>
       </c>
-      <c r="B252" s="11" t="s">
+      <c r="B254" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="C252" s="13" t="s">
+      <c r="C254" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D252" s="13" t="s">
+      <c r="D254" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="E252" s="13" t="s">
+      <c r="E254" s="13" t="s">
         <v>1135</v>
       </c>
-      <c r="F252" s="13" t="s">
+      <c r="F254" s="13" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="11">
+    <row r="255" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="11">
         <v>200052</v>
       </c>
-      <c r="B253" s="11" t="s">
+      <c r="B255" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C253" s="13" t="s">
+      <c r="C255" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="D253" s="13" t="s">
+      <c r="D255" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="E253" s="13" t="s">
+      <c r="E255" s="13" t="s">
         <v>1136</v>
       </c>
-      <c r="F253" s="13" t="s">
+      <c r="F255" s="13" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="11">
-        <v>200053</v>
-      </c>
-      <c r="B254" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C254" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="D254" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="E254" s="13" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F254" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="11">
-        <v>200054</v>
-      </c>
-      <c r="B255" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C255" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="D255" s="13" t="s">
-        <v>676</v>
-      </c>
-      <c r="E255" s="13" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F255" s="13" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="11">
-        <v>200055</v>
+        <v>200053</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D256" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F256" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="11">
-        <v>200056</v>
+        <v>200054</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C257" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D257" s="14" t="s">
-        <v>678</v>
+        <v>396</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D257" s="13" t="s">
+        <v>676</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F257" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="11">
-        <v>200057</v>
+        <v>200055</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D258" s="13" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F258" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="11">
-        <v>200058</v>
+        <v>200056</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>702</v>
+        <v>392</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>919</v>
+        <v>392</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="11">
-        <v>200059</v>
+        <v>200057</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C260" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="D260" s="14" t="s">
-        <v>681</v>
+        <v>399</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D260" s="13" t="s">
+        <v>679</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F260" s="13" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="11">
-        <v>200060</v>
+        <v>200058</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>400</v>
+        <v>404</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>702</v>
       </c>
       <c r="D261" s="14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F261" s="13" t="s">
-        <v>400</v>
+        <v>919</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="11">
-        <v>200061</v>
+        <v>200059</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="D262" s="13" t="s">
-        <v>683</v>
+        <v>405</v>
+      </c>
+      <c r="C262" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D262" s="14" t="s">
+        <v>681</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F262" s="13" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="11">
-        <v>200062</v>
+        <v>200060</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F263" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="11">
-        <v>200063</v>
+        <v>200061</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C264" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="D264" s="14" t="s">
-        <v>678</v>
+        <v>407</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>683</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="F264" s="13" t="s">
-        <v>920</v>
+        <v>401</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11">
-        <v>200064</v>
+        <v>200062</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C265" s="14" t="s">
-        <v>412</v>
+        <v>408</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F265" s="13" t="s">
-        <v>921</v>
+        <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="11">
-        <v>200065</v>
+        <v>200063</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>413</v>
+        <v>685</v>
       </c>
       <c r="D266" s="14" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="F266" s="13" t="s">
-        <v>413</v>
+        <v>920</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="11">
-        <v>200066</v>
+        <v>200064</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D267" s="14" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F267" s="13" t="s">
-        <v>416</v>
+        <v>921</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="11">
-        <v>200067</v>
+        <v>200065</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C268" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
+      </c>
+      <c r="C268" s="14" t="s">
+        <v>413</v>
       </c>
       <c r="D268" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F268" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="11">
-        <v>200068</v>
+        <v>200066</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C269" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D269" s="13" t="s">
-        <v>690</v>
+        <v>417</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D269" s="14" t="s">
+        <v>688</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F269" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="11">
-        <v>200069</v>
+        <v>200067</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C270" s="14" t="s">
-        <v>685</v>
+        <v>418</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>414</v>
       </c>
       <c r="D270" s="14" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="F270" s="13" t="s">
-        <v>920</v>
+        <v>414</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="11">
-        <v>200070</v>
+        <v>200068</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="D271" s="14" t="s">
-        <v>691</v>
+        <v>419</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>690</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F271" s="13" t="s">
-        <v>537</v>
+        <v>415</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="11">
+        <v>200069</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D272" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F272" s="13" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="11">
+        <v>200070</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D273" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F273" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="11">
         <v>200071</v>
       </c>
-      <c r="B272" s="11" t="s">
+      <c r="B274" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="C274" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D272" s="14" t="s">
+      <c r="D274" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="E272" s="13" t="s">
+      <c r="E274" s="13" t="s">
         <v>1153</v>
       </c>
-      <c r="F272" s="13" t="s">
+      <c r="F274" s="13" t="s">
         <v>922</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="6">
-        <v>200072</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="6">
-        <v>200073</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
-        <v>200074</v>
+        <v>200072</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>757</v>
+        <v>712</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
-        <v>200075</v>
+        <v>200073</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>782</v>
+        <v>924</v>
       </c>
     </row>
     <row r="277" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
-        <v>200076</v>
+        <v>200074</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
-        <v>200077</v>
+        <v>200075</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>1158</v>
+        <v>714</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>1322</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>927</v>
+        <v>782</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
-        <v>200078</v>
+        <v>200076</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="280" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
-        <v>200079</v>
+        <v>200077</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6">
-        <v>200080</v>
+        <v>200078</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>782</v>
+        <v>928</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
-        <v>200081</v>
+        <v>200079</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6">
-        <v>200082</v>
+        <v>200080</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="E283" s="10" t="s">
-        <v>1166</v>
+        <v>714</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>1156</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>931</v>
+        <v>782</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="6">
-        <v>200083</v>
+        <v>200081</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="E284" s="10" t="s">
-        <v>1167</v>
+        <v>724</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>1161</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="6">
-        <v>200084</v>
+        <v>200082</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="286" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="6">
-        <v>200085</v>
+        <v>200083</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>719</v>
+        <v>748</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>714</v>
+        <v>753</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>1156</v>
+        <v>1167</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>782</v>
+        <v>932</v>
       </c>
     </row>
     <row r="287" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="6">
+        <v>200084</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="E287" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="6">
+        <v>200085</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="6">
         <v>200086</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B289" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="C287" s="5" t="s">
+      <c r="C289" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="D287" s="5" t="s">
+      <c r="D289" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="E287" s="10" t="s">
+      <c r="E289" s="10" t="s">
         <v>1169</v>
       </c>
-      <c r="F287" s="2" t="s">
+      <c r="F289" s="2" t="s">
         <v>934</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="6">
-        <v>200087</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="D288" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="E288" s="10" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="6">
-        <v>200088</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="D289" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="E289" s="10" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="290" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6">
-        <v>200089</v>
+        <v>200087</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6">
-        <v>200090</v>
+        <v>200088</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>782</v>
+        <v>936</v>
       </c>
     </row>
     <row r="292" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="6">
-        <v>200091</v>
+        <v>200089</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="293" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6">
-        <v>200092</v>
+        <v>200090</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>942</v>
+        <v>714</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
     </row>
     <row r="294" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="6">
-        <v>200093</v>
+        <v>200091</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>770</v>
+        <v>938</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6">
-        <v>200094</v>
+        <v>200092</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E295" s="10" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6">
-        <v>200095</v>
+        <v>200093</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>944</v>
+        <v>758</v>
       </c>
       <c r="E296" s="10" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="297" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6">
-        <v>200096</v>
+        <v>200094</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="298" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="6">
-        <v>200097</v>
+        <v>200095</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="299" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6">
-        <v>200098</v>
+        <v>200096</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="300" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6">
-        <v>200099</v>
+        <v>200097</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>719</v>
+        <v>779</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>714</v>
+        <v>946</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>1156</v>
+        <v>1175</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="301" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6">
-        <v>200100</v>
+        <v>200098</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6">
-        <v>200101</v>
+        <v>200099</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>786</v>
+        <v>719</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>949</v>
+        <v>714</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>1178</v>
+        <v>1156</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6">
-        <v>200102</v>
+        <v>200100</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>809</v>
+        <v>767</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>787</v>
+        <v>948</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
     </row>
     <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="6">
-        <v>200103</v>
+        <v>200101</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6">
-        <v>200104</v>
+        <v>200102</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>951</v>
+        <v>787</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6">
-        <v>200105</v>
+        <v>200103</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6">
-        <v>200106</v>
+        <v>200104</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>788</v>
+        <v>951</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6">
-        <v>200107</v>
+        <v>200105</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="6">
-        <v>200108</v>
+        <v>200106</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="6">
-        <v>200109</v>
+        <v>200107</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A311" s="6">
-        <v>200110</v>
+        <v>200108</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>714</v>
+        <v>789</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>1156</v>
+        <v>1185</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
     </row>
     <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A312" s="6">
-        <v>200111</v>
+        <v>200109</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" s="6">
-        <v>200112</v>
+        <v>200110</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>831</v>
+        <v>719</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>956</v>
+        <v>714</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>1188</v>
+        <v>1156</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>830</v>
+        <v>782</v>
       </c>
     </row>
     <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" s="6">
-        <v>200113</v>
+        <v>200111</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
     </row>
     <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6">
-        <v>200114</v>
+        <v>200112</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
     </row>
     <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" s="6">
-        <v>200115</v>
+        <v>200113</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>719</v>
+        <v>820</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>714</v>
+        <v>957</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>1156</v>
+        <v>1189</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>782</v>
+        <v>819</v>
       </c>
     </row>
     <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6">
-        <v>200116</v>
+        <v>200114</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A318" s="6">
-        <v>200117</v>
+        <v>200115</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>962</v>
+        <v>719</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>967</v>
+        <v>714</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F318" s="5" t="s">
-        <v>962</v>
+        <v>1156</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6">
-        <v>200118</v>
+        <v>200116</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>963</v>
+        <v>824</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F319" s="5" t="s">
-        <v>963</v>
+        <v>1191</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A320" s="6">
+        <v>200117</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="E320" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="6">
+        <v>200118</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="E321" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="6">
         <v>200119</v>
       </c>
-      <c r="B320" s="6" t="s">
+      <c r="B322" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="C320" s="5" t="s">
+      <c r="C322" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="D320" s="5" t="s">
+      <c r="D322" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="E320" s="10" t="s">
+      <c r="E322" s="10" t="s">
         <v>1194</v>
       </c>
-      <c r="F320" s="5" t="s">
+      <c r="F322" s="5" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="332" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="333" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="334" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="335" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="337" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="338" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="339" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -11346,14 +11408,14 @@
     <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="556" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="557" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="558" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="559" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -11419,9 +11481,9 @@
     <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="631" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -11438,12 +11500,8 @@
     <row r="643" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="644" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="645" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="646" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E646"/>
-    </row>
-    <row r="647" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E647"/>
-    </row>
+    <row r="646" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="647" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="648" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E648"/>
     </row>
@@ -11457,12 +11515,18 @@
       <c r="E651"/>
     </row>
     <row r="652" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C652"/>
       <c r="E652"/>
     </row>
     <row r="653" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C653"/>
       <c r="E653"/>
+    </row>
+    <row r="654" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C654"/>
+      <c r="E654"/>
+    </row>
+    <row r="655" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C655"/>
+      <c r="E655"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\dragon-verse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFFB4EB-E936-4195-93A3-8E7339E02866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1301">
   <si>
     <t>int</t>
   </si>
@@ -1168,7 +1170,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>2</t>
@@ -1177,7 +1178,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>匹の虎</t>
@@ -1382,6 +1382,9 @@
     <t>不能触碰到红色</t>
   </si>
   <si>
+    <t>Obby_CheckPoint_001</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -1397,6 +1400,24 @@
     <t>关</t>
   </si>
   <si>
+    <t>Obby_item_001</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>自动寻路</t>
+  </si>
+  <si>
+    <t>Obby_item_002</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
     <t>Bag_001</t>
   </si>
   <si>
@@ -3810,109 +3831,133 @@
   </si>
   <si>
     <t>CurrentRoomId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obby_CheckPoint_001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obby_item_001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动寻路</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Automatic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obby_item_002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Current room id:{0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前房间Id：{0}</t>
+  </si>
+  <si>
+    <t>JumpGameFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch Room Failed! </t>
+  </si>
+  <si>
+    <t>切换房间失败！</t>
+  </si>
+  <si>
+    <t>SwitchRoomBtn</t>
+  </si>
+  <si>
+    <t>Switch room</t>
   </si>
   <si>
     <t>切换房间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch room</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwitchRoomBtn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpRoomText001</t>
+  </si>
+  <si>
+    <t>Switch to a designated room</t>
+  </si>
+  <si>
+    <t>切换至指定房间</t>
+  </si>
+  <si>
+    <t>JumpRoomText002</t>
+  </si>
+  <si>
+    <t>Please enter the room ID</t>
   </si>
   <si>
     <t>请输入房间id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchRoomConfirm</t>
+  </si>
+  <si>
+    <t>Confirm</t>
   </si>
   <si>
     <t>确定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please enter the room ID</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwitchRoomConfirm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpGameFailed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpRoomText001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpRoomText002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch to a designated room</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换至指定房间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换房间失败！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch Room Failed! </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前房间Id：{0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RainbowText1</t>
+  </si>
+  <si>
+    <t>You Win！</t>
+  </si>
+  <si>
+    <t>你赢了！</t>
+  </si>
+  <si>
+    <t>RainbowText2</t>
+  </si>
+  <si>
+    <t>Game Over</t>
+  </si>
+  <si>
+    <t>游戏结束</t>
+  </si>
+  <si>
+    <t>RainbowText3</t>
+  </si>
+  <si>
+    <t>Level Count：{0}</t>
+  </si>
+  <si>
+    <t>关卡计数：{0}</t>
+  </si>
+  <si>
+    <t>RainbowText4</t>
+  </si>
+  <si>
+    <t>Star Count：{0}</t>
+  </si>
+  <si>
+    <t>获得星星：{0}</t>
+  </si>
+  <si>
+    <t>RainbowText5</t>
+  </si>
+  <si>
+    <t>Time：{0}</t>
+  </si>
+  <si>
+    <t>时间：{0}</t>
+  </si>
+  <si>
+    <t>RainbowText6</t>
+  </si>
+  <si>
+    <t>Total Star   {0}</t>
+  </si>
+  <si>
+    <t>星星总数   {0}</t>
+  </si>
+  <si>
+    <t>RainbowText7</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>返回</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3923,29 +3968,171 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3958,8 +4145,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3967,9 +4340,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4014,69 +4629,116 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -4090,9 +4752,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4141,7 +4800,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4174,26 +4833,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4226,23 +4868,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4384,24 +5009,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H657"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F334" sqref="F334"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.625" customWidth="1"/>
@@ -4409,7 +5029,7 @@
     <col min="5" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4429,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4449,7 +5069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4469,7 +5089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -4487,7 +5107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4507,7 +5127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4527,7 +5147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4547,7 +5167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4567,7 +5187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4587,7 +5207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4607,7 +5227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4627,7 +5247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4647,7 +5267,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4667,7 +5287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4687,7 +5307,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" s="2" customFormat="1" spans="1:6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4707,7 +5327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4727,7 +5347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" s="2" customFormat="1" spans="1:6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4747,7 +5367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4767,7 +5387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="2" customFormat="1" spans="1:6">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4787,7 +5407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4807,7 +5427,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="2" customFormat="1" spans="1:6">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4827,7 +5447,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4847,7 +5467,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" s="2" customFormat="1" spans="1:6">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4867,7 +5487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4887,7 +5507,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="2" customFormat="1" spans="1:6">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4907,7 +5527,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -4927,7 +5547,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="2" customFormat="1" spans="1:6">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -4947,7 +5567,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -4967,7 +5587,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" s="2" customFormat="1" spans="1:6">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -4987,7 +5607,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -5007,7 +5627,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="2" customFormat="1" spans="1:6">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5027,7 +5647,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5047,7 +5667,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="2" customFormat="1" spans="1:6">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -5067,7 +5687,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -5087,7 +5707,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" s="2" customFormat="1" spans="1:6">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -5107,7 +5727,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -5127,7 +5747,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="2" customFormat="1" spans="1:6">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -5147,7 +5767,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -5167,7 +5787,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="2" customFormat="1" spans="1:6">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -5187,7 +5807,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -5207,7 +5827,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" s="2" customFormat="1" spans="1:6">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -5227,7 +5847,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -5247,7 +5867,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="2" customFormat="1" spans="1:6">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -5267,7 +5887,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -5287,7 +5907,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="2" customFormat="1" spans="1:6">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -5307,7 +5927,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -5327,7 +5947,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" s="2" customFormat="1" spans="1:6">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -5347,7 +5967,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -5367,7 +5987,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="2" customFormat="1" spans="1:6">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -5387,7 +6007,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -5407,11 +6027,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" s="2" customFormat="1" spans="1:2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="1">
         <v>100101</v>
       </c>
@@ -5431,7 +6051,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" s="2" customFormat="1" spans="1:6">
       <c r="A53" s="1">
         <v>100102</v>
       </c>
@@ -5451,7 +6071,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="1">
         <v>100103</v>
       </c>
@@ -5471,7 +6091,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" s="2" customFormat="1" spans="1:6">
       <c r="A55" s="1">
         <v>100104</v>
       </c>
@@ -5491,7 +6111,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="1">
         <v>100105</v>
       </c>
@@ -5511,7 +6131,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" s="2" customFormat="1" spans="1:6">
       <c r="A57" s="1">
         <v>100106</v>
       </c>
@@ -5531,7 +6151,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="1">
         <v>100107</v>
       </c>
@@ -5551,7 +6171,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" s="2" customFormat="1" spans="1:6">
       <c r="A59" s="1">
         <v>100108</v>
       </c>
@@ -5571,7 +6191,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="1">
         <v>100109</v>
       </c>
@@ -5591,7 +6211,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" s="2" customFormat="1" spans="1:6">
       <c r="A61" s="1">
         <v>100110</v>
       </c>
@@ -5611,7 +6231,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="1">
         <v>100111</v>
       </c>
@@ -5631,7 +6251,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" s="2" customFormat="1" spans="1:6">
       <c r="A63" s="1">
         <v>100112</v>
       </c>
@@ -5651,7 +6271,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="1">
         <v>100113</v>
       </c>
@@ -5671,7 +6291,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" s="2" customFormat="1" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -5679,7 +6299,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="1">
         <v>100201</v>
       </c>
@@ -5699,7 +6319,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" s="2" customFormat="1" spans="1:6">
       <c r="A67" s="1">
         <v>100202</v>
       </c>
@@ -5719,7 +6339,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="1">
         <v>100203</v>
       </c>
@@ -5739,7 +6359,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" s="2" customFormat="1" spans="1:6">
       <c r="A69" s="1">
         <v>100204</v>
       </c>
@@ -5759,7 +6379,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="1">
         <v>100205</v>
       </c>
@@ -5779,7 +6399,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" s="2" customFormat="1" spans="1:6">
       <c r="A71" s="1">
         <v>100206</v>
       </c>
@@ -5799,7 +6419,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -5807,7 +6427,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" s="2" customFormat="1" spans="1:6">
       <c r="A73" s="1">
         <v>101001</v>
       </c>
@@ -5827,7 +6447,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="1">
         <v>101002</v>
       </c>
@@ -5847,11 +6467,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" s="2" customFormat="1" spans="1:2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A76" s="5">
         <v>102129</v>
       </c>
@@ -5871,7 +6491,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A77" s="5">
         <v>102130</v>
       </c>
@@ -5891,7 +6511,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A78" s="5">
         <v>102131</v>
       </c>
@@ -5911,7 +6531,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A79" s="5">
         <v>102132</v>
       </c>
@@ -5931,7 +6551,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A80" s="5">
         <v>102133</v>
       </c>
@@ -5951,7 +6571,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A81" s="5">
         <v>102134</v>
       </c>
@@ -5971,7 +6591,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A82" s="5">
         <v>102135</v>
       </c>
@@ -5991,7 +6611,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A83" s="5">
         <v>102136</v>
       </c>
@@ -6011,7 +6631,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A84" s="5">
         <v>102137</v>
       </c>
@@ -6031,7 +6651,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A85" s="5">
         <v>102138</v>
       </c>
@@ -6051,7 +6671,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A86" s="5">
         <v>102139</v>
       </c>
@@ -6071,7 +6691,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A87" s="5">
         <v>102140</v>
       </c>
@@ -6091,7 +6711,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A88" s="5">
         <v>102141</v>
       </c>
@@ -6111,7 +6731,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A89" s="5">
         <v>102142</v>
       </c>
@@ -6131,7 +6751,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A90" s="5">
         <v>102143</v>
       </c>
@@ -6151,7 +6771,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A91" s="5">
         <v>102144</v>
       </c>
@@ -6171,7 +6791,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A92" s="5">
         <v>102145</v>
       </c>
@@ -6191,7 +6811,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A93" s="5">
         <v>102146</v>
       </c>
@@ -6211,7 +6831,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A94" s="5">
         <v>102147</v>
       </c>
@@ -6231,7 +6851,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A95" s="5">
         <v>102148</v>
       </c>
@@ -6251,7 +6871,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A96" s="5">
         <v>102149</v>
       </c>
@@ -6271,7 +6891,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A97" s="5">
         <v>102150</v>
       </c>
@@ -6291,7 +6911,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A98" s="5">
         <v>102151</v>
       </c>
@@ -6311,7 +6931,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A99" s="5">
         <v>102152</v>
       </c>
@@ -6331,7 +6951,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A100" s="5">
         <v>102153</v>
       </c>
@@ -6351,7 +6971,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A101" s="5">
         <v>102154</v>
       </c>
@@ -6371,7 +6991,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A102" s="5">
         <v>102155</v>
       </c>
@@ -6391,7 +7011,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A103" s="5">
         <v>102156</v>
       </c>
@@ -6411,7 +7031,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A104" s="5">
         <v>102157</v>
       </c>
@@ -6431,7 +7051,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A105" s="1">
         <v>102158</v>
       </c>
@@ -6451,7 +7071,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A106" s="5">
         <v>102159</v>
       </c>
@@ -6471,7 +7091,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -6479,7 +7099,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A108" s="5">
         <v>103001</v>
       </c>
@@ -6499,7 +7119,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A109" s="5">
         <v>103002</v>
       </c>
@@ -6519,4281 +7139,4281 @@
         <v>444</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A110" s="5">
         <v>103003</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1256</v>
+        <v>446</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D110" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="F110" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A111" s="5">
         <v>103004</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="F111" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A112" s="5">
         <v>103005</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1257</v>
+        <v>452</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>1260</v>
+        <v>453</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1258</v>
+        <v>454</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>1260</v>
+        <v>453</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A113" s="5">
         <v>103006</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1262</v>
+        <v>455</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>1261</v>
+        <v>456</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1259</v>
+        <v>457</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1261</v>
+        <v>456</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A115" s="1">
         <v>105001</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A116" s="1">
         <v>105002</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A117" s="1">
         <v>105003</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A118" s="1">
         <v>105004</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A119" s="1">
         <v>105005</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A120" s="1">
         <v>105006</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A121" s="1">
         <v>105051</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A122" s="1">
         <v>105101</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A123" s="1">
         <v>105102</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A124" s="1">
         <v>105103</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A125" s="1">
         <v>105201</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A126" s="1">
         <v>105202</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="127" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A127" s="1">
         <v>105203</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A128" s="1">
         <v>105204</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="129" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A129" s="1">
         <v>105205</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="130" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A130" s="1">
         <v>105206</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A131" s="1">
         <v>105301</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="132" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A132" s="1">
         <v>105302</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A133" s="1">
         <v>105303</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="134" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A134" s="1">
         <v>105304</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="135" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A135" s="1">
         <v>105305</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="136" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A136" s="1">
         <v>105306</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A137" s="1">
         <v>105307</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A138" s="1">
         <v>105308</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="139" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A139" s="1">
         <v>105401</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="140" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A140" s="1">
         <v>105402</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="141" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A141" s="1">
         <v>105403</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="142" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A142" s="1">
         <v>105404</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="143" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A143" s="1">
         <v>105405</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="144" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A144" s="1">
         <v>105406</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="145" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A145" s="1">
         <v>105407</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="146" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A146" s="1">
         <v>105501</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="147" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A147" s="1">
         <v>105502</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="148" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A148" s="1">
         <v>105503</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="149" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A149" s="1">
         <v>105504</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="150" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A150" s="1">
         <v>105505</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="151" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A151" s="1">
         <v>105506</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="152" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A152" s="1">
         <v>105507</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="153" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A153" s="1">
         <v>105508</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="154" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A155" s="1">
         <v>105601</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A156" s="1">
         <v>105602</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A157" s="1">
         <v>105603</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A158" s="1">
         <v>105604</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A159" s="1">
         <v>105605</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A160" s="1">
         <v>105606</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A161" s="1">
         <v>105607</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A162" s="1">
         <v>105608</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A163" s="1">
         <v>105609</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A164" s="1">
         <v>105610</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A165" s="1">
         <v>105611</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="166" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A166" s="1">
         <v>105612</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="167" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A167" s="1">
         <v>105613</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="168" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A168" s="1">
         <v>105614</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="169" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A169" s="1">
         <v>105615</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="170" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A170" s="1">
         <v>105616</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="171" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A171" s="1">
         <v>105617</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="172" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A172" s="1">
         <v>105618</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="173" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A173" s="1">
         <v>105619</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="174" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A174" s="1">
         <v>105620</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="175" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A175" s="1">
         <v>105621</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="176" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A176" s="1">
         <v>105622</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="177" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A177" s="1">
         <v>105623</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="178" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A178" s="1">
         <v>105624</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="179" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A179" s="1">
         <v>105625</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="180" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A180" s="1">
         <v>105626</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="181" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A181" s="1">
         <v>105627</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="182" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A182" s="1">
         <v>105628</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="183" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A183" s="1">
         <v>105629</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="184" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A184" s="1">
         <v>105630</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="185" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A185" s="1">
         <v>105631</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="186" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A186" s="1">
         <v>105632</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="187" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A187" s="1">
         <v>105633</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="188" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A188" s="1">
         <v>105634</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="189" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A189" s="1">
         <v>105635</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="190" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A190" s="1">
         <v>105636</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="191" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A191" s="1">
         <v>105637</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="192" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A192" s="1">
         <v>105638</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="193" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A193" s="1">
         <v>105639</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="194" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A194" s="1">
         <v>105640</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="195" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A195" s="1">
         <v>105641</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="196" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A196" s="1">
         <v>105642</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="197" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A197" s="1">
         <v>105643</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="198" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A198" s="1">
         <v>105644</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="199" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A199" s="1">
         <v>105645</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="200" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A200" s="1">
         <v>105646</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="201" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A201" s="1">
         <v>105647</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="202" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A202" s="1">
         <v>105648</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="203" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A203" s="1">
         <v>105649</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="204" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A204" s="1">
         <v>105650</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="205" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="206" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A206" s="9">
         <v>200001</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="207" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A207" s="9">
         <v>200002</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="208" s="2" customFormat="1" spans="1:6">
       <c r="A208" s="9">
         <v>200003</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="209" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A209" s="9">
         <v>200004</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="210" s="2" customFormat="1" spans="1:6">
       <c r="A210" s="9">
         <v>200005</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="211" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A211" s="9">
         <v>200006</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="F211" s="11" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="212" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A212" s="9">
         <v>200007</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="213" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A213" s="9">
         <v>200008</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="214" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A214" s="9">
         <v>200009</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="215" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A215" s="9">
         <v>200010</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="F215" s="11" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="216" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A216" s="9">
         <v>200011</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="217" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A217" s="9">
         <v>200012</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="F217" s="11" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="218" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A218" s="9">
         <v>200013</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="F218" s="11" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="219" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A219" s="9">
         <v>200014</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="220" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A220" s="9">
         <v>200015</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="221" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A221" s="9">
         <v>200016</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="222" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A222" s="9">
         <v>200017</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="223" s="2" customFormat="1" spans="1:6">
       <c r="A223" s="9">
         <v>200018</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="224" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A224" s="9">
         <v>200019</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="225" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A225" s="9">
         <v>200020</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="226" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A226" s="9">
         <v>200021</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="227" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A227" s="9">
         <v>200022</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="228" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A228" s="9">
         <v>200023</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="229" s="2" customFormat="1" spans="1:6">
       <c r="A229" s="9">
         <v>200024</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="230" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A230" s="9">
         <v>200025</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="231" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A231" s="9">
         <v>200026</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="232" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A232" s="9">
         <v>200027</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="233" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A233" s="9">
         <v>200028</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="234" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A234" s="9">
         <v>200029</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="235" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A235" s="9">
         <v>200030</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="236" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A236" s="9">
         <v>200031</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="237" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A237" s="9">
         <v>200032</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="238" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A238" s="9">
         <v>200033</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="239" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A239" s="9">
         <v>200034</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="240" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A240" s="9">
         <v>200035</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="241" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A241" s="9">
         <v>200036</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="242" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A242" s="9">
         <v>200037</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="243" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A243" s="9">
         <v>200038</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="244" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A244" s="9">
         <v>200039</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="245" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A245" s="9">
         <v>200040</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="246" s="2" customFormat="1" spans="1:6">
       <c r="A246" s="9">
         <v>200041</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="247" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A247" s="9">
         <v>200042</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="248" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A248" s="9">
         <v>200043</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="249" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A249" s="9">
         <v>200044</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="250" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A250" s="9">
         <v>200045</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="251" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A251" s="9">
         <v>200046</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="252" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A252" s="9">
         <v>200047</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="253" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A253" s="9">
         <v>200048</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="254" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A254" s="9">
         <v>200049</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="255" s="2" customFormat="1" spans="1:6">
       <c r="A255" s="9">
         <v>200050</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="256" s="2" customFormat="1" spans="1:6">
       <c r="A256" s="9">
         <v>200051</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="257" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A257" s="9">
         <v>200052</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="258" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A258" s="9">
         <v>200053</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="F258" s="11" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="259" s="2" customFormat="1" spans="1:6">
       <c r="A259" s="9">
         <v>200054</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="260" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A260" s="9">
         <v>200055</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="261" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A261" s="9">
         <v>200056</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="262" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A262" s="9">
         <v>200057</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="263" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A263" s="9">
         <v>200058</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="264" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A264" s="9">
         <v>200059</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="265" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A265" s="9">
         <v>200060</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="266" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A266" s="9">
         <v>200061</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="F266" s="11" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="267" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A267" s="9">
         <v>200062</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="268" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A268" s="9">
         <v>200063</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>1051</v>
+        <v>1058</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="269" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A269" s="9">
         <v>200064</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="E269" s="11" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="270" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A270" s="9">
         <v>200065</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="271" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A271" s="9">
         <v>200066</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="272" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A272" s="9">
         <v>200067</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="F272" s="11" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="273" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A273" s="9">
         <v>200068</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="F273" s="11" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="274" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A274" s="9">
         <v>200069</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="275" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A275" s="9">
         <v>200070</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="276" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A276" s="9">
         <v>200071</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="277" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A277" s="4">
         <v>200072</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="278" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A278" s="4">
         <v>200073</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="279" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A279" s="4">
         <v>200074</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="280" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A280" s="4">
         <v>200075</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="281" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A281" s="4">
         <v>200076</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="282" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A282" s="4">
         <v>200077</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="283" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A283" s="4">
         <v>200078</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="284" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A284" s="4">
         <v>200079</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="285" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A285" s="4">
         <v>200080</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>1114</v>
+        <v>1121</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="286" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A286" s="4">
         <v>200081</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1115</v>
+        <v>1122</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>1116</v>
+        <v>1123</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="287" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A287" s="4">
         <v>200082</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="E287" s="13" t="s">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="288" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A288" s="4">
         <v>200083</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="289" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A289" s="4">
         <v>200084</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>1128</v>
+        <v>1135</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="E289" s="13" t="s">
-        <v>1130</v>
+        <v>1137</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="290" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A290" s="4">
         <v>200085</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>1131</v>
+        <v>1138</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="E290" s="13" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="291" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A291" s="4">
         <v>200086</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="E291" s="13" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="292" s="2" customFormat="1" spans="1:6">
       <c r="A292" s="4">
         <v>200087</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="E292" s="13" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="293" s="2" customFormat="1" spans="1:6">
       <c r="A293" s="4">
         <v>200088</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>1141</v>
+        <v>1148</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>1142</v>
+        <v>1149</v>
       </c>
       <c r="E293" s="13" t="s">
-        <v>1143</v>
+        <v>1150</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="294" s="2" customFormat="1" spans="1:6">
       <c r="A294" s="4">
         <v>200089</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>1145</v>
+        <v>1152</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="E294" s="13" t="s">
-        <v>1147</v>
+        <v>1154</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="295" s="2" customFormat="1" spans="1:6">
       <c r="A295" s="4">
         <v>200090</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>1148</v>
+        <v>1155</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="E295" s="13" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="296" s="2" customFormat="1" spans="1:6">
       <c r="A296" s="4">
         <v>200091</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>1149</v>
+        <v>1156</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1150</v>
+        <v>1157</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>1151</v>
+        <v>1158</v>
       </c>
       <c r="E296" s="13" t="s">
-        <v>1152</v>
+        <v>1159</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="297" s="2" customFormat="1" spans="1:6">
       <c r="A297" s="4">
         <v>200092</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1153</v>
+        <v>1160</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1154</v>
+        <v>1161</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>1155</v>
+        <v>1162</v>
       </c>
       <c r="E297" s="13" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="298" s="2" customFormat="1" spans="1:6">
       <c r="A298" s="4">
         <v>200093</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
       <c r="E298" s="13" t="s">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="299" s="2" customFormat="1" spans="1:6">
       <c r="A299" s="4">
         <v>200094</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>1163</v>
+        <v>1170</v>
       </c>
       <c r="E299" s="13" t="s">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="300" s="2" customFormat="1" spans="1:6">
       <c r="A300" s="4">
         <v>200095</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>1165</v>
+        <v>1172</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>1167</v>
+        <v>1174</v>
       </c>
       <c r="E300" s="13" t="s">
-        <v>1168</v>
+        <v>1175</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="301" s="2" customFormat="1" spans="1:6">
       <c r="A301" s="4">
         <v>200096</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>1169</v>
+        <v>1176</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="E301" s="13" t="s">
-        <v>1172</v>
+        <v>1179</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="302" s="2" customFormat="1" spans="1:6">
       <c r="A302" s="4">
         <v>200097</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>1173</v>
+        <v>1180</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="E302" s="13" t="s">
-        <v>1176</v>
+        <v>1183</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="303" s="2" customFormat="1" spans="1:6">
       <c r="A303" s="4">
         <v>200098</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>1178</v>
+        <v>1185</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>1179</v>
+        <v>1186</v>
       </c>
       <c r="E303" s="13" t="s">
-        <v>1180</v>
+        <v>1187</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="304" s="2" customFormat="1" spans="1:6">
       <c r="A304" s="4">
         <v>200099</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1181</v>
+        <v>1188</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="305" s="2" customFormat="1" spans="1:6">
       <c r="A305" s="4">
         <v>200100</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>1183</v>
+        <v>1190</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="E305" s="13" t="s">
-        <v>1185</v>
+        <v>1192</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="306" s="2" customFormat="1" spans="1:6">
       <c r="A306" s="4">
         <v>200101</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>1186</v>
+        <v>1193</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>1187</v>
+        <v>1194</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>1188</v>
+        <v>1195</v>
       </c>
       <c r="E306" s="13" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="307" s="2" customFormat="1" spans="1:6">
       <c r="A307" s="4">
         <v>200102</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>1191</v>
+        <v>1198</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>1192</v>
+        <v>1199</v>
       </c>
       <c r="E307" s="13" t="s">
-        <v>1193</v>
+        <v>1200</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="308" s="2" customFormat="1" spans="1:6">
       <c r="A308" s="4">
         <v>200103</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>1194</v>
+        <v>1201</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>1195</v>
+        <v>1202</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>1197</v>
+        <v>1204</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="309" s="2" customFormat="1" spans="1:6">
       <c r="A309" s="4">
         <v>200104</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="E309" s="13" t="s">
-        <v>1201</v>
+        <v>1208</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="310" s="2" customFormat="1" spans="1:6">
       <c r="A310" s="4">
         <v>200105</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>1203</v>
+        <v>1210</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>1204</v>
+        <v>1211</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>1205</v>
+        <v>1212</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="311" s="2" customFormat="1" spans="1:6">
       <c r="A311" s="4">
         <v>200106</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>1206</v>
+        <v>1213</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>1208</v>
+        <v>1215</v>
       </c>
       <c r="E311" s="13" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="312" s="2" customFormat="1" spans="1:6">
       <c r="A312" s="4">
         <v>200107</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>1211</v>
+        <v>1218</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>1212</v>
+        <v>1219</v>
       </c>
       <c r="E312" s="13" t="s">
-        <v>1213</v>
+        <v>1220</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="313" s="2" customFormat="1" spans="1:6">
       <c r="A313" s="4">
         <v>200108</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1214</v>
+        <v>1221</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>1215</v>
+        <v>1222</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="E313" s="13" t="s">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="314" s="2" customFormat="1" spans="1:6">
       <c r="A314" s="4">
         <v>200109</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1217</v>
+        <v>1224</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>1218</v>
+        <v>1225</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>1219</v>
+        <v>1226</v>
       </c>
       <c r="E314" s="13" t="s">
-        <v>1220</v>
+        <v>1227</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="315" s="2" customFormat="1" spans="1:6">
       <c r="A315" s="4">
         <v>200110</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>1221</v>
+        <v>1228</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="E315" s="13" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="316" s="2" customFormat="1" spans="1:6">
       <c r="A316" s="4">
         <v>200111</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1222</v>
+        <v>1229</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>1223</v>
+        <v>1230</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>1224</v>
+        <v>1231</v>
       </c>
       <c r="E316" s="13" t="s">
-        <v>1225</v>
+        <v>1232</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="317" s="2" customFormat="1" spans="1:6">
       <c r="A317" s="4">
         <v>200112</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1226</v>
+        <v>1233</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>1227</v>
+        <v>1234</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>1228</v>
+        <v>1235</v>
       </c>
       <c r="E317" s="13" t="s">
-        <v>1229</v>
+        <v>1236</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="318" s="2" customFormat="1" spans="1:6">
       <c r="A318" s="4">
         <v>200113</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>1230</v>
+        <v>1237</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>1231</v>
+        <v>1238</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="E318" s="13" t="s">
-        <v>1233</v>
+        <v>1240</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="319" s="2" customFormat="1" spans="1:6">
       <c r="A319" s="4">
         <v>200114</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1234</v>
+        <v>1241</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>1236</v>
+        <v>1243</v>
       </c>
       <c r="E319" s="13" t="s">
-        <v>1237</v>
+        <v>1244</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="320" s="2" customFormat="1" spans="1:6">
       <c r="A320" s="4">
         <v>200115</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1238</v>
+        <v>1245</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="E320" s="13" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="321" s="2" customFormat="1" spans="1:6">
       <c r="A321" s="4">
         <v>200116</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>1240</v>
+        <v>1247</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>1241</v>
+        <v>1248</v>
       </c>
       <c r="E321" s="13" t="s">
-        <v>1242</v>
+        <v>1249</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="322" s="2" customFormat="1" spans="1:6">
       <c r="A322" s="4">
         <v>200117</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1243</v>
+        <v>1250</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>1244</v>
+        <v>1251</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>1245</v>
+        <v>1252</v>
       </c>
       <c r="E322" s="13" t="s">
-        <v>1246</v>
+        <v>1253</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="323" s="2" customFormat="1" spans="1:6">
       <c r="A323" s="4">
         <v>200118</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1247</v>
+        <v>1254</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>1249</v>
+        <v>1256</v>
       </c>
       <c r="E323" s="13" t="s">
-        <v>1250</v>
+        <v>1257</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="324" s="2" customFormat="1" spans="1:6">
       <c r="A324" s="4">
         <v>200119</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1251</v>
+        <v>1258</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
       <c r="E324" s="13" t="s">
-        <v>1254</v>
+        <v>1261</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="325" s="2" customFormat="1"/>
+    <row r="326" s="2" customFormat="1" spans="1:6">
       <c r="A326" s="2">
         <v>300000</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="C326" s="14" t="s">
         <v>1263</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="E326" s="14" t="s">
         <v>1263</v>
@@ -10802,67 +11422,67 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" s="2" customFormat="1" spans="1:6">
       <c r="A327" s="2">
         <v>300001</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="E327" s="14" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="328" s="2" customFormat="1" spans="1:6">
       <c r="A328" s="2">
         <v>300002</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="329" s="2" customFormat="1" spans="1:6">
       <c r="A329" s="2">
         <v>300003</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D329" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="C329" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>1276</v>
-      </c>
       <c r="E329" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="330" s="2" customFormat="1" spans="1:6">
       <c r="A330" s="2">
         <v>300004</v>
       </c>
@@ -10870,367 +11490,470 @@
         <v>1274</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>1267</v>
+        <v>1276</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="331" s="2" customFormat="1" spans="1:6">
       <c r="A331" s="2">
         <v>300005</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>1268</v>
+        <v>1279</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="333" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="337" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="338" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="339" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="340" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="342" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="343" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="344" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="345" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="346" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="347" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="348" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="349" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="350" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="351" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="352" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="353" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="354" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="355" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="356" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="357" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="358" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="359" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="360" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="361" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="362" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="363" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="364" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="365" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="366" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="367" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="368" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="567" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="568" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="569" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="570" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="571" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="572" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="573" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="574" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="575" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="576" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="577" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="578" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="579" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="580" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="581" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="582" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="583" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="584" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="585" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="586" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="587" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="592" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="593" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="594" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="595" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="596" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="597" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="598" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="599" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="600" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="601" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="602" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="603" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="604" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="605" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="606" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="607" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="608" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="609" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="610" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="611" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="646" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="647" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="648" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="649" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="650" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="651" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="652" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="653" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="654" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="655" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="656" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="657" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="332" s="2" customFormat="1" spans="1:4">
+      <c r="A332" s="2">
+        <v>300006</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="333" s="2" customFormat="1" spans="1:4">
+      <c r="A333" s="2">
+        <v>300007</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="334" s="2" customFormat="1" spans="1:4">
+      <c r="A334" s="2">
+        <v>300008</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="335" s="2" customFormat="1" spans="1:4">
+      <c r="A335" s="2">
+        <v>300009</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="336" s="2" customFormat="1" spans="1:4">
+      <c r="A336" s="2">
+        <v>300010</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="337" s="2" customFormat="1" spans="1:4">
+      <c r="A337" s="2">
+        <v>300011</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="338" s="2" customFormat="1" spans="1:4">
+      <c r="A338" s="2">
+        <v>300012</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="339" s="2" customFormat="1"/>
+    <row r="340" s="2" customFormat="1"/>
+    <row r="341" s="2" customFormat="1"/>
+    <row r="342" s="2" customFormat="1"/>
+    <row r="343" s="2" customFormat="1"/>
+    <row r="344" s="2" customFormat="1"/>
+    <row r="345" s="2" customFormat="1"/>
+    <row r="346" s="2" customFormat="1"/>
+    <row r="347" s="2" customFormat="1"/>
+    <row r="348" s="2" customFormat="1"/>
+    <row r="349" s="2" customFormat="1"/>
+    <row r="350" s="2" customFormat="1"/>
+    <row r="351" s="2" customFormat="1"/>
+    <row r="352" s="2" customFormat="1"/>
+    <row r="353" s="2" customFormat="1"/>
+    <row r="354" s="2" customFormat="1"/>
+    <row r="355" s="2" customFormat="1"/>
+    <row r="356" s="2" customFormat="1"/>
+    <row r="357" s="2" customFormat="1"/>
+    <row r="358" s="2" customFormat="1"/>
+    <row r="359" s="2" customFormat="1"/>
+    <row r="360" s="2" customFormat="1"/>
+    <row r="361" s="2" customFormat="1"/>
+    <row r="362" s="2" customFormat="1"/>
+    <row r="363" s="2" customFormat="1"/>
+    <row r="364" s="2" customFormat="1"/>
+    <row r="365" s="2" customFormat="1"/>
+    <row r="366" s="2" customFormat="1"/>
+    <row r="367" s="2" customFormat="1"/>
+    <row r="368" s="2" customFormat="1"/>
+    <row r="369" s="2" customFormat="1"/>
+    <row r="370" s="2" customFormat="1"/>
+    <row r="371" s="2" customFormat="1"/>
+    <row r="372" s="2" customFormat="1"/>
+    <row r="373" s="2" customFormat="1"/>
+    <row r="374" s="2" customFormat="1"/>
+    <row r="375" s="2" customFormat="1"/>
+    <row r="376" s="2" customFormat="1"/>
+    <row r="377" s="2" customFormat="1"/>
+    <row r="378" s="2" customFormat="1"/>
+    <row r="379" s="2" customFormat="1"/>
+    <row r="380" s="2" customFormat="1"/>
+    <row r="381" s="2" customFormat="1"/>
+    <row r="382" s="2" customFormat="1"/>
+    <row r="383" s="2" customFormat="1"/>
+    <row r="384" s="2" customFormat="1"/>
+    <row r="385" s="2" customFormat="1"/>
+    <row r="386" s="2" customFormat="1"/>
+    <row r="387" s="2" customFormat="1"/>
+    <row r="388" s="2" customFormat="1"/>
+    <row r="389" s="2" customFormat="1"/>
+    <row r="390" s="2" customFormat="1"/>
+    <row r="391" s="2" customFormat="1"/>
+    <row r="392" s="2" customFormat="1"/>
+    <row r="393" s="2" customFormat="1"/>
+    <row r="394" s="2" customFormat="1"/>
+    <row r="395" s="2" customFormat="1"/>
+    <row r="396" s="2" customFormat="1"/>
+    <row r="397" s="2" customFormat="1"/>
+    <row r="398" s="2" customFormat="1"/>
+    <row r="399" s="2" customFormat="1"/>
+    <row r="400" s="2" customFormat="1"/>
+    <row r="401" s="2" customFormat="1"/>
+    <row r="402" s="2" customFormat="1"/>
+    <row r="403" s="2" customFormat="1"/>
+    <row r="404" s="2" customFormat="1"/>
+    <row r="405" s="2" customFormat="1"/>
+    <row r="406" s="2" customFormat="1"/>
+    <row r="407" s="2" customFormat="1"/>
+    <row r="408" s="2" customFormat="1"/>
+    <row r="409" s="2" customFormat="1"/>
+    <row r="410" s="2" customFormat="1"/>
+    <row r="411" s="2" customFormat="1"/>
+    <row r="412" s="2" customFormat="1"/>
+    <row r="413" s="2" customFormat="1"/>
+    <row r="414" s="2" customFormat="1"/>
+    <row r="415" s="2" customFormat="1"/>
+    <row r="416" s="2" customFormat="1"/>
+    <row r="417" s="2" customFormat="1"/>
+    <row r="418" s="2" customFormat="1"/>
+    <row r="419" s="2" customFormat="1"/>
+    <row r="420" s="2" customFormat="1"/>
+    <row r="421" s="2" customFormat="1"/>
+    <row r="422" s="2" customFormat="1"/>
+    <row r="423" s="2" customFormat="1"/>
+    <row r="424" s="2" customFormat="1"/>
+    <row r="425" s="2" customFormat="1"/>
+    <row r="426" s="2" customFormat="1"/>
+    <row r="427" s="2" customFormat="1"/>
+    <row r="428" s="2" customFormat="1"/>
+    <row r="429" s="2" customFormat="1"/>
+    <row r="430" s="2" customFormat="1"/>
+    <row r="431" s="2" customFormat="1"/>
+    <row r="432" s="2" customFormat="1"/>
+    <row r="433" s="2" customFormat="1"/>
+    <row r="434" s="2" customFormat="1"/>
+    <row r="435" s="2" customFormat="1"/>
+    <row r="436" s="2" customFormat="1"/>
+    <row r="437" s="2" customFormat="1"/>
+    <row r="438" s="2" customFormat="1"/>
+    <row r="439" s="2" customFormat="1"/>
+    <row r="440" s="2" customFormat="1"/>
+    <row r="441" s="2" customFormat="1"/>
+    <row r="442" s="2" customFormat="1"/>
+    <row r="443" s="2" customFormat="1"/>
+    <row r="444" s="2" customFormat="1"/>
+    <row r="445" s="2" customFormat="1"/>
+    <row r="446" s="2" customFormat="1"/>
+    <row r="447" s="2" customFormat="1"/>
+    <row r="448" s="2" customFormat="1"/>
+    <row r="449" s="2" customFormat="1"/>
+    <row r="450" s="2" customFormat="1"/>
+    <row r="451" s="2" customFormat="1"/>
+    <row r="452" s="2" customFormat="1"/>
+    <row r="453" s="2" customFormat="1"/>
+    <row r="454" s="2" customFormat="1"/>
+    <row r="455" s="2" customFormat="1"/>
+    <row r="456" s="2" customFormat="1"/>
+    <row r="457" s="2" customFormat="1"/>
+    <row r="458" s="2" customFormat="1"/>
+    <row r="459" s="2" customFormat="1"/>
+    <row r="460" s="2" customFormat="1"/>
+    <row r="461" s="2" customFormat="1"/>
+    <row r="462" s="2" customFormat="1"/>
+    <row r="463" s="2" customFormat="1"/>
+    <row r="464" s="2" customFormat="1"/>
+    <row r="465" s="2" customFormat="1"/>
+    <row r="466" s="2" customFormat="1"/>
+    <row r="467" s="2" customFormat="1"/>
+    <row r="468" s="2" customFormat="1"/>
+    <row r="469" s="2" customFormat="1"/>
+    <row r="470" s="2" customFormat="1"/>
+    <row r="471" s="2" customFormat="1"/>
+    <row r="472" s="2" customFormat="1"/>
+    <row r="473" s="2" customFormat="1"/>
+    <row r="474" s="2" customFormat="1"/>
+    <row r="475" s="2" customFormat="1"/>
+    <row r="476" s="2" customFormat="1"/>
+    <row r="477" s="2" customFormat="1"/>
+    <row r="478" s="2" customFormat="1"/>
+    <row r="479" s="2" customFormat="1"/>
+    <row r="480" s="2" customFormat="1"/>
+    <row r="481" s="2" customFormat="1"/>
+    <row r="482" s="2" customFormat="1"/>
+    <row r="483" s="2" customFormat="1"/>
+    <row r="484" s="2" customFormat="1"/>
+    <row r="485" s="2" customFormat="1"/>
+    <row r="486" s="2" customFormat="1"/>
+    <row r="487" s="2" customFormat="1"/>
+    <row r="488" s="2" customFormat="1"/>
+    <row r="489" s="2" customFormat="1"/>
+    <row r="490" s="2" customFormat="1"/>
+    <row r="491" s="2" customFormat="1"/>
+    <row r="492" s="2" customFormat="1"/>
+    <row r="493" s="2" customFormat="1"/>
+    <row r="494" s="2" customFormat="1"/>
+    <row r="495" s="2" customFormat="1"/>
+    <row r="496" s="2" customFormat="1"/>
+    <row r="497" s="2" customFormat="1"/>
+    <row r="498" s="2" customFormat="1"/>
+    <row r="499" s="2" customFormat="1"/>
+    <row r="500" s="2" customFormat="1"/>
+    <row r="501" s="2" customFormat="1"/>
+    <row r="502" s="2" customFormat="1"/>
+    <row r="503" s="2" customFormat="1"/>
+    <row r="504" s="2" customFormat="1"/>
+    <row r="505" s="2" customFormat="1"/>
+    <row r="506" s="2" customFormat="1"/>
+    <row r="507" s="2" customFormat="1"/>
+    <row r="508" s="2" customFormat="1"/>
+    <row r="509" s="2" customFormat="1"/>
+    <row r="510" s="2" customFormat="1"/>
+    <row r="511" s="2" customFormat="1"/>
+    <row r="512" s="2" customFormat="1"/>
+    <row r="513" s="2" customFormat="1"/>
+    <row r="514" s="2" customFormat="1"/>
+    <row r="515" s="2" customFormat="1"/>
+    <row r="516" s="2" customFormat="1"/>
+    <row r="517" s="2" customFormat="1"/>
+    <row r="518" s="2" customFormat="1"/>
+    <row r="519" s="2" customFormat="1"/>
+    <row r="520" s="2" customFormat="1"/>
+    <row r="521" s="2" customFormat="1"/>
+    <row r="522" s="2" customFormat="1"/>
+    <row r="523" s="2" customFormat="1"/>
+    <row r="524" s="2" customFormat="1"/>
+    <row r="525" s="2" customFormat="1"/>
+    <row r="526" s="2" customFormat="1"/>
+    <row r="527" s="2" customFormat="1"/>
+    <row r="528" s="2" customFormat="1"/>
+    <row r="529" s="2" customFormat="1"/>
+    <row r="530" s="2" customFormat="1"/>
+    <row r="531" s="2" customFormat="1"/>
+    <row r="532" s="2" customFormat="1"/>
+    <row r="533" s="2" customFormat="1"/>
+    <row r="534" s="2" customFormat="1"/>
+    <row r="535" s="2" customFormat="1"/>
+    <row r="536" s="2" customFormat="1"/>
+    <row r="537" s="2" customFormat="1"/>
+    <row r="538" s="2" customFormat="1"/>
+    <row r="539" s="2" customFormat="1"/>
+    <row r="540" s="2" customFormat="1"/>
+    <row r="541" s="2" customFormat="1"/>
+    <row r="542" s="2" customFormat="1"/>
+    <row r="543" s="2" customFormat="1"/>
+    <row r="544" s="2" customFormat="1"/>
+    <row r="545" s="2" customFormat="1"/>
+    <row r="546" s="2" customFormat="1"/>
+    <row r="547" s="2" customFormat="1"/>
+    <row r="548" s="2" customFormat="1"/>
+    <row r="549" s="2" customFormat="1"/>
+    <row r="550" s="2" customFormat="1"/>
+    <row r="551" s="2" customFormat="1"/>
+    <row r="552" s="2" customFormat="1"/>
+    <row r="553" s="2" customFormat="1"/>
+    <row r="554" s="2" customFormat="1"/>
+    <row r="555" s="2" customFormat="1"/>
+    <row r="556" s="2" customFormat="1"/>
+    <row r="557" s="2" customFormat="1"/>
+    <row r="558" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="559" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="560" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="561" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="562" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="563" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="564" s="2" customFormat="1"/>
+    <row r="565" s="2" customFormat="1"/>
+    <row r="566" s="2" customFormat="1"/>
+    <row r="567" s="2" customFormat="1"/>
+    <row r="568" s="2" customFormat="1"/>
+    <row r="569" s="2" customFormat="1"/>
+    <row r="570" s="2" customFormat="1"/>
+    <row r="571" s="2" customFormat="1"/>
+    <row r="572" s="2" customFormat="1"/>
+    <row r="573" s="2" customFormat="1"/>
+    <row r="574" s="2" customFormat="1"/>
+    <row r="575" s="2" customFormat="1"/>
+    <row r="576" s="2" customFormat="1"/>
+    <row r="577" s="2" customFormat="1"/>
+    <row r="578" s="2" customFormat="1"/>
+    <row r="579" s="2" customFormat="1"/>
+    <row r="580" s="2" customFormat="1"/>
+    <row r="581" s="2" customFormat="1"/>
+    <row r="582" s="2" customFormat="1"/>
+    <row r="583" s="2" customFormat="1"/>
+    <row r="584" s="2" customFormat="1"/>
+    <row r="585" s="2" customFormat="1"/>
+    <row r="586" s="2" customFormat="1"/>
+    <row r="587" s="2" customFormat="1"/>
+    <row r="588" s="2" customFormat="1"/>
+    <row r="589" s="2" customFormat="1"/>
+    <row r="590" s="2" customFormat="1"/>
+    <row r="591" s="2" customFormat="1"/>
+    <row r="592" s="2" customFormat="1"/>
+    <row r="593" s="2" customFormat="1"/>
+    <row r="594" s="2" customFormat="1"/>
+    <row r="595" s="2" customFormat="1"/>
+    <row r="596" s="2" customFormat="1"/>
+    <row r="597" s="2" customFormat="1"/>
+    <row r="598" s="2" customFormat="1"/>
+    <row r="599" s="2" customFormat="1"/>
+    <row r="600" s="2" customFormat="1"/>
+    <row r="601" s="2" customFormat="1"/>
+    <row r="602" s="2" customFormat="1"/>
+    <row r="603" s="2" customFormat="1"/>
+    <row r="604" s="2" customFormat="1"/>
+    <row r="605" s="2" customFormat="1"/>
+    <row r="606" s="2" customFormat="1"/>
+    <row r="607" s="2" customFormat="1"/>
+    <row r="608" s="2" customFormat="1"/>
+    <row r="609" s="2" customFormat="1"/>
+    <row r="610" s="2" customFormat="1"/>
+    <row r="611" s="2" customFormat="1"/>
+    <row r="612" s="2" customFormat="1"/>
+    <row r="613" s="2" customFormat="1"/>
+    <row r="614" s="2" customFormat="1"/>
+    <row r="615" s="2" customFormat="1"/>
+    <row r="616" s="2" customFormat="1"/>
+    <row r="617" s="2" customFormat="1"/>
+    <row r="618" s="2" customFormat="1"/>
+    <row r="619" s="2" customFormat="1"/>
+    <row r="620" s="2" customFormat="1"/>
+    <row r="621" s="2" customFormat="1"/>
+    <row r="622" s="2" customFormat="1"/>
+    <row r="623" s="2" customFormat="1"/>
+    <row r="624" s="2" customFormat="1"/>
+    <row r="625" s="2" customFormat="1"/>
+    <row r="626" s="2" customFormat="1"/>
+    <row r="627" s="2" customFormat="1"/>
+    <row r="628" s="2" customFormat="1"/>
+    <row r="629" s="2" customFormat="1"/>
+    <row r="630" s="2" customFormat="1"/>
+    <row r="631" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="632" s="2" customFormat="1"/>
+    <row r="633" s="2" customFormat="1"/>
+    <row r="634" s="2" customFormat="1"/>
+    <row r="635" s="2" customFormat="1"/>
+    <row r="636" s="2" customFormat="1"/>
+    <row r="637" s="2" customFormat="1"/>
+    <row r="638" s="2" customFormat="1"/>
+    <row r="639" s="2" customFormat="1"/>
+    <row r="640" s="2" customFormat="1"/>
+    <row r="641" s="2" customFormat="1"/>
+    <row r="642" s="2" customFormat="1"/>
+    <row r="643" s="2" customFormat="1"/>
+    <row r="644" s="2" customFormat="1"/>
+    <row r="645" s="2" customFormat="1"/>
+    <row r="646" s="2" customFormat="1"/>
+    <row r="647" s="2" customFormat="1"/>
+    <row r="648" s="2" customFormat="1"/>
+    <row r="649" s="2" customFormat="1"/>
+    <row r="650" s="2" customFormat="1"/>
+    <row r="651" s="2" customFormat="1"/>
+    <row r="652" s="2" customFormat="1"/>
+    <row r="653" s="2" customFormat="1"/>
+    <row r="654" s="2" customFormat="1"/>
+    <row r="655" s="2" customFormat="1"/>
+    <row r="656" s="2" customFormat="1"/>
+    <row r="657" s="2" customFormat="1"/>
+    <row r="658" spans="1:1">
+      <c r="A658" s="2"/>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="2"/>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="2"/>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1300">
   <si>
     <t>int</t>
   </si>
@@ -1386,9 +1386,6 @@
   </si>
   <si>
     <t>Level</t>
-  </si>
-  <si>
-    <t>第</t>
   </si>
   <si>
     <t>Obby_CheckPoint_002</t>
@@ -5017,8 +5014,8 @@
   <sheetPr/>
   <dimension ref="A1:H661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="C343" sqref="C343"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -7150,7 +7147,7 @@
         <v>447</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>447</v>
@@ -7164,19 +7161,19 @@
         <v>103004</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>451</v>
-      </c>
       <c r="E111" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7184,19 +7181,19 @@
         <v>103005</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>454</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7204,19 +7201,19 @@
         <v>103006</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>457</v>
-      </c>
       <c r="E113" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:2">
@@ -7228,19 +7225,19 @@
         <v>105001</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="F115" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7248,19 +7245,19 @@
         <v>105002</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="E116" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="F116" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7268,19 +7265,19 @@
         <v>105003</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="E117" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7288,19 +7285,19 @@
         <v>105004</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="E118" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7308,19 +7305,19 @@
         <v>105005</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="E119" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7328,19 +7325,19 @@
         <v>105006</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="F120" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7348,19 +7345,19 @@
         <v>105051</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="E121" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7368,19 +7365,19 @@
         <v>105101</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="E122" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7388,19 +7385,19 @@
         <v>105102</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="E123" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7408,19 +7405,19 @@
         <v>105103</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="E124" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7428,19 +7425,19 @@
         <v>105201</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="E125" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7448,19 +7445,19 @@
         <v>105202</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7468,19 +7465,19 @@
         <v>105203</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="E127" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>509</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7488,19 +7485,19 @@
         <v>105204</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="E128" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7508,19 +7505,19 @@
         <v>105205</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="E129" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>517</v>
-      </c>
       <c r="F129" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="130" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7528,19 +7525,19 @@
         <v>105206</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="E130" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="F130" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="131" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7548,19 +7545,19 @@
         <v>105301</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="E131" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="F131" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7568,19 +7565,19 @@
         <v>105302</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="E132" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="F132" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7588,19 +7585,19 @@
         <v>105303</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="E133" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="F133" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7608,19 +7605,19 @@
         <v>105304</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="E134" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>537</v>
-      </c>
       <c r="F134" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="135" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7628,19 +7625,19 @@
         <v>105305</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>541</v>
-      </c>
       <c r="F135" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="136" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7648,19 +7645,19 @@
         <v>105306</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="E136" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="F136" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7668,19 +7665,19 @@
         <v>105307</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="E137" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="F137" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7688,19 +7685,19 @@
         <v>105308</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="E138" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>553</v>
-      </c>
       <c r="F138" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7708,19 +7705,19 @@
         <v>105401</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="E139" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>557</v>
-      </c>
       <c r="F139" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7728,19 +7725,19 @@
         <v>105402</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="E140" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>561</v>
-      </c>
       <c r="F140" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7748,19 +7745,19 @@
         <v>105403</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="E141" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="F141" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7768,19 +7765,19 @@
         <v>105404</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C142" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="E142" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>537</v>
-      </c>
       <c r="F142" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7788,19 +7785,19 @@
         <v>105405</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="E143" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>570</v>
-      </c>
       <c r="F143" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7808,19 +7805,19 @@
         <v>105406</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="E144" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>574</v>
-      </c>
       <c r="F144" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="145" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7828,19 +7825,19 @@
         <v>105407</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="E145" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="F145" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="146" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7848,19 +7845,19 @@
         <v>105501</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>582</v>
-      </c>
       <c r="F146" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7868,19 +7865,19 @@
         <v>105502</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="E147" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>586</v>
-      </c>
       <c r="F147" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="148" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7888,19 +7885,19 @@
         <v>105503</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="E148" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>590</v>
-      </c>
       <c r="F148" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="149" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7908,19 +7905,19 @@
         <v>105504</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="E149" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>594</v>
-      </c>
       <c r="F149" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="150" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7928,19 +7925,19 @@
         <v>105505</v>
       </c>
       <c r="B150" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="E150" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>598</v>
-      </c>
       <c r="F150" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="151" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7948,19 +7945,19 @@
         <v>105506</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="D151" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="E151" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>602</v>
-      </c>
       <c r="F151" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="152" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7968,19 +7965,19 @@
         <v>105507</v>
       </c>
       <c r="B152" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D152" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="E152" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>606</v>
-      </c>
       <c r="F152" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="153" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -7988,19 +7985,19 @@
         <v>105508</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="E153" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>610</v>
-      </c>
       <c r="F153" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
@@ -8014,19 +8011,19 @@
         <v>105601</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>614</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G155" s="3"/>
     </row>
@@ -8035,19 +8032,19 @@
         <v>105602</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>618</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G156" s="3"/>
     </row>
@@ -8056,19 +8053,19 @@
         <v>105603</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -8078,19 +8075,19 @@
         <v>105604</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>626</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G158" s="3"/>
     </row>
@@ -8099,19 +8096,19 @@
         <v>105605</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>630</v>
-      </c>
       <c r="F159" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G159" s="3"/>
     </row>
@@ -8120,19 +8117,19 @@
         <v>105606</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>634</v>
-      </c>
       <c r="F160" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G160" s="3"/>
     </row>
@@ -8141,19 +8138,19 @@
         <v>105607</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>638</v>
-      </c>
       <c r="F161" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G161" s="3"/>
     </row>
@@ -8162,19 +8159,19 @@
         <v>105608</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="F162" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G162" s="3"/>
     </row>
@@ -8183,19 +8180,19 @@
         <v>105609</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="F163" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G163" s="3"/>
     </row>
@@ -8204,19 +8201,19 @@
         <v>105610</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>650</v>
-      </c>
       <c r="F164" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G164" s="3"/>
     </row>
@@ -8225,19 +8222,19 @@
         <v>105611</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="E165" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8245,19 +8242,19 @@
         <v>105612</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="E166" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>658</v>
-      </c>
       <c r="F166" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8265,19 +8262,19 @@
         <v>105613</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="E167" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>662</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8285,19 +8282,19 @@
         <v>105614</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="E168" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8305,19 +8302,19 @@
         <v>105615</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="E169" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>670</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8325,19 +8322,19 @@
         <v>105616</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="D170" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="E170" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>674</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8345,19 +8342,19 @@
         <v>105617</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="D171" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="E171" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>678</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8365,19 +8362,19 @@
         <v>105618</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="E172" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>682</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="173" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8385,19 +8382,19 @@
         <v>105619</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="D173" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="E173" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>686</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="174" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8405,19 +8402,19 @@
         <v>105620</v>
       </c>
       <c r="B174" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="E174" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="175" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8425,19 +8422,19 @@
         <v>105621</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>694</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="176" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8445,19 +8442,19 @@
         <v>105622</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="E176" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>698</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8465,19 +8462,19 @@
         <v>105623</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>702</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="178" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8485,19 +8482,19 @@
         <v>105624</v>
       </c>
       <c r="B178" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>706</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="179" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8505,19 +8502,19 @@
         <v>105625</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>710</v>
-      </c>
       <c r="F179" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8525,19 +8522,19 @@
         <v>105626</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>714</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8545,19 +8542,19 @@
         <v>105627</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>718</v>
-      </c>
       <c r="F181" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8565,19 +8562,19 @@
         <v>105628</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>722</v>
-      </c>
       <c r="F182" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="183" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8585,19 +8582,19 @@
         <v>105629</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="F183" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8605,19 +8602,19 @@
         <v>105630</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>730</v>
-      </c>
       <c r="F184" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8625,19 +8622,19 @@
         <v>105631</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="E185" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>734</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8645,19 +8642,19 @@
         <v>105632</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="E186" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>738</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8665,19 +8662,19 @@
         <v>105633</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="E187" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>742</v>
-      </c>
       <c r="F187" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="188" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8685,19 +8682,19 @@
         <v>105634</v>
       </c>
       <c r="B188" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="D188" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="E188" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>746</v>
-      </c>
       <c r="F188" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="189" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8705,19 +8702,19 @@
         <v>105635</v>
       </c>
       <c r="B189" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="D189" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="E189" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>750</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8725,19 +8722,19 @@
         <v>105636</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="D190" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="E190" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>754</v>
-      </c>
       <c r="F190" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="191" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8745,19 +8742,19 @@
         <v>105637</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="D191" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="E191" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>758</v>
-      </c>
       <c r="F191" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="192" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8765,19 +8762,19 @@
         <v>105638</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="D192" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="E192" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>762</v>
-      </c>
       <c r="F192" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="193" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8785,19 +8782,19 @@
         <v>105639</v>
       </c>
       <c r="B193" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="D193" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="E193" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>766</v>
-      </c>
       <c r="F193" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="194" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8805,19 +8802,19 @@
         <v>105640</v>
       </c>
       <c r="B194" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="E194" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>770</v>
-      </c>
       <c r="F194" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="195" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8825,19 +8822,19 @@
         <v>105641</v>
       </c>
       <c r="B195" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D195" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="E195" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>774</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="196" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8845,19 +8842,19 @@
         <v>105642</v>
       </c>
       <c r="B196" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="E196" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>778</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8865,19 +8862,19 @@
         <v>105643</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="E197" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>782</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8885,19 +8882,19 @@
         <v>105644</v>
       </c>
       <c r="B198" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="E198" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>786</v>
-      </c>
       <c r="F198" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8905,19 +8902,19 @@
         <v>105645</v>
       </c>
       <c r="B199" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="E199" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>790</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8925,19 +8922,19 @@
         <v>105646</v>
       </c>
       <c r="B200" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="D200" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="E200" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>794</v>
-      </c>
       <c r="F200" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8945,19 +8942,19 @@
         <v>105647</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="D201" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="E201" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>798</v>
-      </c>
       <c r="F201" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8965,19 +8962,19 @@
         <v>105648</v>
       </c>
       <c r="B202" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="D202" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="E202" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="F202" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -8985,19 +8982,19 @@
         <v>105649</v>
       </c>
       <c r="B203" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="D203" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="E203" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>806</v>
-      </c>
       <c r="F203" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9005,19 +9002,19 @@
         <v>105650</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="D204" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="E204" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>810</v>
-      </c>
       <c r="F204" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="1" ht="18.75" customHeight="1"/>
@@ -9026,19 +9023,19 @@
         <v>200001</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="C206" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="D206" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="E206" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="E206" s="11" t="s">
-        <v>814</v>
-      </c>
       <c r="F206" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9046,19 +9043,19 @@
         <v>200002</v>
       </c>
       <c r="B207" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="C207" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="D207" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="D207" s="10" t="s">
+      <c r="E207" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="E207" s="11" t="s">
-        <v>818</v>
-      </c>
       <c r="F207" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="1" spans="1:6">
@@ -9066,19 +9063,19 @@
         <v>200003</v>
       </c>
       <c r="B208" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C208" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="D208" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="D208" s="10" t="s">
+      <c r="E208" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="E208" s="11" t="s">
-        <v>822</v>
-      </c>
       <c r="F208" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9086,19 +9083,19 @@
         <v>200004</v>
       </c>
       <c r="B209" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C209" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="D209" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="D209" s="10" t="s">
+      <c r="E209" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="E209" s="11" t="s">
-        <v>826</v>
-      </c>
       <c r="F209" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" spans="1:6">
@@ -9106,19 +9103,19 @@
         <v>200005</v>
       </c>
       <c r="B210" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="C210" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="D210" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="D210" s="10" t="s">
+      <c r="E210" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="E210" s="11" t="s">
-        <v>830</v>
-      </c>
       <c r="F210" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9126,19 +9123,19 @@
         <v>200006</v>
       </c>
       <c r="B211" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="C211" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="D211" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="E211" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="E211" s="11" t="s">
-        <v>834</v>
-      </c>
       <c r="F211" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9146,19 +9143,19 @@
         <v>200007</v>
       </c>
       <c r="B212" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="C212" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="D212" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="D212" s="10" t="s">
+      <c r="E212" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="E212" s="11" t="s">
-        <v>838</v>
-      </c>
       <c r="F212" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9166,19 +9163,19 @@
         <v>200008</v>
       </c>
       <c r="B213" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C213" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="D213" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="E213" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="E213" s="11" t="s">
-        <v>842</v>
-      </c>
       <c r="F213" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9186,19 +9183,19 @@
         <v>200009</v>
       </c>
       <c r="B214" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="C214" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="D214" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="E214" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="E214" s="11" t="s">
-        <v>846</v>
-      </c>
       <c r="F214" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="215" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9206,19 +9203,19 @@
         <v>200010</v>
       </c>
       <c r="B215" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C215" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="D215" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="D215" s="10" t="s">
+      <c r="E215" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="E215" s="11" t="s">
-        <v>850</v>
-      </c>
       <c r="F215" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="216" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9226,19 +9223,19 @@
         <v>200011</v>
       </c>
       <c r="B216" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="C216" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="D216" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="E216" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="E216" s="11" t="s">
-        <v>854</v>
-      </c>
       <c r="F216" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="217" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9246,19 +9243,19 @@
         <v>200012</v>
       </c>
       <c r="B217" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="C217" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="D217" s="10" t="s">
         <v>856</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="E217" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="E217" s="11" t="s">
-        <v>858</v>
-      </c>
       <c r="F217" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="218" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9266,19 +9263,19 @@
         <v>200013</v>
       </c>
       <c r="B218" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="C218" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="D218" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="D218" s="10" t="s">
+      <c r="E218" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="E218" s="11" t="s">
-        <v>862</v>
-      </c>
       <c r="F218" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9286,19 +9283,19 @@
         <v>200014</v>
       </c>
       <c r="B219" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="C219" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="D219" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="D219" s="10" t="s">
+      <c r="E219" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="E219" s="11" t="s">
-        <v>866</v>
-      </c>
       <c r="F219" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="220" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9306,19 +9303,19 @@
         <v>200015</v>
       </c>
       <c r="B220" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="C220" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="D220" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="D220" s="10" t="s">
+      <c r="E220" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="E220" s="11" t="s">
-        <v>870</v>
-      </c>
       <c r="F220" s="11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="221" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9326,19 +9323,19 @@
         <v>200016</v>
       </c>
       <c r="B221" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="C221" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="D221" s="10" t="s">
         <v>872</v>
       </c>
-      <c r="D221" s="10" t="s">
+      <c r="E221" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="E221" s="11" t="s">
-        <v>874</v>
-      </c>
       <c r="F221" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="222" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9346,19 +9343,19 @@
         <v>200017</v>
       </c>
       <c r="B222" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="C222" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="D222" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="D222" s="10" t="s">
+      <c r="E222" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="E222" s="11" t="s">
-        <v>878</v>
-      </c>
       <c r="F222" s="11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="223" s="2" customFormat="1" spans="1:6">
@@ -9366,19 +9363,19 @@
         <v>200018</v>
       </c>
       <c r="B223" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="C223" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="D223" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="D223" s="10" t="s">
+      <c r="E223" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="E223" s="11" t="s">
-        <v>882</v>
-      </c>
       <c r="F223" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="224" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9386,19 +9383,19 @@
         <v>200019</v>
       </c>
       <c r="B224" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="C224" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="D224" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="D224" s="10" t="s">
+      <c r="E224" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="E224" s="11" t="s">
-        <v>886</v>
-      </c>
       <c r="F224" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="225" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9406,19 +9403,19 @@
         <v>200020</v>
       </c>
       <c r="B225" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="C225" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="C225" s="10" t="s">
+      <c r="D225" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="D225" s="10" t="s">
+      <c r="E225" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="E225" s="11" t="s">
-        <v>890</v>
-      </c>
       <c r="F225" s="11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="226" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9426,19 +9423,19 @@
         <v>200021</v>
       </c>
       <c r="B226" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="C226" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="C226" s="10" t="s">
+      <c r="D226" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="D226" s="10" t="s">
-        <v>893</v>
-      </c>
       <c r="E226" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="227" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9446,19 +9443,19 @@
         <v>200022</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="C227" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="C227" s="10" t="s">
+      <c r="D227" s="10" t="s">
         <v>895</v>
       </c>
-      <c r="D227" s="10" t="s">
+      <c r="E227" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="E227" s="11" t="s">
-        <v>897</v>
-      </c>
       <c r="F227" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="228" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9466,19 +9463,19 @@
         <v>200023</v>
       </c>
       <c r="B228" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="C228" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="C228" s="10" t="s">
+      <c r="D228" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="D228" s="10" t="s">
+      <c r="E228" s="11" t="s">
         <v>900</v>
       </c>
-      <c r="E228" s="11" t="s">
-        <v>901</v>
-      </c>
       <c r="F228" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" spans="1:6">
@@ -9486,19 +9483,19 @@
         <v>200024</v>
       </c>
       <c r="B229" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="C229" s="10" t="s">
         <v>902</v>
       </c>
-      <c r="C229" s="10" t="s">
+      <c r="D229" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="D229" s="10" t="s">
+      <c r="E229" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="E229" s="11" t="s">
-        <v>905</v>
-      </c>
       <c r="F229" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="230" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9506,19 +9503,19 @@
         <v>200025</v>
       </c>
       <c r="B230" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="C230" s="10" t="s">
         <v>906</v>
       </c>
-      <c r="C230" s="10" t="s">
+      <c r="D230" s="10" t="s">
         <v>907</v>
       </c>
-      <c r="D230" s="10" t="s">
+      <c r="E230" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="E230" s="11" t="s">
-        <v>909</v>
-      </c>
       <c r="F230" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="231" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9526,19 +9523,19 @@
         <v>200026</v>
       </c>
       <c r="B231" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="C231" s="10" t="s">
         <v>910</v>
       </c>
-      <c r="C231" s="10" t="s">
+      <c r="D231" s="10" t="s">
         <v>911</v>
       </c>
-      <c r="D231" s="10" t="s">
+      <c r="E231" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="E231" s="11" t="s">
-        <v>913</v>
-      </c>
       <c r="F231" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="232" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9546,19 +9543,19 @@
         <v>200027</v>
       </c>
       <c r="B232" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="C232" s="10" t="s">
         <v>914</v>
       </c>
-      <c r="C232" s="10" t="s">
+      <c r="D232" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="D232" s="10" t="s">
+      <c r="E232" s="11" t="s">
         <v>916</v>
       </c>
-      <c r="E232" s="11" t="s">
-        <v>917</v>
-      </c>
       <c r="F232" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="233" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9566,19 +9563,19 @@
         <v>200028</v>
       </c>
       <c r="B233" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="C233" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="C233" s="10" t="s">
+      <c r="D233" s="10" t="s">
         <v>919</v>
       </c>
-      <c r="D233" s="10" t="s">
+      <c r="E233" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="E233" s="11" t="s">
-        <v>921</v>
-      </c>
       <c r="F233" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="234" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9586,19 +9583,19 @@
         <v>200029</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="C234" s="10" t="s">
         <v>922</v>
       </c>
-      <c r="C234" s="10" t="s">
+      <c r="D234" s="10" t="s">
         <v>923</v>
       </c>
-      <c r="D234" s="10" t="s">
+      <c r="E234" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="E234" s="11" t="s">
-        <v>925</v>
-      </c>
       <c r="F234" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="235" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9606,19 +9603,19 @@
         <v>200030</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="C235" s="10" t="s">
         <v>926</v>
       </c>
-      <c r="C235" s="10" t="s">
+      <c r="D235" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="D235" s="10" t="s">
+      <c r="E235" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="E235" s="11" t="s">
-        <v>929</v>
-      </c>
       <c r="F235" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="236" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9626,19 +9623,19 @@
         <v>200031</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="C236" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="C236" s="10" t="s">
+      <c r="D236" s="10" t="s">
         <v>931</v>
       </c>
-      <c r="D236" s="10" t="s">
+      <c r="E236" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="E236" s="11" t="s">
-        <v>933</v>
-      </c>
       <c r="F236" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="237" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9646,19 +9643,19 @@
         <v>200032</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="C237" s="10" t="s">
         <v>934</v>
       </c>
-      <c r="C237" s="10" t="s">
+      <c r="D237" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="D237" s="10" t="s">
+      <c r="E237" s="11" t="s">
         <v>936</v>
       </c>
-      <c r="E237" s="11" t="s">
-        <v>937</v>
-      </c>
       <c r="F237" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9666,19 +9663,19 @@
         <v>200033</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="C238" s="10" t="s">
         <v>938</v>
       </c>
-      <c r="C238" s="10" t="s">
+      <c r="D238" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="D238" s="10" t="s">
+      <c r="E238" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="E238" s="11" t="s">
-        <v>941</v>
-      </c>
       <c r="F238" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9686,19 +9683,19 @@
         <v>200034</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="C239" s="10" t="s">
         <v>942</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="D239" s="10" t="s">
         <v>943</v>
       </c>
-      <c r="D239" s="10" t="s">
+      <c r="E239" s="11" t="s">
         <v>944</v>
       </c>
-      <c r="E239" s="11" t="s">
-        <v>945</v>
-      </c>
       <c r="F239" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="240" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9706,19 +9703,19 @@
         <v>200035</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="C240" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="C240" s="10" t="s">
+      <c r="D240" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="D240" s="10" t="s">
+      <c r="E240" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="E240" s="11" t="s">
-        <v>949</v>
-      </c>
       <c r="F240" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="241" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9726,19 +9723,19 @@
         <v>200036</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="C241" s="10" t="s">
         <v>950</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="D241" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="D241" s="10" t="s">
+      <c r="E241" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="E241" s="11" t="s">
-        <v>953</v>
-      </c>
       <c r="F241" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="242" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9746,19 +9743,19 @@
         <v>200037</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="C242" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="C242" s="10" t="s">
+      <c r="D242" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="D242" s="10" t="s">
+      <c r="E242" s="11" t="s">
         <v>956</v>
       </c>
-      <c r="E242" s="11" t="s">
-        <v>957</v>
-      </c>
       <c r="F242" s="11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="243" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9766,19 +9763,19 @@
         <v>200038</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="C243" s="10" t="s">
         <v>958</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="D243" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="D243" s="10" t="s">
+      <c r="E243" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="E243" s="11" t="s">
-        <v>961</v>
-      </c>
       <c r="F243" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="244" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9786,19 +9783,19 @@
         <v>200039</v>
       </c>
       <c r="B244" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="C244" s="10" t="s">
         <v>962</v>
       </c>
-      <c r="C244" s="10" t="s">
+      <c r="D244" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="D244" s="10" t="s">
+      <c r="E244" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="E244" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="F244" s="11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="245" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9806,19 +9803,19 @@
         <v>200040</v>
       </c>
       <c r="B245" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="C245" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="C245" s="11" t="s">
+      <c r="D245" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="D245" s="12" t="s">
+      <c r="E245" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="E245" s="11" t="s">
-        <v>969</v>
-      </c>
       <c r="F245" s="11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="246" s="2" customFormat="1" spans="1:6">
@@ -9826,19 +9823,19 @@
         <v>200041</v>
       </c>
       <c r="B246" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="C246" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="C246" s="12" t="s">
+      <c r="D246" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="D246" s="12" t="s">
+      <c r="E246" s="11" t="s">
         <v>972</v>
       </c>
-      <c r="E246" s="11" t="s">
-        <v>973</v>
-      </c>
       <c r="F246" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="247" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9846,19 +9843,19 @@
         <v>200042</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="C247" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="D247" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="D247" s="11" t="s">
+      <c r="E247" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="E247" s="11" t="s">
-        <v>977</v>
-      </c>
       <c r="F247" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="248" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9866,19 +9863,19 @@
         <v>200043</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="C248" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="C248" s="11" t="s">
+      <c r="D248" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="D248" s="11" t="s">
+      <c r="E248" s="11" t="s">
         <v>980</v>
       </c>
-      <c r="E248" s="11" t="s">
-        <v>981</v>
-      </c>
       <c r="F248" s="11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="249" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9886,19 +9883,19 @@
         <v>200044</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="C249" s="11" t="s">
         <v>982</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="D249" s="11" t="s">
         <v>983</v>
       </c>
-      <c r="D249" s="11" t="s">
+      <c r="E249" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="E249" s="11" t="s">
-        <v>985</v>
-      </c>
       <c r="F249" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9906,19 +9903,19 @@
         <v>200045</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="C250" s="11" t="s">
         <v>986</v>
       </c>
-      <c r="C250" s="11" t="s">
+      <c r="D250" s="11" t="s">
         <v>987</v>
       </c>
-      <c r="D250" s="11" t="s">
+      <c r="E250" s="11" t="s">
         <v>988</v>
       </c>
-      <c r="E250" s="11" t="s">
-        <v>989</v>
-      </c>
       <c r="F250" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="251" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9926,19 +9923,19 @@
         <v>200046</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="C251" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="C251" s="11" t="s">
+      <c r="D251" s="11" t="s">
         <v>991</v>
       </c>
-      <c r="D251" s="11" t="s">
+      <c r="E251" s="11" t="s">
         <v>992</v>
       </c>
-      <c r="E251" s="11" t="s">
-        <v>993</v>
-      </c>
       <c r="F251" s="11" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="252" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9946,19 +9943,19 @@
         <v>200047</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="C252" s="12" t="s">
         <v>994</v>
       </c>
-      <c r="C252" s="12" t="s">
+      <c r="D252" s="12" t="s">
         <v>995</v>
       </c>
-      <c r="D252" s="12" t="s">
+      <c r="E252" s="11" t="s">
         <v>996</v>
       </c>
-      <c r="E252" s="11" t="s">
-        <v>997</v>
-      </c>
       <c r="F252" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="253" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9966,19 +9963,19 @@
         <v>200048</v>
       </c>
       <c r="B253" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="C253" s="11" t="s">
         <v>998</v>
       </c>
-      <c r="C253" s="11" t="s">
+      <c r="D253" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="D253" s="11" t="s">
+      <c r="E253" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="E253" s="11" t="s">
-        <v>1001</v>
-      </c>
       <c r="F253" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="254" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -9986,19 +9983,19 @@
         <v>200049</v>
       </c>
       <c r="B254" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C254" s="12" t="s">
         <v>1002</v>
       </c>
-      <c r="C254" s="12" t="s">
+      <c r="D254" s="12" t="s">
         <v>1003</v>
       </c>
-      <c r="D254" s="12" t="s">
+      <c r="E254" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="E254" s="11" t="s">
-        <v>1005</v>
-      </c>
       <c r="F254" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="255" s="2" customFormat="1" spans="1:6">
@@ -10006,19 +10003,19 @@
         <v>200050</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C255" s="12" t="s">
         <v>1006</v>
       </c>
-      <c r="C255" s="12" t="s">
+      <c r="D255" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="D255" s="12" t="s">
+      <c r="E255" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="E255" s="11" t="s">
-        <v>1009</v>
-      </c>
       <c r="F255" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="256" s="2" customFormat="1" spans="1:6">
@@ -10026,19 +10023,19 @@
         <v>200051</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C256" s="11" t="s">
         <v>1010</v>
       </c>
-      <c r="C256" s="11" t="s">
+      <c r="D256" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="D256" s="11" t="s">
+      <c r="E256" s="11" t="s">
         <v>1012</v>
       </c>
-      <c r="E256" s="11" t="s">
-        <v>1013</v>
-      </c>
       <c r="F256" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="257" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10046,19 +10043,19 @@
         <v>200052</v>
       </c>
       <c r="B257" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C257" s="11" t="s">
         <v>1014</v>
       </c>
-      <c r="C257" s="11" t="s">
+      <c r="D257" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="D257" s="11" t="s">
+      <c r="E257" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="E257" s="11" t="s">
-        <v>1017</v>
-      </c>
       <c r="F257" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="258" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10066,19 +10063,19 @@
         <v>200053</v>
       </c>
       <c r="B258" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C258" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="C258" s="11" t="s">
+      <c r="D258" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="D258" s="11" t="s">
+      <c r="E258" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="E258" s="11" t="s">
-        <v>1021</v>
-      </c>
       <c r="F258" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="259" s="2" customFormat="1" spans="1:6">
@@ -10086,19 +10083,19 @@
         <v>200054</v>
       </c>
       <c r="B259" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C259" s="11" t="s">
         <v>1022</v>
       </c>
-      <c r="C259" s="11" t="s">
+      <c r="D259" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="D259" s="11" t="s">
+      <c r="E259" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="E259" s="11" t="s">
-        <v>1025</v>
-      </c>
       <c r="F259" s="11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="260" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10106,19 +10103,19 @@
         <v>200055</v>
       </c>
       <c r="B260" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C260" s="11" t="s">
         <v>1026</v>
       </c>
-      <c r="C260" s="11" t="s">
+      <c r="D260" s="11" t="s">
         <v>1027</v>
       </c>
-      <c r="D260" s="11" t="s">
+      <c r="E260" s="11" t="s">
         <v>1028</v>
       </c>
-      <c r="E260" s="11" t="s">
-        <v>1029</v>
-      </c>
       <c r="F260" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="261" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10126,19 +10123,19 @@
         <v>200056</v>
       </c>
       <c r="B261" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C261" s="12" t="s">
         <v>1030</v>
       </c>
-      <c r="C261" s="12" t="s">
+      <c r="D261" s="12" t="s">
         <v>1031</v>
       </c>
-      <c r="D261" s="12" t="s">
+      <c r="E261" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="E261" s="11" t="s">
-        <v>1033</v>
-      </c>
       <c r="F261" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="262" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10146,19 +10143,19 @@
         <v>200057</v>
       </c>
       <c r="B262" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C262" s="11" t="s">
         <v>1034</v>
       </c>
-      <c r="C262" s="11" t="s">
+      <c r="D262" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="D262" s="11" t="s">
+      <c r="E262" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="E262" s="11" t="s">
-        <v>1037</v>
-      </c>
       <c r="F262" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="263" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10166,19 +10163,19 @@
         <v>200058</v>
       </c>
       <c r="B263" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C263" s="12" t="s">
         <v>1038</v>
       </c>
-      <c r="C263" s="12" t="s">
+      <c r="D263" s="12" t="s">
         <v>1039</v>
       </c>
-      <c r="D263" s="12" t="s">
+      <c r="E263" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="E263" s="11" t="s">
-        <v>1041</v>
-      </c>
       <c r="F263" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="264" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10186,19 +10183,19 @@
         <v>200059</v>
       </c>
       <c r="B264" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C264" s="12" t="s">
         <v>1042</v>
       </c>
-      <c r="C264" s="12" t="s">
+      <c r="D264" s="12" t="s">
         <v>1043</v>
       </c>
-      <c r="D264" s="12" t="s">
+      <c r="E264" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="E264" s="11" t="s">
-        <v>1045</v>
-      </c>
       <c r="F264" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="265" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10206,19 +10203,19 @@
         <v>200060</v>
       </c>
       <c r="B265" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C265" s="11" t="s">
         <v>1046</v>
       </c>
-      <c r="C265" s="11" t="s">
+      <c r="D265" s="12" t="s">
         <v>1047</v>
       </c>
-      <c r="D265" s="12" t="s">
+      <c r="E265" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="E265" s="11" t="s">
-        <v>1049</v>
-      </c>
       <c r="F265" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="266" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10226,19 +10223,19 @@
         <v>200061</v>
       </c>
       <c r="B266" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C266" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="C266" s="11" t="s">
+      <c r="D266" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="D266" s="11" t="s">
+      <c r="E266" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="E266" s="11" t="s">
-        <v>1053</v>
-      </c>
       <c r="F266" s="11" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="267" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10246,19 +10243,19 @@
         <v>200062</v>
       </c>
       <c r="B267" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C267" s="11" t="s">
         <v>1054</v>
       </c>
-      <c r="C267" s="11" t="s">
+      <c r="D267" s="12" t="s">
         <v>1055</v>
       </c>
-      <c r="D267" s="12" t="s">
+      <c r="E267" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="E267" s="11" t="s">
-        <v>1057</v>
-      </c>
       <c r="F267" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="268" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10266,19 +10263,19 @@
         <v>200063</v>
       </c>
       <c r="B268" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C268" s="12" t="s">
         <v>1058</v>
       </c>
-      <c r="C268" s="12" t="s">
-        <v>1059</v>
-      </c>
       <c r="D268" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E268" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="E268" s="11" t="s">
-        <v>1033</v>
-      </c>
       <c r="F268" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="269" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10286,19 +10283,19 @@
         <v>200064</v>
       </c>
       <c r="B269" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C269" s="12" t="s">
         <v>1060</v>
       </c>
-      <c r="C269" s="12" t="s">
+      <c r="D269" s="12" t="s">
         <v>1061</v>
       </c>
-      <c r="D269" s="12" t="s">
+      <c r="E269" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="E269" s="11" t="s">
-        <v>1063</v>
-      </c>
       <c r="F269" s="11" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="270" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10306,19 +10303,19 @@
         <v>200065</v>
       </c>
       <c r="B270" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C270" s="12" t="s">
         <v>1064</v>
       </c>
-      <c r="C270" s="12" t="s">
+      <c r="D270" s="12" t="s">
         <v>1065</v>
       </c>
-      <c r="D270" s="12" t="s">
+      <c r="E270" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="E270" s="11" t="s">
-        <v>1067</v>
-      </c>
       <c r="F270" s="11" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="271" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10326,19 +10323,19 @@
         <v>200066</v>
       </c>
       <c r="B271" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C271" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="C271" s="12" t="s">
+      <c r="D271" s="12" t="s">
         <v>1069</v>
       </c>
-      <c r="D271" s="12" t="s">
+      <c r="E271" s="11" t="s">
         <v>1070</v>
       </c>
-      <c r="E271" s="11" t="s">
-        <v>1071</v>
-      </c>
       <c r="F271" s="11" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="272" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10346,19 +10343,19 @@
         <v>200067</v>
       </c>
       <c r="B272" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C272" s="11" t="s">
         <v>1072</v>
       </c>
-      <c r="C272" s="11" t="s">
+      <c r="D272" s="12" t="s">
         <v>1073</v>
       </c>
-      <c r="D272" s="12" t="s">
+      <c r="E272" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="E272" s="11" t="s">
-        <v>1075</v>
-      </c>
       <c r="F272" s="11" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="273" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10366,19 +10363,19 @@
         <v>200068</v>
       </c>
       <c r="B273" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C273" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="C273" s="11" t="s">
+      <c r="D273" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="D273" s="11" t="s">
+      <c r="E273" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="E273" s="11" t="s">
-        <v>1079</v>
-      </c>
       <c r="F273" s="11" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="274" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10386,19 +10383,19 @@
         <v>200069</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D274" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E274" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="E274" s="11" t="s">
-        <v>1033</v>
-      </c>
       <c r="F274" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="275" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10406,19 +10403,19 @@
         <v>200070</v>
       </c>
       <c r="B275" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C275" s="12" t="s">
         <v>1081</v>
       </c>
-      <c r="C275" s="12" t="s">
+      <c r="D275" s="12" t="s">
         <v>1082</v>
       </c>
-      <c r="D275" s="12" t="s">
+      <c r="E275" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="E275" s="11" t="s">
-        <v>1084</v>
-      </c>
       <c r="F275" s="11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="276" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10426,19 +10423,19 @@
         <v>200071</v>
       </c>
       <c r="B276" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C276" s="12" t="s">
         <v>1085</v>
       </c>
-      <c r="C276" s="12" t="s">
+      <c r="D276" s="12" t="s">
         <v>1086</v>
       </c>
-      <c r="D276" s="12" t="s">
+      <c r="E276" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="E276" s="11" t="s">
-        <v>1088</v>
-      </c>
       <c r="F276" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="277" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10446,19 +10443,19 @@
         <v>200072</v>
       </c>
       <c r="B277" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="D277" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="E277" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="E277" s="2" t="s">
-        <v>1092</v>
-      </c>
       <c r="F277" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="278" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10466,19 +10463,19 @@
         <v>200073</v>
       </c>
       <c r="B278" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="D278" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="E278" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="E278" s="3" t="s">
-        <v>1096</v>
-      </c>
       <c r="F278" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="279" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10486,19 +10483,19 @@
         <v>200074</v>
       </c>
       <c r="B279" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="D279" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="E279" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="E279" s="2" t="s">
-        <v>1100</v>
-      </c>
       <c r="F279" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="280" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10506,19 +10503,19 @@
         <v>200075</v>
       </c>
       <c r="B280" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="D280" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="E280" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="E280" s="3" t="s">
-        <v>1104</v>
-      </c>
       <c r="F280" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="281" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10526,19 +10523,19 @@
         <v>200076</v>
       </c>
       <c r="B281" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="D281" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="E281" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="E281" s="2" t="s">
-        <v>1108</v>
-      </c>
       <c r="F281" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="282" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10546,19 +10543,19 @@
         <v>200077</v>
       </c>
       <c r="B282" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="D282" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="E282" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>1112</v>
-      </c>
       <c r="F282" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="283" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10566,19 +10563,19 @@
         <v>200078</v>
       </c>
       <c r="B283" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="D283" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="E283" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="E283" s="2" t="s">
-        <v>1116</v>
-      </c>
       <c r="F283" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="284" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10586,19 +10583,19 @@
         <v>200079</v>
       </c>
       <c r="B284" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="D284" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="E284" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="E284" s="2" t="s">
-        <v>1120</v>
-      </c>
       <c r="F284" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="285" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10606,19 +10603,19 @@
         <v>200080</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C285" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="E285" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="E285" s="2" t="s">
-        <v>1104</v>
-      </c>
       <c r="F285" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="286" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10626,19 +10623,19 @@
         <v>200081</v>
       </c>
       <c r="B286" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="D286" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="E286" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="E286" s="2" t="s">
-        <v>1125</v>
-      </c>
       <c r="F286" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="287" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10646,19 +10643,19 @@
         <v>200082</v>
       </c>
       <c r="B287" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="D287" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="E287" s="13" t="s">
         <v>1128</v>
       </c>
-      <c r="E287" s="13" t="s">
-        <v>1129</v>
-      </c>
       <c r="F287" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="288" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10666,19 +10663,19 @@
         <v>200083</v>
       </c>
       <c r="B288" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="D288" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="E288" s="13" t="s">
         <v>1132</v>
       </c>
-      <c r="E288" s="13" t="s">
-        <v>1133</v>
-      </c>
       <c r="F288" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="289" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10686,19 +10683,19 @@
         <v>200084</v>
       </c>
       <c r="B289" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="D289" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="E289" s="13" t="s">
         <v>1136</v>
       </c>
-      <c r="E289" s="13" t="s">
-        <v>1137</v>
-      </c>
       <c r="F289" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="290" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10706,19 +10703,19 @@
         <v>200085</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C290" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="E290" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="E290" s="13" t="s">
-        <v>1104</v>
-      </c>
       <c r="F290" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="291" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
@@ -10726,19 +10723,19 @@
         <v>200086</v>
       </c>
       <c r="B291" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="D291" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="E291" s="13" t="s">
         <v>1141</v>
       </c>
-      <c r="E291" s="13" t="s">
-        <v>1142</v>
-      </c>
       <c r="F291" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="292" s="2" customFormat="1" spans="1:6">
@@ -10746,19 +10743,19 @@
         <v>200087</v>
       </c>
       <c r="B292" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="D292" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="E292" s="13" t="s">
         <v>1145</v>
       </c>
-      <c r="E292" s="13" t="s">
-        <v>1146</v>
-      </c>
       <c r="F292" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="293" s="2" customFormat="1" spans="1:6">
@@ -10766,19 +10763,19 @@
         <v>200088</v>
       </c>
       <c r="B293" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="D293" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="E293" s="13" t="s">
         <v>1149</v>
       </c>
-      <c r="E293" s="13" t="s">
-        <v>1150</v>
-      </c>
       <c r="F293" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="294" s="2" customFormat="1" spans="1:6">
@@ -10786,19 +10783,19 @@
         <v>200089</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="D294" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="E294" s="13" t="s">
         <v>1153</v>
       </c>
-      <c r="E294" s="13" t="s">
-        <v>1154</v>
-      </c>
       <c r="F294" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="295" s="2" customFormat="1" spans="1:6">
@@ -10806,19 +10803,19 @@
         <v>200090</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C295" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D295" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="E295" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="E295" s="13" t="s">
-        <v>1104</v>
-      </c>
       <c r="F295" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="296" s="2" customFormat="1" spans="1:6">
@@ -10826,19 +10823,19 @@
         <v>200091</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="D296" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="E296" s="13" t="s">
         <v>1158</v>
       </c>
-      <c r="E296" s="13" t="s">
-        <v>1159</v>
-      </c>
       <c r="F296" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="297" s="2" customFormat="1" spans="1:6">
@@ -10846,19 +10843,19 @@
         <v>200092</v>
       </c>
       <c r="B297" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="D297" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="E297" s="13" t="s">
         <v>1162</v>
       </c>
-      <c r="E297" s="13" t="s">
-        <v>1163</v>
-      </c>
       <c r="F297" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="298" s="2" customFormat="1" spans="1:6">
@@ -10866,19 +10863,19 @@
         <v>200093</v>
       </c>
       <c r="B298" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="D298" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="E298" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="E298" s="13" t="s">
-        <v>1167</v>
-      </c>
       <c r="F298" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="299" s="2" customFormat="1" spans="1:6">
@@ -10886,19 +10883,19 @@
         <v>200094</v>
       </c>
       <c r="B299" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="D299" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="E299" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="E299" s="13" t="s">
-        <v>1171</v>
-      </c>
       <c r="F299" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="300" s="2" customFormat="1" spans="1:6">
@@ -10906,19 +10903,19 @@
         <v>200095</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="D300" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="E300" s="13" t="s">
         <v>1174</v>
       </c>
-      <c r="E300" s="13" t="s">
-        <v>1175</v>
-      </c>
       <c r="F300" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="301" s="2" customFormat="1" spans="1:6">
@@ -10926,19 +10923,19 @@
         <v>200096</v>
       </c>
       <c r="B301" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="D301" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="D301" s="3" t="s">
+      <c r="E301" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="E301" s="13" t="s">
-        <v>1179</v>
-      </c>
       <c r="F301" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="302" s="2" customFormat="1" spans="1:6">
@@ -10946,19 +10943,19 @@
         <v>200097</v>
       </c>
       <c r="B302" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="D302" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="E302" s="13" t="s">
         <v>1182</v>
       </c>
-      <c r="E302" s="13" t="s">
-        <v>1183</v>
-      </c>
       <c r="F302" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="303" s="2" customFormat="1" spans="1:6">
@@ -10966,19 +10963,19 @@
         <v>200098</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="D303" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="E303" s="13" t="s">
         <v>1186</v>
       </c>
-      <c r="E303" s="13" t="s">
-        <v>1187</v>
-      </c>
       <c r="F303" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="304" s="2" customFormat="1" spans="1:6">
@@ -10986,19 +10983,19 @@
         <v>200099</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C304" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D304" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="E304" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="E304" s="13" t="s">
-        <v>1104</v>
-      </c>
       <c r="F304" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="305" s="2" customFormat="1" spans="1:6">
@@ -11006,19 +11003,19 @@
         <v>200100</v>
       </c>
       <c r="B305" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="D305" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="E305" s="13" t="s">
         <v>1191</v>
       </c>
-      <c r="E305" s="13" t="s">
-        <v>1192</v>
-      </c>
       <c r="F305" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="306" s="2" customFormat="1" spans="1:6">
@@ -11026,19 +11023,19 @@
         <v>200101</v>
       </c>
       <c r="B306" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="D306" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="D306" s="3" t="s">
+      <c r="E306" s="13" t="s">
         <v>1195</v>
       </c>
-      <c r="E306" s="13" t="s">
-        <v>1196</v>
-      </c>
       <c r="F306" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="307" s="2" customFormat="1" spans="1:6">
@@ -11046,19 +11043,19 @@
         <v>200102</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="D307" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="D307" s="3" t="s">
+      <c r="E307" s="13" t="s">
         <v>1199</v>
       </c>
-      <c r="E307" s="13" t="s">
-        <v>1200</v>
-      </c>
       <c r="F307" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="308" s="2" customFormat="1" spans="1:6">
@@ -11066,19 +11063,19 @@
         <v>200103</v>
       </c>
       <c r="B308" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="D308" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="E308" s="13" t="s">
         <v>1203</v>
       </c>
-      <c r="E308" s="13" t="s">
-        <v>1204</v>
-      </c>
       <c r="F308" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="309" s="2" customFormat="1" spans="1:6">
@@ -11086,19 +11083,19 @@
         <v>200104</v>
       </c>
       <c r="B309" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="D309" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="E309" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="E309" s="13" t="s">
-        <v>1208</v>
-      </c>
       <c r="F309" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="310" s="2" customFormat="1" spans="1:6">
@@ -11106,19 +11103,19 @@
         <v>200105</v>
       </c>
       <c r="B310" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="D310" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="E310" s="13" t="s">
         <v>1211</v>
       </c>
-      <c r="E310" s="13" t="s">
-        <v>1212</v>
-      </c>
       <c r="F310" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="311" s="2" customFormat="1" spans="1:6">
@@ -11126,19 +11123,19 @@
         <v>200106</v>
       </c>
       <c r="B311" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="D311" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="E311" s="13" t="s">
         <v>1215</v>
       </c>
-      <c r="E311" s="13" t="s">
-        <v>1216</v>
-      </c>
       <c r="F311" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="312" s="2" customFormat="1" spans="1:6">
@@ -11146,19 +11143,19 @@
         <v>200107</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="D312" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="E312" s="13" t="s">
         <v>1219</v>
       </c>
-      <c r="E312" s="13" t="s">
-        <v>1220</v>
-      </c>
       <c r="F312" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="313" s="2" customFormat="1" spans="1:6">
@@ -11166,19 +11163,19 @@
         <v>200108</v>
       </c>
       <c r="B313" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="D313" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="D313" s="3" t="s">
-        <v>1223</v>
-      </c>
       <c r="E313" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="314" s="2" customFormat="1" spans="1:6">
@@ -11186,19 +11183,19 @@
         <v>200109</v>
       </c>
       <c r="B314" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="D314" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="E314" s="13" t="s">
         <v>1226</v>
       </c>
-      <c r="E314" s="13" t="s">
-        <v>1227</v>
-      </c>
       <c r="F314" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="315" s="2" customFormat="1" spans="1:6">
@@ -11206,19 +11203,19 @@
         <v>200110</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C315" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D315" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="D315" s="3" t="s">
+      <c r="E315" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="E315" s="13" t="s">
-        <v>1104</v>
-      </c>
       <c r="F315" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="316" s="2" customFormat="1" spans="1:6">
@@ -11226,19 +11223,19 @@
         <v>200111</v>
       </c>
       <c r="B316" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="D316" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="E316" s="13" t="s">
         <v>1231</v>
       </c>
-      <c r="E316" s="13" t="s">
-        <v>1232</v>
-      </c>
       <c r="F316" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="317" s="2" customFormat="1" spans="1:6">
@@ -11246,19 +11243,19 @@
         <v>200112</v>
       </c>
       <c r="B317" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="D317" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="D317" s="3" t="s">
+      <c r="E317" s="13" t="s">
         <v>1235</v>
       </c>
-      <c r="E317" s="13" t="s">
-        <v>1236</v>
-      </c>
       <c r="F317" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="318" s="2" customFormat="1" spans="1:6">
@@ -11266,19 +11263,19 @@
         <v>200113</v>
       </c>
       <c r="B318" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="D318" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="E318" s="13" t="s">
         <v>1239</v>
       </c>
-      <c r="E318" s="13" t="s">
-        <v>1240</v>
-      </c>
       <c r="F318" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="319" s="2" customFormat="1" spans="1:6">
@@ -11286,19 +11283,19 @@
         <v>200114</v>
       </c>
       <c r="B319" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="D319" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="E319" s="13" t="s">
         <v>1243</v>
       </c>
-      <c r="E319" s="13" t="s">
-        <v>1244</v>
-      </c>
       <c r="F319" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="320" s="2" customFormat="1" spans="1:6">
@@ -11306,19 +11303,19 @@
         <v>200115</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C320" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D320" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="E320" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="E320" s="13" t="s">
-        <v>1104</v>
-      </c>
       <c r="F320" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="321" s="2" customFormat="1" spans="1:6">
@@ -11326,19 +11323,19 @@
         <v>200116</v>
       </c>
       <c r="B321" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="D321" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="D321" s="3" t="s">
+      <c r="E321" s="13" t="s">
         <v>1248</v>
       </c>
-      <c r="E321" s="13" t="s">
-        <v>1249</v>
-      </c>
       <c r="F321" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="322" s="2" customFormat="1" spans="1:6">
@@ -11346,19 +11343,19 @@
         <v>200117</v>
       </c>
       <c r="B322" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="D322" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="E322" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="E322" s="13" t="s">
-        <v>1253</v>
-      </c>
       <c r="F322" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="323" s="2" customFormat="1" spans="1:6">
@@ -11366,19 +11363,19 @@
         <v>200118</v>
       </c>
       <c r="B323" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="D323" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="E323" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="E323" s="13" t="s">
-        <v>1257</v>
-      </c>
       <c r="F323" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="324" s="2" customFormat="1" spans="1:6">
@@ -11386,19 +11383,19 @@
         <v>200119</v>
       </c>
       <c r="B324" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="D324" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="E324" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="E324" s="13" t="s">
-        <v>1261</v>
-      </c>
       <c r="F324" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="325" s="2" customFormat="1"/>
@@ -11407,19 +11404,19 @@
         <v>300000</v>
       </c>
       <c r="B326" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C326" s="14" t="s">
         <v>1262</v>
       </c>
-      <c r="C326" s="14" t="s">
+      <c r="D326" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="D326" s="3" t="s">
-        <v>1264</v>
-      </c>
       <c r="E326" s="14" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="327" s="2" customFormat="1" spans="1:6">
@@ -11427,19 +11424,19 @@
         <v>300001</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C327" s="14" t="s">
         <v>1265</v>
       </c>
-      <c r="C327" s="14" t="s">
+      <c r="D327" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="D327" s="3" t="s">
-        <v>1267</v>
-      </c>
       <c r="E327" s="14" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="328" s="2" customFormat="1" spans="1:6">
@@ -11447,19 +11444,19 @@
         <v>300002</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="D328" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="D328" s="3" t="s">
-        <v>1270</v>
-      </c>
       <c r="E328" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="329" s="2" customFormat="1" spans="1:6">
@@ -11467,19 +11464,19 @@
         <v>300003</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="D329" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="D329" s="3" t="s">
-        <v>1273</v>
-      </c>
       <c r="E329" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="330" s="2" customFormat="1" spans="1:6">
@@ -11487,19 +11484,19 @@
         <v>300004</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="D330" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="D330" s="3" t="s">
-        <v>1276</v>
-      </c>
       <c r="E330" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="331" s="2" customFormat="1" spans="1:6">
@@ -11507,19 +11504,19 @@
         <v>300005</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="D331" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="D331" s="3" t="s">
-        <v>1279</v>
-      </c>
       <c r="E331" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="332" s="2" customFormat="1" spans="1:4">
@@ -11527,13 +11524,13 @@
         <v>300006</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="D332" s="2" t="s">
         <v>1281</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="333" s="2" customFormat="1" spans="1:4">
@@ -11541,13 +11538,13 @@
         <v>300007</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="D333" s="2" t="s">
         <v>1284</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="334" s="2" customFormat="1" spans="1:4">
@@ -11555,13 +11552,13 @@
         <v>300008</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="D334" s="2" t="s">
         <v>1287</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="335" s="2" customFormat="1" spans="1:4">
@@ -11569,13 +11566,13 @@
         <v>300009</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="D335" s="2" t="s">
         <v>1290</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="336" s="2" customFormat="1" spans="1:4">
@@ -11583,13 +11580,13 @@
         <v>300010</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="D336" s="2" t="s">
         <v>1293</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="337" s="2" customFormat="1" spans="1:4">
@@ -11597,13 +11594,13 @@
         <v>300011</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="D337" s="2" t="s">
         <v>1296</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="338" s="2" customFormat="1" spans="1:4">
@@ -11611,13 +11608,13 @@
         <v>300012</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="D338" s="2" t="s">
         <v>1299</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="339" s="2" customFormat="1"/>

--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1316">
   <si>
     <t>int</t>
   </si>
@@ -3902,37 +3902,37 @@
     <t>RainbowText3</t>
   </si>
   <si>
-    <t>Level Count：{0}</t>
-  </si>
-  <si>
-    <t>关卡计数：{0}</t>
+    <t>Level Count：</t>
+  </si>
+  <si>
+    <t>关卡计数：</t>
   </si>
   <si>
     <t>RainbowText4</t>
   </si>
   <si>
-    <t>Star Count：{0}</t>
-  </si>
-  <si>
-    <t>获得星星：{0}</t>
+    <t>Star Count：</t>
+  </si>
+  <si>
+    <t>获得星星：</t>
   </si>
   <si>
     <t>RainbowText5</t>
   </si>
   <si>
-    <t>Time：{0}</t>
-  </si>
-  <si>
-    <t>时间：{0}</t>
+    <t>Time：</t>
+  </si>
+  <si>
+    <t>时间：</t>
   </si>
   <si>
     <t>RainbowText6</t>
   </si>
   <si>
-    <t>Total Star   {0}</t>
-  </si>
-  <si>
-    <t>星星总数   {0}</t>
+    <t xml:space="preserve">Total Star   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">星星总数   </t>
   </si>
   <si>
     <t>RainbowText7</t>
@@ -3942,6 +3942,54 @@
   </si>
   <si>
     <t>返回</t>
+  </si>
+  <si>
+    <t>RainbowText8</t>
+  </si>
+  <si>
+    <t>Pass a level</t>
+  </si>
+  <si>
+    <t>跳过一关</t>
+  </si>
+  <si>
+    <t>RainbowText9</t>
+  </si>
+  <si>
+    <t>RainbowText10</t>
+  </si>
+  <si>
+    <t>Your game count is insufficient！</t>
+  </si>
+  <si>
+    <t>你的游戏次数不足！</t>
+  </si>
+  <si>
+    <t>RainbowText11</t>
+  </si>
+  <si>
+    <t>Do you want to spend a game count to enter the Rainbow Run？</t>
+  </si>
+  <si>
+    <t>是否消耗一点游戏次数，进入rainbow跑酷？</t>
+  </si>
+  <si>
+    <t>RainbowText12</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>RainbowText13</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -5014,8 +5062,8 @@
   <sheetPr/>
   <dimension ref="A1:H661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -11617,12 +11665,90 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="339" s="2" customFormat="1"/>
-    <row r="340" s="2" customFormat="1"/>
-    <row r="341" s="2" customFormat="1"/>
-    <row r="342" s="2" customFormat="1"/>
-    <row r="343" s="2" customFormat="1"/>
-    <row r="344" s="2" customFormat="1"/>
+    <row r="339" s="2" customFormat="1" spans="1:4">
+      <c r="A339" s="2">
+        <v>300013</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="340" s="2" customFormat="1" spans="1:4">
+      <c r="A340" s="2">
+        <v>300014</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="341" s="2" customFormat="1" spans="1:4">
+      <c r="A341" s="2">
+        <v>300015</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="342" s="2" customFormat="1" spans="1:4">
+      <c r="A342" s="2">
+        <v>300016</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="343" s="2" customFormat="1" spans="1:4">
+      <c r="A343" s="2">
+        <v>300017</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="344" s="2" customFormat="1" spans="1:4">
+      <c r="A344" s="2">
+        <v>300018</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>1315</v>
+      </c>
+    </row>
     <row r="345" s="2" customFormat="1"/>
     <row r="346" s="2" customFormat="1"/>
     <row r="347" s="2" customFormat="1"/>

--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1331">
   <si>
     <t>int</t>
   </si>
@@ -3991,6 +3991,51 @@
   <si>
     <t>否</t>
   </si>
+  <si>
+    <t>addInvincible_Success</t>
+  </si>
+  <si>
+    <t>Enabling shield successfully！</t>
+  </si>
+  <si>
+    <t>添加护盾成功！</t>
+  </si>
+  <si>
+    <t>addInvincible_Fail</t>
+  </si>
+  <si>
+    <t>Enabling shield failed！</t>
+  </si>
+  <si>
+    <t>添加护盾失败！</t>
+  </si>
+  <si>
+    <t>Invincible_End</t>
+  </si>
+  <si>
+    <t>Shield end！</t>
+  </si>
+  <si>
+    <t>护盾结束！</t>
+  </si>
+  <si>
+    <t>autoFindPath_Fail</t>
+  </si>
+  <si>
+    <t>Automatic pathfinding failed！</t>
+  </si>
+  <si>
+    <t>自动寻路失败！</t>
+  </si>
+  <si>
+    <t>ObbyEnterWithoutTicket</t>
+  </si>
+  <si>
+    <t>Due to not failing in the last game，you do not counsume any game attempts this time！</t>
+  </si>
+  <si>
+    <t>由于上次在跑酷关内未失败，此次进入不消耗游戏次数！</t>
+  </si>
 </sst>
 </file>
 
@@ -4002,7 +4047,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4024,6 +4069,12 @@
       <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="微软雅黑"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4486,31 +4537,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4519,119 +4567,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4672,6 +4723,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5062,8 +5116,8 @@
   <sheetPr/>
   <dimension ref="A1:H661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="C345" sqref="C345"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -11749,11 +11803,76 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="345" s="2" customFormat="1"/>
-    <row r="346" s="2" customFormat="1"/>
-    <row r="347" s="2" customFormat="1"/>
-    <row r="348" s="2" customFormat="1"/>
-    <row r="349" s="2" customFormat="1"/>
+    <row r="345" s="2" customFormat="1" spans="1:4">
+      <c r="A345" s="2">
+        <v>300019</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="346" s="2" customFormat="1" spans="1:4">
+      <c r="A346" s="2">
+        <v>300020</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="347" s="2" customFormat="1" spans="1:4">
+      <c r="A347" s="2">
+        <v>300021</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="348" s="2" customFormat="1" ht="17.25" spans="1:4">
+      <c r="A348" s="2">
+        <v>300022</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D348" s="15" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="349" s="2" customFormat="1" spans="1:4">
+      <c r="A349" s="2">
+        <v>300023</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
     <row r="350" s="2" customFormat="1"/>
     <row r="351" s="2" customFormat="1"/>
     <row r="352" s="2" customFormat="1"/>

--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10A716-9841-4BDE-A02F-322248CB9B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1349">
   <si>
     <t>int</t>
   </si>
@@ -4036,18 +4040,76 @@
   <si>
     <t>由于上次在跑酷关内未失败，此次进入不消耗游戏次数！</t>
   </si>
+  <si>
+    <t>HomeResourcesName0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeResourcesName0002</t>
+  </si>
+  <si>
+    <t>HomeResourcesName0003</t>
+  </si>
+  <si>
+    <t>HomeResourcesName0004</t>
+  </si>
+  <si>
+    <t>木头</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄铜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bronze</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0002</t>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0003</t>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0004</t>
+  </si>
+  <si>
+    <t>Can be consumed in Homestead gameplay and used to build Homesteads</t>
+  </si>
+  <si>
+    <t>可以在家园玩法中消耗，用于建造家园</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4074,161 +4136,24 @@
       <sz val="10.5"/>
       <color rgb="FFCCCCCC"/>
       <name val="微软雅黑"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4241,194 +4166,8 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -4436,253 +4175,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4727,58 +4224,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -4851,6 +4307,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5108,19 +4567,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H661"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="D350" sqref="D350"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.625" customWidth="1"/>
@@ -5128,7 +4587,7 @@
     <col min="5" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5148,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5168,7 +4627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5188,7 +4647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -5206,7 +4665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5226,7 +4685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -5246,7 +4705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5266,7 +4725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5286,7 +4745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5306,7 +4765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5326,7 +4785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5346,7 +4805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5366,7 +4825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:6">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5386,7 +4845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5406,7 +4865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5426,7 +4885,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5446,7 +4905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5466,7 +4925,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:6">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5486,7 +4945,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5506,7 +4965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:6">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5526,7 +4985,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:6">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5546,7 +5005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:6">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5566,7 +5025,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:6">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5586,7 +5045,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:6">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5606,7 +5065,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5626,7 +5085,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -5646,7 +5105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -5666,7 +5125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -5686,7 +5145,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -5706,7 +5165,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -5726,7 +5185,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5746,7 +5205,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:6">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5766,7 +5225,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:6">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -5786,7 +5245,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:6">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -5806,7 +5265,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:6">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -5826,7 +5285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:6">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -5846,7 +5305,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:6">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -5866,7 +5325,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:6">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -5886,7 +5345,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:6">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -5906,7 +5365,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:6">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -5926,7 +5385,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:6">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -5946,7 +5405,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:6">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -5966,7 +5425,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:6">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -5986,7 +5445,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:6">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -6006,7 +5465,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:6">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -6026,7 +5485,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -6046,7 +5505,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:6">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -6066,7 +5525,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:6">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -6086,7 +5545,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:6">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -6106,7 +5565,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:6">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -6126,11 +5585,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:2">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:6">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>100101</v>
       </c>
@@ -6150,7 +5609,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:6">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>100102</v>
       </c>
@@ -6170,7 +5629,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:6">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>100103</v>
       </c>
@@ -6190,7 +5649,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:6">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>100104</v>
       </c>
@@ -6210,7 +5669,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:6">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>100105</v>
       </c>
@@ -6230,7 +5689,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:6">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>100106</v>
       </c>
@@ -6250,7 +5709,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:6">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>100107</v>
       </c>
@@ -6270,7 +5729,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:6">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>100108</v>
       </c>
@@ -6290,7 +5749,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:6">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>100109</v>
       </c>
@@ -6310,7 +5769,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:6">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>100110</v>
       </c>
@@ -6330,7 +5789,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:6">
+    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>100111</v>
       </c>
@@ -6350,7 +5809,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:6">
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>100112</v>
       </c>
@@ -6370,7 +5829,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" spans="1:6">
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>100113</v>
       </c>
@@ -6390,7 +5849,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" spans="1:6">
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -6398,7 +5857,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" s="2" customFormat="1" spans="1:6">
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>100201</v>
       </c>
@@ -6418,7 +5877,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" spans="1:6">
+    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>100202</v>
       </c>
@@ -6438,7 +5897,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" spans="1:6">
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>100203</v>
       </c>
@@ -6458,7 +5917,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:6">
+    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>100204</v>
       </c>
@@ -6478,7 +5937,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" spans="1:6">
+    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>100205</v>
       </c>
@@ -6498,7 +5957,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:6">
+    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>100206</v>
       </c>
@@ -6518,7 +5977,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:6">
+    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -6526,7 +5985,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" s="2" customFormat="1" spans="1:6">
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>101001</v>
       </c>
@@ -6546,7 +6005,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" spans="1:6">
+    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>101002</v>
       </c>
@@ -6566,11 +6025,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" spans="1:2">
+    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" s="2" customFormat="1" ht="17.25" spans="1:6">
+    <row r="76" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>102129</v>
       </c>
@@ -6590,7 +6049,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="17.25" spans="1:6">
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>102130</v>
       </c>
@@ -6610,7 +6069,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="17.25" spans="1:6">
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>102131</v>
       </c>
@@ -6630,7 +6089,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="17.25" spans="1:6">
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>102132</v>
       </c>
@@ -6650,7 +6109,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>102133</v>
       </c>
@@ -6670,7 +6129,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>102134</v>
       </c>
@@ -6690,7 +6149,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>102135</v>
       </c>
@@ -6710,7 +6169,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>102136</v>
       </c>
@@ -6730,7 +6189,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>102137</v>
       </c>
@@ -6750,7 +6209,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>102138</v>
       </c>
@@ -6770,7 +6229,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>102139</v>
       </c>
@@ -6790,7 +6249,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" ht="17.25" spans="1:6">
+    <row r="87" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>102140</v>
       </c>
@@ -6810,7 +6269,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>102141</v>
       </c>
@@ -6830,7 +6289,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>102142</v>
       </c>
@@ -6850,7 +6309,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>102143</v>
       </c>
@@ -6870,7 +6329,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>102144</v>
       </c>
@@ -6890,7 +6349,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>102145</v>
       </c>
@@ -6910,7 +6369,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>102146</v>
       </c>
@@ -6930,7 +6389,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>102147</v>
       </c>
@@ -6950,7 +6409,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>102148</v>
       </c>
@@ -6970,7 +6429,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>102149</v>
       </c>
@@ -6990,7 +6449,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="97" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>102150</v>
       </c>
@@ -7010,7 +6469,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="98" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>102151</v>
       </c>
@@ -7030,7 +6489,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="99" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>102152</v>
       </c>
@@ -7050,7 +6509,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="100" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>102153</v>
       </c>
@@ -7070,7 +6529,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="101" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>102154</v>
       </c>
@@ -7090,7 +6549,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="102" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>102155</v>
       </c>
@@ -7110,7 +6569,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="103" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>102156</v>
       </c>
@@ -7130,7 +6589,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="104" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>102157</v>
       </c>
@@ -7150,7 +6609,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="105" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>102158</v>
       </c>
@@ -7170,7 +6629,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="106" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>102159</v>
       </c>
@@ -7190,7 +6649,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="107" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -7198,7 +6657,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="108" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>103001</v>
       </c>
@@ -7218,7 +6677,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="109" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>103002</v>
       </c>
@@ -7238,7 +6697,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="110" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>103003</v>
       </c>
@@ -7258,7 +6717,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="111" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>103004</v>
       </c>
@@ -7278,7 +6737,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="112" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>103005</v>
       </c>
@@ -7298,7 +6757,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="113" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>103006</v>
       </c>
@@ -7318,11 +6777,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:2">
+    <row r="114" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="115" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>105001</v>
       </c>
@@ -7342,7 +6801,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="116" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>105002</v>
       </c>
@@ -7362,7 +6821,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="117" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>105003</v>
       </c>
@@ -7382,7 +6841,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="118" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>105004</v>
       </c>
@@ -7402,7 +6861,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="119" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>105005</v>
       </c>
@@ -7422,7 +6881,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="120" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>105006</v>
       </c>
@@ -7442,7 +6901,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="121" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>105051</v>
       </c>
@@ -7462,7 +6921,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="122" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>105101</v>
       </c>
@@ -7482,7 +6941,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="123" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>105102</v>
       </c>
@@ -7502,7 +6961,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="124" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>105103</v>
       </c>
@@ -7522,7 +6981,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="125" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>105201</v>
       </c>
@@ -7542,7 +7001,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="126" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>105202</v>
       </c>
@@ -7562,7 +7021,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="127" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>105203</v>
       </c>
@@ -7582,7 +7041,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="128" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>105204</v>
       </c>
@@ -7602,7 +7061,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="129" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>105205</v>
       </c>
@@ -7622,7 +7081,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="130" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>105206</v>
       </c>
@@ -7642,7 +7101,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="131" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>105301</v>
       </c>
@@ -7662,7 +7121,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="132" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>105302</v>
       </c>
@@ -7682,7 +7141,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="133" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>105303</v>
       </c>
@@ -7702,7 +7161,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="134" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>105304</v>
       </c>
@@ -7722,7 +7181,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="135" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>105305</v>
       </c>
@@ -7742,7 +7201,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="136" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>105306</v>
       </c>
@@ -7762,7 +7221,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="137" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>105307</v>
       </c>
@@ -7782,7 +7241,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="138" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>105308</v>
       </c>
@@ -7802,7 +7261,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="139" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>105401</v>
       </c>
@@ -7822,7 +7281,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="140" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>105402</v>
       </c>
@@ -7842,7 +7301,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="141" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>105403</v>
       </c>
@@ -7862,7 +7321,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="142" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>105404</v>
       </c>
@@ -7882,7 +7341,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="143" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>105405</v>
       </c>
@@ -7902,7 +7361,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="144" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>105406</v>
       </c>
@@ -7922,7 +7381,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="145" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>105407</v>
       </c>
@@ -7942,7 +7401,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="146" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>105501</v>
       </c>
@@ -7962,7 +7421,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="147" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>105502</v>
       </c>
@@ -7982,7 +7441,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="148" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>105503</v>
       </c>
@@ -8002,7 +7461,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="149" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>105504</v>
       </c>
@@ -8022,7 +7481,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="150" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>105505</v>
       </c>
@@ -8042,7 +7501,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="151" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>105506</v>
       </c>
@@ -8062,7 +7521,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="152" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>105507</v>
       </c>
@@ -8082,7 +7541,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="153" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>105508</v>
       </c>
@@ -8102,13 +7561,13 @@
         <v>607</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+    <row r="154" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="155" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>105601</v>
       </c>
@@ -8129,7 +7588,7 @@
       </c>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="156" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>105602</v>
       </c>
@@ -8150,7 +7609,7 @@
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+    <row r="157" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>105603</v>
       </c>
@@ -8172,7 +7631,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="158" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>105604</v>
       </c>
@@ -8193,7 +7652,7 @@
       </c>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="159" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>105605</v>
       </c>
@@ -8214,7 +7673,7 @@
       </c>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="160" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>105606</v>
       </c>
@@ -8235,7 +7694,7 @@
       </c>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="161" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>105607</v>
       </c>
@@ -8256,7 +7715,7 @@
       </c>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="162" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>105608</v>
       </c>
@@ -8277,7 +7736,7 @@
       </c>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="163" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>105609</v>
       </c>
@@ -8298,7 +7757,7 @@
       </c>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="164" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>105610</v>
       </c>
@@ -8319,7 +7778,7 @@
       </c>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="165" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>105611</v>
       </c>
@@ -8339,7 +7798,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="166" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>105612</v>
       </c>
@@ -8359,7 +7818,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="167" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="167" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>105613</v>
       </c>
@@ -8379,7 +7838,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="168" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>105614</v>
       </c>
@@ -8399,7 +7858,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="169" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="169" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>105615</v>
       </c>
@@ -8419,7 +7878,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="170" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="170" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>105616</v>
       </c>
@@ -8439,7 +7898,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="171" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="171" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>105617</v>
       </c>
@@ -8459,7 +7918,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="172" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="172" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>105618</v>
       </c>
@@ -8479,7 +7938,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="173" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="173" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>105619</v>
       </c>
@@ -8499,7 +7958,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="174" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>105620</v>
       </c>
@@ -8519,7 +7978,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="175" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>105621</v>
       </c>
@@ -8539,7 +7998,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="176" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>105622</v>
       </c>
@@ -8559,7 +8018,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="177" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>105623</v>
       </c>
@@ -8579,7 +8038,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="178" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="178" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>105624</v>
       </c>
@@ -8599,7 +8058,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="179" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>105625</v>
       </c>
@@ -8619,7 +8078,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="180" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>105626</v>
       </c>
@@ -8639,7 +8098,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="181" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>105627</v>
       </c>
@@ -8659,7 +8118,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="182" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>105628</v>
       </c>
@@ -8679,7 +8138,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="183" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="183" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>105629</v>
       </c>
@@ -8699,7 +8158,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="184" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>105630</v>
       </c>
@@ -8719,7 +8178,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="185" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="185" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>105631</v>
       </c>
@@ -8739,7 +8198,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="186" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>105632</v>
       </c>
@@ -8759,7 +8218,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="187" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="187" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>105633</v>
       </c>
@@ -8779,7 +8238,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="188" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="188" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>105634</v>
       </c>
@@ -8799,7 +8258,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="189" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>105635</v>
       </c>
@@ -8819,7 +8278,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="190" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>105636</v>
       </c>
@@ -8839,7 +8298,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="191" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>105637</v>
       </c>
@@ -8859,7 +8318,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="192" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>105638</v>
       </c>
@@ -8879,7 +8338,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="193" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="193" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>105639</v>
       </c>
@@ -8899,7 +8358,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="194" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>105640</v>
       </c>
@@ -8919,7 +8378,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="195" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>105641</v>
       </c>
@@ -8939,7 +8398,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="196" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="196" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>105642</v>
       </c>
@@ -8959,7 +8418,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="197" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="197" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>105643</v>
       </c>
@@ -8979,7 +8438,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="198" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>105644</v>
       </c>
@@ -8999,7 +8458,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="199" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="199" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>105645</v>
       </c>
@@ -9019,7 +8478,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="200" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="200" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>105646</v>
       </c>
@@ -9039,7 +8498,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="201" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="201" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>105647</v>
       </c>
@@ -9059,7 +8518,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="202" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="202" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>105648</v>
       </c>
@@ -9079,7 +8538,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="203" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="203" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>105649</v>
       </c>
@@ -9099,7 +8558,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="204" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="204" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>105650</v>
       </c>
@@ -9119,1693 +8578,1666 @@
         <v>807</v>
       </c>
     </row>
-    <row r="205" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="206" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A206" s="9">
+    <row r="205" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="1"/>
+      <c r="B205" s="4"/>
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>105701</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E206" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F206" s="17" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>105702</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E207" s="17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F207" s="17" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>105703</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E208" s="17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F208" s="17" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>105704</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E209" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F209" s="17" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="1"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="17"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="17"/>
+    </row>
+    <row r="211" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>105801</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F211" s="17" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>105802</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E212" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F212" s="17" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>105803</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E213" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F213" s="17" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>105804</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E214" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F214" s="17" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="9">
         <v>200001</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B216" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C216" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="D216" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="E206" s="11" t="s">
+      <c r="E216" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="F206" s="11" t="s">
+      <c r="F216" s="11" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="207" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A207" s="9">
+    <row r="217" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="9">
         <v>200002</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B217" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C217" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="D207" s="10" t="s">
+      <c r="D217" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="E207" s="11" t="s">
+      <c r="E217" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="F207" s="11" t="s">
+      <c r="F217" s="11" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="208" s="2" customFormat="1" spans="1:6">
-      <c r="A208" s="9">
+    <row r="218" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="9">
         <v>200003</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B218" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C218" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="D208" s="10" t="s">
+      <c r="D218" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="E208" s="11" t="s">
+      <c r="E218" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="F208" s="11" t="s">
+      <c r="F218" s="11" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="209" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A209" s="9">
+    <row r="219" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="9">
         <v>200004</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B219" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="C219" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="D209" s="10" t="s">
+      <c r="D219" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="E209" s="11" t="s">
+      <c r="E219" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="F209" s="11" t="s">
+      <c r="F219" s="11" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="210" s="2" customFormat="1" spans="1:6">
-      <c r="A210" s="9">
+    <row r="220" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="9">
         <v>200005</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B220" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C220" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="D210" s="10" t="s">
+      <c r="D220" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="E210" s="11" t="s">
+      <c r="E220" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="F210" s="11" t="s">
+      <c r="F220" s="11" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="211" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A211" s="9">
+    <row r="221" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="9">
         <v>200006</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B221" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C221" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D221" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="E211" s="11" t="s">
+      <c r="E221" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="F211" s="11" t="s">
+      <c r="F221" s="11" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="212" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A212" s="9">
+    <row r="222" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="9">
         <v>200007</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B222" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C222" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="D212" s="10" t="s">
+      <c r="D222" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="E212" s="11" t="s">
+      <c r="E222" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="F212" s="11" t="s">
+      <c r="F222" s="11" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="213" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A213" s="9">
+    <row r="223" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="9">
         <v>200008</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B223" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="C223" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="D223" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="E213" s="11" t="s">
+      <c r="E223" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="F213" s="11" t="s">
+      <c r="F223" s="11" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="214" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A214" s="9">
+    <row r="224" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="9">
         <v>200009</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B224" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C224" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D224" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="E214" s="11" t="s">
+      <c r="E224" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="F214" s="11" t="s">
+      <c r="F224" s="11" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="215" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A215" s="9">
+    <row r="225" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="9">
         <v>200010</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B225" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="C225" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D215" s="10" t="s">
+      <c r="D225" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="E215" s="11" t="s">
+      <c r="E225" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="F215" s="11" t="s">
+      <c r="F225" s="11" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="216" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A216" s="9">
+    <row r="226" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="9">
         <v>200011</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B226" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C226" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="D226" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="E216" s="11" t="s">
+      <c r="E226" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="F216" s="11" t="s">
+      <c r="F226" s="11" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="217" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A217" s="9">
+    <row r="227" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="9">
         <v>200012</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B227" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C227" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D227" s="10" t="s">
         <v>856</v>
       </c>
-      <c r="E217" s="11" t="s">
+      <c r="E227" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="F217" s="11" t="s">
+      <c r="F227" s="11" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="218" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A218" s="9">
+    <row r="228" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="9">
         <v>200013</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B228" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="C228" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="D218" s="10" t="s">
+      <c r="D228" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="E218" s="11" t="s">
+      <c r="E228" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="F218" s="11" t="s">
+      <c r="F228" s="11" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A219" s="9">
+    <row r="229" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="9">
         <v>200014</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B229" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C229" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="D219" s="10" t="s">
+      <c r="D229" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="E219" s="11" t="s">
+      <c r="E229" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="F219" s="11" t="s">
+      <c r="F229" s="11" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="220" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A220" s="9">
+    <row r="230" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="9">
         <v>200015</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B230" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="C230" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="D220" s="10" t="s">
+      <c r="D230" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="E220" s="11" t="s">
+      <c r="E230" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="F220" s="11" t="s">
+      <c r="F230" s="11" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="221" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A221" s="9">
+    <row r="231" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="9">
         <v>200016</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B231" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C231" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="D221" s="10" t="s">
+      <c r="D231" s="10" t="s">
         <v>872</v>
       </c>
-      <c r="E221" s="11" t="s">
+      <c r="E231" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="F221" s="11" t="s">
+      <c r="F231" s="11" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="222" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A222" s="9">
+    <row r="232" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="9">
         <v>200017</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B232" s="9" t="s">
         <v>874</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C232" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="D222" s="10" t="s">
+      <c r="D232" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="E222" s="11" t="s">
+      <c r="E232" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="F222" s="11" t="s">
+      <c r="F232" s="11" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="223" s="2" customFormat="1" spans="1:6">
-      <c r="A223" s="9">
+    <row r="233" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="9">
         <v>200018</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B233" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="C233" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="D223" s="10" t="s">
+      <c r="D233" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="E223" s="11" t="s">
+      <c r="E233" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="F223" s="11" t="s">
+      <c r="F233" s="11" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="224" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A224" s="9">
+    <row r="234" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="9">
         <v>200019</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B234" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="C234" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="D224" s="10" t="s">
+      <c r="D234" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="E224" s="11" t="s">
+      <c r="E234" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="F224" s="11" t="s">
+      <c r="F234" s="11" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="225" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A225" s="9">
+    <row r="235" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="9">
         <v>200020</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B235" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="C225" s="10" t="s">
+      <c r="C235" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="D225" s="10" t="s">
+      <c r="D235" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="E225" s="11" t="s">
+      <c r="E235" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="F225" s="11" t="s">
+      <c r="F235" s="11" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="226" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A226" s="9">
+    <row r="236" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="9">
         <v>200021</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B236" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="C226" s="10" t="s">
+      <c r="C236" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="D226" s="10" t="s">
+      <c r="D236" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="E226" s="11" t="s">
+      <c r="E236" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="F226" s="11" t="s">
+      <c r="F236" s="11" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="227" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A227" s="9">
+    <row r="237" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="9">
         <v>200022</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B237" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="C227" s="10" t="s">
+      <c r="C237" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="D227" s="10" t="s">
+      <c r="D237" s="10" t="s">
         <v>895</v>
       </c>
-      <c r="E227" s="11" t="s">
+      <c r="E237" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="F227" s="11" t="s">
+      <c r="F237" s="11" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="228" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A228" s="9">
+    <row r="238" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="9">
         <v>200023</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B238" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="C228" s="10" t="s">
+      <c r="C238" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="D228" s="10" t="s">
+      <c r="D238" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="E228" s="11" t="s">
+      <c r="E238" s="11" t="s">
         <v>900</v>
       </c>
-      <c r="F228" s="11" t="s">
+      <c r="F238" s="11" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="229" s="2" customFormat="1" spans="1:6">
-      <c r="A229" s="9">
+    <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="9">
         <v>200024</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B239" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="C229" s="10" t="s">
+      <c r="C239" s="10" t="s">
         <v>902</v>
       </c>
-      <c r="D229" s="10" t="s">
+      <c r="D239" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="E229" s="11" t="s">
+      <c r="E239" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="F229" s="11" t="s">
+      <c r="F239" s="11" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="230" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A230" s="9">
+    <row r="240" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="9">
         <v>200025</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B240" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="C230" s="10" t="s">
+      <c r="C240" s="10" t="s">
         <v>906</v>
       </c>
-      <c r="D230" s="10" t="s">
+      <c r="D240" s="10" t="s">
         <v>907</v>
       </c>
-      <c r="E230" s="11" t="s">
+      <c r="E240" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="F230" s="11" t="s">
+      <c r="F240" s="11" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="231" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A231" s="9">
+    <row r="241" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="9">
         <v>200026</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B241" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="C231" s="10" t="s">
+      <c r="C241" s="10" t="s">
         <v>910</v>
       </c>
-      <c r="D231" s="10" t="s">
+      <c r="D241" s="10" t="s">
         <v>911</v>
       </c>
-      <c r="E231" s="11" t="s">
+      <c r="E241" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="F231" s="11" t="s">
+      <c r="F241" s="11" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="232" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A232" s="9">
+    <row r="242" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="9">
         <v>200027</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B242" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="C232" s="10" t="s">
+      <c r="C242" s="10" t="s">
         <v>914</v>
       </c>
-      <c r="D232" s="10" t="s">
+      <c r="D242" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="E232" s="11" t="s">
+      <c r="E242" s="11" t="s">
         <v>916</v>
       </c>
-      <c r="F232" s="11" t="s">
+      <c r="F242" s="11" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="233" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A233" s="9">
+    <row r="243" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="9">
         <v>200028</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B243" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="C233" s="10" t="s">
+      <c r="C243" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="D233" s="10" t="s">
+      <c r="D243" s="10" t="s">
         <v>919</v>
       </c>
-      <c r="E233" s="11" t="s">
+      <c r="E243" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="F233" s="11" t="s">
+      <c r="F243" s="11" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="234" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A234" s="9">
+    <row r="244" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="9">
         <v>200029</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B244" s="9" t="s">
         <v>921</v>
       </c>
-      <c r="C234" s="10" t="s">
+      <c r="C244" s="10" t="s">
         <v>922</v>
       </c>
-      <c r="D234" s="10" t="s">
+      <c r="D244" s="10" t="s">
         <v>923</v>
       </c>
-      <c r="E234" s="11" t="s">
+      <c r="E244" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="F234" s="11" t="s">
+      <c r="F244" s="11" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="235" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A235" s="9">
+    <row r="245" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="9">
         <v>200030</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B245" s="9" t="s">
         <v>925</v>
       </c>
-      <c r="C235" s="10" t="s">
+      <c r="C245" s="10" t="s">
         <v>926</v>
       </c>
-      <c r="D235" s="10" t="s">
+      <c r="D245" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="E235" s="11" t="s">
+      <c r="E245" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="F235" s="11" t="s">
+      <c r="F245" s="11" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="236" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A236" s="9">
+    <row r="246" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="9">
         <v>200031</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B246" s="9" t="s">
         <v>929</v>
       </c>
-      <c r="C236" s="10" t="s">
+      <c r="C246" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="D236" s="10" t="s">
+      <c r="D246" s="10" t="s">
         <v>931</v>
       </c>
-      <c r="E236" s="11" t="s">
+      <c r="E246" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="F236" s="11" t="s">
+      <c r="F246" s="11" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="237" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A237" s="9">
+    <row r="247" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="9">
         <v>200032</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B247" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="C237" s="10" t="s">
+      <c r="C247" s="10" t="s">
         <v>934</v>
       </c>
-      <c r="D237" s="10" t="s">
+      <c r="D247" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="E237" s="11" t="s">
+      <c r="E247" s="11" t="s">
         <v>936</v>
       </c>
-      <c r="F237" s="11" t="s">
+      <c r="F247" s="11" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="238" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A238" s="9">
+    <row r="248" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="9">
         <v>200033</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B248" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="C238" s="10" t="s">
+      <c r="C248" s="10" t="s">
         <v>938</v>
       </c>
-      <c r="D238" s="10" t="s">
+      <c r="D248" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="E238" s="11" t="s">
+      <c r="E248" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="F238" s="11" t="s">
+      <c r="F248" s="11" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="239" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A239" s="9">
+    <row r="249" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="9">
         <v>200034</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B249" s="9" t="s">
         <v>941</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="C249" s="10" t="s">
         <v>942</v>
       </c>
-      <c r="D239" s="10" t="s">
+      <c r="D249" s="10" t="s">
         <v>943</v>
       </c>
-      <c r="E239" s="11" t="s">
+      <c r="E249" s="11" t="s">
         <v>944</v>
       </c>
-      <c r="F239" s="11" t="s">
+      <c r="F249" s="11" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="240" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A240" s="9">
+    <row r="250" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="9">
         <v>200035</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B250" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="C240" s="10" t="s">
+      <c r="C250" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="D240" s="10" t="s">
+      <c r="D250" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="E240" s="11" t="s">
+      <c r="E250" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="F240" s="11" t="s">
+      <c r="F250" s="11" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="241" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A241" s="9">
+    <row r="251" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="9">
         <v>200036</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B251" s="9" t="s">
         <v>949</v>
       </c>
-      <c r="C241" s="10" t="s">
+      <c r="C251" s="10" t="s">
         <v>950</v>
       </c>
-      <c r="D241" s="10" t="s">
+      <c r="D251" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="E241" s="11" t="s">
+      <c r="E251" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="F241" s="11" t="s">
+      <c r="F251" s="11" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="242" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A242" s="9">
+    <row r="252" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="9">
         <v>200037</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B252" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="C242" s="10" t="s">
+      <c r="C252" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="D242" s="10" t="s">
+      <c r="D252" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="E242" s="11" t="s">
+      <c r="E252" s="11" t="s">
         <v>956</v>
       </c>
-      <c r="F242" s="11" t="s">
+      <c r="F252" s="11" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="243" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A243" s="9">
+    <row r="253" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="9">
         <v>200038</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B253" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="C253" s="10" t="s">
         <v>958</v>
       </c>
-      <c r="D243" s="10" t="s">
+      <c r="D253" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="E243" s="11" t="s">
+      <c r="E253" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="F243" s="11" t="s">
+      <c r="F253" s="11" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="244" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A244" s="9">
+    <row r="254" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="9">
         <v>200039</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B254" s="9" t="s">
         <v>961</v>
       </c>
-      <c r="C244" s="10" t="s">
+      <c r="C254" s="10" t="s">
         <v>962</v>
       </c>
-      <c r="D244" s="10" t="s">
+      <c r="D254" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="E244" s="11" t="s">
+      <c r="E254" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="F244" s="11" t="s">
+      <c r="F254" s="11" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="245" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A245" s="9">
+    <row r="255" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="9">
         <v>200040</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B255" s="9" t="s">
         <v>965</v>
       </c>
-      <c r="C245" s="11" t="s">
+      <c r="C255" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="D245" s="12" t="s">
+      <c r="D255" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="E245" s="11" t="s">
+      <c r="E255" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="F245" s="11" t="s">
+      <c r="F255" s="11" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="246" s="2" customFormat="1" spans="1:6">
-      <c r="A246" s="9">
+    <row r="256" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="9">
         <v>200041</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B256" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="C246" s="12" t="s">
+      <c r="C256" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="D246" s="12" t="s">
+      <c r="D256" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="E246" s="11" t="s">
+      <c r="E256" s="11" t="s">
         <v>972</v>
       </c>
-      <c r="F246" s="11" t="s">
+      <c r="F256" s="11" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="247" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A247" s="9">
+    <row r="257" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="9">
         <v>200042</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B257" s="9" t="s">
         <v>973</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="C257" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D247" s="11" t="s">
+      <c r="D257" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="E247" s="11" t="s">
+      <c r="E257" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="F247" s="11" t="s">
+      <c r="F257" s="11" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="248" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A248" s="9">
+    <row r="258" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="9">
         <v>200043</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B258" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="C248" s="11" t="s">
+      <c r="C258" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="D248" s="11" t="s">
+      <c r="D258" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="E248" s="11" t="s">
+      <c r="E258" s="11" t="s">
         <v>980</v>
       </c>
-      <c r="F248" s="11" t="s">
+      <c r="F258" s="11" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="249" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A249" s="9">
+    <row r="259" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="9">
         <v>200044</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B259" s="9" t="s">
         <v>981</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="C259" s="11" t="s">
         <v>982</v>
       </c>
-      <c r="D249" s="11" t="s">
+      <c r="D259" s="11" t="s">
         <v>983</v>
       </c>
-      <c r="E249" s="11" t="s">
+      <c r="E259" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="F249" s="11" t="s">
+      <c r="F259" s="11" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="250" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A250" s="9">
+    <row r="260" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="9">
         <v>200045</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B260" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="C250" s="11" t="s">
+      <c r="C260" s="11" t="s">
         <v>986</v>
       </c>
-      <c r="D250" s="11" t="s">
+      <c r="D260" s="11" t="s">
         <v>987</v>
       </c>
-      <c r="E250" s="11" t="s">
+      <c r="E260" s="11" t="s">
         <v>988</v>
       </c>
-      <c r="F250" s="11" t="s">
+      <c r="F260" s="11" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="251" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A251" s="9">
+    <row r="261" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="9">
         <v>200046</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B261" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="C251" s="11" t="s">
+      <c r="C261" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="D251" s="11" t="s">
+      <c r="D261" s="11" t="s">
         <v>991</v>
       </c>
-      <c r="E251" s="11" t="s">
+      <c r="E261" s="11" t="s">
         <v>992</v>
       </c>
-      <c r="F251" s="11" t="s">
+      <c r="F261" s="11" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="252" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A252" s="9">
+    <row r="262" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="9">
         <v>200047</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B262" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="C252" s="12" t="s">
+      <c r="C262" s="12" t="s">
         <v>994</v>
       </c>
-      <c r="D252" s="12" t="s">
+      <c r="D262" s="12" t="s">
         <v>995</v>
       </c>
-      <c r="E252" s="11" t="s">
+      <c r="E262" s="11" t="s">
         <v>996</v>
       </c>
-      <c r="F252" s="11" t="s">
+      <c r="F262" s="11" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="253" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A253" s="9">
+    <row r="263" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="9">
         <v>200048</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B263" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="C253" s="11" t="s">
+      <c r="C263" s="11" t="s">
         <v>998</v>
       </c>
-      <c r="D253" s="11" t="s">
+      <c r="D263" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="E253" s="11" t="s">
+      <c r="E263" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="F253" s="11" t="s">
+      <c r="F263" s="11" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="254" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A254" s="9">
+    <row r="264" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="9">
         <v>200049</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B264" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="C254" s="12" t="s">
+      <c r="C264" s="12" t="s">
         <v>1002</v>
       </c>
-      <c r="D254" s="12" t="s">
+      <c r="D264" s="12" t="s">
         <v>1003</v>
       </c>
-      <c r="E254" s="11" t="s">
+      <c r="E264" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="F254" s="11" t="s">
+      <c r="F264" s="11" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="255" s="2" customFormat="1" spans="1:6">
-      <c r="A255" s="9">
+    <row r="265" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="9">
         <v>200050</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B265" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="C255" s="12" t="s">
+      <c r="C265" s="12" t="s">
         <v>1006</v>
       </c>
-      <c r="D255" s="12" t="s">
+      <c r="D265" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="E255" s="11" t="s">
+      <c r="E265" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="F255" s="11" t="s">
+      <c r="F265" s="11" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="256" s="2" customFormat="1" spans="1:6">
-      <c r="A256" s="9">
+    <row r="266" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="9">
         <v>200051</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B266" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="C256" s="11" t="s">
+      <c r="C266" s="11" t="s">
         <v>1010</v>
       </c>
-      <c r="D256" s="11" t="s">
+      <c r="D266" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="E256" s="11" t="s">
+      <c r="E266" s="11" t="s">
         <v>1012</v>
       </c>
-      <c r="F256" s="11" t="s">
+      <c r="F266" s="11" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="257" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A257" s="9">
+    <row r="267" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="9">
         <v>200052</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B267" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="C257" s="11" t="s">
+      <c r="C267" s="11" t="s">
         <v>1014</v>
       </c>
-      <c r="D257" s="11" t="s">
+      <c r="D267" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="E257" s="11" t="s">
+      <c r="E267" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="F257" s="11" t="s">
+      <c r="F267" s="11" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="258" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A258" s="9">
+    <row r="268" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="9">
         <v>200053</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B268" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="C258" s="11" t="s">
+      <c r="C268" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="D258" s="11" t="s">
+      <c r="D268" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="E258" s="11" t="s">
+      <c r="E268" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="F258" s="11" t="s">
+      <c r="F268" s="11" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="259" s="2" customFormat="1" spans="1:6">
-      <c r="A259" s="9">
+    <row r="269" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="9">
         <v>200054</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B269" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="C259" s="11" t="s">
+      <c r="C269" s="11" t="s">
         <v>1022</v>
       </c>
-      <c r="D259" s="11" t="s">
+      <c r="D269" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="E259" s="11" t="s">
+      <c r="E269" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="F259" s="11" t="s">
+      <c r="F269" s="11" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="260" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A260" s="9">
+    <row r="270" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="9">
         <v>200055</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="B270" s="9" t="s">
         <v>1025</v>
       </c>
-      <c r="C260" s="11" t="s">
+      <c r="C270" s="11" t="s">
         <v>1026</v>
       </c>
-      <c r="D260" s="11" t="s">
+      <c r="D270" s="11" t="s">
         <v>1027</v>
       </c>
-      <c r="E260" s="11" t="s">
+      <c r="E270" s="11" t="s">
         <v>1028</v>
       </c>
-      <c r="F260" s="11" t="s">
+      <c r="F270" s="11" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="261" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A261" s="9">
+    <row r="271" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="9">
         <v>200056</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="B271" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="C261" s="12" t="s">
+      <c r="C271" s="12" t="s">
         <v>1030</v>
       </c>
-      <c r="D261" s="12" t="s">
+      <c r="D271" s="12" t="s">
         <v>1031</v>
       </c>
-      <c r="E261" s="11" t="s">
+      <c r="E271" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="F261" s="11" t="s">
+      <c r="F271" s="11" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="262" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A262" s="9">
+    <row r="272" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="9">
         <v>200057</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="B272" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="C262" s="11" t="s">
+      <c r="C272" s="11" t="s">
         <v>1034</v>
       </c>
-      <c r="D262" s="11" t="s">
+      <c r="D272" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="E262" s="11" t="s">
+      <c r="E272" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="F262" s="11" t="s">
+      <c r="F272" s="11" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="263" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A263" s="9">
+    <row r="273" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="9">
         <v>200058</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B273" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="C263" s="12" t="s">
+      <c r="C273" s="12" t="s">
         <v>1038</v>
       </c>
-      <c r="D263" s="12" t="s">
+      <c r="D273" s="12" t="s">
         <v>1039</v>
       </c>
-      <c r="E263" s="11" t="s">
+      <c r="E273" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="F263" s="11" t="s">
+      <c r="F273" s="11" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="264" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A264" s="9">
+    <row r="274" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="9">
         <v>200059</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B274" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="C264" s="12" t="s">
+      <c r="C274" s="12" t="s">
         <v>1042</v>
       </c>
-      <c r="D264" s="12" t="s">
+      <c r="D274" s="12" t="s">
         <v>1043</v>
       </c>
-      <c r="E264" s="11" t="s">
+      <c r="E274" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="F264" s="11" t="s">
+      <c r="F274" s="11" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="265" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A265" s="9">
+    <row r="275" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="9">
         <v>200060</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B275" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="C265" s="11" t="s">
+      <c r="C275" s="11" t="s">
         <v>1046</v>
       </c>
-      <c r="D265" s="12" t="s">
+      <c r="D275" s="12" t="s">
         <v>1047</v>
       </c>
-      <c r="E265" s="11" t="s">
+      <c r="E275" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="F265" s="11" t="s">
+      <c r="F275" s="11" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="266" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A266" s="9">
+    <row r="276" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="9">
         <v>200061</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B276" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="C266" s="11" t="s">
+      <c r="C276" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="D266" s="11" t="s">
+      <c r="D276" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="E266" s="11" t="s">
+      <c r="E276" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="F266" s="11" t="s">
+      <c r="F276" s="11" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="267" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A267" s="9">
+    <row r="277" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="9">
         <v>200062</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="B277" s="9" t="s">
         <v>1053</v>
       </c>
-      <c r="C267" s="11" t="s">
+      <c r="C277" s="11" t="s">
         <v>1054</v>
       </c>
-      <c r="D267" s="12" t="s">
+      <c r="D277" s="12" t="s">
         <v>1055</v>
       </c>
-      <c r="E267" s="11" t="s">
+      <c r="E277" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="F267" s="11" t="s">
+      <c r="F277" s="11" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="268" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A268" s="9">
+    <row r="278" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="9">
         <v>200063</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B278" s="9" t="s">
         <v>1057</v>
       </c>
-      <c r="C268" s="12" t="s">
+      <c r="C278" s="12" t="s">
         <v>1058</v>
       </c>
-      <c r="D268" s="12" t="s">
+      <c r="D278" s="12" t="s">
         <v>1031</v>
       </c>
-      <c r="E268" s="11" t="s">
+      <c r="E278" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="F268" s="11" t="s">
+      <c r="F278" s="11" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="269" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A269" s="9">
+    <row r="279" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="9">
         <v>200064</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B279" s="9" t="s">
         <v>1059</v>
       </c>
-      <c r="C269" s="12" t="s">
+      <c r="C279" s="12" t="s">
         <v>1060</v>
       </c>
-      <c r="D269" s="12" t="s">
+      <c r="D279" s="12" t="s">
         <v>1061</v>
       </c>
-      <c r="E269" s="11" t="s">
+      <c r="E279" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="F269" s="11" t="s">
+      <c r="F279" s="11" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="270" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A270" s="9">
+    <row r="280" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="9">
         <v>200065</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B280" s="9" t="s">
         <v>1063</v>
       </c>
-      <c r="C270" s="12" t="s">
+      <c r="C280" s="12" t="s">
         <v>1064</v>
       </c>
-      <c r="D270" s="12" t="s">
+      <c r="D280" s="12" t="s">
         <v>1065</v>
       </c>
-      <c r="E270" s="11" t="s">
+      <c r="E280" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="F270" s="11" t="s">
+      <c r="F280" s="11" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="271" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A271" s="9">
+    <row r="281" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="9">
         <v>200066</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B281" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="C271" s="12" t="s">
+      <c r="C281" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="D271" s="12" t="s">
+      <c r="D281" s="12" t="s">
         <v>1069</v>
       </c>
-      <c r="E271" s="11" t="s">
+      <c r="E281" s="11" t="s">
         <v>1070</v>
       </c>
-      <c r="F271" s="11" t="s">
+      <c r="F281" s="11" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="272" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A272" s="9">
+    <row r="282" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="9">
         <v>200067</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B282" s="9" t="s">
         <v>1071</v>
       </c>
-      <c r="C272" s="11" t="s">
+      <c r="C282" s="11" t="s">
         <v>1072</v>
       </c>
-      <c r="D272" s="12" t="s">
+      <c r="D282" s="12" t="s">
         <v>1073</v>
       </c>
-      <c r="E272" s="11" t="s">
+      <c r="E282" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="F272" s="11" t="s">
+      <c r="F282" s="11" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="273" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A273" s="9">
+    <row r="283" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="9">
         <v>200068</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="B283" s="9" t="s">
         <v>1075</v>
       </c>
-      <c r="C273" s="11" t="s">
+      <c r="C283" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="D273" s="11" t="s">
+      <c r="D283" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="E273" s="11" t="s">
+      <c r="E283" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="F273" s="11" t="s">
+      <c r="F283" s="11" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="274" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A274" s="9">
+    <row r="284" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="9">
         <v>200069</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B284" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="C274" s="12" t="s">
+      <c r="C284" s="12" t="s">
         <v>1058</v>
       </c>
-      <c r="D274" s="12" t="s">
+      <c r="D284" s="12" t="s">
         <v>1031</v>
       </c>
-      <c r="E274" s="11" t="s">
+      <c r="E284" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="F274" s="11" t="s">
+      <c r="F284" s="11" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="275" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A275" s="9">
+    <row r="285" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="9">
         <v>200070</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B285" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="C275" s="12" t="s">
+      <c r="C285" s="12" t="s">
         <v>1081</v>
       </c>
-      <c r="D275" s="12" t="s">
+      <c r="D285" s="12" t="s">
         <v>1082</v>
       </c>
-      <c r="E275" s="11" t="s">
+      <c r="E285" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="F275" s="11" t="s">
+      <c r="F285" s="11" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="276" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A276" s="9">
+    <row r="286" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="9">
         <v>200071</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B286" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="C276" s="12" t="s">
+      <c r="C286" s="12" t="s">
         <v>1085</v>
       </c>
-      <c r="D276" s="12" t="s">
+      <c r="D286" s="12" t="s">
         <v>1086</v>
       </c>
-      <c r="E276" s="11" t="s">
+      <c r="E286" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="F276" s="11" t="s">
+      <c r="F286" s="11" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="277" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A277" s="4">
+    <row r="287" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="4">
         <v>200072</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B287" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C287" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D287" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="E277" s="2" t="s">
+      <c r="E287" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="F277" s="2" t="s">
+      <c r="F287" s="2" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="278" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A278" s="4">
+    <row r="288" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="4">
         <v>200073</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B288" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C288" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D288" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E288" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="F278" s="2" t="s">
+      <c r="F288" s="2" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="279" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A279" s="4">
+    <row r="289" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="4">
         <v>200074</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B289" s="4" t="s">
         <v>1096</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C289" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D289" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="E279" s="2" t="s">
+      <c r="E289" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="F279" s="2" t="s">
+      <c r="F289" s="2" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="280" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A280" s="4">
+    <row r="290" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="4">
         <v>200075</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B290" s="4" t="s">
         <v>1100</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="281" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A281" s="4">
-        <v>200076</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="282" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A282" s="4">
-        <v>200077</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="283" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A283" s="4">
-        <v>200078</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="284" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A284" s="4">
-        <v>200079</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="285" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A285" s="4">
-        <v>200080</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="286" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A286" s="4">
-        <v>200081</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="287" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A287" s="4">
-        <v>200082</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E287" s="13" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="288" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A288" s="4">
-        <v>200083</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E288" s="13" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="289" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A289" s="4">
-        <v>200084</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E289" s="13" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="290" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A290" s="4">
-        <v>200085</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>1137</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>1101</v>
@@ -10813,99 +10245,99 @@
       <c r="D290" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="E290" s="13" t="s">
+      <c r="E290" s="3" t="s">
         <v>1103</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="291" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="291" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="4">
-        <v>200086</v>
+        <v>200076</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>1138</v>
+        <v>1104</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1139</v>
+        <v>1105</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E291" s="13" t="s">
-        <v>1141</v>
+        <v>1106</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>1107</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="292" s="2" customFormat="1" spans="1:6">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="4">
-        <v>200087</v>
+        <v>200077</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>1142</v>
+        <v>1108</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>1143</v>
+        <v>1109</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E292" s="13" t="s">
-        <v>1145</v>
+        <v>1110</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>1111</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="293" s="2" customFormat="1" spans="1:6">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="4">
-        <v>200088</v>
+        <v>200078</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>1146</v>
+        <v>1112</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>1147</v>
+        <v>1113</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E293" s="13" t="s">
-        <v>1149</v>
+        <v>1114</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>1115</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="294" s="2" customFormat="1" spans="1:6">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="4">
-        <v>200089</v>
+        <v>200079</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1150</v>
+        <v>1116</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>1151</v>
+        <v>1117</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E294" s="13" t="s">
-        <v>1153</v>
+        <v>1118</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>1119</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="295" s="2" customFormat="1" spans="1:6">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="4">
-        <v>200090</v>
+        <v>200080</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>1154</v>
+        <v>1120</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>1101</v>
@@ -10913,1289 +10345,1489 @@
       <c r="D295" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="E295" s="13" t="s">
+      <c r="E295" s="2" t="s">
         <v>1103</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="296" s="2" customFormat="1" spans="1:6">
+    <row r="296" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4">
+        <v>200081</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="4">
+        <v>200082</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E297" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="4">
+        <v>200083</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E298" s="13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="4">
+        <v>200084</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E299" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="4">
+        <v>200085</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E300" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="4">
+        <v>200086</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E301" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="4">
+        <v>200087</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E302" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="4">
+        <v>200088</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E303" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="4">
+        <v>200089</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E304" s="13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="4">
+        <v>200090</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E305" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="4">
         <v>200091</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B306" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C306" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D306" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="E296" s="13" t="s">
+      <c r="E306" s="13" t="s">
         <v>1158</v>
       </c>
-      <c r="F296" s="2" t="s">
+      <c r="F306" s="2" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="297" s="2" customFormat="1" spans="1:6">
-      <c r="A297" s="4">
+    <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="4">
         <v>200092</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B307" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C307" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D307" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="E297" s="13" t="s">
+      <c r="E307" s="13" t="s">
         <v>1162</v>
       </c>
-      <c r="F297" s="2" t="s">
+      <c r="F307" s="2" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="298" s="2" customFormat="1" spans="1:6">
-      <c r="A298" s="4">
+    <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="4">
         <v>200093</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B308" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C308" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="D308" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="E298" s="13" t="s">
+      <c r="E308" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="F298" s="2" t="s">
+      <c r="F308" s="2" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="299" s="2" customFormat="1" spans="1:6">
-      <c r="A299" s="4">
+    <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="4">
         <v>200094</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B309" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C309" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D309" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="E299" s="13" t="s">
+      <c r="E309" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="F299" s="2" t="s">
+      <c r="F309" s="2" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="300" s="2" customFormat="1" spans="1:6">
-      <c r="A300" s="4">
+    <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="4">
         <v>200095</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B310" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C310" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D310" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="E300" s="13" t="s">
+      <c r="E310" s="13" t="s">
         <v>1174</v>
       </c>
-      <c r="F300" s="2" t="s">
+      <c r="F310" s="2" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="301" s="2" customFormat="1" spans="1:6">
-      <c r="A301" s="4">
+    <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="4">
         <v>200096</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B311" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C311" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="D301" s="3" t="s">
+      <c r="D311" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="E301" s="13" t="s">
+      <c r="E311" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="F301" s="2" t="s">
+      <c r="F311" s="2" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="302" s="2" customFormat="1" spans="1:6">
-      <c r="A302" s="4">
+    <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="4">
         <v>200097</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B312" s="4" t="s">
         <v>1179</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C312" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D312" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="E302" s="13" t="s">
+      <c r="E312" s="13" t="s">
         <v>1182</v>
       </c>
-      <c r="F302" s="2" t="s">
+      <c r="F312" s="2" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="303" s="2" customFormat="1" spans="1:6">
-      <c r="A303" s="4">
+    <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="4">
         <v>200098</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B313" s="4" t="s">
         <v>1183</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C313" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="D313" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="E303" s="13" t="s">
+      <c r="E313" s="13" t="s">
         <v>1186</v>
       </c>
-      <c r="F303" s="2" t="s">
+      <c r="F313" s="2" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="304" s="2" customFormat="1" spans="1:6">
-      <c r="A304" s="4">
+    <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="4">
         <v>200099</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B314" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C314" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D314" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="E304" s="13" t="s">
+      <c r="E314" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="F304" s="2" t="s">
+      <c r="F314" s="2" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="305" s="2" customFormat="1" spans="1:6">
-      <c r="A305" s="4">
+    <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="4">
         <v>200100</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B315" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C315" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="D315" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="E305" s="13" t="s">
+      <c r="E315" s="13" t="s">
         <v>1191</v>
       </c>
-      <c r="F305" s="2" t="s">
+      <c r="F315" s="2" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="306" s="2" customFormat="1" spans="1:6">
-      <c r="A306" s="4">
+    <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="4">
         <v>200101</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B316" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C316" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="D306" s="3" t="s">
+      <c r="D316" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="E306" s="13" t="s">
+      <c r="E316" s="13" t="s">
         <v>1195</v>
       </c>
-      <c r="F306" s="2" t="s">
+      <c r="F316" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="307" s="2" customFormat="1" spans="1:6">
-      <c r="A307" s="4">
+    <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="4">
         <v>200102</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B317" s="4" t="s">
         <v>1196</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C317" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="D307" s="3" t="s">
+      <c r="D317" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="E307" s="13" t="s">
+      <c r="E317" s="13" t="s">
         <v>1199</v>
       </c>
-      <c r="F307" s="2" t="s">
+      <c r="F317" s="2" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="308" s="2" customFormat="1" spans="1:6">
-      <c r="A308" s="4">
+    <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="4">
         <v>200103</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B318" s="4" t="s">
         <v>1200</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C318" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="D318" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="E308" s="13" t="s">
+      <c r="E318" s="13" t="s">
         <v>1203</v>
       </c>
-      <c r="F308" s="2" t="s">
+      <c r="F318" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="309" s="2" customFormat="1" spans="1:6">
-      <c r="A309" s="4">
+    <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="4">
         <v>200104</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B319" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C319" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="D319" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="E309" s="13" t="s">
+      <c r="E319" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="F309" s="2" t="s">
+      <c r="F319" s="2" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="310" s="2" customFormat="1" spans="1:6">
-      <c r="A310" s="4">
+    <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="4">
         <v>200105</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B320" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C320" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="D320" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="E310" s="13" t="s">
+      <c r="E320" s="13" t="s">
         <v>1211</v>
       </c>
-      <c r="F310" s="2" t="s">
+      <c r="F320" s="2" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="311" s="2" customFormat="1" spans="1:6">
-      <c r="A311" s="4">
+    <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="4">
         <v>200106</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B321" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C321" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="D321" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="E311" s="13" t="s">
+      <c r="E321" s="13" t="s">
         <v>1215</v>
       </c>
-      <c r="F311" s="2" t="s">
+      <c r="F321" s="2" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="312" s="2" customFormat="1" spans="1:6">
-      <c r="A312" s="4">
+    <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="4">
         <v>200107</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="B322" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C322" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="D322" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="E312" s="13" t="s">
+      <c r="E322" s="13" t="s">
         <v>1219</v>
       </c>
-      <c r="F312" s="2" t="s">
+      <c r="F322" s="2" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="313" s="2" customFormat="1" spans="1:6">
-      <c r="A313" s="4">
+    <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="4">
         <v>200108</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B323" s="4" t="s">
         <v>1220</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C323" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="D313" s="3" t="s">
+      <c r="D323" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="E313" s="13" t="s">
+      <c r="E323" s="13" t="s">
         <v>1222</v>
       </c>
-      <c r="F313" s="2" t="s">
+      <c r="F323" s="2" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="314" s="2" customFormat="1" spans="1:6">
-      <c r="A314" s="4">
+    <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="4">
         <v>200109</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B324" s="4" t="s">
         <v>1223</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C324" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="D324" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="E314" s="13" t="s">
+      <c r="E324" s="13" t="s">
         <v>1226</v>
       </c>
-      <c r="F314" s="2" t="s">
+      <c r="F324" s="2" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="315" s="2" customFormat="1" spans="1:6">
-      <c r="A315" s="4">
+    <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="4">
         <v>200110</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B325" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C325" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="D315" s="3" t="s">
+      <c r="D325" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="E315" s="13" t="s">
+      <c r="E325" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="F315" s="2" t="s">
+      <c r="F325" s="2" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="316" s="2" customFormat="1" spans="1:6">
-      <c r="A316" s="4">
+    <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="4">
         <v>200111</v>
       </c>
-      <c r="B316" s="4" t="s">
+      <c r="B326" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C326" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="D326" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="E316" s="13" t="s">
+      <c r="E326" s="13" t="s">
         <v>1231</v>
       </c>
-      <c r="F316" s="2" t="s">
+      <c r="F326" s="2" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="317" s="2" customFormat="1" spans="1:6">
-      <c r="A317" s="4">
+    <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="4">
         <v>200112</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B327" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C327" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="D317" s="3" t="s">
+      <c r="D327" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="E317" s="13" t="s">
+      <c r="E327" s="13" t="s">
         <v>1235</v>
       </c>
-      <c r="F317" s="2" t="s">
+      <c r="F327" s="2" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="318" s="2" customFormat="1" spans="1:6">
-      <c r="A318" s="4">
+    <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="4">
         <v>200113</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B328" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C328" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="D328" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="E318" s="13" t="s">
+      <c r="E328" s="13" t="s">
         <v>1239</v>
       </c>
-      <c r="F318" s="2" t="s">
+      <c r="F328" s="2" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="319" s="2" customFormat="1" spans="1:6">
-      <c r="A319" s="4">
+    <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="4">
         <v>200114</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B329" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C329" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="D329" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="E319" s="13" t="s">
+      <c r="E329" s="13" t="s">
         <v>1243</v>
       </c>
-      <c r="F319" s="2" t="s">
+      <c r="F329" s="2" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="320" s="2" customFormat="1" spans="1:6">
-      <c r="A320" s="4">
+    <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="4">
         <v>200115</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B330" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C330" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="D330" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="E320" s="13" t="s">
+      <c r="E330" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="F320" s="2" t="s">
+      <c r="F330" s="2" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="321" s="2" customFormat="1" spans="1:6">
-      <c r="A321" s="4">
+    <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="4">
         <v>200116</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B331" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C331" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="D321" s="3" t="s">
+      <c r="D331" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="E321" s="13" t="s">
+      <c r="E331" s="13" t="s">
         <v>1248</v>
       </c>
-      <c r="F321" s="2" t="s">
+      <c r="F331" s="2" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="322" s="2" customFormat="1" spans="1:6">
-      <c r="A322" s="4">
+    <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="4">
         <v>200117</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B332" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C332" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="D332" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="E322" s="13" t="s">
+      <c r="E332" s="13" t="s">
         <v>1252</v>
       </c>
-      <c r="F322" s="3" t="s">
+      <c r="F332" s="3" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="323" s="2" customFormat="1" spans="1:6">
-      <c r="A323" s="4">
+    <row r="333" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="4">
         <v>200118</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B333" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C333" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D333" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="E323" s="13" t="s">
+      <c r="E333" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="F323" s="3" t="s">
+      <c r="F333" s="3" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="324" s="2" customFormat="1" spans="1:6">
-      <c r="A324" s="4">
+    <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="4">
         <v>200119</v>
       </c>
-      <c r="B324" s="4" t="s">
+      <c r="B334" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C334" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D334" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="E324" s="13" t="s">
+      <c r="E334" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="F324" s="3" t="s">
+      <c r="F334" s="3" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="325" s="2" customFormat="1"/>
-    <row r="326" s="2" customFormat="1" spans="1:6">
-      <c r="A326" s="2">
+    <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="2">
         <v>300000</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B336" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="C326" s="14" t="s">
+      <c r="C336" s="14" t="s">
         <v>1262</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D336" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="E326" s="14" t="s">
+      <c r="E336" s="14" t="s">
         <v>1262</v>
       </c>
-      <c r="F326" s="14" t="s">
+      <c r="F336" s="14" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="327" s="2" customFormat="1" spans="1:6">
-      <c r="A327" s="2">
+    <row r="337" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="2">
         <v>300001</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B337" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="C327" s="14" t="s">
+      <c r="C337" s="14" t="s">
         <v>1265</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="D337" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="E327" s="14" t="s">
+      <c r="E337" s="14" t="s">
         <v>1265</v>
       </c>
-      <c r="F327" s="14" t="s">
+      <c r="F337" s="14" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="328" s="2" customFormat="1" spans="1:6">
-      <c r="A328" s="2">
+    <row r="338" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="2">
         <v>300002</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B338" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C338" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="D338" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="E328" s="3" t="s">
+      <c r="E338" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="F328" s="3" t="s">
+      <c r="F338" s="3" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="329" s="2" customFormat="1" spans="1:6">
-      <c r="A329" s="2">
+    <row r="339" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="2">
         <v>300003</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B339" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C339" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="D339" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="E329" s="3" t="s">
+      <c r="E339" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="F329" s="3" t="s">
+      <c r="F339" s="3" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="330" s="2" customFormat="1" spans="1:6">
-      <c r="A330" s="2">
+    <row r="340" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="2">
         <v>300004</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B340" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C340" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D340" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="E330" s="2" t="s">
+      <c r="E340" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="F330" s="2" t="s">
+      <c r="F340" s="2" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="331" s="2" customFormat="1" spans="1:6">
-      <c r="A331" s="2">
+    <row r="341" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="2">
         <v>300005</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B341" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C341" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="D341" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="E331" s="3" t="s">
+      <c r="E341" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="F331" s="3" t="s">
+      <c r="F341" s="3" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="332" s="2" customFormat="1" spans="1:4">
-      <c r="A332" s="2">
+    <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="2">
         <v>300006</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B342" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C342" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="D332" s="2" t="s">
+      <c r="D342" s="2" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="333" s="2" customFormat="1" spans="1:4">
-      <c r="A333" s="2">
+    <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="2">
         <v>300007</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B343" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C343" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="D333" s="2" t="s">
+      <c r="D343" s="2" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="334" s="2" customFormat="1" spans="1:4">
-      <c r="A334" s="2">
+    <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="2">
         <v>300008</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B344" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="C344" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="D334" s="2" t="s">
+      <c r="D344" s="2" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="335" s="2" customFormat="1" spans="1:4">
-      <c r="A335" s="2">
+    <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="2">
         <v>300009</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B345" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="C345" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="D335" s="2" t="s">
+      <c r="D345" s="2" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="336" s="2" customFormat="1" spans="1:4">
-      <c r="A336" s="2">
+    <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="2">
         <v>300010</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B346" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="C346" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="D336" s="2" t="s">
+      <c r="D346" s="2" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="337" s="2" customFormat="1" spans="1:4">
-      <c r="A337" s="2">
+    <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="2">
         <v>300011</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B347" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="C347" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="D347" s="2" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="338" s="2" customFormat="1" spans="1:4">
-      <c r="A338" s="2">
+    <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="2">
         <v>300012</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B348" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="C348" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="D338" s="2" t="s">
+      <c r="D348" s="2" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="339" s="2" customFormat="1" spans="1:4">
-      <c r="A339" s="2">
+    <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="2">
         <v>300013</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B349" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="C349" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="D339" s="2" t="s">
+      <c r="D349" s="2" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="340" s="2" customFormat="1" spans="1:4">
-      <c r="A340" s="2">
+    <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="2">
         <v>300014</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B350" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="C350" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D340" s="2" t="s">
+      <c r="D350" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="341" s="2" customFormat="1" spans="1:4">
-      <c r="A341" s="2">
+    <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="2">
         <v>300015</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B351" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="C351" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="D341" s="2" t="s">
+      <c r="D351" s="2" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="342" s="2" customFormat="1" spans="1:4">
-      <c r="A342" s="2">
+    <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="2">
         <v>300016</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B352" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="C352" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="D342" s="2" t="s">
+      <c r="D352" s="2" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="343" s="2" customFormat="1" spans="1:4">
-      <c r="A343" s="2">
+    <row r="353" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="2">
         <v>300017</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B353" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="C353" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="D343" s="2" t="s">
+      <c r="D353" s="2" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="344" s="2" customFormat="1" spans="1:4">
-      <c r="A344" s="2">
+    <row r="354" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="2">
         <v>300018</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B354" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C354" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="D344" s="2" t="s">
+      <c r="D354" s="2" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="345" s="2" customFormat="1" spans="1:4">
-      <c r="A345" s="2">
+    <row r="355" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="2">
         <v>300019</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B355" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="C345" s="2" t="s">
+      <c r="C355" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="D345" s="2" t="s">
+      <c r="D355" s="2" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="346" s="2" customFormat="1" spans="1:4">
-      <c r="A346" s="2">
+    <row r="356" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="2">
         <v>300020</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B356" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="C356" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="D346" s="2" t="s">
+      <c r="D356" s="2" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="347" s="2" customFormat="1" spans="1:4">
-      <c r="A347" s="2">
+    <row r="357" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="2">
         <v>300021</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B357" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="C347" s="2" t="s">
+      <c r="C357" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="D347" s="2" t="s">
+      <c r="D357" s="2" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="348" s="2" customFormat="1" ht="17.25" spans="1:4">
-      <c r="A348" s="2">
+    <row r="358" spans="1:4" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A358" s="2">
         <v>300022</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B358" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="C348" s="2" t="s">
+      <c r="C358" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="D348" s="15" t="s">
+      <c r="D358" s="15" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="349" s="2" customFormat="1" spans="1:4">
-      <c r="A349" s="2">
+    <row r="359" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="2">
         <v>300023</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B359" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C359" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="D349" s="2" t="s">
+      <c r="D359" s="2" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="350" s="2" customFormat="1"/>
-    <row r="351" s="2" customFormat="1"/>
-    <row r="352" s="2" customFormat="1"/>
-    <row r="353" s="2" customFormat="1"/>
-    <row r="354" s="2" customFormat="1"/>
-    <row r="355" s="2" customFormat="1"/>
-    <row r="356" s="2" customFormat="1"/>
-    <row r="357" s="2" customFormat="1"/>
-    <row r="358" s="2" customFormat="1"/>
-    <row r="359" s="2" customFormat="1"/>
-    <row r="360" s="2" customFormat="1"/>
-    <row r="361" s="2" customFormat="1"/>
-    <row r="362" s="2" customFormat="1"/>
-    <row r="363" s="2" customFormat="1"/>
-    <row r="364" s="2" customFormat="1"/>
-    <row r="365" s="2" customFormat="1"/>
-    <row r="366" s="2" customFormat="1"/>
-    <row r="367" s="2" customFormat="1"/>
-    <row r="368" s="2" customFormat="1"/>
-    <row r="369" s="2" customFormat="1"/>
-    <row r="370" s="2" customFormat="1"/>
-    <row r="371" s="2" customFormat="1"/>
-    <row r="372" s="2" customFormat="1"/>
-    <row r="373" s="2" customFormat="1"/>
-    <row r="374" s="2" customFormat="1"/>
-    <row r="375" s="2" customFormat="1"/>
-    <row r="376" s="2" customFormat="1"/>
-    <row r="377" s="2" customFormat="1"/>
-    <row r="378" s="2" customFormat="1"/>
-    <row r="379" s="2" customFormat="1"/>
-    <row r="380" s="2" customFormat="1"/>
-    <row r="381" s="2" customFormat="1"/>
-    <row r="382" s="2" customFormat="1"/>
-    <row r="383" s="2" customFormat="1"/>
-    <row r="384" s="2" customFormat="1"/>
-    <row r="385" s="2" customFormat="1"/>
-    <row r="386" s="2" customFormat="1"/>
-    <row r="387" s="2" customFormat="1"/>
-    <row r="388" s="2" customFormat="1"/>
-    <row r="389" s="2" customFormat="1"/>
-    <row r="390" s="2" customFormat="1"/>
-    <row r="391" s="2" customFormat="1"/>
-    <row r="392" s="2" customFormat="1"/>
-    <row r="393" s="2" customFormat="1"/>
-    <row r="394" s="2" customFormat="1"/>
-    <row r="395" s="2" customFormat="1"/>
-    <row r="396" s="2" customFormat="1"/>
-    <row r="397" s="2" customFormat="1"/>
-    <row r="398" s="2" customFormat="1"/>
-    <row r="399" s="2" customFormat="1"/>
-    <row r="400" s="2" customFormat="1"/>
-    <row r="401" s="2" customFormat="1"/>
-    <row r="402" s="2" customFormat="1"/>
-    <row r="403" s="2" customFormat="1"/>
-    <row r="404" s="2" customFormat="1"/>
-    <row r="405" s="2" customFormat="1"/>
-    <row r="406" s="2" customFormat="1"/>
-    <row r="407" s="2" customFormat="1"/>
-    <row r="408" s="2" customFormat="1"/>
-    <row r="409" s="2" customFormat="1"/>
-    <row r="410" s="2" customFormat="1"/>
-    <row r="411" s="2" customFormat="1"/>
-    <row r="412" s="2" customFormat="1"/>
-    <row r="413" s="2" customFormat="1"/>
-    <row r="414" s="2" customFormat="1"/>
-    <row r="415" s="2" customFormat="1"/>
-    <row r="416" s="2" customFormat="1"/>
-    <row r="417" s="2" customFormat="1"/>
-    <row r="418" s="2" customFormat="1"/>
-    <row r="419" s="2" customFormat="1"/>
-    <row r="420" s="2" customFormat="1"/>
-    <row r="421" s="2" customFormat="1"/>
-    <row r="422" s="2" customFormat="1"/>
-    <row r="423" s="2" customFormat="1"/>
-    <row r="424" s="2" customFormat="1"/>
-    <row r="425" s="2" customFormat="1"/>
-    <row r="426" s="2" customFormat="1"/>
-    <row r="427" s="2" customFormat="1"/>
-    <row r="428" s="2" customFormat="1"/>
-    <row r="429" s="2" customFormat="1"/>
-    <row r="430" s="2" customFormat="1"/>
-    <row r="431" s="2" customFormat="1"/>
-    <row r="432" s="2" customFormat="1"/>
-    <row r="433" s="2" customFormat="1"/>
-    <row r="434" s="2" customFormat="1"/>
-    <row r="435" s="2" customFormat="1"/>
-    <row r="436" s="2" customFormat="1"/>
-    <row r="437" s="2" customFormat="1"/>
-    <row r="438" s="2" customFormat="1"/>
-    <row r="439" s="2" customFormat="1"/>
-    <row r="440" s="2" customFormat="1"/>
-    <row r="441" s="2" customFormat="1"/>
-    <row r="442" s="2" customFormat="1"/>
-    <row r="443" s="2" customFormat="1"/>
-    <row r="444" s="2" customFormat="1"/>
-    <row r="445" s="2" customFormat="1"/>
-    <row r="446" s="2" customFormat="1"/>
-    <row r="447" s="2" customFormat="1"/>
-    <row r="448" s="2" customFormat="1"/>
-    <row r="449" s="2" customFormat="1"/>
-    <row r="450" s="2" customFormat="1"/>
-    <row r="451" s="2" customFormat="1"/>
-    <row r="452" s="2" customFormat="1"/>
-    <row r="453" s="2" customFormat="1"/>
-    <row r="454" s="2" customFormat="1"/>
-    <row r="455" s="2" customFormat="1"/>
-    <row r="456" s="2" customFormat="1"/>
-    <row r="457" s="2" customFormat="1"/>
-    <row r="458" s="2" customFormat="1"/>
-    <row r="459" s="2" customFormat="1"/>
-    <row r="460" s="2" customFormat="1"/>
-    <row r="461" s="2" customFormat="1"/>
-    <row r="462" s="2" customFormat="1"/>
-    <row r="463" s="2" customFormat="1"/>
-    <row r="464" s="2" customFormat="1"/>
-    <row r="465" s="2" customFormat="1"/>
-    <row r="466" s="2" customFormat="1"/>
-    <row r="467" s="2" customFormat="1"/>
-    <row r="468" s="2" customFormat="1"/>
-    <row r="469" s="2" customFormat="1"/>
-    <row r="470" s="2" customFormat="1"/>
-    <row r="471" s="2" customFormat="1"/>
-    <row r="472" s="2" customFormat="1"/>
-    <row r="473" s="2" customFormat="1"/>
-    <row r="474" s="2" customFormat="1"/>
-    <row r="475" s="2" customFormat="1"/>
-    <row r="476" s="2" customFormat="1"/>
-    <row r="477" s="2" customFormat="1"/>
-    <row r="478" s="2" customFormat="1"/>
-    <row r="479" s="2" customFormat="1"/>
-    <row r="480" s="2" customFormat="1"/>
-    <row r="481" s="2" customFormat="1"/>
-    <row r="482" s="2" customFormat="1"/>
-    <row r="483" s="2" customFormat="1"/>
-    <row r="484" s="2" customFormat="1"/>
-    <row r="485" s="2" customFormat="1"/>
-    <row r="486" s="2" customFormat="1"/>
-    <row r="487" s="2" customFormat="1"/>
-    <row r="488" s="2" customFormat="1"/>
-    <row r="489" s="2" customFormat="1"/>
-    <row r="490" s="2" customFormat="1"/>
-    <row r="491" s="2" customFormat="1"/>
-    <row r="492" s="2" customFormat="1"/>
-    <row r="493" s="2" customFormat="1"/>
-    <row r="494" s="2" customFormat="1"/>
-    <row r="495" s="2" customFormat="1"/>
-    <row r="496" s="2" customFormat="1"/>
-    <row r="497" s="2" customFormat="1"/>
-    <row r="498" s="2" customFormat="1"/>
-    <row r="499" s="2" customFormat="1"/>
-    <row r="500" s="2" customFormat="1"/>
-    <row r="501" s="2" customFormat="1"/>
-    <row r="502" s="2" customFormat="1"/>
-    <row r="503" s="2" customFormat="1"/>
-    <row r="504" s="2" customFormat="1"/>
-    <row r="505" s="2" customFormat="1"/>
-    <row r="506" s="2" customFormat="1"/>
-    <row r="507" s="2" customFormat="1"/>
-    <row r="508" s="2" customFormat="1"/>
-    <row r="509" s="2" customFormat="1"/>
-    <row r="510" s="2" customFormat="1"/>
-    <row r="511" s="2" customFormat="1"/>
-    <row r="512" s="2" customFormat="1"/>
-    <row r="513" s="2" customFormat="1"/>
-    <row r="514" s="2" customFormat="1"/>
-    <row r="515" s="2" customFormat="1"/>
-    <row r="516" s="2" customFormat="1"/>
-    <row r="517" s="2" customFormat="1"/>
-    <row r="518" s="2" customFormat="1"/>
-    <row r="519" s="2" customFormat="1"/>
-    <row r="520" s="2" customFormat="1"/>
-    <row r="521" s="2" customFormat="1"/>
-    <row r="522" s="2" customFormat="1"/>
-    <row r="523" s="2" customFormat="1"/>
-    <row r="524" s="2" customFormat="1"/>
-    <row r="525" s="2" customFormat="1"/>
-    <row r="526" s="2" customFormat="1"/>
-    <row r="527" s="2" customFormat="1"/>
-    <row r="528" s="2" customFormat="1"/>
-    <row r="529" s="2" customFormat="1"/>
-    <row r="530" s="2" customFormat="1"/>
-    <row r="531" s="2" customFormat="1"/>
-    <row r="532" s="2" customFormat="1"/>
-    <row r="533" s="2" customFormat="1"/>
-    <row r="534" s="2" customFormat="1"/>
-    <row r="535" s="2" customFormat="1"/>
-    <row r="536" s="2" customFormat="1"/>
-    <row r="537" s="2" customFormat="1"/>
-    <row r="538" s="2" customFormat="1"/>
-    <row r="539" s="2" customFormat="1"/>
-    <row r="540" s="2" customFormat="1"/>
-    <row r="541" s="2" customFormat="1"/>
-    <row r="542" s="2" customFormat="1"/>
-    <row r="543" s="2" customFormat="1"/>
-    <row r="544" s="2" customFormat="1"/>
-    <row r="545" s="2" customFormat="1"/>
-    <row r="546" s="2" customFormat="1"/>
-    <row r="547" s="2" customFormat="1"/>
-    <row r="548" s="2" customFormat="1"/>
-    <row r="549" s="2" customFormat="1"/>
-    <row r="550" s="2" customFormat="1"/>
-    <row r="551" s="2" customFormat="1"/>
-    <row r="552" s="2" customFormat="1"/>
-    <row r="553" s="2" customFormat="1"/>
-    <row r="554" s="2" customFormat="1"/>
-    <row r="555" s="2" customFormat="1"/>
-    <row r="556" s="2" customFormat="1"/>
-    <row r="557" s="2" customFormat="1"/>
-    <row r="558" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="559" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="560" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="561" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="562" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="563" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="564" s="2" customFormat="1"/>
-    <row r="565" s="2" customFormat="1"/>
-    <row r="566" s="2" customFormat="1"/>
-    <row r="567" s="2" customFormat="1"/>
-    <row r="568" s="2" customFormat="1"/>
-    <row r="569" s="2" customFormat="1"/>
-    <row r="570" s="2" customFormat="1"/>
-    <row r="571" s="2" customFormat="1"/>
-    <row r="572" s="2" customFormat="1"/>
-    <row r="573" s="2" customFormat="1"/>
-    <row r="574" s="2" customFormat="1"/>
-    <row r="575" s="2" customFormat="1"/>
-    <row r="576" s="2" customFormat="1"/>
-    <row r="577" s="2" customFormat="1"/>
-    <row r="578" s="2" customFormat="1"/>
-    <row r="579" s="2" customFormat="1"/>
-    <row r="580" s="2" customFormat="1"/>
-    <row r="581" s="2" customFormat="1"/>
-    <row r="582" s="2" customFormat="1"/>
-    <row r="583" s="2" customFormat="1"/>
-    <row r="584" s="2" customFormat="1"/>
-    <row r="585" s="2" customFormat="1"/>
-    <row r="586" s="2" customFormat="1"/>
-    <row r="587" s="2" customFormat="1"/>
-    <row r="588" s="2" customFormat="1"/>
-    <row r="589" s="2" customFormat="1"/>
-    <row r="590" s="2" customFormat="1"/>
-    <row r="591" s="2" customFormat="1"/>
-    <row r="592" s="2" customFormat="1"/>
-    <row r="593" s="2" customFormat="1"/>
-    <row r="594" s="2" customFormat="1"/>
-    <row r="595" s="2" customFormat="1"/>
-    <row r="596" s="2" customFormat="1"/>
-    <row r="597" s="2" customFormat="1"/>
-    <row r="598" s="2" customFormat="1"/>
-    <row r="599" s="2" customFormat="1"/>
-    <row r="600" s="2" customFormat="1"/>
-    <row r="601" s="2" customFormat="1"/>
-    <row r="602" s="2" customFormat="1"/>
-    <row r="603" s="2" customFormat="1"/>
-    <row r="604" s="2" customFormat="1"/>
-    <row r="605" s="2" customFormat="1"/>
-    <row r="606" s="2" customFormat="1"/>
-    <row r="607" s="2" customFormat="1"/>
-    <row r="608" s="2" customFormat="1"/>
-    <row r="609" s="2" customFormat="1"/>
-    <row r="610" s="2" customFormat="1"/>
-    <row r="611" s="2" customFormat="1"/>
-    <row r="612" s="2" customFormat="1"/>
-    <row r="613" s="2" customFormat="1"/>
-    <row r="614" s="2" customFormat="1"/>
-    <row r="615" s="2" customFormat="1"/>
-    <row r="616" s="2" customFormat="1"/>
-    <row r="617" s="2" customFormat="1"/>
-    <row r="618" s="2" customFormat="1"/>
-    <row r="619" s="2" customFormat="1"/>
-    <row r="620" s="2" customFormat="1"/>
-    <row r="621" s="2" customFormat="1"/>
-    <row r="622" s="2" customFormat="1"/>
-    <row r="623" s="2" customFormat="1"/>
-    <row r="624" s="2" customFormat="1"/>
-    <row r="625" s="2" customFormat="1"/>
-    <row r="626" s="2" customFormat="1"/>
-    <row r="627" s="2" customFormat="1"/>
-    <row r="628" s="2" customFormat="1"/>
-    <row r="629" s="2" customFormat="1"/>
-    <row r="630" s="2" customFormat="1"/>
-    <row r="631" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="632" s="2" customFormat="1"/>
-    <row r="633" s="2" customFormat="1"/>
-    <row r="634" s="2" customFormat="1"/>
-    <row r="635" s="2" customFormat="1"/>
-    <row r="636" s="2" customFormat="1"/>
-    <row r="637" s="2" customFormat="1"/>
-    <row r="638" s="2" customFormat="1"/>
-    <row r="639" s="2" customFormat="1"/>
-    <row r="640" s="2" customFormat="1"/>
-    <row r="641" s="2" customFormat="1"/>
-    <row r="642" s="2" customFormat="1"/>
-    <row r="643" s="2" customFormat="1"/>
-    <row r="644" s="2" customFormat="1"/>
-    <row r="645" s="2" customFormat="1"/>
-    <row r="646" s="2" customFormat="1"/>
-    <row r="647" s="2" customFormat="1"/>
-    <row r="648" s="2" customFormat="1"/>
-    <row r="649" s="2" customFormat="1"/>
-    <row r="650" s="2" customFormat="1"/>
-    <row r="651" s="2" customFormat="1"/>
-    <row r="652" s="2" customFormat="1"/>
-    <row r="653" s="2" customFormat="1"/>
-    <row r="654" s="2" customFormat="1"/>
-    <row r="655" s="2" customFormat="1"/>
-    <row r="656" s="2" customFormat="1"/>
-    <row r="657" s="2" customFormat="1"/>
-    <row r="658" spans="1:1">
-      <c r="A658" s="2"/>
-    </row>
-    <row r="659" spans="1:1">
-      <c r="A659" s="2"/>
-    </row>
-    <row r="660" spans="1:1">
-      <c r="A660" s="2"/>
-    </row>
-    <row r="661" spans="1:1">
-      <c r="A661" s="2"/>
+    <row r="360" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="575" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="576" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="577" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="604" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="605" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="606" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="607" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="608" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="609" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="610" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="611" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="641" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="646" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="647" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="648" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="649" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="650" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="651" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="652" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="653" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="654" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="655" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="656" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="657" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="658" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="659" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="660" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="661" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="662" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="663" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="664" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="665" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="666" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="667" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A668" s="2"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A669" s="2"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A670" s="2"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A671" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10A716-9841-4BDE-A02F-322248CB9B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DDFE33-BE2B-4B06-8CB0-6E0DE55BFC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4575,8 +4575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="F221" sqref="F221"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="E349" sqref="E349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DDFE33-BE2B-4B06-8CB0-6E0DE55BFC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00084645-B58B-4A53-829C-E51F358EFDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4575,8 +4575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="E349" sqref="E349"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00084645-B58B-4A53-829C-E51F358EFDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1356">
   <si>
     <t>int</t>
   </si>
@@ -2478,6 +2474,81 @@
     <t>穏やかな暗のモドラゴン</t>
   </si>
   <si>
+    <t>BoxingDragonName00051</t>
+  </si>
+  <si>
+    <t>开心的聖光龍娘</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00052</t>
+  </si>
+  <si>
+    <t>新增的聖光龍娘</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00053</t>
+  </si>
+  <si>
+    <t>开心的暗影龍娘</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00054</t>
+  </si>
+  <si>
+    <t>新增的暗影龍娘</t>
+  </si>
+  <si>
+    <t>HomeResourcesName0001</t>
+  </si>
+  <si>
+    <t>木头</t>
+  </si>
+  <si>
+    <t>HomeResourcesName0002</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>HomeResourcesName0003</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>黑铁</t>
+  </si>
+  <si>
+    <t>HomeResourcesName0004</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>黄铜</t>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0001</t>
+  </si>
+  <si>
+    <t>Can be consumed in Homestead gameplay and used to build Homesteads</t>
+  </si>
+  <si>
+    <t>可以在家园玩法中消耗，用于建造家园</t>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0002</t>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0003</t>
+  </si>
+  <si>
+    <t>HomeResourcesDesc0004</t>
+  </si>
+  <si>
     <t>Dialogue0009</t>
   </si>
   <si>
@@ -4039,77 +4110,19 @@
   </si>
   <si>
     <t>由于上次在跑酷关内未失败，此次进入不消耗游戏次数！</t>
-  </si>
-  <si>
-    <t>HomeResourcesName0001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomeResourcesName0002</t>
-  </si>
-  <si>
-    <t>HomeResourcesName0003</t>
-  </si>
-  <si>
-    <t>HomeResourcesName0004</t>
-  </si>
-  <si>
-    <t>木头</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>石头</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑铁</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄铜</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iron</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bronze</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomeResourcesDesc0001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomeResourcesDesc0002</t>
-  </si>
-  <si>
-    <t>HomeResourcesDesc0003</t>
-  </si>
-  <si>
-    <t>HomeResourcesDesc0004</t>
-  </si>
-  <si>
-    <t>Can be consumed in Homestead gameplay and used to build Homesteads</t>
-  </si>
-  <si>
-    <t>可以在家园玩法中消耗，用于建造家园</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4133,27 +4146,170 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FFCCCCCC"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4166,8 +4322,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4175,9 +4517,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4205,6 +4789,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4221,20 +4811,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -4307,9 +4938,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4567,19 +5195,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H671"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H676"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.625" customWidth="1"/>
@@ -4587,7 +5215,7 @@
     <col min="5" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4607,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4627,7 +5255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4647,7 +5275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -4665,7 +5293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4685,7 +5313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4705,7 +5333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4725,7 +5353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4745,7 +5373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4765,7 +5393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4785,7 +5413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4805,7 +5433,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4825,7 +5453,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4845,7 +5473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4865,7 +5493,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" s="2" customFormat="1" spans="1:6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4885,7 +5513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4905,7 +5533,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" s="2" customFormat="1" spans="1:6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4925,7 +5553,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4945,7 +5573,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="2" customFormat="1" spans="1:6">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4965,7 +5593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4985,7 +5613,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="2" customFormat="1" spans="1:6">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5005,7 +5633,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5025,7 +5653,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" s="2" customFormat="1" spans="1:6">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5045,7 +5673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5065,7 +5693,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="2" customFormat="1" spans="1:6">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5085,7 +5713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -5105,7 +5733,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="2" customFormat="1" spans="1:6">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -5125,7 +5753,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -5145,7 +5773,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" s="2" customFormat="1" spans="1:6">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -5165,7 +5793,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -5185,7 +5813,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="2" customFormat="1" spans="1:6">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5205,7 +5833,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5225,7 +5853,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="2" customFormat="1" spans="1:6">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -5245,7 +5873,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -5265,7 +5893,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" s="2" customFormat="1" spans="1:6">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -5285,7 +5913,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -5305,7 +5933,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="2" customFormat="1" spans="1:6">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -5325,7 +5953,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -5345,7 +5973,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="2" customFormat="1" spans="1:6">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -5365,7 +5993,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -5385,7 +6013,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" s="2" customFormat="1" spans="1:6">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -5405,7 +6033,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -5425,7 +6053,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="2" customFormat="1" spans="1:6">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -5445,7 +6073,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -5465,7 +6093,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="2" customFormat="1" spans="1:6">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -5485,7 +6113,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -5505,7 +6133,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" s="2" customFormat="1" spans="1:6">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -5525,7 +6153,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -5545,7 +6173,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="2" customFormat="1" spans="1:6">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -5565,7 +6193,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -5585,11 +6213,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" s="2" customFormat="1" spans="1:2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="1">
         <v>100101</v>
       </c>
@@ -5609,7 +6237,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" s="2" customFormat="1" spans="1:6">
       <c r="A53" s="1">
         <v>100102</v>
       </c>
@@ -5629,7 +6257,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="1">
         <v>100103</v>
       </c>
@@ -5649,7 +6277,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" s="2" customFormat="1" spans="1:6">
       <c r="A55" s="1">
         <v>100104</v>
       </c>
@@ -5669,7 +6297,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="1">
         <v>100105</v>
       </c>
@@ -5689,7 +6317,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" s="2" customFormat="1" spans="1:6">
       <c r="A57" s="1">
         <v>100106</v>
       </c>
@@ -5709,7 +6337,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="1">
         <v>100107</v>
       </c>
@@ -5729,7 +6357,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" s="2" customFormat="1" spans="1:6">
       <c r="A59" s="1">
         <v>100108</v>
       </c>
@@ -5749,7 +6377,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="1">
         <v>100109</v>
       </c>
@@ -5769,7 +6397,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" s="2" customFormat="1" spans="1:6">
       <c r="A61" s="1">
         <v>100110</v>
       </c>
@@ -5789,7 +6417,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="1">
         <v>100111</v>
       </c>
@@ -5809,7 +6437,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" s="2" customFormat="1" spans="1:6">
       <c r="A63" s="1">
         <v>100112</v>
       </c>
@@ -5829,7 +6457,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="1">
         <v>100113</v>
       </c>
@@ -5849,7 +6477,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" s="2" customFormat="1" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -5857,7 +6485,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="1">
         <v>100201</v>
       </c>
@@ -5877,7 +6505,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" s="2" customFormat="1" spans="1:6">
       <c r="A67" s="1">
         <v>100202</v>
       </c>
@@ -5897,7 +6525,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="1">
         <v>100203</v>
       </c>
@@ -5917,7 +6545,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" s="2" customFormat="1" spans="1:6">
       <c r="A69" s="1">
         <v>100204</v>
       </c>
@@ -5937,7 +6565,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="1">
         <v>100205</v>
       </c>
@@ -5957,7 +6585,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" s="2" customFormat="1" spans="1:6">
       <c r="A71" s="1">
         <v>100206</v>
       </c>
@@ -5977,7 +6605,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -5985,7 +6613,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" s="2" customFormat="1" spans="1:6">
       <c r="A73" s="1">
         <v>101001</v>
       </c>
@@ -6005,7 +6633,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="1">
         <v>101002</v>
       </c>
@@ -6025,11 +6653,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" s="2" customFormat="1" spans="1:2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A76" s="5">
         <v>102129</v>
       </c>
@@ -6049,7 +6677,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A77" s="5">
         <v>102130</v>
       </c>
@@ -6069,7 +6697,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A78" s="5">
         <v>102131</v>
       </c>
@@ -6089,7 +6717,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A79" s="5">
         <v>102132</v>
       </c>
@@ -6109,7 +6737,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A80" s="5">
         <v>102133</v>
       </c>
@@ -6129,7 +6757,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A81" s="5">
         <v>102134</v>
       </c>
@@ -6149,7 +6777,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A82" s="5">
         <v>102135</v>
       </c>
@@ -6169,7 +6797,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A83" s="5">
         <v>102136</v>
       </c>
@@ -6189,7 +6817,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A84" s="5">
         <v>102137</v>
       </c>
@@ -6209,7 +6837,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A85" s="5">
         <v>102138</v>
       </c>
@@ -6229,7 +6857,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A86" s="5">
         <v>102139</v>
       </c>
@@ -6249,7 +6877,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A87" s="5">
         <v>102140</v>
       </c>
@@ -6269,7 +6897,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A88" s="5">
         <v>102141</v>
       </c>
@@ -6289,7 +6917,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A89" s="5">
         <v>102142</v>
       </c>
@@ -6309,7 +6937,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A90" s="5">
         <v>102143</v>
       </c>
@@ -6329,7 +6957,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A91" s="5">
         <v>102144</v>
       </c>
@@ -6349,7 +6977,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A92" s="5">
         <v>102145</v>
       </c>
@@ -6369,7 +6997,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A93" s="5">
         <v>102146</v>
       </c>
@@ -6389,7 +7017,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A94" s="5">
         <v>102147</v>
       </c>
@@ -6409,7 +7037,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A95" s="5">
         <v>102148</v>
       </c>
@@ -6429,7 +7057,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A96" s="5">
         <v>102149</v>
       </c>
@@ -6449,7 +7077,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A97" s="5">
         <v>102150</v>
       </c>
@@ -6469,7 +7097,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A98" s="5">
         <v>102151</v>
       </c>
@@ -6489,7 +7117,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A99" s="5">
         <v>102152</v>
       </c>
@@ -6509,7 +7137,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A100" s="5">
         <v>102153</v>
       </c>
@@ -6529,7 +7157,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A101" s="5">
         <v>102154</v>
       </c>
@@ -6549,7 +7177,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A102" s="5">
         <v>102155</v>
       </c>
@@ -6569,7 +7197,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A103" s="5">
         <v>102156</v>
       </c>
@@ -6589,7 +7217,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A104" s="5">
         <v>102157</v>
       </c>
@@ -6609,7 +7237,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A105" s="1">
         <v>102158</v>
       </c>
@@ -6629,7 +7257,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A106" s="5">
         <v>102159</v>
       </c>
@@ -6649,7 +7277,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -6657,7 +7285,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A108" s="5">
         <v>103001</v>
       </c>
@@ -6677,7 +7305,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A109" s="5">
         <v>103002</v>
       </c>
@@ -6697,7 +7325,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A110" s="5">
         <v>103003</v>
       </c>
@@ -6717,7 +7345,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A111" s="5">
         <v>103004</v>
       </c>
@@ -6737,7 +7365,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A112" s="5">
         <v>103005</v>
       </c>
@@ -6757,7 +7385,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A113" s="5">
         <v>103006</v>
       </c>
@@ -6777,11 +7405,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A115" s="1">
         <v>105001</v>
       </c>
@@ -6801,7 +7429,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A116" s="1">
         <v>105002</v>
       </c>
@@ -6821,7 +7449,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A117" s="1">
         <v>105003</v>
       </c>
@@ -6841,7 +7469,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A118" s="1">
         <v>105004</v>
       </c>
@@ -6861,7 +7489,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A119" s="1">
         <v>105005</v>
       </c>
@@ -6881,7 +7509,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A120" s="1">
         <v>105006</v>
       </c>
@@ -6901,7 +7529,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A121" s="1">
         <v>105051</v>
       </c>
@@ -6921,7 +7549,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A122" s="1">
         <v>105101</v>
       </c>
@@ -6941,7 +7569,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A123" s="1">
         <v>105102</v>
       </c>
@@ -6961,7 +7589,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A124" s="1">
         <v>105103</v>
       </c>
@@ -6981,7 +7609,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A125" s="1">
         <v>105201</v>
       </c>
@@ -7001,7 +7629,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A126" s="1">
         <v>105202</v>
       </c>
@@ -7021,7 +7649,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A127" s="1">
         <v>105203</v>
       </c>
@@ -7041,7 +7669,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A128" s="1">
         <v>105204</v>
       </c>
@@ -7061,7 +7689,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A129" s="1">
         <v>105205</v>
       </c>
@@ -7081,7 +7709,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A130" s="1">
         <v>105206</v>
       </c>
@@ -7101,7 +7729,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A131" s="1">
         <v>105301</v>
       </c>
@@ -7121,7 +7749,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A132" s="1">
         <v>105302</v>
       </c>
@@ -7141,7 +7769,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A133" s="1">
         <v>105303</v>
       </c>
@@ -7161,7 +7789,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A134" s="1">
         <v>105304</v>
       </c>
@@ -7181,7 +7809,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A135" s="1">
         <v>105305</v>
       </c>
@@ -7201,7 +7829,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A136" s="1">
         <v>105306</v>
       </c>
@@ -7221,7 +7849,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A137" s="1">
         <v>105307</v>
       </c>
@@ -7241,7 +7869,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A138" s="1">
         <v>105308</v>
       </c>
@@ -7261,7 +7889,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A139" s="1">
         <v>105401</v>
       </c>
@@ -7281,7 +7909,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A140" s="1">
         <v>105402</v>
       </c>
@@ -7301,7 +7929,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A141" s="1">
         <v>105403</v>
       </c>
@@ -7321,7 +7949,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A142" s="1">
         <v>105404</v>
       </c>
@@ -7341,7 +7969,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A143" s="1">
         <v>105405</v>
       </c>
@@ -7361,7 +7989,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A144" s="1">
         <v>105406</v>
       </c>
@@ -7381,7 +8009,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A145" s="1">
         <v>105407</v>
       </c>
@@ -7401,7 +8029,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A146" s="1">
         <v>105501</v>
       </c>
@@ -7421,7 +8049,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A147" s="1">
         <v>105502</v>
       </c>
@@ -7441,7 +8069,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A148" s="1">
         <v>105503</v>
       </c>
@@ -7461,7 +8089,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A149" s="1">
         <v>105504</v>
       </c>
@@ -7481,7 +8109,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A150" s="1">
         <v>105505</v>
       </c>
@@ -7501,7 +8129,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A151" s="1">
         <v>105506</v>
       </c>
@@ -7521,7 +8149,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A152" s="1">
         <v>105507</v>
       </c>
@@ -7541,7 +8169,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A153" s="1">
         <v>105508</v>
       </c>
@@ -7561,13 +8189,13 @@
         <v>607</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A155" s="1">
         <v>105601</v>
       </c>
@@ -7588,7 +8216,7 @@
       </c>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A156" s="1">
         <v>105602</v>
       </c>
@@ -7609,7 +8237,7 @@
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A157" s="1">
         <v>105603</v>
       </c>
@@ -7631,7 +8259,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A158" s="1">
         <v>105604</v>
       </c>
@@ -7652,7 +8280,7 @@
       </c>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A159" s="1">
         <v>105605</v>
       </c>
@@ -7673,7 +8301,7 @@
       </c>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A160" s="1">
         <v>105606</v>
       </c>
@@ -7694,7 +8322,7 @@
       </c>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A161" s="1">
         <v>105607</v>
       </c>
@@ -7715,7 +8343,7 @@
       </c>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A162" s="1">
         <v>105608</v>
       </c>
@@ -7736,7 +8364,7 @@
       </c>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A163" s="1">
         <v>105609</v>
       </c>
@@ -7757,7 +8385,7 @@
       </c>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A164" s="1">
         <v>105610</v>
       </c>
@@ -7778,7 +8406,7 @@
       </c>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A165" s="1">
         <v>105611</v>
       </c>
@@ -7798,7 +8426,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A166" s="1">
         <v>105612</v>
       </c>
@@ -7818,7 +8446,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A167" s="1">
         <v>105613</v>
       </c>
@@ -7838,7 +8466,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A168" s="1">
         <v>105614</v>
       </c>
@@ -7858,7 +8486,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A169" s="1">
         <v>105615</v>
       </c>
@@ -7878,7 +8506,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A170" s="1">
         <v>105616</v>
       </c>
@@ -7898,7 +8526,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A171" s="1">
         <v>105617</v>
       </c>
@@ -7918,7 +8546,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A172" s="1">
         <v>105618</v>
       </c>
@@ -7938,7 +8566,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A173" s="1">
         <v>105619</v>
       </c>
@@ -7958,7 +8586,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A174" s="1">
         <v>105620</v>
       </c>
@@ -7978,7 +8606,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A175" s="1">
         <v>105621</v>
       </c>
@@ -7998,7 +8626,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A176" s="1">
         <v>105622</v>
       </c>
@@ -8018,7 +8646,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A177" s="1">
         <v>105623</v>
       </c>
@@ -8038,7 +8666,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A178" s="1">
         <v>105624</v>
       </c>
@@ -8058,7 +8686,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A179" s="1">
         <v>105625</v>
       </c>
@@ -8078,7 +8706,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A180" s="1">
         <v>105626</v>
       </c>
@@ -8098,7 +8726,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A181" s="1">
         <v>105627</v>
       </c>
@@ -8118,7 +8746,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A182" s="1">
         <v>105628</v>
       </c>
@@ -8138,7 +8766,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A183" s="1">
         <v>105629</v>
       </c>
@@ -8158,7 +8786,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A184" s="1">
         <v>105630</v>
       </c>
@@ -8178,7 +8806,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A185" s="1">
         <v>105631</v>
       </c>
@@ -8198,7 +8826,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A186" s="1">
         <v>105632</v>
       </c>
@@ -8218,7 +8846,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A187" s="1">
         <v>105633</v>
       </c>
@@ -8238,7 +8866,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A188" s="1">
         <v>105634</v>
       </c>
@@ -8258,7 +8886,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A189" s="1">
         <v>105635</v>
       </c>
@@ -8278,7 +8906,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A190" s="1">
         <v>105636</v>
       </c>
@@ -8298,7 +8926,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A191" s="1">
         <v>105637</v>
       </c>
@@ -8318,7 +8946,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A192" s="1">
         <v>105638</v>
       </c>
@@ -8338,7 +8966,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A193" s="1">
         <v>105639</v>
       </c>
@@ -8358,7 +8986,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A194" s="1">
         <v>105640</v>
       </c>
@@ -8378,7 +9006,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A195" s="1">
         <v>105641</v>
       </c>
@@ -8398,7 +9026,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A196" s="1">
         <v>105642</v>
       </c>
@@ -8418,7 +9046,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A197" s="1">
         <v>105643</v>
       </c>
@@ -8438,7 +9066,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A198" s="1">
         <v>105644</v>
       </c>
@@ -8458,7 +9086,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A199" s="1">
         <v>105645</v>
       </c>
@@ -8478,7 +9106,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A200" s="1">
         <v>105646</v>
       </c>
@@ -8498,7 +9126,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A201" s="1">
         <v>105647</v>
       </c>
@@ -8518,7 +9146,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A202" s="1">
         <v>105648</v>
       </c>
@@ -8538,7 +9166,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A203" s="1">
         <v>105649</v>
       </c>
@@ -8558,7 +9186,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A204" s="1">
         <v>105650</v>
       </c>
@@ -8578,3256 +9206,3297 @@
         <v>807</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A205" s="1"/>
-      <c r="B205" s="4"/>
-      <c r="D205" s="3"/>
-    </row>
-    <row r="206" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
+      <c r="B205" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="206" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A206" s="1"/>
+      <c r="B206" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="207" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A207" s="1"/>
+      <c r="B207" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="208" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A208" s="1"/>
+      <c r="B208" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="209" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A209" s="1"/>
+      <c r="B209" s="4"/>
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A210" s="1"/>
+      <c r="B210" s="4"/>
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A211" s="1">
         <v>105701</v>
       </c>
-      <c r="B206" s="16" t="s">
+      <c r="B211" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="E211" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F211" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A212" s="1">
+        <v>105702</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="F212" s="10" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="213" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A213" s="1">
+        <v>105703</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="F213" s="10" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="214" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A214" s="1">
+        <v>105704</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="E214" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="F214" s="10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="215" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A215" s="1"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+    </row>
+    <row r="216" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A216" s="1">
+        <v>105801</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="F216" s="10" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="217" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A217" s="1">
+        <v>105802</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="218" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A218" s="1">
+        <v>105803</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="F218" s="10" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="219" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A219" s="1">
+        <v>105804</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="F219" s="10" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="220" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="221" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A221" s="11">
+        <v>200001</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="E221" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="F221" s="13" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="222" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A222" s="11">
+        <v>200002</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="F222" s="13" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="223" s="2" customFormat="1" spans="1:6">
+      <c r="A223" s="11">
+        <v>200003</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="224" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A224" s="11">
+        <v>200004</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="F224" s="13" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="225" s="2" customFormat="1" spans="1:6">
+      <c r="A225" s="11">
+        <v>200005</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="E225" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="F225" s="13" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="226" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A226" s="11">
+        <v>200006</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E226" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="F226" s="13" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="227" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A227" s="11">
+        <v>200007</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="E227" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="F227" s="13" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="228" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A228" s="11">
+        <v>200008</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="F228" s="13" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="229" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A229" s="11">
+        <v>200009</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="E229" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="F229" s="13" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="230" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A230" s="11">
+        <v>200010</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="E230" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="F230" s="13" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="231" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A231" s="11">
+        <v>200011</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="E231" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F231" s="13" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="232" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A232" s="11">
+        <v>200012</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="E232" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="F232" s="13" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="233" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A233" s="11">
+        <v>200013</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E233" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="F233" s="13" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="234" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A234" s="11">
+        <v>200014</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E234" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="235" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A235" s="11">
+        <v>200015</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="F235" s="13" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="236" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A236" s="11">
+        <v>200016</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="D236" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="E236" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="F236" s="13" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="237" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A237" s="11">
+        <v>200017</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="F237" s="13" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="238" s="2" customFormat="1" spans="1:6">
+      <c r="A238" s="11">
+        <v>200018</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="F238" s="13" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="239" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A239" s="11">
+        <v>200019</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="E239" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="F239" s="13" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="240" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A240" s="11">
+        <v>200020</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="E240" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="241" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A241" s="11">
+        <v>200021</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="F241" s="13" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="242" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A242" s="11">
+        <v>200022</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="243" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A243" s="11">
+        <v>200023</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="F243" s="13" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="244" s="2" customFormat="1" spans="1:6">
+      <c r="A244" s="11">
+        <v>200024</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="F244" s="13" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="245" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A245" s="11">
+        <v>200025</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="F245" s="13" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="246" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A246" s="11">
+        <v>200026</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="F246" s="13" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="247" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A247" s="11">
+        <v>200027</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="F247" s="13" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="248" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A248" s="11">
+        <v>200028</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="249" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A249" s="11">
+        <v>200029</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="F249" s="13" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="250" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A250" s="11">
+        <v>200030</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="E250" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="F250" s="13" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="251" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A251" s="11">
+        <v>200031</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="E251" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="F251" s="13" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="252" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A252" s="11">
+        <v>200032</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="F252" s="13" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="253" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A253" s="11">
+        <v>200033</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F253" s="13" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="254" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A254" s="11">
+        <v>200034</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="F254" s="13" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="255" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A255" s="11">
+        <v>200035</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="F255" s="13" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="256" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A256" s="11">
+        <v>200036</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="F256" s="13" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="257" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A257" s="11">
+        <v>200037</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="E257" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="F257" s="13" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="258" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A258" s="11">
+        <v>200038</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="F258" s="13" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="259" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A259" s="11">
+        <v>200039</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>987</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="F259" s="13" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="260" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A260" s="11">
+        <v>200040</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="D260" s="14" t="s">
+        <v>992</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="F260" s="13" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="261" s="2" customFormat="1" spans="1:6">
+      <c r="A261" s="11">
+        <v>200041</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="D261" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="F261" s="13" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="262" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A262" s="11">
+        <v>200042</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="C262" s="14" t="s">
+        <v>999</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F262" s="13" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="263" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A263" s="11">
+        <v>200043</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F263" s="13" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="264" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A264" s="11">
+        <v>200044</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F264" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="265" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A265" s="11">
+        <v>200045</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F265" s="13" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="266" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A266" s="11">
+        <v>200046</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D266" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F266" s="13" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="267" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A267" s="11">
+        <v>200047</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D267" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F267" s="13" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="268" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A268" s="11">
+        <v>200048</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D268" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F268" s="13" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="269" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A269" s="11">
+        <v>200049</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D269" s="14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E269" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F269" s="13" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="270" s="2" customFormat="1" spans="1:6">
+      <c r="A270" s="11">
+        <v>200050</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D270" s="14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F270" s="13" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="271" s="2" customFormat="1" spans="1:6">
+      <c r="A271" s="11">
+        <v>200051</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E271" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F271" s="13" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="272" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A272" s="11">
+        <v>200052</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D272" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E272" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F272" s="13" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="273" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A273" s="11">
+        <v>200053</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D273" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F273" s="13" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="274" s="2" customFormat="1" spans="1:6">
+      <c r="A274" s="11">
+        <v>200054</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D274" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F274" s="13" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="275" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A275" s="11">
+        <v>200055</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D275" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E275" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F275" s="13" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="276" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A276" s="11">
+        <v>200056</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C276" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D276" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E276" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F276" s="13" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="277" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A277" s="11">
+        <v>200057</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D277" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E277" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F277" s="13" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="278" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A278" s="11">
+        <v>200058</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C278" s="14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D278" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F278" s="13" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="279" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A279" s="11">
+        <v>200059</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C279" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D279" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E279" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F279" s="13" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="280" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A280" s="11">
+        <v>200060</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D280" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E280" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F280" s="13" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="281" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A281" s="11">
+        <v>200061</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E281" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F281" s="13" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="282" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A282" s="11">
+        <v>200062</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D282" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E282" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F282" s="13" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="283" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A283" s="11">
+        <v>200063</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C283" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D283" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E283" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F283" s="13" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="284" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A284" s="11">
+        <v>200064</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C284" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D284" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E284" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F284" s="13" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="285" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A285" s="11">
+        <v>200065</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C285" s="14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D285" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E285" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F285" s="13" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="286" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A286" s="11">
+        <v>200066</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C286" s="14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D286" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E286" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F286" s="13" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="287" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A287" s="11">
+        <v>200067</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D287" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E287" s="13" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F287" s="13" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="288" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A288" s="11">
+        <v>200068</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C288" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D288" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E288" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F288" s="13" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="289" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A289" s="11">
+        <v>200069</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C289" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D289" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E289" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F289" s="13" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="290" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A290" s="11">
+        <v>200070</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C290" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D290" s="14" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E290" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F290" s="13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="291" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A291" s="11">
+        <v>200071</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C291" s="14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D291" s="14" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E291" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F291" s="13" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="292" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A292" s="4">
+        <v>200072</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="293" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A293" s="4">
+        <v>200073</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="294" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A294" s="4">
+        <v>200074</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="295" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A295" s="4">
+        <v>200075</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="296" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A296" s="4">
+        <v>200076</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="297" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A297" s="4">
+        <v>200077</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="298" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A298" s="4">
+        <v>200078</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="299" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A299" s="4">
+        <v>200079</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="300" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A300" s="4">
+        <v>200080</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="301" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A301" s="4">
+        <v>200081</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="302" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A302" s="4">
+        <v>200082</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E302" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="303" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A303" s="4">
+        <v>200083</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E303" s="15" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="304" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A304" s="4">
+        <v>200084</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E304" s="15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="305" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A305" s="4">
+        <v>200085</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E305" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="306" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A306" s="4">
+        <v>200086</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E306" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="307" s="2" customFormat="1" spans="1:6">
+      <c r="A307" s="4">
+        <v>200087</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E307" s="15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="308" s="2" customFormat="1" spans="1:6">
+      <c r="A308" s="4">
+        <v>200088</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E308" s="15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="309" s="2" customFormat="1" spans="1:6">
+      <c r="A309" s="4">
+        <v>200089</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E309" s="15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="310" s="2" customFormat="1" spans="1:6">
+      <c r="A310" s="4">
+        <v>200090</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E310" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="311" s="2" customFormat="1" spans="1:6">
+      <c r="A311" s="4">
+        <v>200091</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E311" s="15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="312" s="2" customFormat="1" spans="1:6">
+      <c r="A312" s="4">
+        <v>200092</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E312" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="313" s="2" customFormat="1" spans="1:6">
+      <c r="A313" s="4">
+        <v>200093</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E313" s="15" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="314" s="2" customFormat="1" spans="1:6">
+      <c r="A314" s="4">
+        <v>200094</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E314" s="15" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="315" s="2" customFormat="1" spans="1:6">
+      <c r="A315" s="4">
+        <v>200095</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E315" s="15" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="316" s="2" customFormat="1" spans="1:6">
+      <c r="A316" s="4">
+        <v>200096</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E316" s="15" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="317" s="2" customFormat="1" spans="1:6">
+      <c r="A317" s="4">
+        <v>200097</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E317" s="15" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="318" s="2" customFormat="1" spans="1:6">
+      <c r="A318" s="4">
+        <v>200098</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E318" s="15" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="319" s="2" customFormat="1" spans="1:6">
+      <c r="A319" s="4">
+        <v>200099</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E319" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="320" s="2" customFormat="1" spans="1:6">
+      <c r="A320" s="4">
+        <v>200100</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E320" s="15" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="321" s="2" customFormat="1" spans="1:6">
+      <c r="A321" s="4">
+        <v>200101</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E321" s="15" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="322" s="2" customFormat="1" spans="1:6">
+      <c r="A322" s="4">
+        <v>200102</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E322" s="15" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="323" s="2" customFormat="1" spans="1:6">
+      <c r="A323" s="4">
+        <v>200103</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E323" s="15" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="324" s="2" customFormat="1" spans="1:6">
+      <c r="A324" s="4">
+        <v>200104</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E324" s="15" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="325" s="2" customFormat="1" spans="1:6">
+      <c r="A325" s="4">
+        <v>200105</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E325" s="15" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="326" s="2" customFormat="1" spans="1:6">
+      <c r="A326" s="4">
+        <v>200106</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E326" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="327" s="2" customFormat="1" spans="1:6">
+      <c r="A327" s="4">
+        <v>200107</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E327" s="15" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="328" s="2" customFormat="1" spans="1:6">
+      <c r="A328" s="4">
+        <v>200108</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E328" s="15" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="329" s="2" customFormat="1" spans="1:6">
+      <c r="A329" s="4">
+        <v>200109</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E329" s="15" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="330" s="2" customFormat="1" spans="1:6">
+      <c r="A330" s="4">
+        <v>200110</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E330" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="331" s="2" customFormat="1" spans="1:6">
+      <c r="A331" s="4">
+        <v>200111</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E331" s="15" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="332" s="2" customFormat="1" spans="1:6">
+      <c r="A332" s="4">
+        <v>200112</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E332" s="15" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="333" s="2" customFormat="1" spans="1:6">
+      <c r="A333" s="4">
+        <v>200113</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E333" s="15" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="334" s="2" customFormat="1" spans="1:6">
+      <c r="A334" s="4">
+        <v>200114</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E334" s="15" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="335" s="2" customFormat="1" spans="1:6">
+      <c r="A335" s="4">
+        <v>200115</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E335" s="15" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="336" s="2" customFormat="1" spans="1:6">
+      <c r="A336" s="4">
+        <v>200116</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E336" s="15" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="337" s="2" customFormat="1" spans="1:6">
+      <c r="A337" s="4">
+        <v>200117</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E337" s="15" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="338" s="2" customFormat="1" spans="1:6">
+      <c r="A338" s="4">
+        <v>200118</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E338" s="15" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="339" s="2" customFormat="1" spans="1:6">
+      <c r="A339" s="4">
+        <v>200119</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E339" s="15" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="340" s="2" customFormat="1"/>
+    <row r="341" s="2" customFormat="1" spans="1:6">
+      <c r="A341" s="2">
+        <v>300000</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C341" s="16" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E341" s="16" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F341" s="16" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="342" s="2" customFormat="1" spans="1:6">
+      <c r="A342" s="2">
+        <v>300001</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C342" s="16" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E342" s="16" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F342" s="16" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="343" s="2" customFormat="1" spans="1:6">
+      <c r="A343" s="2">
+        <v>300002</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="344" s="2" customFormat="1" spans="1:6">
+      <c r="A344" s="2">
+        <v>300003</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="345" s="2" customFormat="1" spans="1:6">
+      <c r="A345" s="2">
+        <v>300004</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="346" s="2" customFormat="1" spans="1:6">
+      <c r="A346" s="2">
+        <v>300005</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="347" s="2" customFormat="1" spans="1:4">
+      <c r="A347" s="2">
+        <v>300006</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="348" s="2" customFormat="1" spans="1:4">
+      <c r="A348" s="2">
+        <v>300007</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="349" s="2" customFormat="1" spans="1:4">
+      <c r="A349" s="2">
+        <v>300008</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="350" s="2" customFormat="1" spans="1:4">
+      <c r="A350" s="2">
+        <v>300009</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="351" s="2" customFormat="1" spans="1:4">
+      <c r="A351" s="2">
+        <v>300010</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="352" s="2" customFormat="1" spans="1:4">
+      <c r="A352" s="2">
+        <v>300011</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="353" s="2" customFormat="1" spans="1:4">
+      <c r="A353" s="2">
+        <v>300012</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="354" s="2" customFormat="1" spans="1:4">
+      <c r="A354" s="2">
+        <v>300013</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="355" s="2" customFormat="1" spans="1:4">
+      <c r="A355" s="2">
+        <v>300014</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="356" s="2" customFormat="1" spans="1:4">
+      <c r="A356" s="2">
+        <v>300015</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D356" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="C206" s="17" t="s">
+    </row>
+    <row r="357" s="2" customFormat="1" spans="1:4">
+      <c r="A357" s="2">
+        <v>300016</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="358" s="2" customFormat="1" spans="1:4">
+      <c r="A358" s="2">
+        <v>300017</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="359" s="2" customFormat="1" spans="1:4">
+      <c r="A359" s="2">
+        <v>300018</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="D206" s="17" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E206" s="17" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F206" s="17" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="1">
-        <v>105702</v>
-      </c>
-      <c r="B207" s="16" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C207" s="17" t="s">
+      <c r="D359" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="D207" s="17" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E207" s="17" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F207" s="17" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="1">
-        <v>105703</v>
-      </c>
-      <c r="B208" s="16" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C208" s="17" t="s">
+    </row>
+    <row r="360" s="2" customFormat="1" spans="1:4">
+      <c r="A360" s="2">
+        <v>300019</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="D208" s="17" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E208" s="17" t="s">
-        <v>1341</v>
-      </c>
-      <c r="F208" s="17" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="1">
-        <v>105704</v>
-      </c>
-      <c r="B209" s="16" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C209" s="17" t="s">
+      <c r="C360" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="D209" s="17" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E209" s="17" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F209" s="17" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="1"/>
-      <c r="B210" s="16"/>
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="17"/>
-    </row>
-    <row r="211" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
-        <v>105801</v>
-      </c>
-      <c r="B211" s="16" t="s">
+      <c r="D360" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="C211" s="17" t="s">
+    </row>
+    <row r="361" s="2" customFormat="1" spans="1:4">
+      <c r="A361" s="2">
+        <v>300020</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="362" s="2" customFormat="1" spans="1:4">
+      <c r="A362" s="2">
+        <v>300021</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="D211" s="17" t="s">
+      <c r="C362" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="E211" s="17" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F211" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
-        <v>105802</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E212" s="17" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F212" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="1">
-        <v>105803</v>
-      </c>
-      <c r="B213" s="16" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C213" s="17" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E213" s="17" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F213" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="1">
-        <v>105804</v>
-      </c>
-      <c r="B214" s="16" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E214" s="17" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F214" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="9">
-        <v>200001</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="D216" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="E216" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="F216" s="11" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="9">
-        <v>200002</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>815</v>
-      </c>
-      <c r="D217" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="E217" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="F217" s="11" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="9">
-        <v>200003</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="D218" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="E218" s="11" t="s">
-        <v>821</v>
-      </c>
-      <c r="F218" s="11" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="9">
-        <v>200004</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>823</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="E219" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="F219" s="11" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="9">
-        <v>200005</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>826</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="D220" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="E220" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="F220" s="11" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="9">
-        <v>200006</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="D221" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="E221" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="F221" s="11" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="9">
-        <v>200007</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="D222" s="10" t="s">
-        <v>836</v>
-      </c>
-      <c r="E222" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="F222" s="11" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="9">
-        <v>200008</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="D223" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="E223" s="11" t="s">
-        <v>841</v>
-      </c>
-      <c r="F223" s="11" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="9">
-        <v>200009</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>842</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="E224" s="11" t="s">
-        <v>845</v>
-      </c>
-      <c r="F224" s="11" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="9">
-        <v>200010</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D225" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="E225" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="F225" s="11" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="9">
-        <v>200011</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>850</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="D226" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="E226" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="F226" s="11" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="9">
-        <v>200012</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>854</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="D227" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="E227" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="F227" s="11" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="9">
-        <v>200013</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>858</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="D228" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="E228" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="F228" s="11" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="9">
-        <v>200014</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>863</v>
-      </c>
-      <c r="D229" s="10" t="s">
-        <v>864</v>
-      </c>
-      <c r="E229" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="F229" s="11" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="9">
-        <v>200015</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="D230" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="E230" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="F230" s="11" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="9">
-        <v>200016</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="D231" s="10" t="s">
-        <v>872</v>
-      </c>
-      <c r="E231" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="F231" s="11" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="9">
-        <v>200017</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>875</v>
-      </c>
-      <c r="D232" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="E232" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="F232" s="11" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="9">
-        <v>200018</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="D233" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="E233" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="F233" s="11" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="9">
-        <v>200019</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>883</v>
-      </c>
-      <c r="D234" s="10" t="s">
-        <v>884</v>
-      </c>
-      <c r="E234" s="11" t="s">
-        <v>885</v>
-      </c>
-      <c r="F234" s="11" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="9">
-        <v>200020</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>887</v>
-      </c>
-      <c r="D235" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="E235" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="9">
-        <v>200021</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>890</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="D236" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="E236" s="11" t="s">
-        <v>892</v>
-      </c>
-      <c r="F236" s="11" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="9">
-        <v>200022</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>894</v>
-      </c>
-      <c r="D237" s="10" t="s">
-        <v>895</v>
-      </c>
-      <c r="E237" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="F237" s="11" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="9">
-        <v>200023</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>897</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="D238" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="E238" s="11" t="s">
-        <v>900</v>
-      </c>
-      <c r="F238" s="11" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="9">
-        <v>200024</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="D239" s="10" t="s">
-        <v>903</v>
-      </c>
-      <c r="E239" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F239" s="11" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="9">
-        <v>200025</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>906</v>
-      </c>
-      <c r="D240" s="10" t="s">
-        <v>907</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>908</v>
-      </c>
-      <c r="F240" s="11" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="9">
-        <v>200026</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="D241" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E241" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="F241" s="11" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="9">
-        <v>200027</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>914</v>
-      </c>
-      <c r="D242" s="10" t="s">
-        <v>915</v>
-      </c>
-      <c r="E242" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="F242" s="11" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="9">
-        <v>200028</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>917</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="D243" s="10" t="s">
-        <v>919</v>
-      </c>
-      <c r="E243" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="F243" s="11" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="9">
-        <v>200029</v>
-      </c>
-      <c r="B244" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>922</v>
-      </c>
-      <c r="D244" s="10" t="s">
-        <v>923</v>
-      </c>
-      <c r="E244" s="11" t="s">
-        <v>924</v>
-      </c>
-      <c r="F244" s="11" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="9">
-        <v>200030</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>926</v>
-      </c>
-      <c r="D245" s="10" t="s">
-        <v>927</v>
-      </c>
-      <c r="E245" s="11" t="s">
-        <v>928</v>
-      </c>
-      <c r="F245" s="11" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="9">
-        <v>200031</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>930</v>
-      </c>
-      <c r="D246" s="10" t="s">
-        <v>931</v>
-      </c>
-      <c r="E246" s="11" t="s">
-        <v>932</v>
-      </c>
-      <c r="F246" s="11" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="9">
-        <v>200032</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>934</v>
-      </c>
-      <c r="D247" s="10" t="s">
-        <v>935</v>
-      </c>
-      <c r="E247" s="11" t="s">
-        <v>936</v>
-      </c>
-      <c r="F247" s="11" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="9">
-        <v>200033</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>937</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>938</v>
-      </c>
-      <c r="D248" s="10" t="s">
-        <v>939</v>
-      </c>
-      <c r="E248" s="11" t="s">
-        <v>940</v>
-      </c>
-      <c r="F248" s="11" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="9">
-        <v>200034</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>941</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>942</v>
-      </c>
-      <c r="D249" s="10" t="s">
-        <v>943</v>
-      </c>
-      <c r="E249" s="11" t="s">
-        <v>944</v>
-      </c>
-      <c r="F249" s="11" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="9">
-        <v>200035</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>945</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>946</v>
-      </c>
-      <c r="D250" s="10" t="s">
-        <v>947</v>
-      </c>
-      <c r="E250" s="11" t="s">
-        <v>948</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="9">
-        <v>200036</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>950</v>
-      </c>
-      <c r="D251" s="10" t="s">
-        <v>951</v>
-      </c>
-      <c r="E251" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="F251" s="11" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="9">
-        <v>200037</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>954</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>955</v>
-      </c>
-      <c r="E252" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="F252" s="11" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="9">
-        <v>200038</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>957</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>958</v>
-      </c>
-      <c r="D253" s="10" t="s">
-        <v>959</v>
-      </c>
-      <c r="E253" s="11" t="s">
-        <v>960</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="9">
-        <v>200039</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>961</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>962</v>
-      </c>
-      <c r="D254" s="10" t="s">
-        <v>963</v>
-      </c>
-      <c r="E254" s="11" t="s">
-        <v>964</v>
-      </c>
-      <c r="F254" s="11" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="9">
-        <v>200040</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>966</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>967</v>
-      </c>
-      <c r="E255" s="11" t="s">
-        <v>968</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="9">
-        <v>200041</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>969</v>
-      </c>
-      <c r="C256" s="12" t="s">
-        <v>970</v>
-      </c>
-      <c r="D256" s="12" t="s">
-        <v>971</v>
-      </c>
-      <c r="E256" s="11" t="s">
-        <v>972</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="9">
-        <v>200042</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="C257" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="D257" s="11" t="s">
-        <v>975</v>
-      </c>
-      <c r="E257" s="11" t="s">
-        <v>976</v>
-      </c>
-      <c r="F257" s="11" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="9">
-        <v>200043</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>977</v>
-      </c>
-      <c r="C258" s="11" t="s">
-        <v>978</v>
-      </c>
-      <c r="D258" s="11" t="s">
-        <v>979</v>
-      </c>
-      <c r="E258" s="11" t="s">
-        <v>980</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="9">
-        <v>200044</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>981</v>
-      </c>
-      <c r="C259" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="D259" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="E259" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="F259" s="11" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="9">
-        <v>200045</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>985</v>
-      </c>
-      <c r="C260" s="11" t="s">
-        <v>986</v>
-      </c>
-      <c r="D260" s="11" t="s">
-        <v>987</v>
-      </c>
-      <c r="E260" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="F260" s="11" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="9">
-        <v>200046</v>
-      </c>
-      <c r="B261" s="9" t="s">
-        <v>989</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>990</v>
-      </c>
-      <c r="D261" s="11" t="s">
-        <v>991</v>
-      </c>
-      <c r="E261" s="11" t="s">
-        <v>992</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="9">
-        <v>200047</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>993</v>
-      </c>
-      <c r="C262" s="12" t="s">
-        <v>994</v>
-      </c>
-      <c r="D262" s="12" t="s">
-        <v>995</v>
-      </c>
-      <c r="E262" s="11" t="s">
-        <v>996</v>
-      </c>
-      <c r="F262" s="11" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="9">
-        <v>200048</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>997</v>
-      </c>
-      <c r="C263" s="11" t="s">
-        <v>998</v>
-      </c>
-      <c r="D263" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="E263" s="11" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="9">
-        <v>200049</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C264" s="12" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E264" s="11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F264" s="11" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="9">
-        <v>200050</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C265" s="12" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D265" s="12" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E265" s="11" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="9">
-        <v>200051</v>
-      </c>
-      <c r="B266" s="9" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C266" s="11" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D266" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E266" s="11" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="9">
-        <v>200052</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C267" s="11" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D267" s="11" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E267" s="11" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="9">
-        <v>200053</v>
-      </c>
-      <c r="B268" s="9" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C268" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D268" s="11" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E268" s="11" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F268" s="11" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="9">
-        <v>200054</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C269" s="11" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D269" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E269" s="11" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="9">
-        <v>200055</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C270" s="11" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D270" s="11" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E270" s="11" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F270" s="11" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="9">
-        <v>200056</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C271" s="12" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D271" s="12" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E271" s="11" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="9">
-        <v>200057</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C272" s="11" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D272" s="11" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E272" s="11" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F272" s="11" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="9">
-        <v>200058</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C273" s="12" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D273" s="12" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E273" s="11" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F273" s="11" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="9">
-        <v>200059</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C274" s="12" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D274" s="12" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E274" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F274" s="11" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="9">
-        <v>200060</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C275" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D275" s="12" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E275" s="11" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F275" s="11" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="9">
-        <v>200061</v>
-      </c>
-      <c r="B276" s="9" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C276" s="11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D276" s="11" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E276" s="11" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F276" s="11" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="9">
-        <v>200062</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C277" s="11" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D277" s="12" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E277" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F277" s="11" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="9">
-        <v>200063</v>
-      </c>
-      <c r="B278" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C278" s="12" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D278" s="12" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E278" s="11" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F278" s="11" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="9">
-        <v>200064</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C279" s="12" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D279" s="12" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E279" s="11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F279" s="11" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="9">
-        <v>200065</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C280" s="12" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D280" s="12" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E280" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F280" s="11" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="9">
-        <v>200066</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C281" s="12" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D281" s="12" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E281" s="11" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F281" s="11" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="9">
-        <v>200067</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C282" s="11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D282" s="12" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E282" s="11" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F282" s="11" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="9">
-        <v>200068</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C283" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D283" s="11" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E283" s="11" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F283" s="11" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="9">
-        <v>200069</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C284" s="12" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D284" s="12" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E284" s="11" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F284" s="11" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="9">
-        <v>200070</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C285" s="12" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D285" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E285" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F285" s="11" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="9">
-        <v>200071</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C286" s="12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D286" s="12" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E286" s="11" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F286" s="11" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="4">
-        <v>200072</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="4">
-        <v>200073</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="4">
-        <v>200074</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="4">
-        <v>200075</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="4">
-        <v>200076</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="4">
-        <v>200077</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="4">
-        <v>200078</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="4">
-        <v>200079</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="4">
-        <v>200080</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="4">
-        <v>200081</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="4">
-        <v>200082</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E297" s="13" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="4">
-        <v>200083</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E298" s="13" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="4">
-        <v>200084</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E299" s="13" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="4">
-        <v>200085</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E300" s="13" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="4">
-        <v>200086</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E301" s="13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="4">
-        <v>200087</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E302" s="13" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="4">
-        <v>200088</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E303" s="13" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="4">
-        <v>200089</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E304" s="13" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="4">
-        <v>200090</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E305" s="13" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="4">
-        <v>200091</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E306" s="13" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="4">
-        <v>200092</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E307" s="13" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="4">
-        <v>200093</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E308" s="13" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="4">
-        <v>200094</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E309" s="13" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="4">
-        <v>200095</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E310" s="13" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="4">
-        <v>200096</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E311" s="13" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A312" s="4">
-        <v>200097</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E312" s="13" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="4">
-        <v>200098</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="4">
-        <v>200099</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E314" s="13" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="4">
-        <v>200100</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E315" s="13" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="4">
-        <v>200101</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E316" s="13" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="4">
-        <v>200102</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E317" s="13" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="4">
-        <v>200103</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E318" s="13" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F318" s="2" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="4">
-        <v>200104</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E319" s="13" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="4">
-        <v>200105</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E320" s="13" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F320" s="2" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="4">
-        <v>200106</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E321" s="13" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F321" s="2" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="4">
-        <v>200107</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E322" s="13" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F322" s="2" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="4">
-        <v>200108</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E323" s="13" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F323" s="2" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="4">
-        <v>200109</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E324" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="4">
-        <v>200110</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E325" s="13" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F325" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="4">
-        <v>200111</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E326" s="13" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="4">
-        <v>200112</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E327" s="13" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F327" s="2" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="4">
-        <v>200113</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E328" s="13" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F328" s="2" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="4">
-        <v>200114</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E329" s="13" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F329" s="2" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="4">
-        <v>200115</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E330" s="13" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="4">
-        <v>200116</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E331" s="13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A332" s="4">
-        <v>200117</v>
-      </c>
-      <c r="B332" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E332" s="13" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F332" s="3" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="4">
-        <v>200118</v>
-      </c>
-      <c r="B333" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E333" s="13" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F333" s="3" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="4">
-        <v>200119</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E334" s="13" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F334" s="3" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A336" s="2">
-        <v>300000</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C336" s="14" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E336" s="14" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F336" s="14" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="2">
-        <v>300001</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C337" s="14" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E337" s="14" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F337" s="14" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="2">
-        <v>300002</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E338" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F338" s="3" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="2">
-        <v>300003</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E339" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F339" s="3" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="2">
-        <v>300004</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F340" s="2" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="2">
-        <v>300005</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E341" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F341" s="3" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A342" s="2">
-        <v>300006</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="2">
-        <v>300007</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="2">
-        <v>300008</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="2">
-        <v>300009</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="2">
-        <v>300010</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="2">
-        <v>300011</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D347" s="2" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A348" s="2">
-        <v>300012</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="2">
-        <v>300013</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="2">
-        <v>300014</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="2">
-        <v>300015</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D351" s="2" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="2">
-        <v>300016</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="2">
-        <v>300017</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="2">
-        <v>300018</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="2">
-        <v>300019</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A356" s="2">
-        <v>300020</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="2">
-        <v>300021</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D357" s="2" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A358" s="2">
+      <c r="D362" s="2" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="363" s="2" customFormat="1" ht="17.25" spans="1:4">
+      <c r="A363" s="2">
         <v>300022</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D358" s="15" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="2">
+      <c r="B363" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D363" s="17" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="364" s="2" customFormat="1" spans="1:4">
+      <c r="A364" s="2">
         <v>300023</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="361" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="362" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="363" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="364" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="365" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="366" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="367" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="368" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="567" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="568" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="575" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="576" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="577" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="578" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="579" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="580" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="581" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="582" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="583" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="584" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="585" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="586" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="587" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="592" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="593" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="594" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="595" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="596" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="597" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="598" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="599" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="600" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="601" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="602" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="603" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="604" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="605" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="606" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="607" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="608" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="609" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="610" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="611" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="646" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="647" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="648" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="649" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="650" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="651" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="652" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="653" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="654" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="655" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="656" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="657" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="658" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="659" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="660" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="661" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="662" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="663" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="664" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="665" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="666" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="667" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A668" s="2"/>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A669" s="2"/>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A670" s="2"/>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A671" s="2"/>
+      <c r="B364" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="365" s="2" customFormat="1"/>
+    <row r="366" s="2" customFormat="1"/>
+    <row r="367" s="2" customFormat="1"/>
+    <row r="368" s="2" customFormat="1"/>
+    <row r="369" s="2" customFormat="1"/>
+    <row r="370" s="2" customFormat="1"/>
+    <row r="371" s="2" customFormat="1"/>
+    <row r="372" s="2" customFormat="1"/>
+    <row r="373" s="2" customFormat="1"/>
+    <row r="374" s="2" customFormat="1"/>
+    <row r="375" s="2" customFormat="1"/>
+    <row r="376" s="2" customFormat="1"/>
+    <row r="377" s="2" customFormat="1"/>
+    <row r="378" s="2" customFormat="1"/>
+    <row r="379" s="2" customFormat="1"/>
+    <row r="380" s="2" customFormat="1"/>
+    <row r="381" s="2" customFormat="1"/>
+    <row r="382" s="2" customFormat="1"/>
+    <row r="383" s="2" customFormat="1"/>
+    <row r="384" s="2" customFormat="1"/>
+    <row r="385" s="2" customFormat="1"/>
+    <row r="386" s="2" customFormat="1"/>
+    <row r="387" s="2" customFormat="1"/>
+    <row r="388" s="2" customFormat="1"/>
+    <row r="389" s="2" customFormat="1"/>
+    <row r="390" s="2" customFormat="1"/>
+    <row r="391" s="2" customFormat="1"/>
+    <row r="392" s="2" customFormat="1"/>
+    <row r="393" s="2" customFormat="1"/>
+    <row r="394" s="2" customFormat="1"/>
+    <row r="395" s="2" customFormat="1"/>
+    <row r="396" s="2" customFormat="1"/>
+    <row r="397" s="2" customFormat="1"/>
+    <row r="398" s="2" customFormat="1"/>
+    <row r="399" s="2" customFormat="1"/>
+    <row r="400" s="2" customFormat="1"/>
+    <row r="401" s="2" customFormat="1"/>
+    <row r="402" s="2" customFormat="1"/>
+    <row r="403" s="2" customFormat="1"/>
+    <row r="404" s="2" customFormat="1"/>
+    <row r="405" s="2" customFormat="1"/>
+    <row r="406" s="2" customFormat="1"/>
+    <row r="407" s="2" customFormat="1"/>
+    <row r="408" s="2" customFormat="1"/>
+    <row r="409" s="2" customFormat="1"/>
+    <row r="410" s="2" customFormat="1"/>
+    <row r="411" s="2" customFormat="1"/>
+    <row r="412" s="2" customFormat="1"/>
+    <row r="413" s="2" customFormat="1"/>
+    <row r="414" s="2" customFormat="1"/>
+    <row r="415" s="2" customFormat="1"/>
+    <row r="416" s="2" customFormat="1"/>
+    <row r="417" s="2" customFormat="1"/>
+    <row r="418" s="2" customFormat="1"/>
+    <row r="419" s="2" customFormat="1"/>
+    <row r="420" s="2" customFormat="1"/>
+    <row r="421" s="2" customFormat="1"/>
+    <row r="422" s="2" customFormat="1"/>
+    <row r="423" s="2" customFormat="1"/>
+    <row r="424" s="2" customFormat="1"/>
+    <row r="425" s="2" customFormat="1"/>
+    <row r="426" s="2" customFormat="1"/>
+    <row r="427" s="2" customFormat="1"/>
+    <row r="428" s="2" customFormat="1"/>
+    <row r="429" s="2" customFormat="1"/>
+    <row r="430" s="2" customFormat="1"/>
+    <row r="431" s="2" customFormat="1"/>
+    <row r="432" s="2" customFormat="1"/>
+    <row r="433" s="2" customFormat="1"/>
+    <row r="434" s="2" customFormat="1"/>
+    <row r="435" s="2" customFormat="1"/>
+    <row r="436" s="2" customFormat="1"/>
+    <row r="437" s="2" customFormat="1"/>
+    <row r="438" s="2" customFormat="1"/>
+    <row r="439" s="2" customFormat="1"/>
+    <row r="440" s="2" customFormat="1"/>
+    <row r="441" s="2" customFormat="1"/>
+    <row r="442" s="2" customFormat="1"/>
+    <row r="443" s="2" customFormat="1"/>
+    <row r="444" s="2" customFormat="1"/>
+    <row r="445" s="2" customFormat="1"/>
+    <row r="446" s="2" customFormat="1"/>
+    <row r="447" s="2" customFormat="1"/>
+    <row r="448" s="2" customFormat="1"/>
+    <row r="449" s="2" customFormat="1"/>
+    <row r="450" s="2" customFormat="1"/>
+    <row r="451" s="2" customFormat="1"/>
+    <row r="452" s="2" customFormat="1"/>
+    <row r="453" s="2" customFormat="1"/>
+    <row r="454" s="2" customFormat="1"/>
+    <row r="455" s="2" customFormat="1"/>
+    <row r="456" s="2" customFormat="1"/>
+    <row r="457" s="2" customFormat="1"/>
+    <row r="458" s="2" customFormat="1"/>
+    <row r="459" s="2" customFormat="1"/>
+    <row r="460" s="2" customFormat="1"/>
+    <row r="461" s="2" customFormat="1"/>
+    <row r="462" s="2" customFormat="1"/>
+    <row r="463" s="2" customFormat="1"/>
+    <row r="464" s="2" customFormat="1"/>
+    <row r="465" s="2" customFormat="1"/>
+    <row r="466" s="2" customFormat="1"/>
+    <row r="467" s="2" customFormat="1"/>
+    <row r="468" s="2" customFormat="1"/>
+    <row r="469" s="2" customFormat="1"/>
+    <row r="470" s="2" customFormat="1"/>
+    <row r="471" s="2" customFormat="1"/>
+    <row r="472" s="2" customFormat="1"/>
+    <row r="473" s="2" customFormat="1"/>
+    <row r="474" s="2" customFormat="1"/>
+    <row r="475" s="2" customFormat="1"/>
+    <row r="476" s="2" customFormat="1"/>
+    <row r="477" s="2" customFormat="1"/>
+    <row r="478" s="2" customFormat="1"/>
+    <row r="479" s="2" customFormat="1"/>
+    <row r="480" s="2" customFormat="1"/>
+    <row r="481" s="2" customFormat="1"/>
+    <row r="482" s="2" customFormat="1"/>
+    <row r="483" s="2" customFormat="1"/>
+    <row r="484" s="2" customFormat="1"/>
+    <row r="485" s="2" customFormat="1"/>
+    <row r="486" s="2" customFormat="1"/>
+    <row r="487" s="2" customFormat="1"/>
+    <row r="488" s="2" customFormat="1"/>
+    <row r="489" s="2" customFormat="1"/>
+    <row r="490" s="2" customFormat="1"/>
+    <row r="491" s="2" customFormat="1"/>
+    <row r="492" s="2" customFormat="1"/>
+    <row r="493" s="2" customFormat="1"/>
+    <row r="494" s="2" customFormat="1"/>
+    <row r="495" s="2" customFormat="1"/>
+    <row r="496" s="2" customFormat="1"/>
+    <row r="497" s="2" customFormat="1"/>
+    <row r="498" s="2" customFormat="1"/>
+    <row r="499" s="2" customFormat="1"/>
+    <row r="500" s="2" customFormat="1"/>
+    <row r="501" s="2" customFormat="1"/>
+    <row r="502" s="2" customFormat="1"/>
+    <row r="503" s="2" customFormat="1"/>
+    <row r="504" s="2" customFormat="1"/>
+    <row r="505" s="2" customFormat="1"/>
+    <row r="506" s="2" customFormat="1"/>
+    <row r="507" s="2" customFormat="1"/>
+    <row r="508" s="2" customFormat="1"/>
+    <row r="509" s="2" customFormat="1"/>
+    <row r="510" s="2" customFormat="1"/>
+    <row r="511" s="2" customFormat="1"/>
+    <row r="512" s="2" customFormat="1"/>
+    <row r="513" s="2" customFormat="1"/>
+    <row r="514" s="2" customFormat="1"/>
+    <row r="515" s="2" customFormat="1"/>
+    <row r="516" s="2" customFormat="1"/>
+    <row r="517" s="2" customFormat="1"/>
+    <row r="518" s="2" customFormat="1"/>
+    <row r="519" s="2" customFormat="1"/>
+    <row r="520" s="2" customFormat="1"/>
+    <row r="521" s="2" customFormat="1"/>
+    <row r="522" s="2" customFormat="1"/>
+    <row r="523" s="2" customFormat="1"/>
+    <row r="524" s="2" customFormat="1"/>
+    <row r="525" s="2" customFormat="1"/>
+    <row r="526" s="2" customFormat="1"/>
+    <row r="527" s="2" customFormat="1"/>
+    <row r="528" s="2" customFormat="1"/>
+    <row r="529" s="2" customFormat="1"/>
+    <row r="530" s="2" customFormat="1"/>
+    <row r="531" s="2" customFormat="1"/>
+    <row r="532" s="2" customFormat="1"/>
+    <row r="533" s="2" customFormat="1"/>
+    <row r="534" s="2" customFormat="1"/>
+    <row r="535" s="2" customFormat="1"/>
+    <row r="536" s="2" customFormat="1"/>
+    <row r="537" s="2" customFormat="1"/>
+    <row r="538" s="2" customFormat="1"/>
+    <row r="539" s="2" customFormat="1"/>
+    <row r="540" s="2" customFormat="1"/>
+    <row r="541" s="2" customFormat="1"/>
+    <row r="542" s="2" customFormat="1"/>
+    <row r="543" s="2" customFormat="1"/>
+    <row r="544" s="2" customFormat="1"/>
+    <row r="545" s="2" customFormat="1"/>
+    <row r="546" s="2" customFormat="1"/>
+    <row r="547" s="2" customFormat="1"/>
+    <row r="548" s="2" customFormat="1"/>
+    <row r="549" s="2" customFormat="1"/>
+    <row r="550" s="2" customFormat="1"/>
+    <row r="551" s="2" customFormat="1"/>
+    <row r="552" s="2" customFormat="1"/>
+    <row r="553" s="2" customFormat="1"/>
+    <row r="554" s="2" customFormat="1"/>
+    <row r="555" s="2" customFormat="1"/>
+    <row r="556" s="2" customFormat="1"/>
+    <row r="557" s="2" customFormat="1"/>
+    <row r="558" s="2" customFormat="1"/>
+    <row r="559" s="2" customFormat="1"/>
+    <row r="560" s="2" customFormat="1"/>
+    <row r="561" s="2" customFormat="1"/>
+    <row r="562" s="2" customFormat="1"/>
+    <row r="563" s="2" customFormat="1"/>
+    <row r="564" s="2" customFormat="1"/>
+    <row r="565" s="2" customFormat="1"/>
+    <row r="566" s="2" customFormat="1"/>
+    <row r="567" s="2" customFormat="1"/>
+    <row r="568" s="2" customFormat="1"/>
+    <row r="569" s="2" customFormat="1"/>
+    <row r="570" s="2" customFormat="1"/>
+    <row r="571" s="2" customFormat="1"/>
+    <row r="572" s="2" customFormat="1"/>
+    <row r="573" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="574" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="575" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="576" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="577" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="578" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="579" s="2" customFormat="1"/>
+    <row r="580" s="2" customFormat="1"/>
+    <row r="581" s="2" customFormat="1"/>
+    <row r="582" s="2" customFormat="1"/>
+    <row r="583" s="2" customFormat="1"/>
+    <row r="584" s="2" customFormat="1"/>
+    <row r="585" s="2" customFormat="1"/>
+    <row r="586" s="2" customFormat="1"/>
+    <row r="587" s="2" customFormat="1"/>
+    <row r="588" s="2" customFormat="1"/>
+    <row r="589" s="2" customFormat="1"/>
+    <row r="590" s="2" customFormat="1"/>
+    <row r="591" s="2" customFormat="1"/>
+    <row r="592" s="2" customFormat="1"/>
+    <row r="593" s="2" customFormat="1"/>
+    <row r="594" s="2" customFormat="1"/>
+    <row r="595" s="2" customFormat="1"/>
+    <row r="596" s="2" customFormat="1"/>
+    <row r="597" s="2" customFormat="1"/>
+    <row r="598" s="2" customFormat="1"/>
+    <row r="599" s="2" customFormat="1"/>
+    <row r="600" s="2" customFormat="1"/>
+    <row r="601" s="2" customFormat="1"/>
+    <row r="602" s="2" customFormat="1"/>
+    <row r="603" s="2" customFormat="1"/>
+    <row r="604" s="2" customFormat="1"/>
+    <row r="605" s="2" customFormat="1"/>
+    <row r="606" s="2" customFormat="1"/>
+    <row r="607" s="2" customFormat="1"/>
+    <row r="608" s="2" customFormat="1"/>
+    <row r="609" s="2" customFormat="1"/>
+    <row r="610" s="2" customFormat="1"/>
+    <row r="611" s="2" customFormat="1"/>
+    <row r="612" s="2" customFormat="1"/>
+    <row r="613" s="2" customFormat="1"/>
+    <row r="614" s="2" customFormat="1"/>
+    <row r="615" s="2" customFormat="1"/>
+    <row r="616" s="2" customFormat="1"/>
+    <row r="617" s="2" customFormat="1"/>
+    <row r="618" s="2" customFormat="1"/>
+    <row r="619" s="2" customFormat="1"/>
+    <row r="620" s="2" customFormat="1"/>
+    <row r="621" s="2" customFormat="1"/>
+    <row r="622" s="2" customFormat="1"/>
+    <row r="623" s="2" customFormat="1"/>
+    <row r="624" s="2" customFormat="1"/>
+    <row r="625" s="2" customFormat="1"/>
+    <row r="626" s="2" customFormat="1"/>
+    <row r="627" s="2" customFormat="1"/>
+    <row r="628" s="2" customFormat="1"/>
+    <row r="629" s="2" customFormat="1"/>
+    <row r="630" s="2" customFormat="1"/>
+    <row r="631" s="2" customFormat="1"/>
+    <row r="632" s="2" customFormat="1"/>
+    <row r="633" s="2" customFormat="1"/>
+    <row r="634" s="2" customFormat="1"/>
+    <row r="635" s="2" customFormat="1"/>
+    <row r="636" s="2" customFormat="1"/>
+    <row r="637" s="2" customFormat="1"/>
+    <row r="638" s="2" customFormat="1"/>
+    <row r="639" s="2" customFormat="1"/>
+    <row r="640" s="2" customFormat="1"/>
+    <row r="641" s="2" customFormat="1"/>
+    <row r="642" s="2" customFormat="1"/>
+    <row r="643" s="2" customFormat="1"/>
+    <row r="644" s="2" customFormat="1"/>
+    <row r="645" s="2" customFormat="1"/>
+    <row r="646" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="647" s="2" customFormat="1"/>
+    <row r="648" s="2" customFormat="1"/>
+    <row r="649" s="2" customFormat="1"/>
+    <row r="650" s="2" customFormat="1"/>
+    <row r="651" s="2" customFormat="1"/>
+    <row r="652" s="2" customFormat="1"/>
+    <row r="653" s="2" customFormat="1"/>
+    <row r="654" s="2" customFormat="1"/>
+    <row r="655" s="2" customFormat="1"/>
+    <row r="656" s="2" customFormat="1"/>
+    <row r="657" s="2" customFormat="1"/>
+    <row r="658" s="2" customFormat="1"/>
+    <row r="659" s="2" customFormat="1"/>
+    <row r="660" s="2" customFormat="1"/>
+    <row r="661" s="2" customFormat="1"/>
+    <row r="662" s="2" customFormat="1"/>
+    <row r="663" s="2" customFormat="1"/>
+    <row r="664" s="2" customFormat="1"/>
+    <row r="665" s="2" customFormat="1"/>
+    <row r="666" s="2" customFormat="1"/>
+    <row r="667" s="2" customFormat="1"/>
+    <row r="668" s="2" customFormat="1"/>
+    <row r="669" s="2" customFormat="1"/>
+    <row r="670" s="2" customFormat="1"/>
+    <row r="671" s="2" customFormat="1"/>
+    <row r="672" s="2" customFormat="1"/>
+    <row r="673" spans="1:1">
+      <c r="A673" s="2"/>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="2"/>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="2"/>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1366">
   <si>
     <t>int</t>
   </si>
@@ -4110,6 +4110,36 @@
   </si>
   <si>
     <t>由于上次在跑酷关内未失败，此次进入不消耗游戏次数！</t>
+  </si>
+  <si>
+    <t>Maptext001</t>
+  </si>
+  <si>
+    <t>城堡跑酷</t>
+  </si>
+  <si>
+    <t>Maptext002</t>
+  </si>
+  <si>
+    <t>云端迷宫</t>
+  </si>
+  <si>
+    <t>Maptext003</t>
+  </si>
+  <si>
+    <t>火炎地狱</t>
+  </si>
+  <si>
+    <t>Maptext004</t>
+  </si>
+  <si>
+    <t>奶牛关</t>
+  </si>
+  <si>
+    <t>Maptext005</t>
+  </si>
+  <si>
+    <t>冰层</t>
   </si>
 </sst>
 </file>
@@ -4146,14 +4176,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="10.5"/>
+      <color rgb="FFCCCCCC"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFCCCCCC"/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -4789,12 +4818,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4811,8 +4834,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5203,8 +5232,8 @@
   <sheetPr/>
   <dimension ref="A1:H676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="D336" workbookViewId="0">
+      <selection activeCell="E359" sqref="E359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -9256,19 +9285,19 @@
       <c r="A211" s="1">
         <v>105701</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C211" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="E211" s="10" t="s">
+      <c r="E211" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F211" s="10" t="s">
+      <c r="F211" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -9276,19 +9305,19 @@
       <c r="A212" s="1">
         <v>105702</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C212" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="D212" s="10" t="s">
+      <c r="D212" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="E212" s="10" t="s">
+      <c r="E212" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="F212" s="10" t="s">
+      <c r="F212" s="3" t="s">
         <v>821</v>
       </c>
     </row>
@@ -9296,19 +9325,19 @@
       <c r="A213" s="1">
         <v>105703</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="C213" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="D213" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="E213" s="10" t="s">
+      <c r="E213" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="F213" s="10" t="s">
+      <c r="F213" s="3" t="s">
         <v>824</v>
       </c>
     </row>
@@ -9316,47 +9345,47 @@
       <c r="A214" s="1">
         <v>105704</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C214" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D214" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="E214" s="10" t="s">
+      <c r="E214" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="F214" s="10" t="s">
+      <c r="F214" s="3" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="215" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A215" s="1"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
     </row>
     <row r="216" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A216" s="1">
         <v>105801</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C216" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="D216" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="E216" s="10" t="s">
+      <c r="E216" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="F216" s="10" t="s">
+      <c r="F216" s="3" t="s">
         <v>830</v>
       </c>
     </row>
@@ -9364,19 +9393,19 @@
       <c r="A217" s="1">
         <v>105802</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C217" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D217" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="E217" s="10" t="s">
+      <c r="E217" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="F217" s="10" t="s">
+      <c r="F217" s="3" t="s">
         <v>830</v>
       </c>
     </row>
@@ -9384,19 +9413,19 @@
       <c r="A218" s="1">
         <v>105803</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="C218" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D218" s="10" t="s">
+      <c r="D218" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="E218" s="10" t="s">
+      <c r="E218" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="F218" s="10" t="s">
+      <c r="F218" s="3" t="s">
         <v>830</v>
       </c>
     </row>
@@ -9404,1440 +9433,1440 @@
       <c r="A219" s="1">
         <v>105804</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C219" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D219" s="10" t="s">
+      <c r="D219" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="E219" s="10" t="s">
+      <c r="E219" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="F219" s="10" t="s">
+      <c r="F219" s="3" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="220" s="2" customFormat="1" ht="18.75" customHeight="1"/>
     <row r="221" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A221" s="11">
+      <c r="A221" s="9">
         <v>200001</v>
       </c>
-      <c r="B221" s="11" t="s">
+      <c r="B221" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="C221" s="12" t="s">
+      <c r="C221" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="D221" s="12" t="s">
+      <c r="D221" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="E221" s="13" t="s">
+      <c r="E221" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="F221" s="13" t="s">
+      <c r="F221" s="11" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="222" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A222" s="11">
+      <c r="A222" s="9">
         <v>200002</v>
       </c>
-      <c r="B222" s="11" t="s">
+      <c r="B222" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="C222" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="D222" s="12" t="s">
+      <c r="D222" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="E222" s="13" t="s">
+      <c r="E222" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="F222" s="13" t="s">
+      <c r="F222" s="11" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="223" s="2" customFormat="1" spans="1:6">
-      <c r="A223" s="11">
+      <c r="A223" s="9">
         <v>200003</v>
       </c>
-      <c r="B223" s="11" t="s">
+      <c r="B223" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="C223" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="D223" s="12" t="s">
+      <c r="D223" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="E223" s="13" t="s">
+      <c r="E223" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="F223" s="13" t="s">
+      <c r="F223" s="11" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="224" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A224" s="11">
+      <c r="A224" s="9">
         <v>200004</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B224" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="C224" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="D224" s="12" t="s">
+      <c r="D224" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="E224" s="13" t="s">
+      <c r="E224" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="F224" s="13" t="s">
+      <c r="F224" s="11" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="225" s="2" customFormat="1" spans="1:6">
-      <c r="A225" s="11">
+      <c r="A225" s="9">
         <v>200005</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="C225" s="12" t="s">
+      <c r="C225" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="D225" s="12" t="s">
+      <c r="D225" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="E225" s="13" t="s">
+      <c r="E225" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="F225" s="13" t="s">
+      <c r="F225" s="11" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="226" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A226" s="11">
+      <c r="A226" s="9">
         <v>200006</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="C226" s="10" t="s">
         <v>856</v>
       </c>
-      <c r="D226" s="12" t="s">
+      <c r="D226" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="E226" s="13" t="s">
+      <c r="E226" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="F226" s="13" t="s">
+      <c r="F226" s="11" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="227" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A227" s="11">
+      <c r="A227" s="9">
         <v>200007</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="C227" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="D227" s="12" t="s">
+      <c r="D227" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="E227" s="13" t="s">
+      <c r="E227" s="11" t="s">
         <v>862</v>
       </c>
-      <c r="F227" s="13" t="s">
+      <c r="F227" s="11" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="228" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A228" s="11">
+      <c r="A228" s="9">
         <v>200008</v>
       </c>
-      <c r="B228" s="11" t="s">
+      <c r="B228" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="C228" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="D228" s="12" t="s">
+      <c r="D228" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="E228" s="13" t="s">
+      <c r="E228" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="F228" s="13" t="s">
+      <c r="F228" s="11" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A229" s="11">
+      <c r="A229" s="9">
         <v>200009</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="C229" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="D229" s="12" t="s">
+      <c r="D229" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="E229" s="13" t="s">
+      <c r="E229" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="F229" s="13" t="s">
+      <c r="F229" s="11" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="230" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A230" s="11">
+      <c r="A230" s="9">
         <v>200010</v>
       </c>
-      <c r="B230" s="11" t="s">
+      <c r="B230" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="C230" s="12" t="s">
+      <c r="C230" s="10" t="s">
         <v>872</v>
       </c>
-      <c r="D230" s="12" t="s">
+      <c r="D230" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="E230" s="13" t="s">
+      <c r="E230" s="11" t="s">
         <v>874</v>
       </c>
-      <c r="F230" s="13" t="s">
+      <c r="F230" s="11" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="231" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A231" s="11">
+      <c r="A231" s="9">
         <v>200011</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="C231" s="12" t="s">
+      <c r="C231" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="D231" s="12" t="s">
+      <c r="D231" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="E231" s="13" t="s">
+      <c r="E231" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="F231" s="13" t="s">
+      <c r="F231" s="11" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="232" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A232" s="11">
+      <c r="A232" s="9">
         <v>200012</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="C232" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="D232" s="12" t="s">
+      <c r="D232" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="E232" s="13" t="s">
+      <c r="E232" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="F232" s="13" t="s">
+      <c r="F232" s="11" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="233" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A233" s="11">
+      <c r="A233" s="9">
         <v>200013</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="C233" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="D233" s="12" t="s">
+      <c r="D233" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="E233" s="13" t="s">
+      <c r="E233" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="F233" s="13" t="s">
+      <c r="F233" s="11" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="234" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A234" s="11">
+      <c r="A234" s="9">
         <v>200014</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="C234" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="D234" s="12" t="s">
+      <c r="D234" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="E234" s="13" t="s">
+      <c r="E234" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="F234" s="13" t="s">
+      <c r="F234" s="11" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="235" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A235" s="11">
+      <c r="A235" s="9">
         <v>200015</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B235" s="9" t="s">
         <v>891</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="C235" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="D235" s="12" t="s">
+      <c r="D235" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="E235" s="13" t="s">
+      <c r="E235" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="F235" s="13" t="s">
+      <c r="F235" s="11" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="236" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A236" s="11">
+      <c r="A236" s="9">
         <v>200016</v>
       </c>
-      <c r="B236" s="11" t="s">
+      <c r="B236" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="C236" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="D236" s="12" t="s">
+      <c r="D236" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="E236" s="13" t="s">
+      <c r="E236" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="F236" s="13" t="s">
+      <c r="F236" s="11" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="237" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A237" s="11">
+      <c r="A237" s="9">
         <v>200017</v>
       </c>
-      <c r="B237" s="11" t="s">
+      <c r="B237" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="C237" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="D237" s="12" t="s">
+      <c r="D237" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="E237" s="13" t="s">
+      <c r="E237" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="F237" s="13" t="s">
+      <c r="F237" s="11" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" spans="1:6">
-      <c r="A238" s="11">
+      <c r="A238" s="9">
         <v>200018</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="C238" s="10" t="s">
         <v>904</v>
       </c>
-      <c r="D238" s="12" t="s">
+      <c r="D238" s="10" t="s">
         <v>905</v>
       </c>
-      <c r="E238" s="13" t="s">
+      <c r="E238" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="F238" s="13" t="s">
+      <c r="F238" s="11" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A239" s="11">
+      <c r="A239" s="9">
         <v>200019</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B239" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="C239" s="10" t="s">
         <v>908</v>
       </c>
-      <c r="D239" s="12" t="s">
+      <c r="D239" s="10" t="s">
         <v>909</v>
       </c>
-      <c r="E239" s="13" t="s">
+      <c r="E239" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="F239" s="13" t="s">
+      <c r="F239" s="11" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="240" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A240" s="11">
+      <c r="A240" s="9">
         <v>200020</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="C240" s="12" t="s">
+      <c r="C240" s="10" t="s">
         <v>912</v>
       </c>
-      <c r="D240" s="12" t="s">
+      <c r="D240" s="10" t="s">
         <v>913</v>
       </c>
-      <c r="E240" s="13" t="s">
+      <c r="E240" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="F240" s="13" t="s">
+      <c r="F240" s="11" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="241" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A241" s="11">
+      <c r="A241" s="9">
         <v>200021</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B241" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="C241" s="10" t="s">
         <v>916</v>
       </c>
-      <c r="D241" s="12" t="s">
+      <c r="D241" s="10" t="s">
         <v>917</v>
       </c>
-      <c r="E241" s="13" t="s">
+      <c r="E241" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="F241" s="13" t="s">
+      <c r="F241" s="11" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="242" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A242" s="11">
+      <c r="A242" s="9">
         <v>200022</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="9" t="s">
         <v>918</v>
       </c>
-      <c r="C242" s="12" t="s">
+      <c r="C242" s="10" t="s">
         <v>919</v>
       </c>
-      <c r="D242" s="12" t="s">
+      <c r="D242" s="10" t="s">
         <v>920</v>
       </c>
-      <c r="E242" s="13" t="s">
+      <c r="E242" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="F242" s="13" t="s">
+      <c r="F242" s="11" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="243" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A243" s="11">
+      <c r="A243" s="9">
         <v>200023</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="B243" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="C243" s="12" t="s">
+      <c r="C243" s="10" t="s">
         <v>923</v>
       </c>
-      <c r="D243" s="12" t="s">
+      <c r="D243" s="10" t="s">
         <v>924</v>
       </c>
-      <c r="E243" s="13" t="s">
+      <c r="E243" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="F243" s="13" t="s">
+      <c r="F243" s="11" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="244" s="2" customFormat="1" spans="1:6">
-      <c r="A244" s="11">
+      <c r="A244" s="9">
         <v>200024</v>
       </c>
-      <c r="B244" s="11" t="s">
+      <c r="B244" s="9" t="s">
         <v>926</v>
       </c>
-      <c r="C244" s="12" t="s">
+      <c r="C244" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="D244" s="12" t="s">
+      <c r="D244" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="E244" s="13" t="s">
+      <c r="E244" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="F244" s="13" t="s">
+      <c r="F244" s="11" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="245" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A245" s="11">
+      <c r="A245" s="9">
         <v>200025</v>
       </c>
-      <c r="B245" s="11" t="s">
+      <c r="B245" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="C245" s="12" t="s">
+      <c r="C245" s="10" t="s">
         <v>931</v>
       </c>
-      <c r="D245" s="12" t="s">
+      <c r="D245" s="10" t="s">
         <v>932</v>
       </c>
-      <c r="E245" s="13" t="s">
+      <c r="E245" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="F245" s="13" t="s">
+      <c r="F245" s="11" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="246" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A246" s="11">
+      <c r="A246" s="9">
         <v>200026</v>
       </c>
-      <c r="B246" s="11" t="s">
+      <c r="B246" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="C246" s="12" t="s">
+      <c r="C246" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="D246" s="12" t="s">
+      <c r="D246" s="10" t="s">
         <v>936</v>
       </c>
-      <c r="E246" s="13" t="s">
+      <c r="E246" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="F246" s="13" t="s">
+      <c r="F246" s="11" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="247" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A247" s="11">
+      <c r="A247" s="9">
         <v>200027</v>
       </c>
-      <c r="B247" s="11" t="s">
+      <c r="B247" s="9" t="s">
         <v>938</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="C247" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="D247" s="12" t="s">
+      <c r="D247" s="10" t="s">
         <v>940</v>
       </c>
-      <c r="E247" s="13" t="s">
+      <c r="E247" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="F247" s="13" t="s">
+      <c r="F247" s="11" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="248" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A248" s="11">
+      <c r="A248" s="9">
         <v>200028</v>
       </c>
-      <c r="B248" s="11" t="s">
+      <c r="B248" s="9" t="s">
         <v>942</v>
       </c>
-      <c r="C248" s="12" t="s">
+      <c r="C248" s="10" t="s">
         <v>943</v>
       </c>
-      <c r="D248" s="12" t="s">
+      <c r="D248" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="E248" s="13" t="s">
+      <c r="E248" s="11" t="s">
         <v>945</v>
       </c>
-      <c r="F248" s="13" t="s">
+      <c r="F248" s="11" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="249" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A249" s="11">
+      <c r="A249" s="9">
         <v>200029</v>
       </c>
-      <c r="B249" s="11" t="s">
+      <c r="B249" s="9" t="s">
         <v>946</v>
       </c>
-      <c r="C249" s="12" t="s">
+      <c r="C249" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="D249" s="12" t="s">
+      <c r="D249" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="E249" s="13" t="s">
+      <c r="E249" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="F249" s="13" t="s">
+      <c r="F249" s="11" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A250" s="11">
+      <c r="A250" s="9">
         <v>200030</v>
       </c>
-      <c r="B250" s="11" t="s">
+      <c r="B250" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="C250" s="12" t="s">
+      <c r="C250" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="D250" s="12" t="s">
+      <c r="D250" s="10" t="s">
         <v>952</v>
       </c>
-      <c r="E250" s="13" t="s">
+      <c r="E250" s="11" t="s">
         <v>953</v>
       </c>
-      <c r="F250" s="13" t="s">
+      <c r="F250" s="11" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="251" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A251" s="11">
+      <c r="A251" s="9">
         <v>200031</v>
       </c>
-      <c r="B251" s="11" t="s">
+      <c r="B251" s="9" t="s">
         <v>954</v>
       </c>
-      <c r="C251" s="12" t="s">
+      <c r="C251" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="D251" s="12" t="s">
+      <c r="D251" s="10" t="s">
         <v>956</v>
       </c>
-      <c r="E251" s="13" t="s">
+      <c r="E251" s="11" t="s">
         <v>957</v>
       </c>
-      <c r="F251" s="13" t="s">
+      <c r="F251" s="11" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="252" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A252" s="11">
+      <c r="A252" s="9">
         <v>200032</v>
       </c>
-      <c r="B252" s="11" t="s">
+      <c r="B252" s="9" t="s">
         <v>958</v>
       </c>
-      <c r="C252" s="12" t="s">
+      <c r="C252" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="D252" s="12" t="s">
+      <c r="D252" s="10" t="s">
         <v>960</v>
       </c>
-      <c r="E252" s="13" t="s">
+      <c r="E252" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="F252" s="13" t="s">
+      <c r="F252" s="11" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="253" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A253" s="11">
+      <c r="A253" s="9">
         <v>200033</v>
       </c>
-      <c r="B253" s="11" t="s">
+      <c r="B253" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="C253" s="12" t="s">
+      <c r="C253" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="D253" s="12" t="s">
+      <c r="D253" s="10" t="s">
         <v>964</v>
       </c>
-      <c r="E253" s="13" t="s">
+      <c r="E253" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="F253" s="13" t="s">
+      <c r="F253" s="11" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="254" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A254" s="11">
+      <c r="A254" s="9">
         <v>200034</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B254" s="9" t="s">
         <v>966</v>
       </c>
-      <c r="C254" s="12" t="s">
+      <c r="C254" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="D254" s="12" t="s">
+      <c r="D254" s="10" t="s">
         <v>968</v>
       </c>
-      <c r="E254" s="13" t="s">
+      <c r="E254" s="11" t="s">
         <v>969</v>
       </c>
-      <c r="F254" s="13" t="s">
+      <c r="F254" s="11" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="255" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A255" s="11">
+      <c r="A255" s="9">
         <v>200035</v>
       </c>
-      <c r="B255" s="11" t="s">
+      <c r="B255" s="9" t="s">
         <v>970</v>
       </c>
-      <c r="C255" s="12" t="s">
+      <c r="C255" s="10" t="s">
         <v>971</v>
       </c>
-      <c r="D255" s="12" t="s">
+      <c r="D255" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="E255" s="13" t="s">
+      <c r="E255" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="F255" s="13" t="s">
+      <c r="F255" s="11" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="256" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A256" s="11">
+      <c r="A256" s="9">
         <v>200036</v>
       </c>
-      <c r="B256" s="11" t="s">
+      <c r="B256" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="C256" s="12" t="s">
+      <c r="C256" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="D256" s="12" t="s">
+      <c r="D256" s="10" t="s">
         <v>976</v>
       </c>
-      <c r="E256" s="13" t="s">
+      <c r="E256" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="F256" s="13" t="s">
+      <c r="F256" s="11" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="257" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A257" s="11">
+      <c r="A257" s="9">
         <v>200037</v>
       </c>
-      <c r="B257" s="11" t="s">
+      <c r="B257" s="9" t="s">
         <v>978</v>
       </c>
-      <c r="C257" s="12" t="s">
+      <c r="C257" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="D257" s="12" t="s">
+      <c r="D257" s="10" t="s">
         <v>980</v>
       </c>
-      <c r="E257" s="13" t="s">
+      <c r="E257" s="11" t="s">
         <v>981</v>
       </c>
-      <c r="F257" s="13" t="s">
+      <c r="F257" s="11" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="258" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A258" s="11">
+      <c r="A258" s="9">
         <v>200038</v>
       </c>
-      <c r="B258" s="11" t="s">
+      <c r="B258" s="9" t="s">
         <v>982</v>
       </c>
-      <c r="C258" s="12" t="s">
+      <c r="C258" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="D258" s="12" t="s">
+      <c r="D258" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="E258" s="13" t="s">
+      <c r="E258" s="11" t="s">
         <v>985</v>
       </c>
-      <c r="F258" s="13" t="s">
+      <c r="F258" s="11" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="259" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A259" s="11">
+      <c r="A259" s="9">
         <v>200039</v>
       </c>
-      <c r="B259" s="11" t="s">
+      <c r="B259" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="C259" s="12" t="s">
+      <c r="C259" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="D259" s="12" t="s">
+      <c r="D259" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="E259" s="13" t="s">
+      <c r="E259" s="11" t="s">
         <v>989</v>
       </c>
-      <c r="F259" s="13" t="s">
+      <c r="F259" s="11" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="260" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A260" s="11">
+      <c r="A260" s="9">
         <v>200040</v>
       </c>
-      <c r="B260" s="11" t="s">
+      <c r="B260" s="9" t="s">
         <v>990</v>
       </c>
-      <c r="C260" s="13" t="s">
+      <c r="C260" s="11" t="s">
         <v>991</v>
       </c>
-      <c r="D260" s="14" t="s">
+      <c r="D260" s="12" t="s">
         <v>992</v>
       </c>
-      <c r="E260" s="13" t="s">
+      <c r="E260" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="F260" s="13" t="s">
+      <c r="F260" s="11" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="261" s="2" customFormat="1" spans="1:6">
-      <c r="A261" s="11">
+      <c r="A261" s="9">
         <v>200041</v>
       </c>
-      <c r="B261" s="11" t="s">
+      <c r="B261" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="C261" s="14" t="s">
+      <c r="C261" s="12" t="s">
         <v>995</v>
       </c>
-      <c r="D261" s="14" t="s">
+      <c r="D261" s="12" t="s">
         <v>996</v>
       </c>
-      <c r="E261" s="13" t="s">
+      <c r="E261" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="F261" s="13" t="s">
+      <c r="F261" s="11" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="262" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A262" s="11">
+      <c r="A262" s="9">
         <v>200042</v>
       </c>
-      <c r="B262" s="11" t="s">
+      <c r="B262" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="C262" s="14" t="s">
+      <c r="C262" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="D262" s="13" t="s">
+      <c r="D262" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="E262" s="13" t="s">
+      <c r="E262" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="F262" s="13" t="s">
+      <c r="F262" s="11" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="263" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A263" s="11">
+      <c r="A263" s="9">
         <v>200043</v>
       </c>
-      <c r="B263" s="11" t="s">
+      <c r="B263" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="C263" s="13" t="s">
+      <c r="C263" s="11" t="s">
         <v>1003</v>
       </c>
-      <c r="D263" s="13" t="s">
+      <c r="D263" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="E263" s="13" t="s">
+      <c r="E263" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="F263" s="13" t="s">
+      <c r="F263" s="11" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="264" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A264" s="11">
+      <c r="A264" s="9">
         <v>200044</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B264" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="C264" s="13" t="s">
+      <c r="C264" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="D264" s="13" t="s">
+      <c r="D264" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="E264" s="13" t="s">
+      <c r="E264" s="11" t="s">
         <v>1009</v>
       </c>
-      <c r="F264" s="13" t="s">
+      <c r="F264" s="11" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="265" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A265" s="11">
+      <c r="A265" s="9">
         <v>200045</v>
       </c>
-      <c r="B265" s="11" t="s">
+      <c r="B265" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="C265" s="13" t="s">
+      <c r="C265" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="D265" s="13" t="s">
+      <c r="D265" s="11" t="s">
         <v>1012</v>
       </c>
-      <c r="E265" s="13" t="s">
+      <c r="E265" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="F265" s="13" t="s">
+      <c r="F265" s="11" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="266" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A266" s="11">
+      <c r="A266" s="9">
         <v>200046</v>
       </c>
-      <c r="B266" s="11" t="s">
+      <c r="B266" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="C266" s="13" t="s">
+      <c r="C266" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="D266" s="13" t="s">
+      <c r="D266" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="E266" s="13" t="s">
+      <c r="E266" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="F266" s="13" t="s">
+      <c r="F266" s="11" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="267" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A267" s="11">
+      <c r="A267" s="9">
         <v>200047</v>
       </c>
-      <c r="B267" s="11" t="s">
+      <c r="B267" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="C267" s="14" t="s">
+      <c r="C267" s="12" t="s">
         <v>1019</v>
       </c>
-      <c r="D267" s="14" t="s">
+      <c r="D267" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="E267" s="13" t="s">
+      <c r="E267" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="F267" s="13" t="s">
+      <c r="F267" s="11" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="268" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A268" s="11">
+      <c r="A268" s="9">
         <v>200048</v>
       </c>
-      <c r="B268" s="11" t="s">
+      <c r="B268" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C268" s="13" t="s">
+      <c r="C268" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="D268" s="13" t="s">
+      <c r="D268" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="E268" s="13" t="s">
+      <c r="E268" s="11" t="s">
         <v>1025</v>
       </c>
-      <c r="F268" s="13" t="s">
+      <c r="F268" s="11" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="269" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A269" s="11">
+      <c r="A269" s="9">
         <v>200049</v>
       </c>
-      <c r="B269" s="11" t="s">
+      <c r="B269" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="C269" s="14" t="s">
+      <c r="C269" s="12" t="s">
         <v>1027</v>
       </c>
-      <c r="D269" s="14" t="s">
+      <c r="D269" s="12" t="s">
         <v>1028</v>
       </c>
-      <c r="E269" s="13" t="s">
+      <c r="E269" s="11" t="s">
         <v>1029</v>
       </c>
-      <c r="F269" s="13" t="s">
+      <c r="F269" s="11" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="270" s="2" customFormat="1" spans="1:6">
-      <c r="A270" s="11">
+      <c r="A270" s="9">
         <v>200050</v>
       </c>
-      <c r="B270" s="11" t="s">
+      <c r="B270" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="C270" s="14" t="s">
+      <c r="C270" s="12" t="s">
         <v>1031</v>
       </c>
-      <c r="D270" s="14" t="s">
+      <c r="D270" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="E270" s="13" t="s">
+      <c r="E270" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="F270" s="13" t="s">
+      <c r="F270" s="11" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="271" s="2" customFormat="1" spans="1:6">
-      <c r="A271" s="11">
+      <c r="A271" s="9">
         <v>200051</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B271" s="9" t="s">
         <v>1034</v>
       </c>
-      <c r="C271" s="13" t="s">
+      <c r="C271" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="D271" s="13" t="s">
+      <c r="D271" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="E271" s="13" t="s">
+      <c r="E271" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="F271" s="13" t="s">
+      <c r="F271" s="11" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="272" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A272" s="11">
+      <c r="A272" s="9">
         <v>200052</v>
       </c>
-      <c r="B272" s="11" t="s">
+      <c r="B272" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="C272" s="13" t="s">
+      <c r="C272" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="D272" s="13" t="s">
+      <c r="D272" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="E272" s="13" t="s">
+      <c r="E272" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="F272" s="13" t="s">
+      <c r="F272" s="11" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="273" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A273" s="11">
+      <c r="A273" s="9">
         <v>200053</v>
       </c>
-      <c r="B273" s="11" t="s">
+      <c r="B273" s="9" t="s">
         <v>1042</v>
       </c>
-      <c r="C273" s="13" t="s">
+      <c r="C273" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="D273" s="13" t="s">
+      <c r="D273" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="E273" s="13" t="s">
+      <c r="E273" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F273" s="13" t="s">
+      <c r="F273" s="11" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="274" s="2" customFormat="1" spans="1:6">
-      <c r="A274" s="11">
+      <c r="A274" s="9">
         <v>200054</v>
       </c>
-      <c r="B274" s="11" t="s">
+      <c r="B274" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="C274" s="13" t="s">
+      <c r="C274" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="D274" s="13" t="s">
+      <c r="D274" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="E274" s="13" t="s">
+      <c r="E274" s="11" t="s">
         <v>1049</v>
       </c>
-      <c r="F274" s="13" t="s">
+      <c r="F274" s="11" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="275" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A275" s="11">
+      <c r="A275" s="9">
         <v>200055</v>
       </c>
-      <c r="B275" s="11" t="s">
+      <c r="B275" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="C275" s="13" t="s">
+      <c r="C275" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="D275" s="13" t="s">
+      <c r="D275" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="E275" s="13" t="s">
+      <c r="E275" s="11" t="s">
         <v>1053</v>
       </c>
-      <c r="F275" s="13" t="s">
+      <c r="F275" s="11" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="276" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A276" s="11">
+      <c r="A276" s="9">
         <v>200056</v>
       </c>
-      <c r="B276" s="11" t="s">
+      <c r="B276" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="C276" s="14" t="s">
+      <c r="C276" s="12" t="s">
         <v>1055</v>
       </c>
-      <c r="D276" s="14" t="s">
+      <c r="D276" s="12" t="s">
         <v>1056</v>
       </c>
-      <c r="E276" s="13" t="s">
+      <c r="E276" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="F276" s="13" t="s">
+      <c r="F276" s="11" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="277" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A277" s="11">
+      <c r="A277" s="9">
         <v>200057</v>
       </c>
-      <c r="B277" s="11" t="s">
+      <c r="B277" s="9" t="s">
         <v>1058</v>
       </c>
-      <c r="C277" s="13" t="s">
+      <c r="C277" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="D277" s="13" t="s">
+      <c r="D277" s="11" t="s">
         <v>1060</v>
       </c>
-      <c r="E277" s="13" t="s">
+      <c r="E277" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="F277" s="13" t="s">
+      <c r="F277" s="11" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="278" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A278" s="11">
+      <c r="A278" s="9">
         <v>200058</v>
       </c>
-      <c r="B278" s="11" t="s">
+      <c r="B278" s="9" t="s">
         <v>1062</v>
       </c>
-      <c r="C278" s="14" t="s">
+      <c r="C278" s="12" t="s">
         <v>1063</v>
       </c>
-      <c r="D278" s="14" t="s">
+      <c r="D278" s="12" t="s">
         <v>1064</v>
       </c>
-      <c r="E278" s="13" t="s">
+      <c r="E278" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="F278" s="13" t="s">
+      <c r="F278" s="11" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="279" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A279" s="11">
+      <c r="A279" s="9">
         <v>200059</v>
       </c>
-      <c r="B279" s="11" t="s">
+      <c r="B279" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="C279" s="14" t="s">
+      <c r="C279" s="12" t="s">
         <v>1067</v>
       </c>
-      <c r="D279" s="14" t="s">
+      <c r="D279" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="E279" s="13" t="s">
+      <c r="E279" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="F279" s="13" t="s">
+      <c r="F279" s="11" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="280" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A280" s="11">
+      <c r="A280" s="9">
         <v>200060</v>
       </c>
-      <c r="B280" s="11" t="s">
+      <c r="B280" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="C280" s="13" t="s">
+      <c r="C280" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="D280" s="14" t="s">
+      <c r="D280" s="12" t="s">
         <v>1072</v>
       </c>
-      <c r="E280" s="13" t="s">
+      <c r="E280" s="11" t="s">
         <v>1073</v>
       </c>
-      <c r="F280" s="13" t="s">
+      <c r="F280" s="11" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="281" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A281" s="11">
+      <c r="A281" s="9">
         <v>200061</v>
       </c>
-      <c r="B281" s="11" t="s">
+      <c r="B281" s="9" t="s">
         <v>1074</v>
       </c>
-      <c r="C281" s="13" t="s">
+      <c r="C281" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="D281" s="13" t="s">
+      <c r="D281" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="E281" s="13" t="s">
+      <c r="E281" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="F281" s="13" t="s">
+      <c r="F281" s="11" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="282" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A282" s="11">
+      <c r="A282" s="9">
         <v>200062</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="B282" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="C282" s="13" t="s">
+      <c r="C282" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="D282" s="14" t="s">
+      <c r="D282" s="12" t="s">
         <v>1080</v>
       </c>
-      <c r="E282" s="13" t="s">
+      <c r="E282" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="F282" s="13" t="s">
+      <c r="F282" s="11" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="283" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A283" s="11">
+      <c r="A283" s="9">
         <v>200063</v>
       </c>
-      <c r="B283" s="11" t="s">
+      <c r="B283" s="9" t="s">
         <v>1082</v>
       </c>
-      <c r="C283" s="14" t="s">
+      <c r="C283" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="D283" s="14" t="s">
+      <c r="D283" s="12" t="s">
         <v>1056</v>
       </c>
-      <c r="E283" s="13" t="s">
+      <c r="E283" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="F283" s="13" t="s">
+      <c r="F283" s="11" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="284" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A284" s="11">
+      <c r="A284" s="9">
         <v>200064</v>
       </c>
-      <c r="B284" s="11" t="s">
+      <c r="B284" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="C284" s="14" t="s">
+      <c r="C284" s="12" t="s">
         <v>1085</v>
       </c>
-      <c r="D284" s="14" t="s">
+      <c r="D284" s="12" t="s">
         <v>1086</v>
       </c>
-      <c r="E284" s="13" t="s">
+      <c r="E284" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="F284" s="13" t="s">
+      <c r="F284" s="11" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="285" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A285" s="11">
+      <c r="A285" s="9">
         <v>200065</v>
       </c>
-      <c r="B285" s="11" t="s">
+      <c r="B285" s="9" t="s">
         <v>1088</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="C285" s="12" t="s">
         <v>1089</v>
       </c>
-      <c r="D285" s="14" t="s">
+      <c r="D285" s="12" t="s">
         <v>1090</v>
       </c>
-      <c r="E285" s="13" t="s">
+      <c r="E285" s="11" t="s">
         <v>1091</v>
       </c>
-      <c r="F285" s="13" t="s">
+      <c r="F285" s="11" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="286" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A286" s="11">
+      <c r="A286" s="9">
         <v>200066</v>
       </c>
-      <c r="B286" s="11" t="s">
+      <c r="B286" s="9" t="s">
         <v>1092</v>
       </c>
-      <c r="C286" s="14" t="s">
+      <c r="C286" s="12" t="s">
         <v>1093</v>
       </c>
-      <c r="D286" s="14" t="s">
+      <c r="D286" s="12" t="s">
         <v>1094</v>
       </c>
-      <c r="E286" s="13" t="s">
+      <c r="E286" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="F286" s="13" t="s">
+      <c r="F286" s="11" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="287" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A287" s="11">
+      <c r="A287" s="9">
         <v>200067</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B287" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="C287" s="13" t="s">
+      <c r="C287" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="D287" s="14" t="s">
+      <c r="D287" s="12" t="s">
         <v>1098</v>
       </c>
-      <c r="E287" s="13" t="s">
+      <c r="E287" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="F287" s="13" t="s">
+      <c r="F287" s="11" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="288" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A288" s="11">
+      <c r="A288" s="9">
         <v>200068</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B288" s="9" t="s">
         <v>1100</v>
       </c>
-      <c r="C288" s="13" t="s">
+      <c r="C288" s="11" t="s">
         <v>1101</v>
       </c>
-      <c r="D288" s="13" t="s">
+      <c r="D288" s="11" t="s">
         <v>1102</v>
       </c>
-      <c r="E288" s="13" t="s">
+      <c r="E288" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="F288" s="13" t="s">
+      <c r="F288" s="11" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="289" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A289" s="11">
+      <c r="A289" s="9">
         <v>200069</v>
       </c>
-      <c r="B289" s="11" t="s">
+      <c r="B289" s="9" t="s">
         <v>1104</v>
       </c>
-      <c r="C289" s="14" t="s">
+      <c r="C289" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="D289" s="14" t="s">
+      <c r="D289" s="12" t="s">
         <v>1056</v>
       </c>
-      <c r="E289" s="13" t="s">
+      <c r="E289" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="F289" s="13" t="s">
+      <c r="F289" s="11" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="290" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A290" s="11">
+      <c r="A290" s="9">
         <v>200070</v>
       </c>
-      <c r="B290" s="11" t="s">
+      <c r="B290" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="C290" s="14" t="s">
+      <c r="C290" s="12" t="s">
         <v>1106</v>
       </c>
-      <c r="D290" s="14" t="s">
+      <c r="D290" s="12" t="s">
         <v>1107</v>
       </c>
-      <c r="E290" s="13" t="s">
+      <c r="E290" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="F290" s="13" t="s">
+      <c r="F290" s="11" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="291" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A291" s="11">
+      <c r="A291" s="9">
         <v>200071</v>
       </c>
-      <c r="B291" s="11" t="s">
+      <c r="B291" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="C291" s="14" t="s">
+      <c r="C291" s="12" t="s">
         <v>1110</v>
       </c>
-      <c r="D291" s="14" t="s">
+      <c r="D291" s="12" t="s">
         <v>1111</v>
       </c>
-      <c r="E291" s="13" t="s">
+      <c r="E291" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="F291" s="13" t="s">
+      <c r="F291" s="11" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -11054,7 +11083,7 @@
       <c r="D302" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="E302" s="15" t="s">
+      <c r="E302" s="13" t="s">
         <v>1153</v>
       </c>
       <c r="F302" s="2" t="s">
@@ -11074,7 +11103,7 @@
       <c r="D303" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="E303" s="15" t="s">
+      <c r="E303" s="13" t="s">
         <v>1157</v>
       </c>
       <c r="F303" s="2" t="s">
@@ -11094,7 +11123,7 @@
       <c r="D304" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="E304" s="15" t="s">
+      <c r="E304" s="13" t="s">
         <v>1161</v>
       </c>
       <c r="F304" s="2" t="s">
@@ -11114,7 +11143,7 @@
       <c r="D305" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E305" s="15" t="s">
+      <c r="E305" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="F305" s="2" t="s">
@@ -11134,7 +11163,7 @@
       <c r="D306" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="E306" s="15" t="s">
+      <c r="E306" s="13" t="s">
         <v>1166</v>
       </c>
       <c r="F306" s="2" t="s">
@@ -11154,7 +11183,7 @@
       <c r="D307" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="E307" s="15" t="s">
+      <c r="E307" s="13" t="s">
         <v>1170</v>
       </c>
       <c r="F307" s="2" t="s">
@@ -11174,7 +11203,7 @@
       <c r="D308" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="E308" s="15" t="s">
+      <c r="E308" s="13" t="s">
         <v>1174</v>
       </c>
       <c r="F308" s="2" t="s">
@@ -11194,7 +11223,7 @@
       <c r="D309" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="E309" s="15" t="s">
+      <c r="E309" s="13" t="s">
         <v>1178</v>
       </c>
       <c r="F309" s="2" t="s">
@@ -11214,7 +11243,7 @@
       <c r="D310" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E310" s="15" t="s">
+      <c r="E310" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="F310" s="2" t="s">
@@ -11234,7 +11263,7 @@
       <c r="D311" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="E311" s="15" t="s">
+      <c r="E311" s="13" t="s">
         <v>1183</v>
       </c>
       <c r="F311" s="2" t="s">
@@ -11254,7 +11283,7 @@
       <c r="D312" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="E312" s="15" t="s">
+      <c r="E312" s="13" t="s">
         <v>1187</v>
       </c>
       <c r="F312" s="2" t="s">
@@ -11274,7 +11303,7 @@
       <c r="D313" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="E313" s="15" t="s">
+      <c r="E313" s="13" t="s">
         <v>1191</v>
       </c>
       <c r="F313" s="2" t="s">
@@ -11294,7 +11323,7 @@
       <c r="D314" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="E314" s="15" t="s">
+      <c r="E314" s="13" t="s">
         <v>1195</v>
       </c>
       <c r="F314" s="2" t="s">
@@ -11314,7 +11343,7 @@
       <c r="D315" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="E315" s="15" t="s">
+      <c r="E315" s="13" t="s">
         <v>1199</v>
       </c>
       <c r="F315" s="2" t="s">
@@ -11334,7 +11363,7 @@
       <c r="D316" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="E316" s="15" t="s">
+      <c r="E316" s="13" t="s">
         <v>1203</v>
       </c>
       <c r="F316" s="2" t="s">
@@ -11354,7 +11383,7 @@
       <c r="D317" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="E317" s="15" t="s">
+      <c r="E317" s="13" t="s">
         <v>1207</v>
       </c>
       <c r="F317" s="2" t="s">
@@ -11374,7 +11403,7 @@
       <c r="D318" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="E318" s="15" t="s">
+      <c r="E318" s="13" t="s">
         <v>1211</v>
       </c>
       <c r="F318" s="2" t="s">
@@ -11394,7 +11423,7 @@
       <c r="D319" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E319" s="15" t="s">
+      <c r="E319" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="F319" s="2" t="s">
@@ -11414,7 +11443,7 @@
       <c r="D320" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="E320" s="15" t="s">
+      <c r="E320" s="13" t="s">
         <v>1216</v>
       </c>
       <c r="F320" s="2" t="s">
@@ -11434,7 +11463,7 @@
       <c r="D321" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="E321" s="15" t="s">
+      <c r="E321" s="13" t="s">
         <v>1220</v>
       </c>
       <c r="F321" s="2" t="s">
@@ -11454,7 +11483,7 @@
       <c r="D322" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="E322" s="15" t="s">
+      <c r="E322" s="13" t="s">
         <v>1224</v>
       </c>
       <c r="F322" s="2" t="s">
@@ -11474,7 +11503,7 @@
       <c r="D323" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="E323" s="15" t="s">
+      <c r="E323" s="13" t="s">
         <v>1228</v>
       </c>
       <c r="F323" s="2" t="s">
@@ -11494,7 +11523,7 @@
       <c r="D324" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="E324" s="15" t="s">
+      <c r="E324" s="13" t="s">
         <v>1232</v>
       </c>
       <c r="F324" s="2" t="s">
@@ -11514,7 +11543,7 @@
       <c r="D325" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="E325" s="15" t="s">
+      <c r="E325" s="13" t="s">
         <v>1236</v>
       </c>
       <c r="F325" s="2" t="s">
@@ -11534,7 +11563,7 @@
       <c r="D326" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="E326" s="15" t="s">
+      <c r="E326" s="13" t="s">
         <v>1240</v>
       </c>
       <c r="F326" s="2" t="s">
@@ -11554,7 +11583,7 @@
       <c r="D327" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="E327" s="15" t="s">
+      <c r="E327" s="13" t="s">
         <v>1244</v>
       </c>
       <c r="F327" s="2" t="s">
@@ -11574,7 +11603,7 @@
       <c r="D328" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="E328" s="15" t="s">
+      <c r="E328" s="13" t="s">
         <v>1247</v>
       </c>
       <c r="F328" s="2" t="s">
@@ -11594,7 +11623,7 @@
       <c r="D329" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="E329" s="15" t="s">
+      <c r="E329" s="13" t="s">
         <v>1251</v>
       </c>
       <c r="F329" s="2" t="s">
@@ -11614,7 +11643,7 @@
       <c r="D330" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E330" s="15" t="s">
+      <c r="E330" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="F330" s="2" t="s">
@@ -11634,7 +11663,7 @@
       <c r="D331" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="E331" s="15" t="s">
+      <c r="E331" s="13" t="s">
         <v>1256</v>
       </c>
       <c r="F331" s="2" t="s">
@@ -11654,7 +11683,7 @@
       <c r="D332" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="E332" s="15" t="s">
+      <c r="E332" s="13" t="s">
         <v>1260</v>
       </c>
       <c r="F332" s="2" t="s">
@@ -11674,7 +11703,7 @@
       <c r="D333" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="E333" s="15" t="s">
+      <c r="E333" s="13" t="s">
         <v>1264</v>
       </c>
       <c r="F333" s="2" t="s">
@@ -11694,7 +11723,7 @@
       <c r="D334" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="E334" s="15" t="s">
+      <c r="E334" s="13" t="s">
         <v>1268</v>
       </c>
       <c r="F334" s="2" t="s">
@@ -11714,7 +11743,7 @@
       <c r="D335" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E335" s="15" t="s">
+      <c r="E335" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="F335" s="2" t="s">
@@ -11734,7 +11763,7 @@
       <c r="D336" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="E336" s="15" t="s">
+      <c r="E336" s="13" t="s">
         <v>1273</v>
       </c>
       <c r="F336" s="2" t="s">
@@ -11754,7 +11783,7 @@
       <c r="D337" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="E337" s="15" t="s">
+      <c r="E337" s="13" t="s">
         <v>1277</v>
       </c>
       <c r="F337" s="3" t="s">
@@ -11774,7 +11803,7 @@
       <c r="D338" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="E338" s="15" t="s">
+      <c r="E338" s="13" t="s">
         <v>1281</v>
       </c>
       <c r="F338" s="3" t="s">
@@ -11794,7 +11823,7 @@
       <c r="D339" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="E339" s="15" t="s">
+      <c r="E339" s="13" t="s">
         <v>1285</v>
       </c>
       <c r="F339" s="3" t="s">
@@ -11809,16 +11838,16 @@
       <c r="B341" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="C341" s="16" t="s">
+      <c r="C341" s="14" t="s">
         <v>1287</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="E341" s="16" t="s">
+      <c r="E341" s="14" t="s">
         <v>1287</v>
       </c>
-      <c r="F341" s="16" t="s">
+      <c r="F341" s="14" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -11829,16 +11858,16 @@
       <c r="B342" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="C342" s="16" t="s">
+      <c r="C342" s="14" t="s">
         <v>1290</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="E342" s="16" t="s">
+      <c r="E342" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="F342" s="16" t="s">
+      <c r="F342" s="14" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -12156,7 +12185,7 @@
       <c r="C363" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="D363" s="17" t="s">
+      <c r="D363" s="15" t="s">
         <v>1352</v>
       </c>
     </row>
@@ -12174,11 +12203,106 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="365" s="2" customFormat="1"/>
-    <row r="366" s="2" customFormat="1"/>
-    <row r="367" s="2" customFormat="1"/>
-    <row r="368" s="2" customFormat="1"/>
-    <row r="369" s="2" customFormat="1"/>
+    <row r="365" s="2" customFormat="1" spans="1:6">
+      <c r="A365" s="2">
+        <v>300024</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C365" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D365" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E365" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F365" s="16" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="366" s="2" customFormat="1" spans="1:6">
+      <c r="A366" s="2">
+        <v>300025</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C366" s="16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D366" s="16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E366" s="16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F366" s="16" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="367" s="2" customFormat="1" spans="1:6">
+      <c r="A367" s="2">
+        <v>300026</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D367" s="16" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E367" s="16" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F367" s="16" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="368" s="2" customFormat="1" spans="1:6">
+      <c r="A368" s="2">
+        <v>300027</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D368" s="16" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E368" s="16" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F368" s="16" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="369" s="2" customFormat="1" spans="1:6">
+      <c r="A369" s="2">
+        <v>300028</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C369" s="17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D369" s="17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E369" s="17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F369" s="17" t="s">
+        <v>1365</v>
+      </c>
+    </row>
     <row r="370" s="2" customFormat="1"/>
     <row r="371" s="2" customFormat="1"/>
     <row r="372" s="2" customFormat="1"/>

--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1378">
   <si>
     <t>int</t>
   </si>
@@ -4140,6 +4140,42 @@
   </si>
   <si>
     <t>冰层</t>
+  </si>
+  <si>
+    <t>Tiptext001</t>
+  </si>
+  <si>
+    <t>全局提示一号机</t>
+  </si>
+  <si>
+    <t>Tiptext002</t>
+  </si>
+  <si>
+    <t>全局提示二号机</t>
+  </si>
+  <si>
+    <t>Tiptext003</t>
+  </si>
+  <si>
+    <t>全局提示三号机</t>
+  </si>
+  <si>
+    <t>Tiptext004</t>
+  </si>
+  <si>
+    <t>全局提示四号机</t>
+  </si>
+  <si>
+    <t>Tiptext005</t>
+  </si>
+  <si>
+    <t>全局提示五号机</t>
+  </si>
+  <si>
+    <t>Tiptext006</t>
+  </si>
+  <si>
+    <t>全局提示六号机</t>
   </si>
 </sst>
 </file>
@@ -5232,8 +5268,8 @@
   <sheetPr/>
   <dimension ref="A1:H676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D336" workbookViewId="0">
-      <selection activeCell="E359" sqref="E359"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -12303,12 +12339,126 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="370" s="2" customFormat="1"/>
-    <row r="371" s="2" customFormat="1"/>
-    <row r="372" s="2" customFormat="1"/>
-    <row r="373" s="2" customFormat="1"/>
-    <row r="374" s="2" customFormat="1"/>
-    <row r="375" s="2" customFormat="1"/>
+    <row r="370" s="2" customFormat="1" spans="1:6">
+      <c r="A370" s="2">
+        <v>300029</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="371" s="2" customFormat="1" spans="1:6">
+      <c r="A371" s="2">
+        <v>300030</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="372" s="2" customFormat="1" spans="1:6">
+      <c r="A372" s="2">
+        <v>300031</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="373" s="2" customFormat="1" spans="1:6">
+      <c r="A373" s="2">
+        <v>300032</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="374" s="2" customFormat="1" spans="1:6">
+      <c r="A374" s="2">
+        <v>300033</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="375" s="2" customFormat="1" spans="1:6">
+      <c r="A375" s="2">
+        <v>300034</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>1377</v>
+      </c>
+    </row>
     <row r="376" s="2" customFormat="1"/>
     <row r="377" s="2" customFormat="1"/>
     <row r="378" s="2" customFormat="1"/>

--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF72A1F-943B-4CA0-ABA1-298818199DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1412">
   <si>
     <t>int</t>
   </si>
@@ -3956,296 +3960,346 @@
     <t>確定</t>
   </si>
   <si>
+    <t>You Win！</t>
+  </si>
+  <si>
+    <t>你贏了！</t>
+  </si>
+  <si>
+    <t>RainbowText2</t>
+  </si>
+  <si>
+    <t>Game Over</t>
+  </si>
+  <si>
+    <t>遊戲結束</t>
+  </si>
+  <si>
+    <t>RainbowText3</t>
+  </si>
+  <si>
+    <t>Level Count：</t>
+  </si>
+  <si>
+    <t>關卡計數：</t>
+  </si>
+  <si>
+    <t>RainbowText4</t>
+  </si>
+  <si>
+    <t>Star Count：</t>
+  </si>
+  <si>
+    <t>獲得星星：</t>
+  </si>
+  <si>
+    <t>RainbowText5</t>
+  </si>
+  <si>
+    <t>Time：</t>
+  </si>
+  <si>
+    <t>時間：</t>
+  </si>
+  <si>
+    <t>RainbowText6</t>
+  </si>
+  <si>
+    <t>Total Star</t>
+  </si>
+  <si>
+    <t>星星總數</t>
+  </si>
+  <si>
+    <t>RainbowText7</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>RainbowText8</t>
+  </si>
+  <si>
+    <t>Pass a level</t>
+  </si>
+  <si>
+    <t>跳過一關</t>
+  </si>
+  <si>
+    <t>RainbowText9</t>
+  </si>
+  <si>
+    <t>RainbowText10</t>
+  </si>
+  <si>
+    <t>Your game count is insufficient！</t>
+  </si>
+  <si>
+    <t>你的遊戲次數不足！</t>
+  </si>
+  <si>
+    <t>RainbowText11</t>
+  </si>
+  <si>
+    <t>Do you want to spend a game count to enter the Rainbow Run？</t>
+  </si>
+  <si>
+    <t>是否消耗一點遊戲次數，進入rainbow跑酷？</t>
+  </si>
+  <si>
+    <t>RainbowText12</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>RainbowText13</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>addInvincible_Success</t>
+  </si>
+  <si>
+    <t>Enabling shield successfully！</t>
+  </si>
+  <si>
+    <t>添加護盾成功！</t>
+  </si>
+  <si>
+    <t>addInvincible_Fail</t>
+  </si>
+  <si>
+    <t>Enabling shield failed！</t>
+  </si>
+  <si>
+    <t>添加護盾失敗！</t>
+  </si>
+  <si>
+    <t>Invincible_End</t>
+  </si>
+  <si>
+    <t>Shield end！</t>
+  </si>
+  <si>
+    <t>護盾結束！</t>
+  </si>
+  <si>
+    <t>autoFindPath_Fail</t>
+  </si>
+  <si>
+    <t>Automatic pathfinding failed！</t>
+  </si>
+  <si>
+    <t>自動尋路失敗！</t>
+  </si>
+  <si>
+    <t>ObbyEnterWithoutTicket</t>
+  </si>
+  <si>
+    <t>Due to not failing in the last game，you do not counsume any game attempts this time！</t>
+  </si>
+  <si>
+    <t>由於上次在跑酷關內未失敗，此次進入不消耗遊戲次數！</t>
+  </si>
+  <si>
+    <t>Maptext001</t>
+  </si>
+  <si>
+    <t>Maptext002</t>
+  </si>
+  <si>
+    <t>Maptext003</t>
+  </si>
+  <si>
+    <t>Maptext004</t>
+  </si>
+  <si>
+    <t>Cow Level</t>
+  </si>
+  <si>
+    <t>奶牛關</t>
+  </si>
+  <si>
+    <t>Maptext005</t>
+  </si>
+  <si>
+    <t>Tiptext001</t>
+  </si>
+  <si>
+    <t>全域提示一號機</t>
+  </si>
+  <si>
+    <t>Tiptext002</t>
+  </si>
+  <si>
+    <t>全域提示二號機</t>
+  </si>
+  <si>
+    <t>Tiptext003</t>
+  </si>
+  <si>
+    <t>全域提示三號機</t>
+  </si>
+  <si>
+    <t>Tiptext004</t>
+  </si>
+  <si>
+    <t>全域提示四號機</t>
+  </si>
+  <si>
+    <t>Tiptext005</t>
+  </si>
+  <si>
+    <t>全域提示五號機</t>
+  </si>
+  <si>
+    <t>Tiptext006</t>
+  </si>
+  <si>
+    <t>全域提示六號機</t>
+  </si>
+  <si>
+    <t>CatchMainKey</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>捕捉</t>
+  </si>
+  <si>
+    <t>TalkMainKey</t>
+  </si>
+  <si>
+    <t>CollectLanKey0001</t>
+  </si>
+  <si>
+    <t>Collect</t>
+  </si>
+  <si>
+    <t>採集</t>
+  </si>
+  <si>
+    <t>TransportMainKey</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>啟動</t>
+  </si>
+  <si>
+    <t>Main_Scene_Name1</t>
+  </si>
+  <si>
+    <t>涌动之水</t>
+  </si>
+  <si>
+    <t>Main_Scene_Name2</t>
+  </si>
+  <si>
+    <t>火炎地狱</t>
+  </si>
+  <si>
+    <t>Main_Scene_Name3</t>
+  </si>
+  <si>
+    <t>天空树</t>
+  </si>
+  <si>
+    <t>Main_Scene_Name4</t>
+  </si>
+  <si>
+    <t>荒野边疆</t>
+  </si>
+  <si>
+    <t>Main_Scene_Name5</t>
+  </si>
+  <si>
+    <t>赐福天光</t>
+  </si>
+  <si>
+    <t>Main_Scene_Name6</t>
+  </si>
+  <si>
+    <t>永眠之暗</t>
+  </si>
+  <si>
+    <t>Guide0001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide0002</t>
+  </si>
+  <si>
+    <t>Guide0003</t>
+  </si>
+  <si>
+    <t>Guide0004</t>
+  </si>
+  <si>
+    <t>Guide0005</t>
+  </si>
+  <si>
+    <t>WSAD键控制前后左右</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>RainbowText1</t>
-  </si>
-  <si>
-    <t>You Win！</t>
-  </si>
-  <si>
-    <t>你贏了！</t>
-  </si>
-  <si>
-    <t>RainbowText2</t>
-  </si>
-  <si>
-    <t>Game Over</t>
-  </si>
-  <si>
-    <t>遊戲結束</t>
-  </si>
-  <si>
-    <t>RainbowText3</t>
-  </si>
-  <si>
-    <t>Level Count：</t>
-  </si>
-  <si>
-    <t>關卡計數：</t>
-  </si>
-  <si>
-    <t>RainbowText4</t>
-  </si>
-  <si>
-    <t>Star Count：</t>
-  </si>
-  <si>
-    <t>獲得星星：</t>
-  </si>
-  <si>
-    <t>RainbowText5</t>
-  </si>
-  <si>
-    <t>Time：</t>
-  </si>
-  <si>
-    <t>時間：</t>
-  </si>
-  <si>
-    <t>RainbowText6</t>
-  </si>
-  <si>
-    <t>Total Star</t>
-  </si>
-  <si>
-    <t>星星總數</t>
-  </si>
-  <si>
-    <t>RainbowText7</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>RainbowText8</t>
-  </si>
-  <si>
-    <t>Pass a level</t>
-  </si>
-  <si>
-    <t>跳過一關</t>
-  </si>
-  <si>
-    <t>RainbowText9</t>
-  </si>
-  <si>
-    <t>RainbowText10</t>
-  </si>
-  <si>
-    <t>Your game count is insufficient！</t>
-  </si>
-  <si>
-    <t>你的遊戲次數不足！</t>
-  </si>
-  <si>
-    <t>RainbowText11</t>
-  </si>
-  <si>
-    <t>Do you want to spend a game count to enter the Rainbow Run？</t>
-  </si>
-  <si>
-    <t>是否消耗一點遊戲次數，進入rainbow跑酷？</t>
-  </si>
-  <si>
-    <t>RainbowText12</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>RainbowText13</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>addInvincible_Success</t>
-  </si>
-  <si>
-    <t>Enabling shield successfully！</t>
-  </si>
-  <si>
-    <t>添加護盾成功！</t>
-  </si>
-  <si>
-    <t>addInvincible_Fail</t>
-  </si>
-  <si>
-    <t>Enabling shield failed！</t>
-  </si>
-  <si>
-    <t>添加護盾失敗！</t>
-  </si>
-  <si>
-    <t>Invincible_End</t>
-  </si>
-  <si>
-    <t>Shield end！</t>
-  </si>
-  <si>
-    <t>護盾結束！</t>
-  </si>
-  <si>
-    <t>autoFindPath_Fail</t>
-  </si>
-  <si>
-    <t>Automatic pathfinding failed！</t>
-  </si>
-  <si>
-    <t>自動尋路失敗！</t>
-  </si>
-  <si>
-    <t>ObbyEnterWithoutTicket</t>
-  </si>
-  <si>
-    <t>Due to not failing in the last game，you do not counsume any game attempts this time！</t>
-  </si>
-  <si>
-    <t>由於上次在跑酷關內未失敗，此次進入不消耗遊戲次數！</t>
-  </si>
-  <si>
-    <t>Maptext001</t>
-  </si>
-  <si>
-    <t>Maptext002</t>
-  </si>
-  <si>
-    <t>Maptext003</t>
-  </si>
-  <si>
-    <t>Maptext004</t>
-  </si>
-  <si>
-    <t>Cow Level</t>
-  </si>
-  <si>
-    <t>奶牛關</t>
-  </si>
-  <si>
-    <t>Maptext005</t>
-  </si>
-  <si>
-    <t>Tiptext001</t>
-  </si>
-  <si>
-    <t>全域提示一號機</t>
-  </si>
-  <si>
-    <t>Tiptext002</t>
-  </si>
-  <si>
-    <t>全域提示二號機</t>
-  </si>
-  <si>
-    <t>Tiptext003</t>
-  </si>
-  <si>
-    <t>全域提示三號機</t>
-  </si>
-  <si>
-    <t>Tiptext004</t>
-  </si>
-  <si>
-    <t>全域提示四號機</t>
-  </si>
-  <si>
-    <t>Tiptext005</t>
-  </si>
-  <si>
-    <t>全域提示五號機</t>
-  </si>
-  <si>
-    <t>Tiptext006</t>
-  </si>
-  <si>
-    <t>全域提示六號機</t>
-  </si>
-  <si>
-    <t>CatchMainKey</t>
-  </si>
-  <si>
-    <t>Boxing</t>
-  </si>
-  <si>
-    <t>捕捉</t>
-  </si>
-  <si>
-    <t>TalkMainKey</t>
-  </si>
-  <si>
-    <t>CollectLanKey0001</t>
-  </si>
-  <si>
-    <t>Collect</t>
-  </si>
-  <si>
-    <t>採集</t>
-  </si>
-  <si>
-    <t>TransportMainKey</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>啟動</t>
-  </si>
-  <si>
-    <t>Main_Scene_Name1</t>
-  </si>
-  <si>
-    <t>涌动之水</t>
-  </si>
-  <si>
-    <t>Main_Scene_Name2</t>
-  </si>
-  <si>
-    <t>火炎地狱</t>
-  </si>
-  <si>
-    <t>Main_Scene_Name3</t>
-  </si>
-  <si>
-    <t>天空树</t>
-  </si>
-  <si>
-    <t>Main_Scene_Name4</t>
-  </si>
-  <si>
-    <t>荒野边疆</t>
-  </si>
-  <si>
-    <t>Main_Scene_Name5</t>
-  </si>
-  <si>
-    <t>赐福天光</t>
-  </si>
-  <si>
-    <t>Main_Scene_Name6</t>
-  </si>
-  <si>
-    <t>永眠之暗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续按住Alt键唤出鼠标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续按住Shift键加速</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>空格键控制跳跃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spacebar controls jumping</t>
+  </si>
+  <si>
+    <t>Hold down the Alt key to invoke the mouse</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold down the Shift key to accelerate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press the spacebar continuously to jump continuously</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续按空格键可以连续跳跃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>The W S A D key controls the front, back, left and right</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4291,158 +4345,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4455,194 +4371,8 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -4650,253 +4380,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4951,58 +4439,14 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -5075,6 +4519,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5332,19 +4779,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H676"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B362" workbookViewId="0">
-      <selection activeCell="D384" sqref="D384"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="B386" sqref="B386"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.625" customWidth="1"/>
@@ -5352,7 +4799,7 @@
     <col min="5" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5372,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5392,7 +4839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5412,7 +4859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -5430,7 +4877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5450,7 +4897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -5470,7 +4917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5490,7 +4937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5510,7 +4957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5530,7 +4977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5550,7 +4997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5570,7 +5017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5590,7 +5037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:6">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5610,7 +5057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5630,7 +5077,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5650,7 +5097,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5670,7 +5117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5690,7 +5137,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:6">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5710,7 +5157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5730,7 +5177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:6">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5750,7 +5197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:6">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5770,7 +5217,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:6">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5790,7 +5237,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:6">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5810,7 +5257,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:6">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5830,7 +5277,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5850,7 +5297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -5870,7 +5317,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -5890,7 +5337,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -5910,7 +5357,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -5930,7 +5377,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -5950,7 +5397,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5970,7 +5417,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:6">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5990,7 +5437,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:6">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -6010,7 +5457,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:6">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -6030,7 +5477,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:6">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -6050,7 +5497,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:6">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -6070,7 +5517,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:6">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -6090,7 +5537,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:6">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -6110,7 +5557,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:6">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -6130,7 +5577,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:6">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -6150,7 +5597,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:6">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -6170,7 +5617,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:6">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -6190,7 +5637,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:6">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -6210,7 +5657,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:6">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -6230,7 +5677,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:6">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -6250,7 +5697,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:6">
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -6270,7 +5717,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:6">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -6290,7 +5737,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:6">
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -6310,7 +5757,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:6">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -6330,7 +5777,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:6">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -6350,11 +5797,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:2">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:6">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>100101</v>
       </c>
@@ -6374,7 +5821,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:6">
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>100102</v>
       </c>
@@ -6394,7 +5841,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:6">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>100103</v>
       </c>
@@ -6414,7 +5861,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:6">
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>100104</v>
       </c>
@@ -6434,7 +5881,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:6">
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>100105</v>
       </c>
@@ -6454,7 +5901,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:6">
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>100106</v>
       </c>
@@ -6474,7 +5921,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:6">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>100107</v>
       </c>
@@ -6494,7 +5941,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:6">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>100108</v>
       </c>
@@ -6514,7 +5961,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:6">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>100109</v>
       </c>
@@ -6534,7 +5981,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:6">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>100110</v>
       </c>
@@ -6554,7 +6001,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:6">
+    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>100111</v>
       </c>
@@ -6574,7 +6021,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:6">
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>100112</v>
       </c>
@@ -6594,7 +6041,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" spans="1:6">
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>100113</v>
       </c>
@@ -6614,7 +6061,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" spans="1:6">
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -6622,7 +6069,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" s="2" customFormat="1" spans="1:6">
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>100201</v>
       </c>
@@ -6642,7 +6089,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" spans="1:6">
+    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>100202</v>
       </c>
@@ -6662,7 +6109,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" spans="1:6">
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>100203</v>
       </c>
@@ -6682,7 +6129,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:6">
+    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>100204</v>
       </c>
@@ -6702,7 +6149,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" spans="1:6">
+    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>100205</v>
       </c>
@@ -6722,7 +6169,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:6">
+    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>100206</v>
       </c>
@@ -6742,7 +6189,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:6">
+    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -6750,7 +6197,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" s="2" customFormat="1" spans="1:6">
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>101001</v>
       </c>
@@ -6770,7 +6217,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" spans="1:6">
+    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>101002</v>
       </c>
@@ -6790,11 +6237,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" spans="1:2">
+    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" s="2" customFormat="1" ht="17.25" spans="1:6">
+    <row r="76" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>102129</v>
       </c>
@@ -6814,7 +6261,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="17.25" spans="1:6">
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>102130</v>
       </c>
@@ -6834,7 +6281,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="17.25" spans="1:6">
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>102131</v>
       </c>
@@ -6854,7 +6301,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="17.25" spans="1:6">
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>102132</v>
       </c>
@@ -6874,7 +6321,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>102133</v>
       </c>
@@ -6894,7 +6341,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>102134</v>
       </c>
@@ -6914,7 +6361,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>102135</v>
       </c>
@@ -6934,7 +6381,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>102136</v>
       </c>
@@ -6954,7 +6401,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>102137</v>
       </c>
@@ -6974,7 +6421,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>102138</v>
       </c>
@@ -6994,7 +6441,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>102139</v>
       </c>
@@ -7014,7 +6461,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" ht="17.25" spans="1:6">
+    <row r="87" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>102140</v>
       </c>
@@ -7034,7 +6481,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>102141</v>
       </c>
@@ -7054,7 +6501,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>102142</v>
       </c>
@@ -7074,7 +6521,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>102143</v>
       </c>
@@ -7094,7 +6541,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>102144</v>
       </c>
@@ -7114,7 +6561,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>102145</v>
       </c>
@@ -7134,7 +6581,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>102146</v>
       </c>
@@ -7154,7 +6601,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>102147</v>
       </c>
@@ -7174,7 +6621,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>102148</v>
       </c>
@@ -7194,7 +6641,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>102149</v>
       </c>
@@ -7214,7 +6661,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="97" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>102150</v>
       </c>
@@ -7234,7 +6681,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="98" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>102151</v>
       </c>
@@ -7254,7 +6701,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="99" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>102152</v>
       </c>
@@ -7274,7 +6721,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="100" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>102153</v>
       </c>
@@ -7294,7 +6741,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="101" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>102154</v>
       </c>
@@ -7314,7 +6761,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="102" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>102155</v>
       </c>
@@ -7334,7 +6781,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="103" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>102156</v>
       </c>
@@ -7354,7 +6801,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="104" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>102157</v>
       </c>
@@ -7374,7 +6821,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="105" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>102158</v>
       </c>
@@ -7394,7 +6841,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="106" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>102159</v>
       </c>
@@ -7414,7 +6861,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="107" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -7422,7 +6869,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="108" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>103001</v>
       </c>
@@ -7442,7 +6889,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="109" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>103002</v>
       </c>
@@ -7462,7 +6909,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="110" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>103003</v>
       </c>
@@ -7482,7 +6929,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="111" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>103004</v>
       </c>
@@ -7502,7 +6949,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="112" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>103005</v>
       </c>
@@ -7522,7 +6969,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="113" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>103006</v>
       </c>
@@ -7542,11 +6989,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:2">
+    <row r="114" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="115" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>105001</v>
       </c>
@@ -7566,7 +7013,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="116" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>105002</v>
       </c>
@@ -7586,7 +7033,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="117" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>105003</v>
       </c>
@@ -7606,7 +7053,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="118" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>105004</v>
       </c>
@@ -7626,7 +7073,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="119" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>105005</v>
       </c>
@@ -7646,7 +7093,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="120" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>105006</v>
       </c>
@@ -7666,7 +7113,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="121" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>105051</v>
       </c>
@@ -7686,7 +7133,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="122" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>105101</v>
       </c>
@@ -7706,7 +7153,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="123" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>105102</v>
       </c>
@@ -7726,7 +7173,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="124" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>105103</v>
       </c>
@@ -7746,7 +7193,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="125" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>105201</v>
       </c>
@@ -7766,7 +7213,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="126" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>105202</v>
       </c>
@@ -7786,7 +7233,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="127" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>105203</v>
       </c>
@@ -7806,7 +7253,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="128" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>105204</v>
       </c>
@@ -7826,7 +7273,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="129" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>105205</v>
       </c>
@@ -7846,7 +7293,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="130" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>105206</v>
       </c>
@@ -7866,7 +7313,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="131" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>105301</v>
       </c>
@@ -7886,7 +7333,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="132" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>105302</v>
       </c>
@@ -7906,7 +7353,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="133" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>105303</v>
       </c>
@@ -7926,7 +7373,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="134" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>105304</v>
       </c>
@@ -7946,7 +7393,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="135" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>105305</v>
       </c>
@@ -7966,7 +7413,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="136" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>105306</v>
       </c>
@@ -7986,7 +7433,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="137" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>105307</v>
       </c>
@@ -8006,7 +7453,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="138" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>105308</v>
       </c>
@@ -8026,7 +7473,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="139" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>105401</v>
       </c>
@@ -8046,7 +7493,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="140" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>105402</v>
       </c>
@@ -8066,7 +7513,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="141" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>105403</v>
       </c>
@@ -8086,7 +7533,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="142" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>105404</v>
       </c>
@@ -8106,7 +7553,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="143" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>105405</v>
       </c>
@@ -8126,7 +7573,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="144" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>105406</v>
       </c>
@@ -8146,7 +7593,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="145" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>105407</v>
       </c>
@@ -8166,7 +7613,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="146" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>105501</v>
       </c>
@@ -8186,7 +7633,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="147" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>105502</v>
       </c>
@@ -8206,7 +7653,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="148" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>105503</v>
       </c>
@@ -8226,7 +7673,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="149" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>105504</v>
       </c>
@@ -8246,7 +7693,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="150" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>105505</v>
       </c>
@@ -8266,7 +7713,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="151" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>105506</v>
       </c>
@@ -8286,7 +7733,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="152" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>105507</v>
       </c>
@@ -8306,7 +7753,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="153" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>105508</v>
       </c>
@@ -8326,13 +7773,13 @@
         <v>607</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+    <row r="154" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="155" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>105601</v>
       </c>
@@ -8353,7 +7800,7 @@
       </c>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="156" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>105602</v>
       </c>
@@ -8374,7 +7821,7 @@
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+    <row r="157" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>105603</v>
       </c>
@@ -8396,7 +7843,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="158" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>105604</v>
       </c>
@@ -8417,7 +7864,7 @@
       </c>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="159" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>105605</v>
       </c>
@@ -8438,7 +7885,7 @@
       </c>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="160" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>105606</v>
       </c>
@@ -8459,7 +7906,7 @@
       </c>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="161" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>105607</v>
       </c>
@@ -8480,7 +7927,7 @@
       </c>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="162" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>105608</v>
       </c>
@@ -8501,7 +7948,7 @@
       </c>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="163" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>105609</v>
       </c>
@@ -8522,7 +7969,7 @@
       </c>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
+    <row r="164" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>105610</v>
       </c>
@@ -8543,7 +7990,7 @@
       </c>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="165" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>105611</v>
       </c>
@@ -8563,7 +8010,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="166" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>105612</v>
       </c>
@@ -8583,7 +8030,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="167" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="167" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>105613</v>
       </c>
@@ -8603,7 +8050,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="168" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>105614</v>
       </c>
@@ -8623,7 +8070,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="169" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="169" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>105615</v>
       </c>
@@ -8643,7 +8090,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="170" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="170" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>105616</v>
       </c>
@@ -8663,7 +8110,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="171" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="171" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>105617</v>
       </c>
@@ -8683,7 +8130,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="172" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="172" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>105618</v>
       </c>
@@ -8703,7 +8150,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="173" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="173" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>105619</v>
       </c>
@@ -8723,7 +8170,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="174" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>105620</v>
       </c>
@@ -8743,7 +8190,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="175" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>105621</v>
       </c>
@@ -8763,7 +8210,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="176" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>105622</v>
       </c>
@@ -8783,7 +8230,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="177" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>105623</v>
       </c>
@@ -8803,7 +8250,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="178" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="178" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>105624</v>
       </c>
@@ -8823,7 +8270,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="179" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>105625</v>
       </c>
@@ -8843,7 +8290,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="180" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>105626</v>
       </c>
@@ -8863,7 +8310,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="181" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>105627</v>
       </c>
@@ -8883,7 +8330,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="182" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>105628</v>
       </c>
@@ -8903,7 +8350,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="183" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="183" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>105629</v>
       </c>
@@ -8923,7 +8370,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="184" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>105630</v>
       </c>
@@ -8943,7 +8390,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="185" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="185" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>105631</v>
       </c>
@@ -8963,7 +8410,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="186" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>105632</v>
       </c>
@@ -8983,7 +8430,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="187" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="187" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>105633</v>
       </c>
@@ -9003,7 +8450,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="188" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="188" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>105634</v>
       </c>
@@ -9023,7 +8470,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="189" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>105635</v>
       </c>
@@ -9043,7 +8490,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="190" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>105636</v>
       </c>
@@ -9063,7 +8510,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="191" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>105637</v>
       </c>
@@ -9083,7 +8530,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="192" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>105638</v>
       </c>
@@ -9103,7 +8550,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="193" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="193" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>105639</v>
       </c>
@@ -9123,7 +8570,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="194" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>105640</v>
       </c>
@@ -9143,7 +8590,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="195" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>105641</v>
       </c>
@@ -9163,7 +8610,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="196" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="196" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>105642</v>
       </c>
@@ -9183,7 +8630,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="197" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="197" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>105643</v>
       </c>
@@ -9203,7 +8650,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="198" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>105644</v>
       </c>
@@ -9223,7 +8670,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="199" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="199" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>105645</v>
       </c>
@@ -9243,7 +8690,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="200" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="200" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>105646</v>
       </c>
@@ -9263,7 +8710,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="201" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="201" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>105647</v>
       </c>
@@ -9283,7 +8730,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="202" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="202" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>105648</v>
       </c>
@@ -9303,7 +8750,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="203" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="203" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>105649</v>
       </c>
@@ -9323,7 +8770,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="204" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="204" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>105650</v>
       </c>
@@ -9343,7 +8790,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="205" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+    <row r="205" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="4" t="s">
         <v>810</v>
@@ -9352,7 +8799,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="206" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+    <row r="206" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="4" t="s">
         <v>812</v>
@@ -9361,7 +8808,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="207" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+    <row r="207" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="4" t="s">
         <v>814</v>
@@ -9370,7 +8817,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="208" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+    <row r="208" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="4" t="s">
         <v>816</v>
@@ -9379,17 +8826,17 @@
         <v>817</v>
       </c>
     </row>
-    <row r="209" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+    <row r="209" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="4"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+    <row r="210" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="4"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="211" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>105701</v>
       </c>
@@ -9409,7 +8856,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="212" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="212" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>105702</v>
       </c>
@@ -9429,7 +8876,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="213" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="213" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>105703</v>
       </c>
@@ -9449,7 +8896,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="214" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="214" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>105704</v>
       </c>
@@ -9469,7 +8916,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="215" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="215" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="4"/>
       <c r="C215" s="3"/>
@@ -9477,7 +8924,7 @@
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="216" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>105801</v>
       </c>
@@ -9497,7 +8944,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="217" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="217" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>105802</v>
       </c>
@@ -9517,7 +8964,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="218" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="218" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>105803</v>
       </c>
@@ -9537,7 +8984,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="219" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>105804</v>
       </c>
@@ -9557,8 +9004,8 @@
         <v>830</v>
       </c>
     </row>
-    <row r="220" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="221" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="220" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="10">
         <v>200001</v>
       </c>
@@ -9578,7 +9025,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="222" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="222" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="10">
         <v>200002</v>
       </c>
@@ -9598,7 +9045,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="223" s="2" customFormat="1" spans="1:6">
+    <row r="223" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="10">
         <v>200003</v>
       </c>
@@ -9618,7 +9065,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="224" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="224" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="10">
         <v>200004</v>
       </c>
@@ -9638,7 +9085,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="225" s="2" customFormat="1" spans="1:6">
+    <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="10">
         <v>200005</v>
       </c>
@@ -9658,7 +9105,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="226" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="226" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="10">
         <v>200006</v>
       </c>
@@ -9678,7 +9125,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="227" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="227" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="10">
         <v>200007</v>
       </c>
@@ -9698,7 +9145,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="228" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="228" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="10">
         <v>200008</v>
       </c>
@@ -9718,7 +9165,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="229" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="229" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="10">
         <v>200009</v>
       </c>
@@ -9738,7 +9185,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="230" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="230" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="10">
         <v>200010</v>
       </c>
@@ -9758,7 +9205,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="231" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="231" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="10">
         <v>200011</v>
       </c>
@@ -9778,7 +9225,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="232" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="232" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="10">
         <v>200012</v>
       </c>
@@ -9798,7 +9245,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="233" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="233" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="10">
         <v>200013</v>
       </c>
@@ -9818,7 +9265,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="234" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="234" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="10">
         <v>200014</v>
       </c>
@@ -9838,7 +9285,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="235" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="235" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="10">
         <v>200015</v>
       </c>
@@ -9858,7 +9305,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="236" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="236" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="10">
         <v>200016</v>
       </c>
@@ -9878,7 +9325,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="237" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="237" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="10">
         <v>200017</v>
       </c>
@@ -9898,7 +9345,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="238" s="2" customFormat="1" spans="1:6">
+    <row r="238" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" s="10">
         <v>200018</v>
       </c>
@@ -9918,7 +9365,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="239" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="239" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="10">
         <v>200019</v>
       </c>
@@ -9938,7 +9385,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="240" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="240" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="10">
         <v>200020</v>
       </c>
@@ -9958,7 +9405,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="241" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="241" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="10">
         <v>200021</v>
       </c>
@@ -9978,7 +9425,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="242" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="242" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="10">
         <v>200022</v>
       </c>
@@ -9998,7 +9445,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="243" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="243" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="10">
         <v>200023</v>
       </c>
@@ -10018,7 +9465,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="244" s="2" customFormat="1" spans="1:6">
+    <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="10">
         <v>200024</v>
       </c>
@@ -10038,7 +9485,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="245" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="245" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="10">
         <v>200025</v>
       </c>
@@ -10058,7 +9505,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="246" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="246" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="10">
         <v>200026</v>
       </c>
@@ -10078,7 +9525,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="247" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="247" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="10">
         <v>200027</v>
       </c>
@@ -10098,7 +9545,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="248" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="248" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="10">
         <v>200028</v>
       </c>
@@ -10118,7 +9565,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="249" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="249" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="10">
         <v>200029</v>
       </c>
@@ -10138,7 +9585,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="250" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="250" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="10">
         <v>200030</v>
       </c>
@@ -10158,7 +9605,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="251" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="251" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="10">
         <v>200031</v>
       </c>
@@ -10178,7 +9625,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="252" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="252" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="10">
         <v>200032</v>
       </c>
@@ -10198,7 +9645,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="253" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="253" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="10">
         <v>200033</v>
       </c>
@@ -10218,7 +9665,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="254" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="254" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="10">
         <v>200034</v>
       </c>
@@ -10238,7 +9685,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="255" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="255" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="10">
         <v>200035</v>
       </c>
@@ -10258,7 +9705,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="256" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="256" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="10">
         <v>200036</v>
       </c>
@@ -10278,7 +9725,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="257" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="257" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="10">
         <v>200037</v>
       </c>
@@ -10298,7 +9745,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="258" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="258" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="10">
         <v>200038</v>
       </c>
@@ -10318,7 +9765,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="259" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="259" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="10">
         <v>200039</v>
       </c>
@@ -10338,7 +9785,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="260" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="260" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="10">
         <v>200040</v>
       </c>
@@ -10358,7 +9805,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="261" s="2" customFormat="1" spans="1:6">
+    <row r="261" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" s="10">
         <v>200041</v>
       </c>
@@ -10378,7 +9825,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="262" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="262" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="10">
         <v>200042</v>
       </c>
@@ -10398,7 +9845,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="263" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="263" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="10">
         <v>200043</v>
       </c>
@@ -10418,7 +9865,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="264" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="264" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="10">
         <v>200044</v>
       </c>
@@ -10438,7 +9885,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="265" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="265" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="10">
         <v>200045</v>
       </c>
@@ -10458,7 +9905,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="266" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="266" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="10">
         <v>200046</v>
       </c>
@@ -10478,7 +9925,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="267" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="267" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="10">
         <v>200047</v>
       </c>
@@ -10498,7 +9945,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="268" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="268" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="10">
         <v>200048</v>
       </c>
@@ -10518,7 +9965,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="269" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="269" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="10">
         <v>200049</v>
       </c>
@@ -10538,7 +9985,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="270" s="2" customFormat="1" spans="1:6">
+    <row r="270" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" s="10">
         <v>200050</v>
       </c>
@@ -10558,7 +10005,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="271" s="2" customFormat="1" spans="1:6">
+    <row r="271" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" s="10">
         <v>200051</v>
       </c>
@@ -10578,7 +10025,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="272" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="272" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="10">
         <v>200052</v>
       </c>
@@ -10598,7 +10045,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="273" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="273" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="10">
         <v>200053</v>
       </c>
@@ -10618,7 +10065,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="274" s="2" customFormat="1" spans="1:6">
+    <row r="274" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="10">
         <v>200054</v>
       </c>
@@ -10638,7 +10085,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="275" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="275" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="10">
         <v>200055</v>
       </c>
@@ -10658,7 +10105,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="276" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="276" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="10">
         <v>200056</v>
       </c>
@@ -10678,7 +10125,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="277" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="277" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="10">
         <v>200057</v>
       </c>
@@ -10698,7 +10145,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="278" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="278" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="10">
         <v>200058</v>
       </c>
@@ -10718,7 +10165,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="279" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="279" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="10">
         <v>200059</v>
       </c>
@@ -10738,7 +10185,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="280" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="280" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="10">
         <v>200060</v>
       </c>
@@ -10758,7 +10205,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="281" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="281" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="10">
         <v>200061</v>
       </c>
@@ -10778,7 +10225,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="282" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="282" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="10">
         <v>200062</v>
       </c>
@@ -10798,7 +10245,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="283" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="283" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="10">
         <v>200063</v>
       </c>
@@ -10818,7 +10265,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="284" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="284" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="10">
         <v>200064</v>
       </c>
@@ -10838,7 +10285,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="285" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="285" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="10">
         <v>200065</v>
       </c>
@@ -10858,7 +10305,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="286" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="286" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="10">
         <v>200066</v>
       </c>
@@ -10878,7 +10325,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="287" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="287" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="10">
         <v>200067</v>
       </c>
@@ -10898,7 +10345,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="288" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="288" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="10">
         <v>200068</v>
       </c>
@@ -10918,7 +10365,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="289" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="289" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="10">
         <v>200069</v>
       </c>
@@ -10938,7 +10385,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="290" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="290" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="10">
         <v>200070</v>
       </c>
@@ -10958,7 +10405,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="291" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="291" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="10">
         <v>200071</v>
       </c>
@@ -10978,7 +10425,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="292" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="292" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="4">
         <v>200072</v>
       </c>
@@ -10998,7 +10445,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="293" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="293" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="4">
         <v>200073</v>
       </c>
@@ -11018,7 +10465,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="294" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="294" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="4">
         <v>200074</v>
       </c>
@@ -11038,7 +10485,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="295" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="295" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="4">
         <v>200075</v>
       </c>
@@ -11058,7 +10505,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="296" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="296" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4">
         <v>200076</v>
       </c>
@@ -11078,7 +10525,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="297" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="297" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="4">
         <v>200077</v>
       </c>
@@ -11098,7 +10545,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="298" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="298" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="4">
         <v>200078</v>
       </c>
@@ -11118,7 +10565,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="299" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="299" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="4">
         <v>200079</v>
       </c>
@@ -11138,7 +10585,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="300" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="300" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="4">
         <v>200080</v>
       </c>
@@ -11158,7 +10605,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="301" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="301" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="4">
         <v>200081</v>
       </c>
@@ -11178,7 +10625,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="302" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="302" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="4">
         <v>200082</v>
       </c>
@@ -11198,7 +10645,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="303" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="303" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="4">
         <v>200083</v>
       </c>
@@ -11218,7 +10665,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="304" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="304" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="4">
         <v>200084</v>
       </c>
@@ -11238,7 +10685,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="305" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="305" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="4">
         <v>200085</v>
       </c>
@@ -11258,7 +10705,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="306" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+    <row r="306" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="4">
         <v>200086</v>
       </c>
@@ -11278,7 +10725,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="307" s="2" customFormat="1" spans="1:6">
+    <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="4">
         <v>200087</v>
       </c>
@@ -11298,7 +10745,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="308" s="2" customFormat="1" spans="1:6">
+    <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="4">
         <v>200088</v>
       </c>
@@ -11318,7 +10765,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="309" s="2" customFormat="1" spans="1:6">
+    <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="4">
         <v>200089</v>
       </c>
@@ -11338,7 +10785,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="310" s="2" customFormat="1" spans="1:6">
+    <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="4">
         <v>200090</v>
       </c>
@@ -11358,7 +10805,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="311" s="2" customFormat="1" spans="1:6">
+    <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A311" s="4">
         <v>200091</v>
       </c>
@@ -11378,7 +10825,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="312" s="2" customFormat="1" spans="1:6">
+    <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A312" s="4">
         <v>200092</v>
       </c>
@@ -11398,7 +10845,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="313" s="2" customFormat="1" spans="1:6">
+    <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" s="4">
         <v>200093</v>
       </c>
@@ -11418,7 +10865,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="314" s="2" customFormat="1" spans="1:6">
+    <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" s="4">
         <v>200094</v>
       </c>
@@ -11438,7 +10885,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="315" s="2" customFormat="1" spans="1:6">
+    <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="4">
         <v>200095</v>
       </c>
@@ -11458,7 +10905,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="316" s="2" customFormat="1" spans="1:6">
+    <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" s="4">
         <v>200096</v>
       </c>
@@ -11478,7 +10925,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="317" s="2" customFormat="1" spans="1:6">
+    <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" s="4">
         <v>200097</v>
       </c>
@@ -11498,7 +10945,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="318" s="2" customFormat="1" spans="1:6">
+    <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A318" s="4">
         <v>200098</v>
       </c>
@@ -11518,7 +10965,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="319" s="2" customFormat="1" spans="1:6">
+    <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" s="4">
         <v>200099</v>
       </c>
@@ -11538,7 +10985,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="320" s="2" customFormat="1" spans="1:6">
+    <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A320" s="4">
         <v>200100</v>
       </c>
@@ -11558,7 +11005,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="321" s="2" customFormat="1" spans="1:6">
+    <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A321" s="4">
         <v>200101</v>
       </c>
@@ -11578,7 +11025,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="322" s="2" customFormat="1" spans="1:6">
+    <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A322" s="4">
         <v>200102</v>
       </c>
@@ -11598,7 +11045,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="323" s="2" customFormat="1" spans="1:6">
+    <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" s="4">
         <v>200103</v>
       </c>
@@ -11618,7 +11065,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="324" s="2" customFormat="1" spans="1:6">
+    <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A324" s="4">
         <v>200104</v>
       </c>
@@ -11638,7 +11085,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="325" s="2" customFormat="1" spans="1:6">
+    <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A325" s="4">
         <v>200105</v>
       </c>
@@ -11658,7 +11105,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="326" s="2" customFormat="1" spans="1:6">
+    <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A326" s="4">
         <v>200106</v>
       </c>
@@ -11678,7 +11125,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="327" s="2" customFormat="1" spans="1:6">
+    <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A327" s="4">
         <v>200107</v>
       </c>
@@ -11698,7 +11145,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="328" s="2" customFormat="1" spans="1:6">
+    <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A328" s="4">
         <v>200108</v>
       </c>
@@ -11718,7 +11165,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="329" s="2" customFormat="1" spans="1:6">
+    <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A329" s="4">
         <v>200109</v>
       </c>
@@ -11738,7 +11185,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="330" s="2" customFormat="1" spans="1:6">
+    <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A330" s="4">
         <v>200110</v>
       </c>
@@ -11758,7 +11205,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="331" s="2" customFormat="1" spans="1:6">
+    <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A331" s="4">
         <v>200111</v>
       </c>
@@ -11778,7 +11225,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="332" s="2" customFormat="1" spans="1:6">
+    <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A332" s="4">
         <v>200112</v>
       </c>
@@ -11798,7 +11245,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="333" s="2" customFormat="1" spans="1:6">
+    <row r="333" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A333" s="4">
         <v>200113</v>
       </c>
@@ -11818,7 +11265,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="334" s="2" customFormat="1" spans="1:6">
+    <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A334" s="4">
         <v>200114</v>
       </c>
@@ -11838,7 +11285,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="335" s="2" customFormat="1" spans="1:6">
+    <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A335" s="4">
         <v>200115</v>
       </c>
@@ -11858,7 +11305,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="336" s="2" customFormat="1" spans="1:6">
+    <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A336" s="4">
         <v>200116</v>
       </c>
@@ -11878,7 +11325,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="337" s="2" customFormat="1" spans="1:6">
+    <row r="337" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A337" s="4">
         <v>200117</v>
       </c>
@@ -11898,7 +11345,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="338" s="2" customFormat="1" spans="1:6">
+    <row r="338" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A338" s="4">
         <v>200118</v>
       </c>
@@ -11918,7 +11365,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="339" s="2" customFormat="1" spans="1:6">
+    <row r="339" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A339" s="4">
         <v>200119</v>
       </c>
@@ -11938,8 +11385,8 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="340" s="2" customFormat="1"/>
-    <row r="341" s="2" customFormat="1" spans="1:6">
+    <row r="340" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>300000</v>
       </c>
@@ -11959,7 +11406,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="342" s="2" customFormat="1" spans="1:6">
+    <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>300001</v>
       </c>
@@ -11979,7 +11426,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="343" s="2" customFormat="1" spans="1:6">
+    <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>300002</v>
       </c>
@@ -11999,7 +11446,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="344" s="2" customFormat="1" spans="1:6">
+    <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>300003</v>
       </c>
@@ -12019,7 +11466,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="345" s="2" customFormat="1" spans="1:6">
+    <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>300004</v>
       </c>
@@ -12039,7 +11486,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="346" s="2" customFormat="1" spans="1:6">
+    <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>300005</v>
       </c>
@@ -12059,124 +11506,172 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="347" s="2" customFormat="1" spans="1:4">
+    <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>300006</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="20" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="C347" s="2" t="s">
+      <c r="D347" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="D347" s="2" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="348" s="2" customFormat="1" spans="1:4">
+      <c r="E347" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>300007</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="C348" s="2" t="s">
+      <c r="D348" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="D348" s="2" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="349" s="2" customFormat="1" spans="1:4">
+      <c r="E348" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>300008</v>
       </c>
       <c r="B349" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="D349" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="D349" s="2" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="350" s="2" customFormat="1" spans="1:4">
+      <c r="E349" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>300009</v>
       </c>
       <c r="B350" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="C350" s="2" t="s">
+      <c r="D350" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="D350" s="2" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="351" s="2" customFormat="1" spans="1:4">
+      <c r="E350" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>300010</v>
       </c>
       <c r="B351" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="D351" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="D351" s="2" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="352" s="2" customFormat="1" spans="1:4">
+      <c r="E351" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>300011</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="D352" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="D352" s="2" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="353" s="2" customFormat="1" spans="1:4">
+      <c r="E352" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>300012</v>
       </c>
       <c r="B353" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="C353" s="2" t="s">
+      <c r="D353" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="D353" s="2" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="354" s="2" customFormat="1" spans="1:4">
+      <c r="E353" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>300013</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="D354" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="D354" s="2" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="355" s="2" customFormat="1" spans="1:4">
+      <c r="E354" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>300014</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>455</v>
@@ -12184,139 +11679,199 @@
       <c r="D355" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="356" s="2" customFormat="1" spans="1:4">
+      <c r="E355" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>300015</v>
       </c>
       <c r="B356" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="D356" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="D356" s="2" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="357" s="2" customFormat="1" spans="1:4">
+      <c r="E356" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>300016</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="D357" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="D357" s="2" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="358" s="2" customFormat="1" spans="1:4">
+      <c r="E357" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>300017</v>
       </c>
       <c r="B358" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="D358" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="D358" s="2" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="359" s="2" customFormat="1" spans="1:4">
+      <c r="E358" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>300018</v>
       </c>
       <c r="B359" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="D359" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="D359" s="2" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="360" s="2" customFormat="1" spans="1:4">
+      <c r="E359" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>300019</v>
       </c>
       <c r="B360" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="D360" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="D360" s="2" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="361" s="2" customFormat="1" spans="1:4">
+      <c r="E360" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>300020</v>
       </c>
       <c r="B361" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="D361" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="D361" s="2" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="362" s="2" customFormat="1" spans="1:4">
+      <c r="E361" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>300021</v>
       </c>
       <c r="B362" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="D362" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="D362" s="2" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="363" s="2" customFormat="1" ht="17.25" spans="1:4">
+      <c r="E362" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>300022</v>
       </c>
       <c r="B363" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="D363" s="16" t="s">
         <v>1351</v>
       </c>
-      <c r="D363" s="16" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="364" s="2" customFormat="1" spans="1:4">
+      <c r="E363" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>300023</v>
       </c>
       <c r="B364" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="D364" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="D364" s="2" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="365" s="2" customFormat="1" spans="1:6">
+      <c r="E364" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>300024</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>309</v>
@@ -12331,12 +11886,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="366" s="2" customFormat="1" spans="1:6">
+    <row r="366" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>300025</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>305</v>
@@ -12351,12 +11906,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="367" s="2" customFormat="1" spans="1:6">
+    <row r="367" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>300026</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>301</v>
@@ -12371,32 +11926,32 @@
         <v>301</v>
       </c>
     </row>
-    <row r="368" s="2" customFormat="1" spans="1:6">
+    <row r="368" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>300027</v>
       </c>
       <c r="B368" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C368" s="17" t="s">
         <v>1359</v>
       </c>
-      <c r="C368" s="17" t="s">
+      <c r="D368" s="18" t="s">
         <v>1360</v>
       </c>
-      <c r="D368" s="18" t="s">
-        <v>1361</v>
-      </c>
       <c r="E368" s="18" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F368" s="18" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="369" s="2" customFormat="1" spans="1:6">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>300028</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>313</v>
@@ -12411,152 +11966,152 @@
         <v>313</v>
       </c>
     </row>
-    <row r="370" s="2" customFormat="1" spans="1:6">
+    <row r="370" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>300029</v>
       </c>
       <c r="B370" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>1364</v>
-      </c>
       <c r="D370" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="371" s="2" customFormat="1" spans="1:6">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>300030</v>
       </c>
       <c r="B371" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>1366</v>
-      </c>
       <c r="D371" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="372" s="2" customFormat="1" spans="1:6">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>300031</v>
       </c>
       <c r="B372" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="C372" s="2" t="s">
-        <v>1368</v>
-      </c>
       <c r="D372" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="373" s="2" customFormat="1" spans="1:6">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>300032</v>
       </c>
       <c r="B373" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C373" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>1370</v>
-      </c>
       <c r="D373" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="374" s="2" customFormat="1" spans="1:6">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>300033</v>
       </c>
       <c r="B374" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C374" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>1372</v>
-      </c>
       <c r="D374" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="375" s="2" customFormat="1" spans="1:6">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>300034</v>
       </c>
       <c r="B375" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C375" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>1374</v>
-      </c>
       <c r="D375" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="376" s="2" customFormat="1" spans="1:6">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>300035</v>
       </c>
       <c r="B376" s="9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C376" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="C376" s="9" t="s">
+      <c r="D376" s="9" t="s">
         <v>1376</v>
       </c>
-      <c r="D376" s="9" t="s">
-        <v>1377</v>
-      </c>
       <c r="E376" s="9" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F376" s="9" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="377" s="2" customFormat="1" spans="1:6">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>300036</v>
       </c>
       <c r="B377" s="19" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>317</v>
@@ -12571,468 +12126,562 @@
         <v>317</v>
       </c>
     </row>
-    <row r="378" s="2" customFormat="1" spans="1:6">
+    <row r="378" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>300037</v>
       </c>
       <c r="B378" s="19" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C378" s="9" t="s">
         <v>1379</v>
       </c>
-      <c r="C378" s="9" t="s">
+      <c r="D378" s="9" t="s">
         <v>1380</v>
       </c>
-      <c r="D378" s="9" t="s">
-        <v>1381</v>
-      </c>
       <c r="E378" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F378" s="9" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="379" s="2" customFormat="1" spans="1:6">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>300038</v>
       </c>
       <c r="B379" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C379" s="9" t="s">
         <v>1382</v>
       </c>
-      <c r="C379" s="9" t="s">
+      <c r="D379" s="9" t="s">
         <v>1383</v>
       </c>
-      <c r="D379" s="9" t="s">
-        <v>1384</v>
-      </c>
       <c r="E379" s="9" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F379" s="9" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="380" s="2" customFormat="1" spans="1:6">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>300039</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="C380" s="2" t="s">
-        <v>1386</v>
-      </c>
       <c r="D380" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="381" s="2" customFormat="1" spans="1:6">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>300040</v>
       </c>
       <c r="B381" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="C381" s="2" t="s">
-        <v>1388</v>
-      </c>
       <c r="D381" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="382" s="2" customFormat="1" spans="1:6">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>300041</v>
       </c>
       <c r="B382" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="C382" s="2" t="s">
-        <v>1390</v>
-      </c>
       <c r="D382" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="383" s="2" customFormat="1" spans="1:6">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>300042</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="C383" s="2" t="s">
-        <v>1392</v>
-      </c>
       <c r="D383" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="384" s="2" customFormat="1" spans="1:6">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>300043</v>
       </c>
       <c r="B384" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>1394</v>
-      </c>
       <c r="D384" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="385" s="2" customFormat="1" spans="1:6">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>300044</v>
       </c>
       <c r="B385" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="D385" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="2">
+        <v>300045</v>
+      </c>
+      <c r="B386" s="20" t="s">
         <v>1396</v>
       </c>
-      <c r="D385" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E385" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F385" s="2" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="386" s="2" customFormat="1"/>
-    <row r="387" s="2" customFormat="1"/>
-    <row r="388" s="2" customFormat="1"/>
-    <row r="389" s="2" customFormat="1"/>
-    <row r="390" s="2" customFormat="1"/>
-    <row r="391" s="2" customFormat="1"/>
-    <row r="392" s="2" customFormat="1"/>
-    <row r="393" s="2" customFormat="1"/>
-    <row r="394" s="2" customFormat="1"/>
-    <row r="395" s="2" customFormat="1"/>
-    <row r="396" s="2" customFormat="1"/>
-    <row r="397" s="2" customFormat="1"/>
-    <row r="398" s="2" customFormat="1"/>
-    <row r="399" s="2" customFormat="1"/>
-    <row r="400" s="2" customFormat="1"/>
-    <row r="401" s="2" customFormat="1"/>
-    <row r="402" s="2" customFormat="1"/>
-    <row r="403" s="2" customFormat="1"/>
-    <row r="404" s="2" customFormat="1"/>
-    <row r="405" s="2" customFormat="1"/>
-    <row r="406" s="2" customFormat="1"/>
-    <row r="407" s="2" customFormat="1"/>
-    <row r="408" s="2" customFormat="1"/>
-    <row r="409" s="2" customFormat="1"/>
-    <row r="410" s="2" customFormat="1"/>
-    <row r="411" s="2" customFormat="1"/>
-    <row r="412" s="2" customFormat="1"/>
-    <row r="413" s="2" customFormat="1"/>
-    <row r="414" s="2" customFormat="1"/>
-    <row r="415" s="2" customFormat="1"/>
-    <row r="416" s="2" customFormat="1"/>
-    <row r="417" s="2" customFormat="1"/>
-    <row r="418" s="2" customFormat="1"/>
-    <row r="419" s="2" customFormat="1"/>
-    <row r="420" s="2" customFormat="1"/>
-    <row r="421" s="2" customFormat="1"/>
-    <row r="422" s="2" customFormat="1"/>
-    <row r="423" s="2" customFormat="1"/>
-    <row r="424" s="2" customFormat="1"/>
-    <row r="425" s="2" customFormat="1"/>
-    <row r="426" s="2" customFormat="1"/>
-    <row r="427" s="2" customFormat="1"/>
-    <row r="428" s="2" customFormat="1"/>
-    <row r="429" s="2" customFormat="1"/>
-    <row r="430" s="2" customFormat="1"/>
-    <row r="431" s="2" customFormat="1"/>
-    <row r="432" s="2" customFormat="1"/>
-    <row r="433" s="2" customFormat="1"/>
-    <row r="434" s="2" customFormat="1"/>
-    <row r="435" s="2" customFormat="1"/>
-    <row r="436" s="2" customFormat="1"/>
-    <row r="437" s="2" customFormat="1"/>
-    <row r="438" s="2" customFormat="1"/>
-    <row r="439" s="2" customFormat="1"/>
-    <row r="440" s="2" customFormat="1"/>
-    <row r="441" s="2" customFormat="1"/>
-    <row r="442" s="2" customFormat="1"/>
-    <row r="443" s="2" customFormat="1"/>
-    <row r="444" s="2" customFormat="1"/>
-    <row r="445" s="2" customFormat="1"/>
-    <row r="446" s="2" customFormat="1"/>
-    <row r="447" s="2" customFormat="1"/>
-    <row r="448" s="2" customFormat="1"/>
-    <row r="449" s="2" customFormat="1"/>
-    <row r="450" s="2" customFormat="1"/>
-    <row r="451" s="2" customFormat="1"/>
-    <row r="452" s="2" customFormat="1"/>
-    <row r="453" s="2" customFormat="1"/>
-    <row r="454" s="2" customFormat="1"/>
-    <row r="455" s="2" customFormat="1"/>
-    <row r="456" s="2" customFormat="1"/>
-    <row r="457" s="2" customFormat="1"/>
-    <row r="458" s="2" customFormat="1"/>
-    <row r="459" s="2" customFormat="1"/>
-    <row r="460" s="2" customFormat="1"/>
-    <row r="461" s="2" customFormat="1"/>
-    <row r="462" s="2" customFormat="1"/>
-    <row r="463" s="2" customFormat="1"/>
-    <row r="464" s="2" customFormat="1"/>
-    <row r="465" s="2" customFormat="1"/>
-    <row r="466" s="2" customFormat="1"/>
-    <row r="467" s="2" customFormat="1"/>
-    <row r="468" s="2" customFormat="1"/>
-    <row r="469" s="2" customFormat="1"/>
-    <row r="470" s="2" customFormat="1"/>
-    <row r="471" s="2" customFormat="1"/>
-    <row r="472" s="2" customFormat="1"/>
-    <row r="473" s="2" customFormat="1"/>
-    <row r="474" s="2" customFormat="1"/>
-    <row r="475" s="2" customFormat="1"/>
-    <row r="476" s="2" customFormat="1"/>
-    <row r="477" s="2" customFormat="1"/>
-    <row r="478" s="2" customFormat="1"/>
-    <row r="479" s="2" customFormat="1"/>
-    <row r="480" s="2" customFormat="1"/>
-    <row r="481" s="2" customFormat="1"/>
-    <row r="482" s="2" customFormat="1"/>
-    <row r="483" s="2" customFormat="1"/>
-    <row r="484" s="2" customFormat="1"/>
-    <row r="485" s="2" customFormat="1"/>
-    <row r="486" s="2" customFormat="1"/>
-    <row r="487" s="2" customFormat="1"/>
-    <row r="488" s="2" customFormat="1"/>
-    <row r="489" s="2" customFormat="1"/>
-    <row r="490" s="2" customFormat="1"/>
-    <row r="491" s="2" customFormat="1"/>
-    <row r="492" s="2" customFormat="1"/>
-    <row r="493" s="2" customFormat="1"/>
-    <row r="494" s="2" customFormat="1"/>
-    <row r="495" s="2" customFormat="1"/>
-    <row r="496" s="2" customFormat="1"/>
-    <row r="497" s="2" customFormat="1"/>
-    <row r="498" s="2" customFormat="1"/>
-    <row r="499" s="2" customFormat="1"/>
-    <row r="500" s="2" customFormat="1"/>
-    <row r="501" s="2" customFormat="1"/>
-    <row r="502" s="2" customFormat="1"/>
-    <row r="503" s="2" customFormat="1"/>
-    <row r="504" s="2" customFormat="1"/>
-    <row r="505" s="2" customFormat="1"/>
-    <row r="506" s="2" customFormat="1"/>
-    <row r="507" s="2" customFormat="1"/>
-    <row r="508" s="2" customFormat="1"/>
-    <row r="509" s="2" customFormat="1"/>
-    <row r="510" s="2" customFormat="1"/>
-    <row r="511" s="2" customFormat="1"/>
-    <row r="512" s="2" customFormat="1"/>
-    <row r="513" s="2" customFormat="1"/>
-    <row r="514" s="2" customFormat="1"/>
-    <row r="515" s="2" customFormat="1"/>
-    <row r="516" s="2" customFormat="1"/>
-    <row r="517" s="2" customFormat="1"/>
-    <row r="518" s="2" customFormat="1"/>
-    <row r="519" s="2" customFormat="1"/>
-    <row r="520" s="2" customFormat="1"/>
-    <row r="521" s="2" customFormat="1"/>
-    <row r="522" s="2" customFormat="1"/>
-    <row r="523" s="2" customFormat="1"/>
-    <row r="524" s="2" customFormat="1"/>
-    <row r="525" s="2" customFormat="1"/>
-    <row r="526" s="2" customFormat="1"/>
-    <row r="527" s="2" customFormat="1"/>
-    <row r="528" s="2" customFormat="1"/>
-    <row r="529" s="2" customFormat="1"/>
-    <row r="530" s="2" customFormat="1"/>
-    <row r="531" s="2" customFormat="1"/>
-    <row r="532" s="2" customFormat="1"/>
-    <row r="533" s="2" customFormat="1"/>
-    <row r="534" s="2" customFormat="1"/>
-    <row r="535" s="2" customFormat="1"/>
-    <row r="536" s="2" customFormat="1"/>
-    <row r="537" s="2" customFormat="1"/>
-    <row r="538" s="2" customFormat="1"/>
-    <row r="539" s="2" customFormat="1"/>
-    <row r="540" s="2" customFormat="1"/>
-    <row r="541" s="2" customFormat="1"/>
-    <row r="542" s="2" customFormat="1"/>
-    <row r="543" s="2" customFormat="1"/>
-    <row r="544" s="2" customFormat="1"/>
-    <row r="545" s="2" customFormat="1"/>
-    <row r="546" s="2" customFormat="1"/>
-    <row r="547" s="2" customFormat="1"/>
-    <row r="548" s="2" customFormat="1"/>
-    <row r="549" s="2" customFormat="1"/>
-    <row r="550" s="2" customFormat="1"/>
-    <row r="551" s="2" customFormat="1"/>
-    <row r="552" s="2" customFormat="1"/>
-    <row r="553" s="2" customFormat="1"/>
-    <row r="554" s="2" customFormat="1"/>
-    <row r="555" s="2" customFormat="1"/>
-    <row r="556" s="2" customFormat="1"/>
-    <row r="557" s="2" customFormat="1"/>
-    <row r="558" s="2" customFormat="1"/>
-    <row r="559" s="2" customFormat="1"/>
-    <row r="560" s="2" customFormat="1"/>
-    <row r="561" s="2" customFormat="1"/>
-    <row r="562" s="2" customFormat="1"/>
-    <row r="563" s="2" customFormat="1"/>
-    <row r="564" s="2" customFormat="1"/>
-    <row r="565" s="2" customFormat="1"/>
-    <row r="566" s="2" customFormat="1"/>
-    <row r="567" s="2" customFormat="1"/>
-    <row r="568" s="2" customFormat="1"/>
-    <row r="569" s="2" customFormat="1"/>
-    <row r="570" s="2" customFormat="1"/>
-    <row r="571" s="2" customFormat="1"/>
-    <row r="572" s="2" customFormat="1"/>
-    <row r="573" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="574" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="575" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="576" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="577" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="578" s="2" customFormat="1" ht="18.75" customHeight="1"/>
-    <row r="579" s="2" customFormat="1"/>
-    <row r="580" s="2" customFormat="1"/>
-    <row r="581" s="2" customFormat="1"/>
-    <row r="582" s="2" customFormat="1"/>
-    <row r="583" s="2" customFormat="1"/>
-    <row r="584" s="2" customFormat="1"/>
-    <row r="585" s="2" customFormat="1"/>
-    <row r="586" s="2" customFormat="1"/>
-    <row r="587" s="2" customFormat="1"/>
-    <row r="588" s="2" customFormat="1"/>
-    <row r="589" s="2" customFormat="1"/>
-    <row r="590" s="2" customFormat="1"/>
-    <row r="591" s="2" customFormat="1"/>
-    <row r="592" s="2" customFormat="1"/>
-    <row r="593" s="2" customFormat="1"/>
-    <row r="594" s="2" customFormat="1"/>
-    <row r="595" s="2" customFormat="1"/>
-    <row r="596" s="2" customFormat="1"/>
-    <row r="597" s="2" customFormat="1"/>
-    <row r="598" s="2" customFormat="1"/>
-    <row r="599" s="2" customFormat="1"/>
-    <row r="600" s="2" customFormat="1"/>
-    <row r="601" s="2" customFormat="1"/>
-    <row r="602" s="2" customFormat="1"/>
-    <row r="603" s="2" customFormat="1"/>
-    <row r="604" s="2" customFormat="1"/>
-    <row r="605" s="2" customFormat="1"/>
-    <row r="606" s="2" customFormat="1"/>
-    <row r="607" s="2" customFormat="1"/>
-    <row r="608" s="2" customFormat="1"/>
-    <row r="609" s="2" customFormat="1"/>
-    <row r="610" s="2" customFormat="1"/>
-    <row r="611" s="2" customFormat="1"/>
-    <row r="612" s="2" customFormat="1"/>
-    <row r="613" s="2" customFormat="1"/>
-    <row r="614" s="2" customFormat="1"/>
-    <row r="615" s="2" customFormat="1"/>
-    <row r="616" s="2" customFormat="1"/>
-    <row r="617" s="2" customFormat="1"/>
-    <row r="618" s="2" customFormat="1"/>
-    <row r="619" s="2" customFormat="1"/>
-    <row r="620" s="2" customFormat="1"/>
-    <row r="621" s="2" customFormat="1"/>
-    <row r="622" s="2" customFormat="1"/>
-    <row r="623" s="2" customFormat="1"/>
-    <row r="624" s="2" customFormat="1"/>
-    <row r="625" s="2" customFormat="1"/>
-    <row r="626" s="2" customFormat="1"/>
-    <row r="627" s="2" customFormat="1"/>
-    <row r="628" s="2" customFormat="1"/>
-    <row r="629" s="2" customFormat="1"/>
-    <row r="630" s="2" customFormat="1"/>
-    <row r="631" s="2" customFormat="1"/>
-    <row r="632" s="2" customFormat="1"/>
-    <row r="633" s="2" customFormat="1"/>
-    <row r="634" s="2" customFormat="1"/>
-    <row r="635" s="2" customFormat="1"/>
-    <row r="636" s="2" customFormat="1"/>
-    <row r="637" s="2" customFormat="1"/>
-    <row r="638" s="2" customFormat="1"/>
-    <row r="639" s="2" customFormat="1"/>
-    <row r="640" s="2" customFormat="1"/>
-    <row r="641" s="2" customFormat="1"/>
-    <row r="642" s="2" customFormat="1"/>
-    <row r="643" s="2" customFormat="1"/>
-    <row r="644" s="2" customFormat="1"/>
-    <row r="645" s="2" customFormat="1"/>
-    <row r="646" s="2" customFormat="1" ht="18" customHeight="1"/>
-    <row r="647" s="2" customFormat="1"/>
-    <row r="648" s="2" customFormat="1"/>
-    <row r="649" s="2" customFormat="1"/>
-    <row r="650" s="2" customFormat="1"/>
-    <row r="651" s="2" customFormat="1"/>
-    <row r="652" s="2" customFormat="1"/>
-    <row r="653" s="2" customFormat="1"/>
-    <row r="654" s="2" customFormat="1"/>
-    <row r="655" s="2" customFormat="1"/>
-    <row r="656" s="2" customFormat="1"/>
-    <row r="657" s="2" customFormat="1"/>
-    <row r="658" s="2" customFormat="1"/>
-    <row r="659" s="2" customFormat="1"/>
-    <row r="660" s="2" customFormat="1"/>
-    <row r="661" s="2" customFormat="1"/>
-    <row r="662" s="2" customFormat="1"/>
-    <row r="663" s="2" customFormat="1"/>
-    <row r="664" s="2" customFormat="1"/>
-    <row r="665" s="2" customFormat="1"/>
-    <row r="666" s="2" customFormat="1"/>
-    <row r="667" s="2" customFormat="1"/>
-    <row r="668" s="2" customFormat="1"/>
-    <row r="669" s="2" customFormat="1"/>
-    <row r="670" s="2" customFormat="1"/>
-    <row r="671" s="2" customFormat="1"/>
-    <row r="672" s="2" customFormat="1"/>
-    <row r="673" spans="1:1">
+      <c r="C386" s="20" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D386" s="20" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E386" s="20" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F386" s="20" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="2">
+        <v>300046</v>
+      </c>
+      <c r="B387" s="20" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C387" s="20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D387" s="20" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E387" s="20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F387" s="20" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="2">
+        <v>300047</v>
+      </c>
+      <c r="B388" s="20" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C388" s="20" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D388" s="20" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E388" s="20" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F388" s="20" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="2">
+        <v>300048</v>
+      </c>
+      <c r="B389" s="20" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D389" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="2">
+        <v>300049</v>
+      </c>
+      <c r="B390" s="20" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C390" s="20" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D390" s="20" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E390" s="20" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F390" s="20" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="569" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="570" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="571" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="572" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="604" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="605" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="606" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="607" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="608" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="609" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="610" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="611" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="641" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="642" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="647" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="648" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="649" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="650" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="651" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="652" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="653" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="654" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="655" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="656" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="657" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="658" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="659" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="660" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="661" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="662" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="663" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="664" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="665" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="666" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="667" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="668" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="669" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="670" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="671" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A672" s="2"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A673" s="2"/>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A674" s="2"/>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A675" s="2"/>
     </row>
-    <row r="676" spans="1:1">
-      <c r="A676" s="2"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF72A1F-943B-4CA0-ABA1-298818199DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3960,6 +3956,9 @@
     <t>確定</t>
   </si>
   <si>
+    <t>RainbowText1</t>
+  </si>
+  <si>
     <t>You Win！</t>
   </si>
   <si>
@@ -4237,69 +4236,61 @@
   </si>
   <si>
     <t>Guide0001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>The W S A D key controls the front, back, left and right</t>
+  </si>
+  <si>
+    <t>WSAD键控制前后左右</t>
   </si>
   <si>
     <t>Guide0002</t>
   </si>
   <si>
+    <t>Hold down the Alt key to invoke the mouse</t>
+  </si>
+  <si>
+    <t>持续按住Alt键唤出鼠标</t>
+  </si>
+  <si>
     <t>Guide0003</t>
   </si>
   <si>
+    <t>Hold down the Shift key to accelerate</t>
+  </si>
+  <si>
+    <t>持续按住Shift键加速</t>
+  </si>
+  <si>
     <t>Guide0004</t>
   </si>
   <si>
+    <t>Spacebar controls jumping</t>
+  </si>
+  <si>
+    <t>空格键控制跳跃</t>
+  </si>
+  <si>
     <t>Guide0005</t>
   </si>
   <si>
-    <t>WSAD键控制前后左右</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RainbowText1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续按住Alt键唤出鼠标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续按住Shift键加速</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>空格键控制跳跃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spacebar controls jumping</t>
-  </si>
-  <si>
-    <t>Hold down the Alt key to invoke the mouse</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold down the Shift key to accelerate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Press the spacebar continuously to jump continuously</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连续按空格键可以连续跳跃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>The W S A D key controls the front, back, left and right</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4340,25 +4331,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4371,8 +4495,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4380,11 +4690,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4410,9 +4962,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4429,24 +4978,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -4519,9 +5112,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4779,19 +5369,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="B386" sqref="B386"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.625" customWidth="1"/>
@@ -4799,7 +5389,7 @@
     <col min="5" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4819,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4839,7 +5429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4859,7 +5449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -4877,7 +5467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4897,7 +5487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4917,7 +5507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4937,7 +5527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4957,7 +5547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4977,7 +5567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4997,7 +5587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5017,7 +5607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5037,7 +5627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5057,7 +5647,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5077,7 +5667,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" s="2" customFormat="1" spans="1:6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5097,7 +5687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5117,7 +5707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" s="2" customFormat="1" spans="1:6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5137,7 +5727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5157,7 +5747,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="2" customFormat="1" spans="1:6">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5177,7 +5767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5197,7 +5787,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="2" customFormat="1" spans="1:6">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5217,7 +5807,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5237,7 +5827,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" s="2" customFormat="1" spans="1:6">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5257,7 +5847,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5277,7 +5867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="2" customFormat="1" spans="1:6">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5297,7 +5887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -5317,7 +5907,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="2" customFormat="1" spans="1:6">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -5337,7 +5927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -5357,7 +5947,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" s="2" customFormat="1" spans="1:6">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -5377,7 +5967,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -5397,7 +5987,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="2" customFormat="1" spans="1:6">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5417,7 +6007,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5437,7 +6027,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="2" customFormat="1" spans="1:6">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -5457,7 +6047,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -5477,7 +6067,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" s="2" customFormat="1" spans="1:6">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -5497,7 +6087,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -5517,7 +6107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="2" customFormat="1" spans="1:6">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -5537,7 +6127,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -5557,7 +6147,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="2" customFormat="1" spans="1:6">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -5577,7 +6167,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -5597,7 +6187,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" s="2" customFormat="1" spans="1:6">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -5617,7 +6207,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -5637,7 +6227,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="2" customFormat="1" spans="1:6">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -5657,7 +6247,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -5677,7 +6267,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="2" customFormat="1" spans="1:6">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -5697,7 +6287,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -5717,7 +6307,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" s="2" customFormat="1" spans="1:6">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -5737,7 +6327,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -5757,7 +6347,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="2" customFormat="1" spans="1:6">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -5777,7 +6367,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -5797,11 +6387,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" s="2" customFormat="1" spans="1:2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="1">
         <v>100101</v>
       </c>
@@ -5821,7 +6411,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" s="2" customFormat="1" spans="1:6">
       <c r="A53" s="1">
         <v>100102</v>
       </c>
@@ -5841,7 +6431,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="1">
         <v>100103</v>
       </c>
@@ -5861,7 +6451,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" s="2" customFormat="1" spans="1:6">
       <c r="A55" s="1">
         <v>100104</v>
       </c>
@@ -5881,7 +6471,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="1">
         <v>100105</v>
       </c>
@@ -5901,7 +6491,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" s="2" customFormat="1" spans="1:6">
       <c r="A57" s="1">
         <v>100106</v>
       </c>
@@ -5921,7 +6511,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="1">
         <v>100107</v>
       </c>
@@ -5941,7 +6531,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" s="2" customFormat="1" spans="1:6">
       <c r="A59" s="1">
         <v>100108</v>
       </c>
@@ -5961,7 +6551,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="1">
         <v>100109</v>
       </c>
@@ -5981,7 +6571,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" s="2" customFormat="1" spans="1:6">
       <c r="A61" s="1">
         <v>100110</v>
       </c>
@@ -6001,7 +6591,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="1">
         <v>100111</v>
       </c>
@@ -6021,7 +6611,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" s="2" customFormat="1" spans="1:6">
       <c r="A63" s="1">
         <v>100112</v>
       </c>
@@ -6041,7 +6631,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="1">
         <v>100113</v>
       </c>
@@ -6061,7 +6651,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" s="2" customFormat="1" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -6069,7 +6659,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="1">
         <v>100201</v>
       </c>
@@ -6089,7 +6679,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" s="2" customFormat="1" spans="1:6">
       <c r="A67" s="1">
         <v>100202</v>
       </c>
@@ -6109,7 +6699,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="1">
         <v>100203</v>
       </c>
@@ -6129,7 +6719,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" s="2" customFormat="1" spans="1:6">
       <c r="A69" s="1">
         <v>100204</v>
       </c>
@@ -6149,7 +6739,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="1">
         <v>100205</v>
       </c>
@@ -6169,7 +6759,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" s="2" customFormat="1" spans="1:6">
       <c r="A71" s="1">
         <v>100206</v>
       </c>
@@ -6189,7 +6779,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -6197,7 +6787,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" s="2" customFormat="1" spans="1:6">
       <c r="A73" s="1">
         <v>101001</v>
       </c>
@@ -6217,7 +6807,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="1">
         <v>101002</v>
       </c>
@@ -6237,11 +6827,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" s="2" customFormat="1" spans="1:2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A76" s="5">
         <v>102129</v>
       </c>
@@ -6261,7 +6851,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A77" s="5">
         <v>102130</v>
       </c>
@@ -6281,7 +6871,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A78" s="5">
         <v>102131</v>
       </c>
@@ -6301,7 +6891,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A79" s="5">
         <v>102132</v>
       </c>
@@ -6321,7 +6911,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A80" s="5">
         <v>102133</v>
       </c>
@@ -6341,7 +6931,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A81" s="5">
         <v>102134</v>
       </c>
@@ -6361,7 +6951,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A82" s="5">
         <v>102135</v>
       </c>
@@ -6381,7 +6971,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A83" s="5">
         <v>102136</v>
       </c>
@@ -6401,7 +6991,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A84" s="5">
         <v>102137</v>
       </c>
@@ -6421,7 +7011,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A85" s="5">
         <v>102138</v>
       </c>
@@ -6441,7 +7031,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A86" s="5">
         <v>102139</v>
       </c>
@@ -6461,7 +7051,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A87" s="5">
         <v>102140</v>
       </c>
@@ -6481,7 +7071,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A88" s="5">
         <v>102141</v>
       </c>
@@ -6501,7 +7091,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A89" s="5">
         <v>102142</v>
       </c>
@@ -6521,7 +7111,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A90" s="5">
         <v>102143</v>
       </c>
@@ -6541,7 +7131,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A91" s="5">
         <v>102144</v>
       </c>
@@ -6561,7 +7151,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A92" s="5">
         <v>102145</v>
       </c>
@@ -6581,7 +7171,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A93" s="5">
         <v>102146</v>
       </c>
@@ -6601,7 +7191,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A94" s="5">
         <v>102147</v>
       </c>
@@ -6621,7 +7211,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A95" s="5">
         <v>102148</v>
       </c>
@@ -6641,7 +7231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A96" s="5">
         <v>102149</v>
       </c>
@@ -6661,7 +7251,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A97" s="5">
         <v>102150</v>
       </c>
@@ -6681,7 +7271,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A98" s="5">
         <v>102151</v>
       </c>
@@ -6701,7 +7291,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A99" s="5">
         <v>102152</v>
       </c>
@@ -6721,7 +7311,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A100" s="5">
         <v>102153</v>
       </c>
@@ -6741,7 +7331,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A101" s="5">
         <v>102154</v>
       </c>
@@ -6761,7 +7351,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A102" s="5">
         <v>102155</v>
       </c>
@@ -6781,7 +7371,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A103" s="5">
         <v>102156</v>
       </c>
@@ -6801,7 +7391,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A104" s="5">
         <v>102157</v>
       </c>
@@ -6821,7 +7411,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A105" s="1">
         <v>102158</v>
       </c>
@@ -6841,7 +7431,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A106" s="5">
         <v>102159</v>
       </c>
@@ -6861,7 +7451,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -6869,7 +7459,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A108" s="5">
         <v>103001</v>
       </c>
@@ -6889,7 +7479,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A109" s="5">
         <v>103002</v>
       </c>
@@ -6909,7 +7499,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A110" s="5">
         <v>103003</v>
       </c>
@@ -6929,7 +7519,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A111" s="5">
         <v>103004</v>
       </c>
@@ -6949,7 +7539,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A112" s="5">
         <v>103005</v>
       </c>
@@ -6969,7 +7559,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A113" s="5">
         <v>103006</v>
       </c>
@@ -6989,11 +7579,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A115" s="1">
         <v>105001</v>
       </c>
@@ -7013,7 +7603,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A116" s="1">
         <v>105002</v>
       </c>
@@ -7033,7 +7623,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A117" s="1">
         <v>105003</v>
       </c>
@@ -7053,7 +7643,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A118" s="1">
         <v>105004</v>
       </c>
@@ -7073,7 +7663,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A119" s="1">
         <v>105005</v>
       </c>
@@ -7093,7 +7683,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A120" s="1">
         <v>105006</v>
       </c>
@@ -7113,7 +7703,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A121" s="1">
         <v>105051</v>
       </c>
@@ -7133,7 +7723,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A122" s="1">
         <v>105101</v>
       </c>
@@ -7153,7 +7743,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A123" s="1">
         <v>105102</v>
       </c>
@@ -7173,14 +7763,14 @@
         <v>490</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A124" s="1">
         <v>105103</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="3" t="s">
         <v>494</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -7193,7 +7783,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A125" s="1">
         <v>105201</v>
       </c>
@@ -7213,14 +7803,14 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A126" s="1">
         <v>105202</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="3" t="s">
         <v>502</v>
       </c>
       <c r="D126" s="3" t="s">
@@ -7233,7 +7823,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A127" s="1">
         <v>105203</v>
       </c>
@@ -7253,7 +7843,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A128" s="1">
         <v>105204</v>
       </c>
@@ -7273,7 +7863,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A129" s="1">
         <v>105205</v>
       </c>
@@ -7293,7 +7883,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A130" s="1">
         <v>105206</v>
       </c>
@@ -7313,7 +7903,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A131" s="1">
         <v>105301</v>
       </c>
@@ -7333,7 +7923,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A132" s="1">
         <v>105302</v>
       </c>
@@ -7353,7 +7943,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A133" s="1">
         <v>105303</v>
       </c>
@@ -7373,7 +7963,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A134" s="1">
         <v>105304</v>
       </c>
@@ -7393,7 +7983,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A135" s="1">
         <v>105305</v>
       </c>
@@ -7413,7 +8003,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A136" s="1">
         <v>105306</v>
       </c>
@@ -7433,7 +8023,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A137" s="1">
         <v>105307</v>
       </c>
@@ -7453,7 +8043,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A138" s="1">
         <v>105308</v>
       </c>
@@ -7473,7 +8063,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A139" s="1">
         <v>105401</v>
       </c>
@@ -7493,7 +8083,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A140" s="1">
         <v>105402</v>
       </c>
@@ -7513,7 +8103,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A141" s="1">
         <v>105403</v>
       </c>
@@ -7533,7 +8123,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A142" s="1">
         <v>105404</v>
       </c>
@@ -7553,7 +8143,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A143" s="1">
         <v>105405</v>
       </c>
@@ -7573,7 +8163,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A144" s="1">
         <v>105406</v>
       </c>
@@ -7593,7 +8183,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A145" s="1">
         <v>105407</v>
       </c>
@@ -7613,7 +8203,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A146" s="1">
         <v>105501</v>
       </c>
@@ -7633,7 +8223,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A147" s="1">
         <v>105502</v>
       </c>
@@ -7653,7 +8243,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A148" s="1">
         <v>105503</v>
       </c>
@@ -7673,7 +8263,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A149" s="1">
         <v>105504</v>
       </c>
@@ -7693,7 +8283,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A150" s="1">
         <v>105505</v>
       </c>
@@ -7713,7 +8303,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A151" s="1">
         <v>105506</v>
       </c>
@@ -7733,7 +8323,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A152" s="1">
         <v>105507</v>
       </c>
@@ -7753,7 +8343,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A153" s="1">
         <v>105508</v>
       </c>
@@ -7773,13 +8363,13 @@
         <v>607</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A155" s="1">
         <v>105601</v>
       </c>
@@ -7800,7 +8390,7 @@
       </c>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A156" s="1">
         <v>105602</v>
       </c>
@@ -7821,7 +8411,7 @@
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A157" s="1">
         <v>105603</v>
       </c>
@@ -7843,7 +8433,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A158" s="1">
         <v>105604</v>
       </c>
@@ -7864,7 +8454,7 @@
       </c>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A159" s="1">
         <v>105605</v>
       </c>
@@ -7885,7 +8475,7 @@
       </c>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A160" s="1">
         <v>105606</v>
       </c>
@@ -7906,7 +8496,7 @@
       </c>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A161" s="1">
         <v>105607</v>
       </c>
@@ -7927,7 +8517,7 @@
       </c>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A162" s="1">
         <v>105608</v>
       </c>
@@ -7948,7 +8538,7 @@
       </c>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A163" s="1">
         <v>105609</v>
       </c>
@@ -7969,7 +8559,7 @@
       </c>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A164" s="1">
         <v>105610</v>
       </c>
@@ -7990,7 +8580,7 @@
       </c>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A165" s="1">
         <v>105611</v>
       </c>
@@ -8010,7 +8600,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A166" s="1">
         <v>105612</v>
       </c>
@@ -8030,7 +8620,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A167" s="1">
         <v>105613</v>
       </c>
@@ -8050,7 +8640,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A168" s="1">
         <v>105614</v>
       </c>
@@ -8070,7 +8660,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A169" s="1">
         <v>105615</v>
       </c>
@@ -8090,7 +8680,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A170" s="1">
         <v>105616</v>
       </c>
@@ -8110,7 +8700,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A171" s="1">
         <v>105617</v>
       </c>
@@ -8130,7 +8720,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A172" s="1">
         <v>105618</v>
       </c>
@@ -8150,7 +8740,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A173" s="1">
         <v>105619</v>
       </c>
@@ -8170,7 +8760,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A174" s="1">
         <v>105620</v>
       </c>
@@ -8190,7 +8780,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A175" s="1">
         <v>105621</v>
       </c>
@@ -8210,7 +8800,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A176" s="1">
         <v>105622</v>
       </c>
@@ -8230,7 +8820,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A177" s="1">
         <v>105623</v>
       </c>
@@ -8250,7 +8840,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A178" s="1">
         <v>105624</v>
       </c>
@@ -8270,7 +8860,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A179" s="1">
         <v>105625</v>
       </c>
@@ -8290,7 +8880,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A180" s="1">
         <v>105626</v>
       </c>
@@ -8310,7 +8900,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A181" s="1">
         <v>105627</v>
       </c>
@@ -8330,7 +8920,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A182" s="1">
         <v>105628</v>
       </c>
@@ -8350,7 +8940,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A183" s="1">
         <v>105629</v>
       </c>
@@ -8370,7 +8960,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A184" s="1">
         <v>105630</v>
       </c>
@@ -8390,7 +8980,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A185" s="1">
         <v>105631</v>
       </c>
@@ -8410,7 +9000,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A186" s="1">
         <v>105632</v>
       </c>
@@ -8430,7 +9020,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A187" s="1">
         <v>105633</v>
       </c>
@@ -8450,7 +9040,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A188" s="1">
         <v>105634</v>
       </c>
@@ -8470,7 +9060,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A189" s="1">
         <v>105635</v>
       </c>
@@ -8490,7 +9080,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A190" s="1">
         <v>105636</v>
       </c>
@@ -8510,7 +9100,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A191" s="1">
         <v>105637</v>
       </c>
@@ -8530,7 +9120,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A192" s="1">
         <v>105638</v>
       </c>
@@ -8550,7 +9140,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A193" s="1">
         <v>105639</v>
       </c>
@@ -8570,7 +9160,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A194" s="1">
         <v>105640</v>
       </c>
@@ -8590,7 +9180,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A195" s="1">
         <v>105641</v>
       </c>
@@ -8610,7 +9200,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A196" s="1">
         <v>105642</v>
       </c>
@@ -8630,7 +9220,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A197" s="1">
         <v>105643</v>
       </c>
@@ -8650,7 +9240,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A198" s="1">
         <v>105644</v>
       </c>
@@ -8670,7 +9260,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A199" s="1">
         <v>105645</v>
       </c>
@@ -8690,7 +9280,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A200" s="1">
         <v>105646</v>
       </c>
@@ -8710,7 +9300,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A201" s="1">
         <v>105647</v>
       </c>
@@ -8730,7 +9320,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A202" s="1">
         <v>105648</v>
       </c>
@@ -8750,7 +9340,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A203" s="1">
         <v>105649</v>
       </c>
@@ -8770,7 +9360,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A204" s="1">
         <v>105650</v>
       </c>
@@ -8790,7 +9380,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A205" s="1"/>
       <c r="B205" s="4" t="s">
         <v>810</v>
@@ -8799,7 +9389,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A206" s="1"/>
       <c r="B206" s="4" t="s">
         <v>812</v>
@@ -8808,7 +9398,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A207" s="1"/>
       <c r="B207" s="4" t="s">
         <v>814</v>
@@ -8817,7 +9407,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A208" s="1"/>
       <c r="B208" s="4" t="s">
         <v>816</v>
@@ -8826,17 +9416,17 @@
         <v>817</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A209" s="1"/>
       <c r="B209" s="4"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A210" s="1"/>
       <c r="B210" s="4"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A211" s="1">
         <v>105701</v>
       </c>
@@ -8856,7 +9446,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A212" s="1">
         <v>105702</v>
       </c>
@@ -8876,7 +9466,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A213" s="1">
         <v>105703</v>
       </c>
@@ -8896,7 +9486,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A214" s="1">
         <v>105704</v>
       </c>
@@ -8916,7 +9506,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A215" s="1"/>
       <c r="B215" s="4"/>
       <c r="C215" s="3"/>
@@ -8924,7 +9514,7 @@
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A216" s="1">
         <v>105801</v>
       </c>
@@ -8944,7 +9534,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A217" s="1">
         <v>105802</v>
       </c>
@@ -8964,7 +9554,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A218" s="1">
         <v>105803</v>
       </c>
@@ -8984,7 +9574,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A219" s="1">
         <v>105804</v>
       </c>
@@ -9004,1428 +9594,1428 @@
         <v>830</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="10">
+    <row r="220" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="221" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A221" s="9">
         <v>200001</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="C221" s="11" t="s">
+      <c r="C221" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D221" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="E221" s="12" t="s">
+      <c r="E221" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="F221" s="12" t="s">
+      <c r="F221" s="11" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="10">
+    <row r="222" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A222" s="9">
         <v>200002</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="C222" s="11" t="s">
+      <c r="C222" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="D222" s="11" t="s">
+      <c r="D222" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="E222" s="12" t="s">
+      <c r="E222" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="F222" s="12" t="s">
+      <c r="F222" s="11" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="10">
+    <row r="223" s="2" customFormat="1" spans="1:6">
+      <c r="A223" s="9">
         <v>200003</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="C223" s="11" t="s">
+      <c r="C223" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="D223" s="11" t="s">
+      <c r="D223" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="E223" s="12" t="s">
+      <c r="E223" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="F223" s="12" t="s">
+      <c r="F223" s="11" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="10">
+    <row r="224" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A224" s="9">
         <v>200004</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="C224" s="11" t="s">
+      <c r="C224" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="D224" s="11" t="s">
+      <c r="D224" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="E224" s="12" t="s">
+      <c r="E224" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="F224" s="12" t="s">
+      <c r="F224" s="11" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="10">
+    <row r="225" s="2" customFormat="1" spans="1:6">
+      <c r="A225" s="9">
         <v>200005</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C225" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="D225" s="11" t="s">
+      <c r="D225" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="E225" s="12" t="s">
+      <c r="E225" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="F225" s="12" t="s">
+      <c r="F225" s="11" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="10">
+    <row r="226" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A226" s="9">
         <v>200006</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="C226" s="11" t="s">
+      <c r="C226" s="10" t="s">
         <v>856</v>
       </c>
-      <c r="D226" s="11" t="s">
+      <c r="D226" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="E226" s="12" t="s">
+      <c r="E226" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="F226" s="12" t="s">
+      <c r="F226" s="11" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="10">
+    <row r="227" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A227" s="9">
         <v>200007</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="C227" s="11" t="s">
+      <c r="C227" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="D227" s="11" t="s">
+      <c r="D227" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="E227" s="12" t="s">
+      <c r="E227" s="11" t="s">
         <v>862</v>
       </c>
-      <c r="F227" s="12" t="s">
+      <c r="F227" s="11" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="10">
+    <row r="228" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A228" s="9">
         <v>200008</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="C228" s="11" t="s">
+      <c r="C228" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="D228" s="11" t="s">
+      <c r="D228" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="E228" s="12" t="s">
+      <c r="E228" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="F228" s="12" t="s">
+      <c r="F228" s="11" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="10">
+    <row r="229" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A229" s="9">
         <v>200009</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="C229" s="11" t="s">
+      <c r="C229" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="D229" s="11" t="s">
+      <c r="D229" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="E229" s="12" t="s">
+      <c r="E229" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="F229" s="12" t="s">
+      <c r="F229" s="11" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="10">
+    <row r="230" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A230" s="9">
         <v>200010</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="C230" s="11" t="s">
+      <c r="C230" s="10" t="s">
         <v>872</v>
       </c>
-      <c r="D230" s="11" t="s">
+      <c r="D230" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="E230" s="12" t="s">
+      <c r="E230" s="11" t="s">
         <v>874</v>
       </c>
-      <c r="F230" s="12" t="s">
+      <c r="F230" s="11" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="231" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="10">
+    <row r="231" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A231" s="9">
         <v>200011</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="C231" s="11" t="s">
+      <c r="C231" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="D231" s="11" t="s">
+      <c r="D231" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="E231" s="12" t="s">
+      <c r="E231" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="F231" s="12" t="s">
+      <c r="F231" s="11" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="10">
+    <row r="232" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A232" s="9">
         <v>200012</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="C232" s="11" t="s">
+      <c r="C232" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="D232" s="11" t="s">
+      <c r="D232" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="E232" s="12" t="s">
+      <c r="E232" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="F232" s="12" t="s">
+      <c r="F232" s="11" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="10">
+    <row r="233" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A233" s="9">
         <v>200013</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="C233" s="11" t="s">
+      <c r="C233" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="D233" s="11" t="s">
+      <c r="D233" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="E233" s="12" t="s">
+      <c r="E233" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="F233" s="12" t="s">
+      <c r="F233" s="11" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="10">
+    <row r="234" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A234" s="9">
         <v>200014</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="C234" s="11" t="s">
+      <c r="C234" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="D234" s="11" t="s">
+      <c r="D234" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="E234" s="12" t="s">
+      <c r="E234" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="F234" s="12" t="s">
+      <c r="F234" s="11" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="10">
+    <row r="235" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A235" s="9">
         <v>200015</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="9" t="s">
         <v>891</v>
       </c>
-      <c r="C235" s="11" t="s">
+      <c r="C235" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="D235" s="11" t="s">
+      <c r="D235" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="E235" s="12" t="s">
+      <c r="E235" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="F235" s="12" t="s">
+      <c r="F235" s="11" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="10">
+    <row r="236" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A236" s="9">
         <v>200016</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="C236" s="11" t="s">
+      <c r="C236" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="D236" s="11" t="s">
+      <c r="D236" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="E236" s="12" t="s">
+      <c r="E236" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="F236" s="12" t="s">
+      <c r="F236" s="11" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="10">
+    <row r="237" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A237" s="9">
         <v>200017</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="C237" s="11" t="s">
+      <c r="C237" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="D237" s="11" t="s">
+      <c r="D237" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="E237" s="12" t="s">
+      <c r="E237" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="F237" s="12" t="s">
+      <c r="F237" s="11" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="10">
+    <row r="238" s="2" customFormat="1" spans="1:6">
+      <c r="A238" s="9">
         <v>200018</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="C238" s="11" t="s">
+      <c r="C238" s="10" t="s">
         <v>904</v>
       </c>
-      <c r="D238" s="11" t="s">
+      <c r="D238" s="10" t="s">
         <v>905</v>
       </c>
-      <c r="E238" s="12" t="s">
+      <c r="E238" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="F238" s="12" t="s">
+      <c r="F238" s="11" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="10">
+    <row r="239" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A239" s="9">
         <v>200019</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="C239" s="11" t="s">
+      <c r="C239" s="10" t="s">
         <v>908</v>
       </c>
-      <c r="D239" s="11" t="s">
+      <c r="D239" s="10" t="s">
         <v>909</v>
       </c>
-      <c r="E239" s="12" t="s">
+      <c r="E239" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="F239" s="12" t="s">
+      <c r="F239" s="11" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="10">
+    <row r="240" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A240" s="9">
         <v>200020</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="C240" s="11" t="s">
+      <c r="C240" s="10" t="s">
         <v>912</v>
       </c>
-      <c r="D240" s="11" t="s">
+      <c r="D240" s="10" t="s">
         <v>913</v>
       </c>
-      <c r="E240" s="12" t="s">
+      <c r="E240" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="F240" s="12" t="s">
+      <c r="F240" s="11" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="10">
+    <row r="241" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A241" s="9">
         <v>200021</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="C241" s="11" t="s">
+      <c r="C241" s="10" t="s">
         <v>916</v>
       </c>
-      <c r="D241" s="11" t="s">
+      <c r="D241" s="10" t="s">
         <v>917</v>
       </c>
-      <c r="E241" s="12" t="s">
+      <c r="E241" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="F241" s="12" t="s">
+      <c r="F241" s="11" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="10">
+    <row r="242" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A242" s="9">
         <v>200022</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="9" t="s">
         <v>918</v>
       </c>
-      <c r="C242" s="11" t="s">
+      <c r="C242" s="10" t="s">
         <v>919</v>
       </c>
-      <c r="D242" s="11" t="s">
+      <c r="D242" s="10" t="s">
         <v>920</v>
       </c>
-      <c r="E242" s="12" t="s">
+      <c r="E242" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="F242" s="12" t="s">
+      <c r="F242" s="11" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="10">
+    <row r="243" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A243" s="9">
         <v>200023</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="C243" s="11" t="s">
+      <c r="C243" s="10" t="s">
         <v>923</v>
       </c>
-      <c r="D243" s="11" t="s">
+      <c r="D243" s="10" t="s">
         <v>924</v>
       </c>
-      <c r="E243" s="12" t="s">
+      <c r="E243" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="F243" s="12" t="s">
+      <c r="F243" s="11" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="10">
+    <row r="244" s="2" customFormat="1" spans="1:6">
+      <c r="A244" s="9">
         <v>200024</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="9" t="s">
         <v>926</v>
       </c>
-      <c r="C244" s="11" t="s">
+      <c r="C244" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="D244" s="11" t="s">
+      <c r="D244" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="E244" s="12" t="s">
+      <c r="E244" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="F244" s="12" t="s">
+      <c r="F244" s="11" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="10">
+    <row r="245" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A245" s="9">
         <v>200025</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="C245" s="11" t="s">
+      <c r="C245" s="10" t="s">
         <v>931</v>
       </c>
-      <c r="D245" s="11" t="s">
+      <c r="D245" s="10" t="s">
         <v>932</v>
       </c>
-      <c r="E245" s="12" t="s">
+      <c r="E245" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="F245" s="12" t="s">
+      <c r="F245" s="11" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="10">
+    <row r="246" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A246" s="9">
         <v>200026</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="C246" s="11" t="s">
+      <c r="C246" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="D246" s="11" t="s">
+      <c r="D246" s="10" t="s">
         <v>936</v>
       </c>
-      <c r="E246" s="12" t="s">
+      <c r="E246" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="F246" s="12" t="s">
+      <c r="F246" s="11" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="10">
+    <row r="247" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A247" s="9">
         <v>200027</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="9" t="s">
         <v>938</v>
       </c>
-      <c r="C247" s="11" t="s">
+      <c r="C247" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="D247" s="11" t="s">
+      <c r="D247" s="10" t="s">
         <v>940</v>
       </c>
-      <c r="E247" s="12" t="s">
+      <c r="E247" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="F247" s="12" t="s">
+      <c r="F247" s="11" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="10">
+    <row r="248" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A248" s="9">
         <v>200028</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="9" t="s">
         <v>942</v>
       </c>
-      <c r="C248" s="11" t="s">
+      <c r="C248" s="10" t="s">
         <v>943</v>
       </c>
-      <c r="D248" s="11" t="s">
+      <c r="D248" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="E248" s="12" t="s">
+      <c r="E248" s="11" t="s">
         <v>945</v>
       </c>
-      <c r="F248" s="12" t="s">
+      <c r="F248" s="11" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="10">
+    <row r="249" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A249" s="9">
         <v>200029</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="9" t="s">
         <v>946</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="C249" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="D249" s="11" t="s">
+      <c r="D249" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="E249" s="12" t="s">
+      <c r="E249" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="F249" s="12" t="s">
+      <c r="F249" s="11" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="10">
+    <row r="250" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A250" s="9">
         <v>200030</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="C250" s="11" t="s">
+      <c r="C250" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="D250" s="11" t="s">
+      <c r="D250" s="10" t="s">
         <v>952</v>
       </c>
-      <c r="E250" s="12" t="s">
+      <c r="E250" s="11" t="s">
         <v>953</v>
       </c>
-      <c r="F250" s="12" t="s">
+      <c r="F250" s="11" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="10">
+    <row r="251" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A251" s="9">
         <v>200031</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="9" t="s">
         <v>954</v>
       </c>
-      <c r="C251" s="11" t="s">
+      <c r="C251" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="D251" s="11" t="s">
+      <c r="D251" s="10" t="s">
         <v>956</v>
       </c>
-      <c r="E251" s="12" t="s">
+      <c r="E251" s="11" t="s">
         <v>957</v>
       </c>
-      <c r="F251" s="12" t="s">
+      <c r="F251" s="11" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="10">
+    <row r="252" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A252" s="9">
         <v>200032</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="9" t="s">
         <v>958</v>
       </c>
-      <c r="C252" s="11" t="s">
+      <c r="C252" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="D252" s="11" t="s">
+      <c r="D252" s="10" t="s">
         <v>960</v>
       </c>
-      <c r="E252" s="12" t="s">
+      <c r="E252" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="F252" s="12" t="s">
+      <c r="F252" s="11" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="10">
+    <row r="253" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A253" s="9">
         <v>200033</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="C253" s="11" t="s">
+      <c r="C253" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="D253" s="11" t="s">
+      <c r="D253" s="10" t="s">
         <v>964</v>
       </c>
-      <c r="E253" s="12" t="s">
+      <c r="E253" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="F253" s="12" t="s">
+      <c r="F253" s="11" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="10">
+    <row r="254" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A254" s="9">
         <v>200034</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="B254" s="9" t="s">
         <v>966</v>
       </c>
-      <c r="C254" s="11" t="s">
+      <c r="C254" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="D254" s="11" t="s">
+      <c r="D254" s="10" t="s">
         <v>968</v>
       </c>
-      <c r="E254" s="12" t="s">
+      <c r="E254" s="11" t="s">
         <v>969</v>
       </c>
-      <c r="F254" s="12" t="s">
+      <c r="F254" s="11" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="10">
+    <row r="255" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A255" s="9">
         <v>200035</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="9" t="s">
         <v>970</v>
       </c>
-      <c r="C255" s="11" t="s">
+      <c r="C255" s="10" t="s">
         <v>971</v>
       </c>
-      <c r="D255" s="11" t="s">
+      <c r="D255" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="E255" s="12" t="s">
+      <c r="E255" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="F255" s="12" t="s">
+      <c r="F255" s="11" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="10">
+    <row r="256" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A256" s="9">
         <v>200036</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="C256" s="11" t="s">
+      <c r="C256" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="D256" s="11" t="s">
+      <c r="D256" s="10" t="s">
         <v>976</v>
       </c>
-      <c r="E256" s="12" t="s">
+      <c r="E256" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="F256" s="12" t="s">
+      <c r="F256" s="11" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="10">
+    <row r="257" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A257" s="9">
         <v>200037</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="9" t="s">
         <v>978</v>
       </c>
-      <c r="C257" s="11" t="s">
+      <c r="C257" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="D257" s="11" t="s">
+      <c r="D257" s="10" t="s">
         <v>980</v>
       </c>
-      <c r="E257" s="12" t="s">
+      <c r="E257" s="11" t="s">
         <v>981</v>
       </c>
-      <c r="F257" s="12" t="s">
+      <c r="F257" s="11" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="10">
+    <row r="258" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A258" s="9">
         <v>200038</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="9" t="s">
         <v>982</v>
       </c>
-      <c r="C258" s="11" t="s">
+      <c r="C258" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="D258" s="11" t="s">
+      <c r="D258" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="E258" s="12" t="s">
+      <c r="E258" s="11" t="s">
         <v>985</v>
       </c>
-      <c r="F258" s="12" t="s">
+      <c r="F258" s="11" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="10">
+    <row r="259" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A259" s="9">
         <v>200039</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="C259" s="11" t="s">
+      <c r="C259" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="D259" s="11" t="s">
+      <c r="D259" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="E259" s="12" t="s">
+      <c r="E259" s="11" t="s">
         <v>989</v>
       </c>
-      <c r="F259" s="12" t="s">
+      <c r="F259" s="11" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="260" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="10">
+    <row r="260" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A260" s="9">
         <v>200040</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B260" s="9" t="s">
         <v>990</v>
       </c>
-      <c r="C260" s="12" t="s">
+      <c r="C260" s="11" t="s">
         <v>991</v>
       </c>
-      <c r="D260" s="13" t="s">
+      <c r="D260" s="12" t="s">
         <v>992</v>
       </c>
-      <c r="E260" s="12" t="s">
+      <c r="E260" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="F260" s="12" t="s">
+      <c r="F260" s="11" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="10">
+    <row r="261" s="2" customFormat="1" spans="1:6">
+      <c r="A261" s="9">
         <v>200041</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="C261" s="13" t="s">
+      <c r="C261" s="12" t="s">
         <v>995</v>
       </c>
-      <c r="D261" s="13" t="s">
+      <c r="D261" s="12" t="s">
         <v>996</v>
       </c>
-      <c r="E261" s="12" t="s">
+      <c r="E261" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="F261" s="12" t="s">
+      <c r="F261" s="11" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="10">
+    <row r="262" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A262" s="9">
         <v>200042</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B262" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="C262" s="13" t="s">
+      <c r="C262" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="D262" s="12" t="s">
+      <c r="D262" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="E262" s="12" t="s">
+      <c r="E262" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="F262" s="12" t="s">
+      <c r="F262" s="11" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="263" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="10">
+    <row r="263" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A263" s="9">
         <v>200043</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="C263" s="12" t="s">
+      <c r="C263" s="11" t="s">
         <v>1003</v>
       </c>
-      <c r="D263" s="12" t="s">
+      <c r="D263" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="E263" s="12" t="s">
+      <c r="E263" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="F263" s="12" t="s">
+      <c r="F263" s="11" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="10">
+    <row r="264" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A264" s="9">
         <v>200044</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B264" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="C264" s="12" t="s">
+      <c r="C264" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="D264" s="12" t="s">
+      <c r="D264" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="E264" s="12" t="s">
+      <c r="E264" s="11" t="s">
         <v>1009</v>
       </c>
-      <c r="F264" s="12" t="s">
+      <c r="F264" s="11" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="10">
+    <row r="265" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A265" s="9">
         <v>200045</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="C265" s="12" t="s">
+      <c r="C265" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="D265" s="12" t="s">
+      <c r="D265" s="11" t="s">
         <v>1012</v>
       </c>
-      <c r="E265" s="12" t="s">
+      <c r="E265" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="F265" s="12" t="s">
+      <c r="F265" s="11" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="266" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="10">
+    <row r="266" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A266" s="9">
         <v>200046</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="B266" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="C266" s="12" t="s">
+      <c r="C266" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="D266" s="12" t="s">
+      <c r="D266" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="E266" s="12" t="s">
+      <c r="E266" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="F266" s="12" t="s">
+      <c r="F266" s="11" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="10">
+    <row r="267" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A267" s="9">
         <v>200047</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="B267" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="C267" s="13" t="s">
+      <c r="C267" s="12" t="s">
         <v>1019</v>
       </c>
-      <c r="D267" s="13" t="s">
+      <c r="D267" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="E267" s="12" t="s">
+      <c r="E267" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="F267" s="12" t="s">
+      <c r="F267" s="11" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="10">
+    <row r="268" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A268" s="9">
         <v>200048</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C268" s="12" t="s">
+      <c r="C268" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="D268" s="12" t="s">
+      <c r="D268" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="E268" s="12" t="s">
+      <c r="E268" s="11" t="s">
         <v>1025</v>
       </c>
-      <c r="F268" s="12" t="s">
+      <c r="F268" s="11" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="10">
+    <row r="269" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A269" s="9">
         <v>200049</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="B269" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="C269" s="13" t="s">
+      <c r="C269" s="12" t="s">
         <v>1027</v>
       </c>
-      <c r="D269" s="13" t="s">
+      <c r="D269" s="12" t="s">
         <v>1028</v>
       </c>
-      <c r="E269" s="12" t="s">
+      <c r="E269" s="11" t="s">
         <v>1029</v>
       </c>
-      <c r="F269" s="12" t="s">
+      <c r="F269" s="11" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="10">
+    <row r="270" s="2" customFormat="1" spans="1:6">
+      <c r="A270" s="9">
         <v>200050</v>
       </c>
-      <c r="B270" s="10" t="s">
+      <c r="B270" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="C270" s="12" t="s">
         <v>1031</v>
       </c>
-      <c r="D270" s="13" t="s">
+      <c r="D270" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="E270" s="12" t="s">
+      <c r="E270" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="F270" s="12" t="s">
+      <c r="F270" s="11" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="10">
+    <row r="271" s="2" customFormat="1" spans="1:6">
+      <c r="A271" s="9">
         <v>200051</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="B271" s="9" t="s">
         <v>1034</v>
       </c>
-      <c r="C271" s="12" t="s">
+      <c r="C271" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="D271" s="12" t="s">
+      <c r="D271" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="E271" s="12" t="s">
+      <c r="E271" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="F271" s="12" t="s">
+      <c r="F271" s="11" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="10">
+    <row r="272" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A272" s="9">
         <v>200052</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="C272" s="12" t="s">
+      <c r="C272" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="D272" s="12" t="s">
+      <c r="D272" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="E272" s="12" t="s">
+      <c r="E272" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="F272" s="12" t="s">
+      <c r="F272" s="11" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="10">
+    <row r="273" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A273" s="9">
         <v>200053</v>
       </c>
-      <c r="B273" s="10" t="s">
+      <c r="B273" s="9" t="s">
         <v>1042</v>
       </c>
-      <c r="C273" s="12" t="s">
+      <c r="C273" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="D273" s="12" t="s">
+      <c r="D273" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="E273" s="12" t="s">
+      <c r="E273" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="F273" s="12" t="s">
+      <c r="F273" s="11" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="10">
+    <row r="274" s="2" customFormat="1" spans="1:6">
+      <c r="A274" s="9">
         <v>200054</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B274" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="C274" s="12" t="s">
+      <c r="C274" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="D274" s="12" t="s">
+      <c r="D274" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="E274" s="12" t="s">
+      <c r="E274" s="11" t="s">
         <v>1049</v>
       </c>
-      <c r="F274" s="12" t="s">
+      <c r="F274" s="11" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="10">
+    <row r="275" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A275" s="9">
         <v>200055</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="C275" s="12" t="s">
+      <c r="C275" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="D275" s="12" t="s">
+      <c r="D275" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="E275" s="12" t="s">
+      <c r="E275" s="11" t="s">
         <v>1053</v>
       </c>
-      <c r="F275" s="12" t="s">
+      <c r="F275" s="11" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="276" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="10">
+    <row r="276" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A276" s="9">
         <v>200056</v>
       </c>
-      <c r="B276" s="10" t="s">
+      <c r="B276" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="C276" s="13" t="s">
+      <c r="C276" s="12" t="s">
         <v>1055</v>
       </c>
-      <c r="D276" s="13" t="s">
+      <c r="D276" s="12" t="s">
         <v>1056</v>
       </c>
-      <c r="E276" s="12" t="s">
+      <c r="E276" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="F276" s="12" t="s">
+      <c r="F276" s="11" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="10">
+    <row r="277" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A277" s="9">
         <v>200057</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="B277" s="9" t="s">
         <v>1058</v>
       </c>
-      <c r="C277" s="12" t="s">
+      <c r="C277" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="D277" s="12" t="s">
+      <c r="D277" s="11" t="s">
         <v>1060</v>
       </c>
-      <c r="E277" s="12" t="s">
+      <c r="E277" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="F277" s="12" t="s">
+      <c r="F277" s="11" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="278" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="10">
+    <row r="278" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A278" s="9">
         <v>200058</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="9" t="s">
         <v>1062</v>
       </c>
-      <c r="C278" s="13" t="s">
+      <c r="C278" s="12" t="s">
         <v>1063</v>
       </c>
-      <c r="D278" s="13" t="s">
+      <c r="D278" s="12" t="s">
         <v>1064</v>
       </c>
-      <c r="E278" s="12" t="s">
+      <c r="E278" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="F278" s="12" t="s">
+      <c r="F278" s="11" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="10">
+    <row r="279" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A279" s="9">
         <v>200059</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="B279" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="C279" s="13" t="s">
+      <c r="C279" s="12" t="s">
         <v>1067</v>
       </c>
-      <c r="D279" s="13" t="s">
+      <c r="D279" s="12" t="s">
         <v>1068</v>
       </c>
-      <c r="E279" s="12" t="s">
+      <c r="E279" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="F279" s="12" t="s">
+      <c r="F279" s="11" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="10">
+    <row r="280" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A280" s="9">
         <v>200060</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B280" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="C280" s="12" t="s">
+      <c r="C280" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="D280" s="13" t="s">
+      <c r="D280" s="12" t="s">
         <v>1072</v>
       </c>
-      <c r="E280" s="12" t="s">
+      <c r="E280" s="11" t="s">
         <v>1073</v>
       </c>
-      <c r="F280" s="12" t="s">
+      <c r="F280" s="11" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="10">
+    <row r="281" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A281" s="9">
         <v>200061</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="B281" s="9" t="s">
         <v>1074</v>
       </c>
-      <c r="C281" s="12" t="s">
+      <c r="C281" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="D281" s="12" t="s">
+      <c r="D281" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="E281" s="12" t="s">
+      <c r="E281" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="F281" s="12" t="s">
+      <c r="F281" s="11" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="10">
+    <row r="282" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A282" s="9">
         <v>200062</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B282" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="C282" s="12" t="s">
+      <c r="C282" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="D282" s="13" t="s">
+      <c r="D282" s="12" t="s">
         <v>1080</v>
       </c>
-      <c r="E282" s="12" t="s">
+      <c r="E282" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="F282" s="12" t="s">
+      <c r="F282" s="11" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="10">
+    <row r="283" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A283" s="9">
         <v>200063</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="9" t="s">
         <v>1082</v>
       </c>
-      <c r="C283" s="13" t="s">
+      <c r="C283" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="D283" s="13" t="s">
+      <c r="D283" s="12" t="s">
         <v>1056</v>
       </c>
-      <c r="E283" s="12" t="s">
+      <c r="E283" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="F283" s="12" t="s">
+      <c r="F283" s="11" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A284" s="10">
+    <row r="284" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A284" s="9">
         <v>200064</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B284" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="C284" s="13" t="s">
+      <c r="C284" s="12" t="s">
         <v>1085</v>
       </c>
-      <c r="D284" s="13" t="s">
+      <c r="D284" s="12" t="s">
         <v>1086</v>
       </c>
-      <c r="E284" s="12" t="s">
+      <c r="E284" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="F284" s="12" t="s">
+      <c r="F284" s="11" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="285" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="10">
+    <row r="285" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A285" s="9">
         <v>200065</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="B285" s="9" t="s">
         <v>1088</v>
       </c>
-      <c r="C285" s="13" t="s">
+      <c r="C285" s="12" t="s">
         <v>1089</v>
       </c>
-      <c r="D285" s="13" t="s">
+      <c r="D285" s="12" t="s">
         <v>1090</v>
       </c>
-      <c r="E285" s="12" t="s">
+      <c r="E285" s="11" t="s">
         <v>1091</v>
       </c>
-      <c r="F285" s="12" t="s">
+      <c r="F285" s="11" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="286" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="10">
+    <row r="286" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A286" s="9">
         <v>200066</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="B286" s="9" t="s">
         <v>1092</v>
       </c>
-      <c r="C286" s="13" t="s">
+      <c r="C286" s="12" t="s">
         <v>1093</v>
       </c>
-      <c r="D286" s="13" t="s">
+      <c r="D286" s="12" t="s">
         <v>1094</v>
       </c>
-      <c r="E286" s="12" t="s">
+      <c r="E286" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="F286" s="12" t="s">
+      <c r="F286" s="11" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="287" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="10">
+    <row r="287" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A287" s="9">
         <v>200067</v>
       </c>
-      <c r="B287" s="10" t="s">
+      <c r="B287" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="C287" s="12" t="s">
+      <c r="C287" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="D287" s="13" t="s">
+      <c r="D287" s="12" t="s">
         <v>1098</v>
       </c>
-      <c r="E287" s="12" t="s">
+      <c r="E287" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="F287" s="12" t="s">
+      <c r="F287" s="11" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="288" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="10">
+    <row r="288" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A288" s="9">
         <v>200068</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="B288" s="9" t="s">
         <v>1100</v>
       </c>
-      <c r="C288" s="12" t="s">
+      <c r="C288" s="11" t="s">
         <v>1101</v>
       </c>
-      <c r="D288" s="12" t="s">
+      <c r="D288" s="11" t="s">
         <v>1102</v>
       </c>
-      <c r="E288" s="12" t="s">
+      <c r="E288" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="F288" s="12" t="s">
+      <c r="F288" s="11" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="289" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="10">
+    <row r="289" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A289" s="9">
         <v>200069</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B289" s="9" t="s">
         <v>1104</v>
       </c>
-      <c r="C289" s="13" t="s">
+      <c r="C289" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="D289" s="13" t="s">
+      <c r="D289" s="12" t="s">
         <v>1056</v>
       </c>
-      <c r="E289" s="12" t="s">
+      <c r="E289" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="F289" s="12" t="s">
+      <c r="F289" s="11" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="290" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A290" s="10">
+    <row r="290" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A290" s="9">
         <v>200070</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B290" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="C290" s="13" t="s">
+      <c r="C290" s="12" t="s">
         <v>1106</v>
       </c>
-      <c r="D290" s="13" t="s">
+      <c r="D290" s="12" t="s">
         <v>1107</v>
       </c>
-      <c r="E290" s="12" t="s">
+      <c r="E290" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="F290" s="12" t="s">
+      <c r="F290" s="11" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="291" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="10">
+    <row r="291" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A291" s="9">
         <v>200071</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="C291" s="13" t="s">
+      <c r="C291" s="12" t="s">
         <v>1110</v>
       </c>
-      <c r="D291" s="13" t="s">
+      <c r="D291" s="12" t="s">
         <v>1111</v>
       </c>
-      <c r="E291" s="12" t="s">
+      <c r="E291" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="F291" s="12" t="s">
+      <c r="F291" s="11" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="292" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A292" s="4">
         <v>200072</v>
       </c>
@@ -10445,7 +11035,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="293" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A293" s="4">
         <v>200073</v>
       </c>
@@ -10465,7 +11055,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="294" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A294" s="4">
         <v>200074</v>
       </c>
@@ -10485,7 +11075,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="295" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A295" s="4">
         <v>200075</v>
       </c>
@@ -10505,7 +11095,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="296" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A296" s="4">
         <v>200076</v>
       </c>
@@ -10525,7 +11115,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="297" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A297" s="4">
         <v>200077</v>
       </c>
@@ -10545,7 +11135,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A298" s="4">
         <v>200078</v>
       </c>
@@ -10565,7 +11155,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="299" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A299" s="4">
         <v>200079</v>
       </c>
@@ -10585,7 +11175,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="300" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A300" s="4">
         <v>200080</v>
       </c>
@@ -10605,7 +11195,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="301" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A301" s="4">
         <v>200081</v>
       </c>
@@ -10625,7 +11215,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="302" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A302" s="4">
         <v>200082</v>
       </c>
@@ -10638,14 +11228,14 @@
       <c r="D302" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="E302" s="14" t="s">
+      <c r="E302" s="13" t="s">
         <v>1153</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="303" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A303" s="4">
         <v>200083</v>
       </c>
@@ -10658,14 +11248,14 @@
       <c r="D303" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="E303" s="14" t="s">
+      <c r="E303" s="13" t="s">
         <v>1157</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="304" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A304" s="4">
         <v>200084</v>
       </c>
@@ -10678,14 +11268,14 @@
       <c r="D304" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="E304" s="14" t="s">
+      <c r="E304" s="13" t="s">
         <v>1161</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="305" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A305" s="4">
         <v>200085</v>
       </c>
@@ -10698,14 +11288,14 @@
       <c r="D305" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E305" s="14" t="s">
+      <c r="E305" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="306" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A306" s="4">
         <v>200086</v>
       </c>
@@ -10718,14 +11308,14 @@
       <c r="D306" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="E306" s="14" t="s">
+      <c r="E306" s="13" t="s">
         <v>1166</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" s="2" customFormat="1" spans="1:6">
       <c r="A307" s="4">
         <v>200087</v>
       </c>
@@ -10738,14 +11328,14 @@
       <c r="D307" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="E307" s="14" t="s">
+      <c r="E307" s="13" t="s">
         <v>1170</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="308" s="2" customFormat="1" spans="1:6">
       <c r="A308" s="4">
         <v>200088</v>
       </c>
@@ -10758,14 +11348,14 @@
       <c r="D308" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="E308" s="14" t="s">
+      <c r="E308" s="13" t="s">
         <v>1174</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" s="2" customFormat="1" spans="1:6">
       <c r="A309" s="4">
         <v>200089</v>
       </c>
@@ -10778,14 +11368,14 @@
       <c r="D309" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="E309" s="14" t="s">
+      <c r="E309" s="13" t="s">
         <v>1178</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" s="2" customFormat="1" spans="1:6">
       <c r="A310" s="4">
         <v>200090</v>
       </c>
@@ -10798,14 +11388,14 @@
       <c r="D310" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E310" s="14" t="s">
+      <c r="E310" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" s="2" customFormat="1" spans="1:6">
       <c r="A311" s="4">
         <v>200091</v>
       </c>
@@ -10818,14 +11408,14 @@
       <c r="D311" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="E311" s="14" t="s">
+      <c r="E311" s="13" t="s">
         <v>1183</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" s="2" customFormat="1" spans="1:6">
       <c r="A312" s="4">
         <v>200092</v>
       </c>
@@ -10838,14 +11428,14 @@
       <c r="D312" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="E312" s="14" t="s">
+      <c r="E312" s="13" t="s">
         <v>1187</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" s="2" customFormat="1" spans="1:6">
       <c r="A313" s="4">
         <v>200093</v>
       </c>
@@ -10858,14 +11448,14 @@
       <c r="D313" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="E313" s="14" t="s">
+      <c r="E313" s="13" t="s">
         <v>1191</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" s="2" customFormat="1" spans="1:6">
       <c r="A314" s="4">
         <v>200094</v>
       </c>
@@ -10878,14 +11468,14 @@
       <c r="D314" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="E314" s="14" t="s">
+      <c r="E314" s="13" t="s">
         <v>1195</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" s="2" customFormat="1" spans="1:6">
       <c r="A315" s="4">
         <v>200095</v>
       </c>
@@ -10898,14 +11488,14 @@
       <c r="D315" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="E315" s="14" t="s">
+      <c r="E315" s="13" t="s">
         <v>1199</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" s="2" customFormat="1" spans="1:6">
       <c r="A316" s="4">
         <v>200096</v>
       </c>
@@ -10918,14 +11508,14 @@
       <c r="D316" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="E316" s="14" t="s">
+      <c r="E316" s="13" t="s">
         <v>1203</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" s="2" customFormat="1" spans="1:6">
       <c r="A317" s="4">
         <v>200097</v>
       </c>
@@ -10938,14 +11528,14 @@
       <c r="D317" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="E317" s="14" t="s">
+      <c r="E317" s="13" t="s">
         <v>1207</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="318" s="2" customFormat="1" spans="1:6">
       <c r="A318" s="4">
         <v>200098</v>
       </c>
@@ -10958,14 +11548,14 @@
       <c r="D318" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="E318" s="14" t="s">
+      <c r="E318" s="13" t="s">
         <v>1211</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" s="2" customFormat="1" spans="1:6">
       <c r="A319" s="4">
         <v>200099</v>
       </c>
@@ -10978,14 +11568,14 @@
       <c r="D319" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E319" s="14" t="s">
+      <c r="E319" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" s="2" customFormat="1" spans="1:6">
       <c r="A320" s="4">
         <v>200100</v>
       </c>
@@ -10998,14 +11588,14 @@
       <c r="D320" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="E320" s="14" t="s">
+      <c r="E320" s="13" t="s">
         <v>1216</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" s="2" customFormat="1" spans="1:6">
       <c r="A321" s="4">
         <v>200101</v>
       </c>
@@ -11018,14 +11608,14 @@
       <c r="D321" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="E321" s="14" t="s">
+      <c r="E321" s="13" t="s">
         <v>1220</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="322" s="2" customFormat="1" spans="1:6">
       <c r="A322" s="4">
         <v>200102</v>
       </c>
@@ -11038,14 +11628,14 @@
       <c r="D322" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="E322" s="14" t="s">
+      <c r="E322" s="13" t="s">
         <v>1224</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" s="2" customFormat="1" spans="1:6">
       <c r="A323" s="4">
         <v>200103</v>
       </c>
@@ -11058,14 +11648,14 @@
       <c r="D323" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="E323" s="14" t="s">
+      <c r="E323" s="13" t="s">
         <v>1228</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" s="2" customFormat="1" spans="1:6">
       <c r="A324" s="4">
         <v>200104</v>
       </c>
@@ -11078,14 +11668,14 @@
       <c r="D324" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="E324" s="14" t="s">
+      <c r="E324" s="13" t="s">
         <v>1232</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" s="2" customFormat="1" spans="1:6">
       <c r="A325" s="4">
         <v>200105</v>
       </c>
@@ -11098,14 +11688,14 @@
       <c r="D325" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="E325" s="14" t="s">
+      <c r="E325" s="13" t="s">
         <v>1236</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" s="2" customFormat="1" spans="1:6">
       <c r="A326" s="4">
         <v>200106</v>
       </c>
@@ -11118,14 +11708,14 @@
       <c r="D326" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="E326" s="14" t="s">
+      <c r="E326" s="13" t="s">
         <v>1240</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" s="2" customFormat="1" spans="1:6">
       <c r="A327" s="4">
         <v>200107</v>
       </c>
@@ -11138,14 +11728,14 @@
       <c r="D327" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="E327" s="14" t="s">
+      <c r="E327" s="13" t="s">
         <v>1244</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" s="2" customFormat="1" spans="1:6">
       <c r="A328" s="4">
         <v>200108</v>
       </c>
@@ -11158,14 +11748,14 @@
       <c r="D328" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="E328" s="14" t="s">
+      <c r="E328" s="13" t="s">
         <v>1247</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" s="2" customFormat="1" spans="1:6">
       <c r="A329" s="4">
         <v>200109</v>
       </c>
@@ -11178,14 +11768,14 @@
       <c r="D329" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="E329" s="14" t="s">
+      <c r="E329" s="13" t="s">
         <v>1251</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" s="2" customFormat="1" spans="1:6">
       <c r="A330" s="4">
         <v>200110</v>
       </c>
@@ -11198,14 +11788,14 @@
       <c r="D330" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E330" s="14" t="s">
+      <c r="E330" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" s="2" customFormat="1" spans="1:6">
       <c r="A331" s="4">
         <v>200111</v>
       </c>
@@ -11218,14 +11808,14 @@
       <c r="D331" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="E331" s="14" t="s">
+      <c r="E331" s="13" t="s">
         <v>1256</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" s="2" customFormat="1" spans="1:6">
       <c r="A332" s="4">
         <v>200112</v>
       </c>
@@ -11238,14 +11828,14 @@
       <c r="D332" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="E332" s="14" t="s">
+      <c r="E332" s="13" t="s">
         <v>1260</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="333" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" s="2" customFormat="1" spans="1:6">
       <c r="A333" s="4">
         <v>200113</v>
       </c>
@@ -11258,14 +11848,14 @@
       <c r="D333" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="E333" s="14" t="s">
+      <c r="E333" s="13" t="s">
         <v>1264</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" s="2" customFormat="1" spans="1:6">
       <c r="A334" s="4">
         <v>200114</v>
       </c>
@@ -11278,14 +11868,14 @@
       <c r="D334" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="E334" s="14" t="s">
+      <c r="E334" s="13" t="s">
         <v>1268</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" s="2" customFormat="1" spans="1:6">
       <c r="A335" s="4">
         <v>200115</v>
       </c>
@@ -11298,14 +11888,14 @@
       <c r="D335" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E335" s="14" t="s">
+      <c r="E335" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" s="2" customFormat="1" spans="1:6">
       <c r="A336" s="4">
         <v>200116</v>
       </c>
@@ -11318,14 +11908,14 @@
       <c r="D336" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="E336" s="14" t="s">
+      <c r="E336" s="13" t="s">
         <v>1273</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="337" s="2" customFormat="1" spans="1:6">
       <c r="A337" s="4">
         <v>200117</v>
       </c>
@@ -11338,14 +11928,14 @@
       <c r="D337" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="E337" s="14" t="s">
+      <c r="E337" s="13" t="s">
         <v>1277</v>
       </c>
       <c r="F337" s="3" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="338" s="2" customFormat="1" spans="1:6">
       <c r="A338" s="4">
         <v>200118</v>
       </c>
@@ -11358,14 +11948,14 @@
       <c r="D338" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="E338" s="14" t="s">
+      <c r="E338" s="13" t="s">
         <v>1281</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" s="2" customFormat="1" spans="1:6">
       <c r="A339" s="4">
         <v>200119</v>
       </c>
@@ -11378,55 +11968,55 @@
       <c r="D339" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="E339" s="14" t="s">
+      <c r="E339" s="13" t="s">
         <v>1285</v>
       </c>
       <c r="F339" s="3" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" s="2" customFormat="1"/>
+    <row r="341" s="2" customFormat="1" spans="1:6">
       <c r="A341" s="2">
         <v>300000</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="C341" s="15" t="s">
+      <c r="C341" s="14" t="s">
         <v>1287</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="E341" s="15" t="s">
+      <c r="E341" s="14" t="s">
         <v>1287</v>
       </c>
-      <c r="F341" s="15" t="s">
+      <c r="F341" s="14" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" s="2" customFormat="1" spans="1:6">
       <c r="A342" s="2">
         <v>300001</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="C342" s="15" t="s">
+      <c r="C342" s="14" t="s">
         <v>1290</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="E342" s="15" t="s">
+      <c r="E342" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="F342" s="15" t="s">
+      <c r="F342" s="14" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" s="2" customFormat="1" spans="1:6">
       <c r="A343" s="2">
         <v>300002</v>
       </c>
@@ -11446,7 +12036,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="344" s="2" customFormat="1" spans="1:6">
       <c r="A344" s="2">
         <v>300003</v>
       </c>
@@ -11466,7 +12056,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="345" s="2" customFormat="1" spans="1:6">
       <c r="A345" s="2">
         <v>300004</v>
       </c>
@@ -11486,7 +12076,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="346" s="2" customFormat="1" spans="1:6">
       <c r="A346" s="2">
         <v>300005</v>
       </c>
@@ -11506,172 +12096,172 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="347" s="2" customFormat="1" spans="1:6">
       <c r="A347" s="2">
         <v>300006</v>
       </c>
-      <c r="B347" s="20" t="s">
-        <v>1402</v>
+      <c r="B347" s="15" t="s">
+        <v>1304</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D347" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E347" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="E347" s="2" t="s">
-        <v>1304</v>
-      </c>
       <c r="F347" s="2" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="348" s="2" customFormat="1" spans="1:6">
       <c r="A348" s="2">
         <v>300007</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D348" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E348" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="E348" s="2" t="s">
-        <v>1307</v>
-      </c>
       <c r="F348" s="2" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="349" s="2" customFormat="1" spans="1:6">
       <c r="A349" s="2">
         <v>300008</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D349" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E349" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="E349" s="2" t="s">
-        <v>1310</v>
-      </c>
       <c r="F349" s="2" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="350" s="2" customFormat="1" spans="1:6">
       <c r="A350" s="2">
         <v>300009</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D350" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E350" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="E350" s="2" t="s">
-        <v>1313</v>
-      </c>
       <c r="F350" s="2" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="351" s="2" customFormat="1" spans="1:6">
       <c r="A351" s="2">
         <v>300010</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D351" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E351" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="E351" s="2" t="s">
-        <v>1316</v>
-      </c>
       <c r="F351" s="2" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="352" s="2" customFormat="1" spans="1:6">
       <c r="A352" s="2">
         <v>300011</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D352" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E352" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="E352" s="2" t="s">
-        <v>1319</v>
-      </c>
       <c r="F352" s="2" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="353" s="2" customFormat="1" spans="1:6">
       <c r="A353" s="2">
         <v>300012</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D353" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E353" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="E353" s="2" t="s">
-        <v>1322</v>
-      </c>
       <c r="F353" s="2" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="354" s="2" customFormat="1" spans="1:6">
       <c r="A354" s="2">
         <v>300013</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D354" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E354" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="E354" s="2" t="s">
-        <v>1325</v>
-      </c>
       <c r="F354" s="2" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="355" s="2" customFormat="1" spans="1:6">
       <c r="A355" s="2">
         <v>300014</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>455</v>
@@ -11686,192 +12276,192 @@
         <v>455</v>
       </c>
     </row>
-    <row r="356" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="356" s="2" customFormat="1" spans="1:6">
       <c r="A356" s="2">
         <v>300015</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D356" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E356" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="E356" s="2" t="s">
-        <v>1329</v>
-      </c>
       <c r="F356" s="2" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="357" s="2" customFormat="1" spans="1:6">
       <c r="A357" s="2">
         <v>300016</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D357" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E357" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="E357" s="2" t="s">
-        <v>1332</v>
-      </c>
       <c r="F357" s="2" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="358" s="2" customFormat="1" spans="1:6">
       <c r="A358" s="2">
         <v>300017</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D358" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E358" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="E358" s="2" t="s">
-        <v>1335</v>
-      </c>
       <c r="F358" s="2" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="359" s="2" customFormat="1" spans="1:6">
       <c r="A359" s="2">
         <v>300018</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D359" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E359" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="E359" s="2" t="s">
-        <v>1338</v>
-      </c>
       <c r="F359" s="2" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="360" s="2" customFormat="1" spans="1:6">
       <c r="A360" s="2">
         <v>300019</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D360" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E360" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="E360" s="2" t="s">
-        <v>1341</v>
-      </c>
       <c r="F360" s="2" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="361" s="2" customFormat="1" spans="1:6">
       <c r="A361" s="2">
         <v>300020</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D361" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E361" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="E361" s="2" t="s">
-        <v>1344</v>
-      </c>
       <c r="F361" s="2" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="362" s="2" customFormat="1" spans="1:6">
       <c r="A362" s="2">
         <v>300021</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D362" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E362" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="E362" s="2" t="s">
-        <v>1347</v>
-      </c>
       <c r="F362" s="2" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="363" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A363" s="2">
         <v>300022</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D363" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E363" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="E363" s="2" t="s">
-        <v>1350</v>
-      </c>
       <c r="F363" s="2" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="364" s="2" customFormat="1" spans="1:6">
       <c r="A364" s="2">
         <v>300023</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D364" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E364" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="E364" s="2" t="s">
-        <v>1353</v>
-      </c>
       <c r="F364" s="2" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="365" s="2" customFormat="1" spans="1:6">
       <c r="A365" s="2">
         <v>300024</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>309</v>
@@ -11886,12 +12476,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="366" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" s="2" customFormat="1" spans="1:6">
       <c r="A366" s="2">
         <v>300025</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>305</v>
@@ -11906,12 +12496,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="367" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" s="2" customFormat="1" spans="1:6">
       <c r="A367" s="2">
         <v>300026</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>301</v>
@@ -11926,32 +12516,32 @@
         <v>301</v>
       </c>
     </row>
-    <row r="368" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="368" s="2" customFormat="1" spans="1:6">
       <c r="A368" s="2">
         <v>300027</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C368" s="17" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D368" s="18" t="s">
         <v>1360</v>
       </c>
-      <c r="E368" s="18" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F368" s="18" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D368" s="17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E368" s="17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F368" s="17" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="369" s="2" customFormat="1" spans="1:6">
       <c r="A369" s="2">
         <v>300028</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>313</v>
@@ -11966,152 +12556,152 @@
         <v>313</v>
       </c>
     </row>
-    <row r="370" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="370" s="2" customFormat="1" spans="1:6">
       <c r="A370" s="2">
         <v>300029</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="371" s="2" customFormat="1" spans="1:6">
       <c r="A371" s="2">
         <v>300030</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="372" s="2" customFormat="1" spans="1:6">
       <c r="A372" s="2">
         <v>300031</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="373" s="2" customFormat="1" spans="1:6">
       <c r="A373" s="2">
         <v>300032</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="374" s="2" customFormat="1" spans="1:6">
       <c r="A374" s="2">
         <v>300033</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="375" s="2" customFormat="1" spans="1:6">
       <c r="A375" s="2">
         <v>300034</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="376" s="2" customFormat="1" spans="1:6">
       <c r="A376" s="2">
         <v>300035</v>
       </c>
-      <c r="B376" s="9" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C376" s="9" t="s">
+      <c r="B376" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="D376" s="9" t="s">
+      <c r="C376" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="E376" s="9" t="s">
+      <c r="D376" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F376" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="F376" s="9" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="377" s="2" customFormat="1" spans="1:6">
       <c r="A377" s="2">
         <v>300036</v>
       </c>
-      <c r="B377" s="19" t="s">
-        <v>1377</v>
+      <c r="B377" s="18" t="s">
+        <v>1378</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>317</v>
@@ -12126,562 +12716,562 @@
         <v>317</v>
       </c>
     </row>
-    <row r="378" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="378" s="2" customFormat="1" spans="1:6">
       <c r="A378" s="2">
         <v>300037</v>
       </c>
-      <c r="B378" s="19" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C378" s="9" t="s">
+      <c r="B378" s="18" t="s">
         <v>1379</v>
       </c>
-      <c r="D378" s="9" t="s">
+      <c r="C378" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="E378" s="9" t="s">
+      <c r="D378" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F378" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="F378" s="9" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="379" s="2" customFormat="1" spans="1:6">
       <c r="A379" s="2">
         <v>300038</v>
       </c>
-      <c r="B379" s="9" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C379" s="9" t="s">
+      <c r="B379" s="3" t="s">
         <v>1382</v>
       </c>
-      <c r="D379" s="9" t="s">
+      <c r="C379" s="3" t="s">
         <v>1383</v>
       </c>
-      <c r="E379" s="9" t="s">
+      <c r="D379" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F379" s="3" t="s">
         <v>1383</v>
       </c>
-      <c r="F379" s="9" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="380" s="2" customFormat="1" spans="1:6">
       <c r="A380" s="2">
         <v>300039</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="381" s="2" customFormat="1" spans="1:6">
       <c r="A381" s="2">
         <v>300040</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="382" s="2" customFormat="1" spans="1:6">
       <c r="A382" s="2">
         <v>300041</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="383" s="2" customFormat="1" spans="1:6">
       <c r="A383" s="2">
         <v>300042</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="384" s="2" customFormat="1" spans="1:6">
       <c r="A384" s="2">
         <v>300043</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="385" s="2" customFormat="1" spans="1:6">
       <c r="A385" s="2">
         <v>300044</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="386" s="2" customFormat="1" spans="1:6">
       <c r="A386" s="2">
         <v>300045</v>
       </c>
-      <c r="B386" s="20" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C386" s="20" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D386" s="20" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E386" s="20" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F386" s="20" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B386" s="15" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C386" s="15" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D386" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E386" s="15" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F386" s="15" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="387" s="2" customFormat="1" spans="1:6">
       <c r="A387" s="2">
         <v>300046</v>
       </c>
-      <c r="B387" s="20" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C387" s="20" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D387" s="20" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E387" s="20" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F387" s="20" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B387" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C387" s="15" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D387" s="15" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E387" s="15" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F387" s="15" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="388" s="2" customFormat="1" spans="1:6">
       <c r="A388" s="2">
         <v>300047</v>
       </c>
-      <c r="B388" s="20" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C388" s="20" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D388" s="20" t="s">
+      <c r="B388" s="15" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C388" s="15" t="s">
         <v>1404</v>
       </c>
-      <c r="E388" s="20" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F388" s="20" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D388" s="15" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E388" s="15" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F388" s="15" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="389" s="2" customFormat="1" spans="1:6">
       <c r="A389" s="2">
         <v>300048</v>
       </c>
-      <c r="B389" s="20" t="s">
-        <v>1399</v>
+      <c r="B389" s="15" t="s">
+        <v>1406</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D389" s="20" t="s">
-        <v>1405</v>
+        <v>1407</v>
+      </c>
+      <c r="D389" s="15" t="s">
+        <v>1408</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="390" s="2" customFormat="1" spans="1:6">
       <c r="A390" s="2">
         <v>300049</v>
       </c>
-      <c r="B390" s="20" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C390" s="20" t="s">
+      <c r="B390" s="15" t="s">
         <v>1409</v>
       </c>
-      <c r="D390" s="20" t="s">
+      <c r="C390" s="15" t="s">
         <v>1410</v>
       </c>
-      <c r="E390" s="20" t="s">
-        <v>1409</v>
-      </c>
-      <c r="F390" s="20" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="392" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="393" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="394" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="395" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="396" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="397" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="399" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="400" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="567" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="568" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="569" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="570" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="571" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="572" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="579" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="580" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="581" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="582" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="583" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="584" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="585" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="586" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="587" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="592" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="593" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="594" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="595" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="596" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="597" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="598" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="599" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="600" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="601" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="602" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="603" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="604" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="605" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="606" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="607" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="608" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="609" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="610" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="611" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="647" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="648" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="649" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="650" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="651" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="652" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="653" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="654" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="655" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="656" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="657" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="658" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="659" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="660" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="661" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="662" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="663" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="664" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="665" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="666" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="667" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="668" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="669" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="670" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="671" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D390" s="15" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E390" s="15" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F390" s="15" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="391" s="2" customFormat="1"/>
+    <row r="392" s="2" customFormat="1"/>
+    <row r="393" s="2" customFormat="1"/>
+    <row r="394" s="2" customFormat="1"/>
+    <row r="395" s="2" customFormat="1"/>
+    <row r="396" s="2" customFormat="1"/>
+    <row r="397" s="2" customFormat="1"/>
+    <row r="398" s="2" customFormat="1"/>
+    <row r="399" s="2" customFormat="1"/>
+    <row r="400" s="2" customFormat="1"/>
+    <row r="401" s="2" customFormat="1"/>
+    <row r="402" s="2" customFormat="1"/>
+    <row r="403" s="2" customFormat="1"/>
+    <row r="404" s="2" customFormat="1"/>
+    <row r="405" s="2" customFormat="1"/>
+    <row r="406" s="2" customFormat="1"/>
+    <row r="407" s="2" customFormat="1"/>
+    <row r="408" s="2" customFormat="1"/>
+    <row r="409" s="2" customFormat="1"/>
+    <row r="410" s="2" customFormat="1"/>
+    <row r="411" s="2" customFormat="1"/>
+    <row r="412" s="2" customFormat="1"/>
+    <row r="413" s="2" customFormat="1"/>
+    <row r="414" s="2" customFormat="1"/>
+    <row r="415" s="2" customFormat="1"/>
+    <row r="416" s="2" customFormat="1"/>
+    <row r="417" s="2" customFormat="1"/>
+    <row r="418" s="2" customFormat="1"/>
+    <row r="419" s="2" customFormat="1"/>
+    <row r="420" s="2" customFormat="1"/>
+    <row r="421" s="2" customFormat="1"/>
+    <row r="422" s="2" customFormat="1"/>
+    <row r="423" s="2" customFormat="1"/>
+    <row r="424" s="2" customFormat="1"/>
+    <row r="425" s="2" customFormat="1"/>
+    <row r="426" s="2" customFormat="1"/>
+    <row r="427" s="2" customFormat="1"/>
+    <row r="428" s="2" customFormat="1"/>
+    <row r="429" s="2" customFormat="1"/>
+    <row r="430" s="2" customFormat="1"/>
+    <row r="431" s="2" customFormat="1"/>
+    <row r="432" s="2" customFormat="1"/>
+    <row r="433" s="2" customFormat="1"/>
+    <row r="434" s="2" customFormat="1"/>
+    <row r="435" s="2" customFormat="1"/>
+    <row r="436" s="2" customFormat="1"/>
+    <row r="437" s="2" customFormat="1"/>
+    <row r="438" s="2" customFormat="1"/>
+    <row r="439" s="2" customFormat="1"/>
+    <row r="440" s="2" customFormat="1"/>
+    <row r="441" s="2" customFormat="1"/>
+    <row r="442" s="2" customFormat="1"/>
+    <row r="443" s="2" customFormat="1"/>
+    <row r="444" s="2" customFormat="1"/>
+    <row r="445" s="2" customFormat="1"/>
+    <row r="446" s="2" customFormat="1"/>
+    <row r="447" s="2" customFormat="1"/>
+    <row r="448" s="2" customFormat="1"/>
+    <row r="449" s="2" customFormat="1"/>
+    <row r="450" s="2" customFormat="1"/>
+    <row r="451" s="2" customFormat="1"/>
+    <row r="452" s="2" customFormat="1"/>
+    <row r="453" s="2" customFormat="1"/>
+    <row r="454" s="2" customFormat="1"/>
+    <row r="455" s="2" customFormat="1"/>
+    <row r="456" s="2" customFormat="1"/>
+    <row r="457" s="2" customFormat="1"/>
+    <row r="458" s="2" customFormat="1"/>
+    <row r="459" s="2" customFormat="1"/>
+    <row r="460" s="2" customFormat="1"/>
+    <row r="461" s="2" customFormat="1"/>
+    <row r="462" s="2" customFormat="1"/>
+    <row r="463" s="2" customFormat="1"/>
+    <row r="464" s="2" customFormat="1"/>
+    <row r="465" s="2" customFormat="1"/>
+    <row r="466" s="2" customFormat="1"/>
+    <row r="467" s="2" customFormat="1"/>
+    <row r="468" s="2" customFormat="1"/>
+    <row r="469" s="2" customFormat="1"/>
+    <row r="470" s="2" customFormat="1"/>
+    <row r="471" s="2" customFormat="1"/>
+    <row r="472" s="2" customFormat="1"/>
+    <row r="473" s="2" customFormat="1"/>
+    <row r="474" s="2" customFormat="1"/>
+    <row r="475" s="2" customFormat="1"/>
+    <row r="476" s="2" customFormat="1"/>
+    <row r="477" s="2" customFormat="1"/>
+    <row r="478" s="2" customFormat="1"/>
+    <row r="479" s="2" customFormat="1"/>
+    <row r="480" s="2" customFormat="1"/>
+    <row r="481" s="2" customFormat="1"/>
+    <row r="482" s="2" customFormat="1"/>
+    <row r="483" s="2" customFormat="1"/>
+    <row r="484" s="2" customFormat="1"/>
+    <row r="485" s="2" customFormat="1"/>
+    <row r="486" s="2" customFormat="1"/>
+    <row r="487" s="2" customFormat="1"/>
+    <row r="488" s="2" customFormat="1"/>
+    <row r="489" s="2" customFormat="1"/>
+    <row r="490" s="2" customFormat="1"/>
+    <row r="491" s="2" customFormat="1"/>
+    <row r="492" s="2" customFormat="1"/>
+    <row r="493" s="2" customFormat="1"/>
+    <row r="494" s="2" customFormat="1"/>
+    <row r="495" s="2" customFormat="1"/>
+    <row r="496" s="2" customFormat="1"/>
+    <row r="497" s="2" customFormat="1"/>
+    <row r="498" s="2" customFormat="1"/>
+    <row r="499" s="2" customFormat="1"/>
+    <row r="500" s="2" customFormat="1"/>
+    <row r="501" s="2" customFormat="1"/>
+    <row r="502" s="2" customFormat="1"/>
+    <row r="503" s="2" customFormat="1"/>
+    <row r="504" s="2" customFormat="1"/>
+    <row r="505" s="2" customFormat="1"/>
+    <row r="506" s="2" customFormat="1"/>
+    <row r="507" s="2" customFormat="1"/>
+    <row r="508" s="2" customFormat="1"/>
+    <row r="509" s="2" customFormat="1"/>
+    <row r="510" s="2" customFormat="1"/>
+    <row r="511" s="2" customFormat="1"/>
+    <row r="512" s="2" customFormat="1"/>
+    <row r="513" s="2" customFormat="1"/>
+    <row r="514" s="2" customFormat="1"/>
+    <row r="515" s="2" customFormat="1"/>
+    <row r="516" s="2" customFormat="1"/>
+    <row r="517" s="2" customFormat="1"/>
+    <row r="518" s="2" customFormat="1"/>
+    <row r="519" s="2" customFormat="1"/>
+    <row r="520" s="2" customFormat="1"/>
+    <row r="521" s="2" customFormat="1"/>
+    <row r="522" s="2" customFormat="1"/>
+    <row r="523" s="2" customFormat="1"/>
+    <row r="524" s="2" customFormat="1"/>
+    <row r="525" s="2" customFormat="1"/>
+    <row r="526" s="2" customFormat="1"/>
+    <row r="527" s="2" customFormat="1"/>
+    <row r="528" s="2" customFormat="1"/>
+    <row r="529" s="2" customFormat="1"/>
+    <row r="530" s="2" customFormat="1"/>
+    <row r="531" s="2" customFormat="1"/>
+    <row r="532" s="2" customFormat="1"/>
+    <row r="533" s="2" customFormat="1"/>
+    <row r="534" s="2" customFormat="1"/>
+    <row r="535" s="2" customFormat="1"/>
+    <row r="536" s="2" customFormat="1"/>
+    <row r="537" s="2" customFormat="1"/>
+    <row r="538" s="2" customFormat="1"/>
+    <row r="539" s="2" customFormat="1"/>
+    <row r="540" s="2" customFormat="1"/>
+    <row r="541" s="2" customFormat="1"/>
+    <row r="542" s="2" customFormat="1"/>
+    <row r="543" s="2" customFormat="1"/>
+    <row r="544" s="2" customFormat="1"/>
+    <row r="545" s="2" customFormat="1"/>
+    <row r="546" s="2" customFormat="1"/>
+    <row r="547" s="2" customFormat="1"/>
+    <row r="548" s="2" customFormat="1"/>
+    <row r="549" s="2" customFormat="1"/>
+    <row r="550" s="2" customFormat="1"/>
+    <row r="551" s="2" customFormat="1"/>
+    <row r="552" s="2" customFormat="1"/>
+    <row r="553" s="2" customFormat="1"/>
+    <row r="554" s="2" customFormat="1"/>
+    <row r="555" s="2" customFormat="1"/>
+    <row r="556" s="2" customFormat="1"/>
+    <row r="557" s="2" customFormat="1"/>
+    <row r="558" s="2" customFormat="1"/>
+    <row r="559" s="2" customFormat="1"/>
+    <row r="560" s="2" customFormat="1"/>
+    <row r="561" s="2" customFormat="1"/>
+    <row r="562" s="2" customFormat="1"/>
+    <row r="563" s="2" customFormat="1"/>
+    <row r="564" s="2" customFormat="1"/>
+    <row r="565" s="2" customFormat="1"/>
+    <row r="566" s="2" customFormat="1"/>
+    <row r="567" s="2" customFormat="1"/>
+    <row r="568" s="2" customFormat="1"/>
+    <row r="569" s="2" customFormat="1"/>
+    <row r="570" s="2" customFormat="1"/>
+    <row r="571" s="2" customFormat="1"/>
+    <row r="572" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="573" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="574" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="575" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="576" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="577" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="578" s="2" customFormat="1"/>
+    <row r="579" s="2" customFormat="1"/>
+    <row r="580" s="2" customFormat="1"/>
+    <row r="581" s="2" customFormat="1"/>
+    <row r="582" s="2" customFormat="1"/>
+    <row r="583" s="2" customFormat="1"/>
+    <row r="584" s="2" customFormat="1"/>
+    <row r="585" s="2" customFormat="1"/>
+    <row r="586" s="2" customFormat="1"/>
+    <row r="587" s="2" customFormat="1"/>
+    <row r="588" s="2" customFormat="1"/>
+    <row r="589" s="2" customFormat="1"/>
+    <row r="590" s="2" customFormat="1"/>
+    <row r="591" s="2" customFormat="1"/>
+    <row r="592" s="2" customFormat="1"/>
+    <row r="593" s="2" customFormat="1"/>
+    <row r="594" s="2" customFormat="1"/>
+    <row r="595" s="2" customFormat="1"/>
+    <row r="596" s="2" customFormat="1"/>
+    <row r="597" s="2" customFormat="1"/>
+    <row r="598" s="2" customFormat="1"/>
+    <row r="599" s="2" customFormat="1"/>
+    <row r="600" s="2" customFormat="1"/>
+    <row r="601" s="2" customFormat="1"/>
+    <row r="602" s="2" customFormat="1"/>
+    <row r="603" s="2" customFormat="1"/>
+    <row r="604" s="2" customFormat="1"/>
+    <row r="605" s="2" customFormat="1"/>
+    <row r="606" s="2" customFormat="1"/>
+    <row r="607" s="2" customFormat="1"/>
+    <row r="608" s="2" customFormat="1"/>
+    <row r="609" s="2" customFormat="1"/>
+    <row r="610" s="2" customFormat="1"/>
+    <row r="611" s="2" customFormat="1"/>
+    <row r="612" s="2" customFormat="1"/>
+    <row r="613" s="2" customFormat="1"/>
+    <row r="614" s="2" customFormat="1"/>
+    <row r="615" s="2" customFormat="1"/>
+    <row r="616" s="2" customFormat="1"/>
+    <row r="617" s="2" customFormat="1"/>
+    <row r="618" s="2" customFormat="1"/>
+    <row r="619" s="2" customFormat="1"/>
+    <row r="620" s="2" customFormat="1"/>
+    <row r="621" s="2" customFormat="1"/>
+    <row r="622" s="2" customFormat="1"/>
+    <row r="623" s="2" customFormat="1"/>
+    <row r="624" s="2" customFormat="1"/>
+    <row r="625" s="2" customFormat="1"/>
+    <row r="626" s="2" customFormat="1"/>
+    <row r="627" s="2" customFormat="1"/>
+    <row r="628" s="2" customFormat="1"/>
+    <row r="629" s="2" customFormat="1"/>
+    <row r="630" s="2" customFormat="1"/>
+    <row r="631" s="2" customFormat="1"/>
+    <row r="632" s="2" customFormat="1"/>
+    <row r="633" s="2" customFormat="1"/>
+    <row r="634" s="2" customFormat="1"/>
+    <row r="635" s="2" customFormat="1"/>
+    <row r="636" s="2" customFormat="1"/>
+    <row r="637" s="2" customFormat="1"/>
+    <row r="638" s="2" customFormat="1"/>
+    <row r="639" s="2" customFormat="1"/>
+    <row r="640" s="2" customFormat="1"/>
+    <row r="641" s="2" customFormat="1"/>
+    <row r="642" s="2" customFormat="1"/>
+    <row r="643" s="2" customFormat="1"/>
+    <row r="644" s="2" customFormat="1"/>
+    <row r="645" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="646" s="2" customFormat="1"/>
+    <row r="647" s="2" customFormat="1"/>
+    <row r="648" s="2" customFormat="1"/>
+    <row r="649" s="2" customFormat="1"/>
+    <row r="650" s="2" customFormat="1"/>
+    <row r="651" s="2" customFormat="1"/>
+    <row r="652" s="2" customFormat="1"/>
+    <row r="653" s="2" customFormat="1"/>
+    <row r="654" s="2" customFormat="1"/>
+    <row r="655" s="2" customFormat="1"/>
+    <row r="656" s="2" customFormat="1"/>
+    <row r="657" s="2" customFormat="1"/>
+    <row r="658" s="2" customFormat="1"/>
+    <row r="659" s="2" customFormat="1"/>
+    <row r="660" s="2" customFormat="1"/>
+    <row r="661" s="2" customFormat="1"/>
+    <row r="662" s="2" customFormat="1"/>
+    <row r="663" s="2" customFormat="1"/>
+    <row r="664" s="2" customFormat="1"/>
+    <row r="665" s="2" customFormat="1"/>
+    <row r="666" s="2" customFormat="1"/>
+    <row r="667" s="2" customFormat="1"/>
+    <row r="668" s="2" customFormat="1"/>
+    <row r="669" s="2" customFormat="1"/>
+    <row r="670" s="2" customFormat="1"/>
+    <row r="671" s="2" customFormat="1"/>
+    <row r="672" spans="1:1">
       <c r="A672" s="2"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:1">
       <c r="A673" s="2"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:1">
       <c r="A674" s="2"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:1">
       <c r="A675" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723B689C-73AA-4593-BB9B-7899BCDD1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,17 +18,16 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1438">
   <si>
     <t>int</t>
   </si>
@@ -1177,7 +1170,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1185,7 +1178,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>匹の虎</t>
@@ -4297,52 +4289,86 @@
     <t>TestAnimalName0001</t>
   </si>
   <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>粉猪</t>
+  </si>
+  <si>
     <t>TestAnimalName0002</t>
   </si>
   <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>橘猫</t>
+  </si>
+  <si>
     <t>TestAnimalName0003</t>
   </si>
   <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>狗狗</t>
+  </si>
+  <si>
     <t>TestAnimalName0004</t>
   </si>
   <si>
-    <t>Pig</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉猪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>橘猫</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cat</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Rabbit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>垂耳兔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗狗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dog</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCow001</t>
+  </si>
+  <si>
+    <t>光奶牛关</t>
+  </si>
+  <si>
+    <t>TestCow002</t>
+  </si>
+  <si>
+    <t>暗奶牛关</t>
+  </si>
+  <si>
+    <t>TestCow003</t>
+  </si>
+  <si>
+    <t>水奶牛关</t>
+  </si>
+  <si>
+    <t>TestCow004</t>
+  </si>
+  <si>
+    <t>火奶牛关</t>
+  </si>
+  <si>
+    <t>TestCow005</t>
+  </si>
+  <si>
+    <t>木奶牛关</t>
+  </si>
+  <si>
+    <t>TestCow006</t>
+  </si>
+  <si>
+    <t>土奶牛关</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4353,41 +4379,182 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFCCCCCC"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4400,8 +4567,194 @@
         <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4409,9 +4762,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4466,69 +5061,116 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00CCCCCC"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -4542,9 +5184,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4593,7 +5232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4626,26 +5265,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4678,23 +5300,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4836,24 +5441,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F392" sqref="F392:F395"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="C411" sqref="C411"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.625" customWidth="1"/>
@@ -4861,7 +5461,7 @@
     <col min="5" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4881,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4901,7 +5501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4921,7 +5521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -4939,7 +5539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4959,7 +5559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4979,7 +5579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4999,7 +5599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5019,7 +5619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5039,7 +5639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5059,7 +5659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5079,7 +5679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5099,7 +5699,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5119,7 +5719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5139,7 +5739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" s="2" customFormat="1" spans="1:6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5159,7 +5759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5179,7 +5779,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" s="2" customFormat="1" spans="1:6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5199,7 +5799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5219,7 +5819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" s="2" customFormat="1" spans="1:6">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5239,7 +5839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5259,7 +5859,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" s="2" customFormat="1" spans="1:6">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5279,7 +5879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5299,7 +5899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" s="2" customFormat="1" spans="1:6">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5319,7 +5919,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5339,7 +5939,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" s="2" customFormat="1" spans="1:6">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5359,7 +5959,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -5379,7 +5979,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" s="2" customFormat="1" spans="1:6">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -5399,7 +5999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -5419,7 +6019,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" s="2" customFormat="1" spans="1:6">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -5439,7 +6039,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -5459,7 +6059,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" s="2" customFormat="1" spans="1:6">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5479,7 +6079,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5499,7 +6099,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" s="2" customFormat="1" spans="1:6">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -5519,7 +6119,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -5539,7 +6139,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" s="2" customFormat="1" spans="1:6">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -5559,7 +6159,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -5579,7 +6179,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" s="2" customFormat="1" spans="1:6">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -5599,7 +6199,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -5619,7 +6219,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" s="2" customFormat="1" spans="1:6">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -5639,7 +6239,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -5659,7 +6259,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" s="2" customFormat="1" spans="1:6">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -5679,7 +6279,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -5699,7 +6299,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" s="2" customFormat="1" spans="1:6">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -5719,7 +6319,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -5739,7 +6339,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" s="2" customFormat="1" spans="1:6">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -5759,7 +6359,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -5779,7 +6379,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" s="2" customFormat="1" spans="1:6">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -5799,7 +6399,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -5819,7 +6419,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" s="2" customFormat="1" spans="1:6">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -5839,7 +6439,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -5859,11 +6459,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" s="2" customFormat="1" spans="1:2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="1">
         <v>100101</v>
       </c>
@@ -5883,7 +6483,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" s="2" customFormat="1" spans="1:6">
       <c r="A53" s="1">
         <v>100102</v>
       </c>
@@ -5903,7 +6503,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="1">
         <v>100103</v>
       </c>
@@ -5923,7 +6523,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" s="2" customFormat="1" spans="1:6">
       <c r="A55" s="1">
         <v>100104</v>
       </c>
@@ -5943,7 +6543,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="1">
         <v>100105</v>
       </c>
@@ -5963,7 +6563,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" s="2" customFormat="1" spans="1:6">
       <c r="A57" s="1">
         <v>100106</v>
       </c>
@@ -5983,7 +6583,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="1">
         <v>100107</v>
       </c>
@@ -6003,7 +6603,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" s="2" customFormat="1" spans="1:6">
       <c r="A59" s="1">
         <v>100108</v>
       </c>
@@ -6023,7 +6623,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="1">
         <v>100109</v>
       </c>
@@ -6043,7 +6643,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" s="2" customFormat="1" spans="1:6">
       <c r="A61" s="1">
         <v>100110</v>
       </c>
@@ -6063,7 +6663,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="1">
         <v>100111</v>
       </c>
@@ -6083,7 +6683,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" s="2" customFormat="1" spans="1:6">
       <c r="A63" s="1">
         <v>100112</v>
       </c>
@@ -6103,7 +6703,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="1">
         <v>100113</v>
       </c>
@@ -6123,7 +6723,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" s="2" customFormat="1" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -6131,7 +6731,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="1">
         <v>100201</v>
       </c>
@@ -6151,7 +6751,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" s="2" customFormat="1" spans="1:6">
       <c r="A67" s="1">
         <v>100202</v>
       </c>
@@ -6171,7 +6771,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="1">
         <v>100203</v>
       </c>
@@ -6191,7 +6791,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" s="2" customFormat="1" spans="1:6">
       <c r="A69" s="1">
         <v>100204</v>
       </c>
@@ -6211,7 +6811,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="1">
         <v>100205</v>
       </c>
@@ -6231,7 +6831,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" s="2" customFormat="1" spans="1:6">
       <c r="A71" s="1">
         <v>100206</v>
       </c>
@@ -6251,7 +6851,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -6259,7 +6859,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" s="2" customFormat="1" spans="1:6">
       <c r="A73" s="1">
         <v>101001</v>
       </c>
@@ -6279,7 +6879,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="1">
         <v>101002</v>
       </c>
@@ -6299,11 +6899,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" s="2" customFormat="1" spans="1:2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A76" s="5">
         <v>102129</v>
       </c>
@@ -6323,7 +6923,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A77" s="5">
         <v>102130</v>
       </c>
@@ -6343,7 +6943,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A78" s="5">
         <v>102131</v>
       </c>
@@ -6363,7 +6963,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A79" s="5">
         <v>102132</v>
       </c>
@@ -6383,7 +6983,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A80" s="5">
         <v>102133</v>
       </c>
@@ -6403,7 +7003,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A81" s="5">
         <v>102134</v>
       </c>
@@ -6423,7 +7023,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A82" s="5">
         <v>102135</v>
       </c>
@@ -6443,7 +7043,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A83" s="5">
         <v>102136</v>
       </c>
@@ -6463,7 +7063,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A84" s="5">
         <v>102137</v>
       </c>
@@ -6483,7 +7083,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A85" s="5">
         <v>102138</v>
       </c>
@@ -6503,7 +7103,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A86" s="5">
         <v>102139</v>
       </c>
@@ -6523,7 +7123,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A87" s="5">
         <v>102140</v>
       </c>
@@ -6543,7 +7143,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A88" s="5">
         <v>102141</v>
       </c>
@@ -6563,7 +7163,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A89" s="5">
         <v>102142</v>
       </c>
@@ -6583,7 +7183,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A90" s="5">
         <v>102143</v>
       </c>
@@ -6603,7 +7203,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A91" s="5">
         <v>102144</v>
       </c>
@@ -6623,7 +7223,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A92" s="5">
         <v>102145</v>
       </c>
@@ -6643,7 +7243,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A93" s="5">
         <v>102146</v>
       </c>
@@ -6663,7 +7263,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A94" s="5">
         <v>102147</v>
       </c>
@@ -6683,7 +7283,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A95" s="5">
         <v>102148</v>
       </c>
@@ -6703,7 +7303,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A96" s="5">
         <v>102149</v>
       </c>
@@ -6723,7 +7323,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A97" s="5">
         <v>102150</v>
       </c>
@@ -6743,7 +7343,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A98" s="5">
         <v>102151</v>
       </c>
@@ -6763,7 +7363,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A99" s="5">
         <v>102152</v>
       </c>
@@ -6783,7 +7383,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A100" s="5">
         <v>102153</v>
       </c>
@@ -6803,7 +7403,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A101" s="5">
         <v>102154</v>
       </c>
@@ -6823,7 +7423,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A102" s="5">
         <v>102155</v>
       </c>
@@ -6843,7 +7443,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A103" s="5">
         <v>102156</v>
       </c>
@@ -6863,7 +7463,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A104" s="5">
         <v>102157</v>
       </c>
@@ -6883,7 +7483,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A105" s="1">
         <v>102158</v>
       </c>
@@ -6903,7 +7503,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A106" s="5">
         <v>102159</v>
       </c>
@@ -6923,7 +7523,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -6931,7 +7531,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A108" s="5">
         <v>103001</v>
       </c>
@@ -6951,7 +7551,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A109" s="5">
         <v>103002</v>
       </c>
@@ -6971,7 +7571,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A110" s="5">
         <v>103003</v>
       </c>
@@ -6991,7 +7591,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A111" s="5">
         <v>103004</v>
       </c>
@@ -7011,7 +7611,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A112" s="5">
         <v>103005</v>
       </c>
@@ -7031,7 +7631,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A113" s="5">
         <v>103006</v>
       </c>
@@ -7051,11 +7651,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A115" s="1">
         <v>105001</v>
       </c>
@@ -7075,7 +7675,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A116" s="1">
         <v>105002</v>
       </c>
@@ -7095,7 +7695,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A117" s="1">
         <v>105003</v>
       </c>
@@ -7115,7 +7715,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A118" s="1">
         <v>105004</v>
       </c>
@@ -7135,7 +7735,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A119" s="1">
         <v>105005</v>
       </c>
@@ -7155,7 +7755,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A120" s="1">
         <v>105006</v>
       </c>
@@ -7175,7 +7775,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A121" s="1">
         <v>105051</v>
       </c>
@@ -7195,7 +7795,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A122" s="1">
         <v>105101</v>
       </c>
@@ -7215,7 +7815,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A123" s="1">
         <v>105102</v>
       </c>
@@ -7235,7 +7835,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A124" s="1">
         <v>105103</v>
       </c>
@@ -7255,7 +7855,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A125" s="1">
         <v>105201</v>
       </c>
@@ -7275,7 +7875,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A126" s="1">
         <v>105202</v>
       </c>
@@ -7295,7 +7895,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A127" s="1">
         <v>105203</v>
       </c>
@@ -7315,7 +7915,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A128" s="1">
         <v>105204</v>
       </c>
@@ -7335,7 +7935,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A129" s="1">
         <v>105205</v>
       </c>
@@ -7355,7 +7955,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A130" s="1">
         <v>105206</v>
       </c>
@@ -7375,7 +7975,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A131" s="1">
         <v>105301</v>
       </c>
@@ -7395,7 +7995,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A132" s="1">
         <v>105302</v>
       </c>
@@ -7415,7 +8015,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A133" s="1">
         <v>105303</v>
       </c>
@@ -7435,7 +8035,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A134" s="1">
         <v>105304</v>
       </c>
@@ -7455,7 +8055,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A135" s="1">
         <v>105305</v>
       </c>
@@ -7475,7 +8075,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A136" s="1">
         <v>105306</v>
       </c>
@@ -7495,7 +8095,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A137" s="1">
         <v>105307</v>
       </c>
@@ -7515,7 +8115,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A138" s="1">
         <v>105308</v>
       </c>
@@ -7535,7 +8135,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A139" s="1">
         <v>105401</v>
       </c>
@@ -7555,7 +8155,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A140" s="1">
         <v>105402</v>
       </c>
@@ -7575,7 +8175,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A141" s="1">
         <v>105403</v>
       </c>
@@ -7595,7 +8195,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A142" s="1">
         <v>105404</v>
       </c>
@@ -7615,7 +8215,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A143" s="1">
         <v>105405</v>
       </c>
@@ -7635,7 +8235,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A144" s="1">
         <v>105406</v>
       </c>
@@ -7655,7 +8255,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A145" s="1">
         <v>105407</v>
       </c>
@@ -7675,7 +8275,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A146" s="1">
         <v>105501</v>
       </c>
@@ -7695,7 +8295,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A147" s="1">
         <v>105502</v>
       </c>
@@ -7715,7 +8315,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A148" s="1">
         <v>105503</v>
       </c>
@@ -7735,7 +8335,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A149" s="1">
         <v>105504</v>
       </c>
@@ -7755,7 +8355,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A150" s="1">
         <v>105505</v>
       </c>
@@ -7775,7 +8375,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A151" s="1">
         <v>105506</v>
       </c>
@@ -7795,7 +8395,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A152" s="1">
         <v>105507</v>
       </c>
@@ -7815,7 +8415,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A153" s="1">
         <v>105508</v>
       </c>
@@ -7835,13 +8435,13 @@
         <v>607</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A155" s="1">
         <v>105601</v>
       </c>
@@ -7862,7 +8462,7 @@
       </c>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A156" s="1">
         <v>105602</v>
       </c>
@@ -7883,7 +8483,7 @@
       </c>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
       <c r="A157" s="1">
         <v>105603</v>
       </c>
@@ -7905,7 +8505,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A158" s="1">
         <v>105604</v>
       </c>
@@ -7926,7 +8526,7 @@
       </c>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A159" s="1">
         <v>105605</v>
       </c>
@@ -7947,7 +8547,7 @@
       </c>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A160" s="1">
         <v>105606</v>
       </c>
@@ -7968,7 +8568,7 @@
       </c>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A161" s="1">
         <v>105607</v>
       </c>
@@ -7989,7 +8589,7 @@
       </c>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A162" s="1">
         <v>105608</v>
       </c>
@@ -8010,7 +8610,7 @@
       </c>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A163" s="1">
         <v>105609</v>
       </c>
@@ -8031,7 +8631,7 @@
       </c>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
       <c r="A164" s="1">
         <v>105610</v>
       </c>
@@ -8052,7 +8652,7 @@
       </c>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A165" s="1">
         <v>105611</v>
       </c>
@@ -8072,7 +8672,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A166" s="1">
         <v>105612</v>
       </c>
@@ -8092,7 +8692,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A167" s="1">
         <v>105613</v>
       </c>
@@ -8112,7 +8712,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A168" s="1">
         <v>105614</v>
       </c>
@@ -8132,7 +8732,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A169" s="1">
         <v>105615</v>
       </c>
@@ -8152,7 +8752,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A170" s="1">
         <v>105616</v>
       </c>
@@ -8172,7 +8772,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A171" s="1">
         <v>105617</v>
       </c>
@@ -8192,7 +8792,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A172" s="1">
         <v>105618</v>
       </c>
@@ -8212,7 +8812,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A173" s="1">
         <v>105619</v>
       </c>
@@ -8232,7 +8832,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A174" s="1">
         <v>105620</v>
       </c>
@@ -8252,7 +8852,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A175" s="1">
         <v>105621</v>
       </c>
@@ -8272,7 +8872,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A176" s="1">
         <v>105622</v>
       </c>
@@ -8292,7 +8892,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A177" s="1">
         <v>105623</v>
       </c>
@@ -8312,7 +8912,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A178" s="1">
         <v>105624</v>
       </c>
@@ -8332,7 +8932,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A179" s="1">
         <v>105625</v>
       </c>
@@ -8352,7 +8952,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A180" s="1">
         <v>105626</v>
       </c>
@@ -8372,7 +8972,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A181" s="1">
         <v>105627</v>
       </c>
@@ -8392,7 +8992,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A182" s="1">
         <v>105628</v>
       </c>
@@ -8412,7 +9012,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A183" s="1">
         <v>105629</v>
       </c>
@@ -8432,7 +9032,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A184" s="1">
         <v>105630</v>
       </c>
@@ -8452,7 +9052,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A185" s="1">
         <v>105631</v>
       </c>
@@ -8472,7 +9072,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A186" s="1">
         <v>105632</v>
       </c>
@@ -8492,7 +9092,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A187" s="1">
         <v>105633</v>
       </c>
@@ -8512,7 +9112,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A188" s="1">
         <v>105634</v>
       </c>
@@ -8532,7 +9132,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A189" s="1">
         <v>105635</v>
       </c>
@@ -8552,7 +9152,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A190" s="1">
         <v>105636</v>
       </c>
@@ -8572,7 +9172,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A191" s="1">
         <v>105637</v>
       </c>
@@ -8592,7 +9192,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A192" s="1">
         <v>105638</v>
       </c>
@@ -8612,7 +9212,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A193" s="1">
         <v>105639</v>
       </c>
@@ -8632,7 +9232,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A194" s="1">
         <v>105640</v>
       </c>
@@ -8652,7 +9252,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A195" s="1">
         <v>105641</v>
       </c>
@@ -8672,7 +9272,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A196" s="1">
         <v>105642</v>
       </c>
@@ -8692,7 +9292,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A197" s="1">
         <v>105643</v>
       </c>
@@ -8712,7 +9312,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A198" s="1">
         <v>105644</v>
       </c>
@@ -8732,7 +9332,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A199" s="1">
         <v>105645</v>
       </c>
@@ -8752,7 +9352,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A200" s="1">
         <v>105646</v>
       </c>
@@ -8772,7 +9372,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A201" s="1">
         <v>105647</v>
       </c>
@@ -8792,7 +9392,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A202" s="1">
         <v>105648</v>
       </c>
@@ -8812,7 +9412,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A203" s="1">
         <v>105649</v>
       </c>
@@ -8832,7 +9432,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A204" s="1">
         <v>105650</v>
       </c>
@@ -8852,7 +9452,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A205" s="1"/>
       <c r="B205" s="4" t="s">
         <v>810</v>
@@ -8861,7 +9461,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A206" s="1"/>
       <c r="B206" s="4" t="s">
         <v>812</v>
@@ -8870,7 +9470,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A207" s="1"/>
       <c r="B207" s="4" t="s">
         <v>814</v>
@@ -8879,7 +9479,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A208" s="1"/>
       <c r="B208" s="4" t="s">
         <v>816</v>
@@ -8888,17 +9488,17 @@
         <v>817</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A209" s="1"/>
       <c r="B209" s="4"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A210" s="1"/>
       <c r="B210" s="4"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A211" s="1">
         <v>105701</v>
       </c>
@@ -8918,7 +9518,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A212" s="1">
         <v>105702</v>
       </c>
@@ -8938,7 +9538,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A213" s="1">
         <v>105703</v>
       </c>
@@ -8958,7 +9558,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A214" s="1">
         <v>105704</v>
       </c>
@@ -8978,7 +9578,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A215" s="1"/>
       <c r="B215" s="4"/>
       <c r="C215" s="3"/>
@@ -8986,7 +9586,7 @@
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A216" s="1">
         <v>105801</v>
       </c>
@@ -9006,7 +9606,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A217" s="1">
         <v>105802</v>
       </c>
@@ -9026,7 +9626,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A218" s="1">
         <v>105803</v>
       </c>
@@ -9046,7 +9646,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A219" s="1">
         <v>105804</v>
       </c>
@@ -9066,8 +9666,8 @@
         <v>830</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="221" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A221" s="9">
         <v>200001</v>
       </c>
@@ -9087,7 +9687,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A222" s="9">
         <v>200002</v>
       </c>
@@ -9107,7 +9707,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" s="2" customFormat="1" spans="1:6">
       <c r="A223" s="9">
         <v>200003</v>
       </c>
@@ -9127,7 +9727,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A224" s="9">
         <v>200004</v>
       </c>
@@ -9147,7 +9747,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" s="2" customFormat="1" spans="1:6">
       <c r="A225" s="9">
         <v>200005</v>
       </c>
@@ -9167,7 +9767,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A226" s="9">
         <v>200006</v>
       </c>
@@ -9187,7 +9787,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A227" s="9">
         <v>200007</v>
       </c>
@@ -9207,7 +9807,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A228" s="9">
         <v>200008</v>
       </c>
@@ -9227,7 +9827,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A229" s="9">
         <v>200009</v>
       </c>
@@ -9247,7 +9847,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A230" s="9">
         <v>200010</v>
       </c>
@@ -9267,7 +9867,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="231" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A231" s="9">
         <v>200011</v>
       </c>
@@ -9287,7 +9887,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A232" s="9">
         <v>200012</v>
       </c>
@@ -9307,7 +9907,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A233" s="9">
         <v>200013</v>
       </c>
@@ -9327,7 +9927,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A234" s="9">
         <v>200014</v>
       </c>
@@ -9347,7 +9947,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A235" s="9">
         <v>200015</v>
       </c>
@@ -9367,7 +9967,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A236" s="9">
         <v>200016</v>
       </c>
@@ -9387,7 +9987,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A237" s="9">
         <v>200017</v>
       </c>
@@ -9407,7 +10007,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" s="2" customFormat="1" spans="1:6">
       <c r="A238" s="9">
         <v>200018</v>
       </c>
@@ -9427,7 +10027,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A239" s="9">
         <v>200019</v>
       </c>
@@ -9447,7 +10047,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A240" s="9">
         <v>200020</v>
       </c>
@@ -9467,7 +10067,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A241" s="9">
         <v>200021</v>
       </c>
@@ -9487,7 +10087,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A242" s="9">
         <v>200022</v>
       </c>
@@ -9507,7 +10107,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A243" s="9">
         <v>200023</v>
       </c>
@@ -9527,7 +10127,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" s="2" customFormat="1" spans="1:6">
       <c r="A244" s="9">
         <v>200024</v>
       </c>
@@ -9547,7 +10147,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A245" s="9">
         <v>200025</v>
       </c>
@@ -9567,7 +10167,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A246" s="9">
         <v>200026</v>
       </c>
@@ -9587,7 +10187,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A247" s="9">
         <v>200027</v>
       </c>
@@ -9607,7 +10207,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A248" s="9">
         <v>200028</v>
       </c>
@@ -9627,7 +10227,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A249" s="9">
         <v>200029</v>
       </c>
@@ -9647,7 +10247,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A250" s="9">
         <v>200030</v>
       </c>
@@ -9667,7 +10267,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A251" s="9">
         <v>200031</v>
       </c>
@@ -9687,7 +10287,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A252" s="9">
         <v>200032</v>
       </c>
@@ -9707,7 +10307,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A253" s="9">
         <v>200033</v>
       </c>
@@ -9727,7 +10327,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A254" s="9">
         <v>200034</v>
       </c>
@@ -9747,7 +10347,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A255" s="9">
         <v>200035</v>
       </c>
@@ -9767,7 +10367,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A256" s="9">
         <v>200036</v>
       </c>
@@ -9787,7 +10387,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A257" s="9">
         <v>200037</v>
       </c>
@@ -9807,7 +10407,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A258" s="9">
         <v>200038</v>
       </c>
@@ -9827,7 +10427,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A259" s="9">
         <v>200039</v>
       </c>
@@ -9847,7 +10447,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="260" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A260" s="9">
         <v>200040</v>
       </c>
@@ -9867,7 +10467,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" s="2" customFormat="1" spans="1:6">
       <c r="A261" s="9">
         <v>200041</v>
       </c>
@@ -9887,7 +10487,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A262" s="9">
         <v>200042</v>
       </c>
@@ -9907,7 +10507,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="263" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A263" s="9">
         <v>200043</v>
       </c>
@@ -9927,7 +10527,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A264" s="9">
         <v>200044</v>
       </c>
@@ -9947,7 +10547,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A265" s="9">
         <v>200045</v>
       </c>
@@ -9967,7 +10567,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="266" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A266" s="9">
         <v>200046</v>
       </c>
@@ -9987,7 +10587,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A267" s="9">
         <v>200047</v>
       </c>
@@ -10007,7 +10607,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A268" s="9">
         <v>200048</v>
       </c>
@@ -10027,7 +10627,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A269" s="9">
         <v>200049</v>
       </c>
@@ -10047,7 +10647,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" s="2" customFormat="1" spans="1:6">
       <c r="A270" s="9">
         <v>200050</v>
       </c>
@@ -10067,7 +10667,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" s="2" customFormat="1" spans="1:6">
       <c r="A271" s="9">
         <v>200051</v>
       </c>
@@ -10087,7 +10687,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A272" s="9">
         <v>200052</v>
       </c>
@@ -10107,7 +10707,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A273" s="9">
         <v>200053</v>
       </c>
@@ -10127,7 +10727,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" s="2" customFormat="1" spans="1:6">
       <c r="A274" s="9">
         <v>200054</v>
       </c>
@@ -10147,7 +10747,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A275" s="9">
         <v>200055</v>
       </c>
@@ -10167,7 +10767,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="276" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A276" s="9">
         <v>200056</v>
       </c>
@@ -10187,7 +10787,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A277" s="9">
         <v>200057</v>
       </c>
@@ -10207,7 +10807,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="278" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A278" s="9">
         <v>200058</v>
       </c>
@@ -10227,7 +10827,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A279" s="9">
         <v>200059</v>
       </c>
@@ -10247,7 +10847,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A280" s="9">
         <v>200060</v>
       </c>
@@ -10267,7 +10867,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A281" s="9">
         <v>200061</v>
       </c>
@@ -10287,7 +10887,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A282" s="9">
         <v>200062</v>
       </c>
@@ -10307,7 +10907,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A283" s="9">
         <v>200063</v>
       </c>
@@ -10327,7 +10927,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A284" s="9">
         <v>200064</v>
       </c>
@@ -10347,7 +10947,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="285" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A285" s="9">
         <v>200065</v>
       </c>
@@ -10367,7 +10967,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="286" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A286" s="9">
         <v>200066</v>
       </c>
@@ -10387,7 +10987,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="287" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A287" s="9">
         <v>200067</v>
       </c>
@@ -10407,7 +11007,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="288" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A288" s="9">
         <v>200068</v>
       </c>
@@ -10427,7 +11027,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="289" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A289" s="9">
         <v>200069</v>
       </c>
@@ -10447,7 +11047,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="290" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A290" s="9">
         <v>200070</v>
       </c>
@@ -10467,7 +11067,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="291" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A291" s="9">
         <v>200071</v>
       </c>
@@ -10487,7 +11087,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="292" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A292" s="4">
         <v>200072</v>
       </c>
@@ -10507,7 +11107,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="293" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A293" s="4">
         <v>200073</v>
       </c>
@@ -10527,7 +11127,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="294" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A294" s="4">
         <v>200074</v>
       </c>
@@ -10547,7 +11147,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="295" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A295" s="4">
         <v>200075</v>
       </c>
@@ -10567,7 +11167,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="296" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A296" s="4">
         <v>200076</v>
       </c>
@@ -10587,7 +11187,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="297" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A297" s="4">
         <v>200077</v>
       </c>
@@ -10607,7 +11207,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A298" s="4">
         <v>200078</v>
       </c>
@@ -10627,7 +11227,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="299" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A299" s="4">
         <v>200079</v>
       </c>
@@ -10647,7 +11247,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="300" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A300" s="4">
         <v>200080</v>
       </c>
@@ -10667,7 +11267,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="301" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A301" s="4">
         <v>200081</v>
       </c>
@@ -10687,7 +11287,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="302" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A302" s="4">
         <v>200082</v>
       </c>
@@ -10707,7 +11307,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="303" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A303" s="4">
         <v>200083</v>
       </c>
@@ -10727,7 +11327,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="304" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A304" s="4">
         <v>200084</v>
       </c>
@@ -10747,7 +11347,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="305" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A305" s="4">
         <v>200085</v>
       </c>
@@ -10767,7 +11367,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="306" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A306" s="4">
         <v>200086</v>
       </c>
@@ -10787,7 +11387,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" s="2" customFormat="1" spans="1:6">
       <c r="A307" s="4">
         <v>200087</v>
       </c>
@@ -10807,7 +11407,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="308" s="2" customFormat="1" spans="1:6">
       <c r="A308" s="4">
         <v>200088</v>
       </c>
@@ -10827,7 +11427,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" s="2" customFormat="1" spans="1:6">
       <c r="A309" s="4">
         <v>200089</v>
       </c>
@@ -10847,7 +11447,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="310" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" s="2" customFormat="1" spans="1:6">
       <c r="A310" s="4">
         <v>200090</v>
       </c>
@@ -10867,7 +11467,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="311" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" s="2" customFormat="1" spans="1:6">
       <c r="A311" s="4">
         <v>200091</v>
       </c>
@@ -10887,7 +11487,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" s="2" customFormat="1" spans="1:6">
       <c r="A312" s="4">
         <v>200092</v>
       </c>
@@ -10907,7 +11507,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" s="2" customFormat="1" spans="1:6">
       <c r="A313" s="4">
         <v>200093</v>
       </c>
@@ -10927,7 +11527,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" s="2" customFormat="1" spans="1:6">
       <c r="A314" s="4">
         <v>200094</v>
       </c>
@@ -10947,7 +11547,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" s="2" customFormat="1" spans="1:6">
       <c r="A315" s="4">
         <v>200095</v>
       </c>
@@ -10967,7 +11567,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" s="2" customFormat="1" spans="1:6">
       <c r="A316" s="4">
         <v>200096</v>
       </c>
@@ -10987,7 +11587,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" s="2" customFormat="1" spans="1:6">
       <c r="A317" s="4">
         <v>200097</v>
       </c>
@@ -11007,7 +11607,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="318" s="2" customFormat="1" spans="1:6">
       <c r="A318" s="4">
         <v>200098</v>
       </c>
@@ -11027,7 +11627,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" s="2" customFormat="1" spans="1:6">
       <c r="A319" s="4">
         <v>200099</v>
       </c>
@@ -11047,7 +11647,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" s="2" customFormat="1" spans="1:6">
       <c r="A320" s="4">
         <v>200100</v>
       </c>
@@ -11067,7 +11667,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" s="2" customFormat="1" spans="1:6">
       <c r="A321" s="4">
         <v>200101</v>
       </c>
@@ -11087,7 +11687,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="322" s="2" customFormat="1" spans="1:6">
       <c r="A322" s="4">
         <v>200102</v>
       </c>
@@ -11107,7 +11707,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" s="2" customFormat="1" spans="1:6">
       <c r="A323" s="4">
         <v>200103</v>
       </c>
@@ -11127,7 +11727,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" s="2" customFormat="1" spans="1:6">
       <c r="A324" s="4">
         <v>200104</v>
       </c>
@@ -11147,7 +11747,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" s="2" customFormat="1" spans="1:6">
       <c r="A325" s="4">
         <v>200105</v>
       </c>
@@ -11167,7 +11767,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" s="2" customFormat="1" spans="1:6">
       <c r="A326" s="4">
         <v>200106</v>
       </c>
@@ -11187,7 +11787,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" s="2" customFormat="1" spans="1:6">
       <c r="A327" s="4">
         <v>200107</v>
       </c>
@@ -11207,7 +11807,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" s="2" customFormat="1" spans="1:6">
       <c r="A328" s="4">
         <v>200108</v>
       </c>
@@ -11227,7 +11827,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" s="2" customFormat="1" spans="1:6">
       <c r="A329" s="4">
         <v>200109</v>
       </c>
@@ -11247,7 +11847,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" s="2" customFormat="1" spans="1:6">
       <c r="A330" s="4">
         <v>200110</v>
       </c>
@@ -11267,7 +11867,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" s="2" customFormat="1" spans="1:6">
       <c r="A331" s="4">
         <v>200111</v>
       </c>
@@ -11287,7 +11887,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" s="2" customFormat="1" spans="1:6">
       <c r="A332" s="4">
         <v>200112</v>
       </c>
@@ -11307,7 +11907,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="333" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" s="2" customFormat="1" spans="1:6">
       <c r="A333" s="4">
         <v>200113</v>
       </c>
@@ -11327,7 +11927,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" s="2" customFormat="1" spans="1:6">
       <c r="A334" s="4">
         <v>200114</v>
       </c>
@@ -11347,7 +11947,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" s="2" customFormat="1" spans="1:6">
       <c r="A335" s="4">
         <v>200115</v>
       </c>
@@ -11367,7 +11967,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" s="2" customFormat="1" spans="1:6">
       <c r="A336" s="4">
         <v>200116</v>
       </c>
@@ -11387,7 +11987,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="337" s="2" customFormat="1" spans="1:6">
       <c r="A337" s="4">
         <v>200117</v>
       </c>
@@ -11407,7 +12007,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="338" s="2" customFormat="1" spans="1:6">
       <c r="A338" s="4">
         <v>200118</v>
       </c>
@@ -11427,7 +12027,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" s="2" customFormat="1" spans="1:6">
       <c r="A339" s="4">
         <v>200119</v>
       </c>
@@ -11447,8 +12047,8 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" s="2" customFormat="1"/>
+    <row r="341" s="2" customFormat="1" spans="1:6">
       <c r="A341" s="2">
         <v>300000</v>
       </c>
@@ -11468,7 +12068,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" s="2" customFormat="1" spans="1:6">
       <c r="A342" s="2">
         <v>300001</v>
       </c>
@@ -11488,7 +12088,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" s="2" customFormat="1" spans="1:6">
       <c r="A343" s="2">
         <v>300002</v>
       </c>
@@ -11508,7 +12108,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="344" s="2" customFormat="1" spans="1:6">
       <c r="A344" s="2">
         <v>300003</v>
       </c>
@@ -11528,7 +12128,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="345" s="2" customFormat="1" spans="1:6">
       <c r="A345" s="2">
         <v>300004</v>
       </c>
@@ -11548,7 +12148,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="346" s="2" customFormat="1" spans="1:6">
       <c r="A346" s="2">
         <v>300005</v>
       </c>
@@ -11568,7 +12168,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="347" s="2" customFormat="1" spans="1:6">
       <c r="A347" s="2">
         <v>300006</v>
       </c>
@@ -11588,7 +12188,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="348" s="2" customFormat="1" spans="1:6">
       <c r="A348" s="2">
         <v>300007</v>
       </c>
@@ -11608,7 +12208,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="349" s="2" customFormat="1" spans="1:6">
       <c r="A349" s="2">
         <v>300008</v>
       </c>
@@ -11628,7 +12228,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="350" s="2" customFormat="1" spans="1:6">
       <c r="A350" s="2">
         <v>300009</v>
       </c>
@@ -11648,7 +12248,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="351" s="2" customFormat="1" spans="1:6">
       <c r="A351" s="2">
         <v>300010</v>
       </c>
@@ -11668,7 +12268,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="352" s="2" customFormat="1" spans="1:6">
       <c r="A352" s="2">
         <v>300011</v>
       </c>
@@ -11688,7 +12288,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="353" s="2" customFormat="1" spans="1:6">
       <c r="A353" s="2">
         <v>300012</v>
       </c>
@@ -11708,7 +12308,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="354" s="2" customFormat="1" spans="1:6">
       <c r="A354" s="2">
         <v>300013</v>
       </c>
@@ -11728,7 +12328,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="355" s="2" customFormat="1" spans="1:6">
       <c r="A355" s="2">
         <v>300014</v>
       </c>
@@ -11748,7 +12348,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="356" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="356" s="2" customFormat="1" spans="1:6">
       <c r="A356" s="2">
         <v>300015</v>
       </c>
@@ -11768,7 +12368,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="357" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="357" s="2" customFormat="1" spans="1:6">
       <c r="A357" s="2">
         <v>300016</v>
       </c>
@@ -11788,7 +12388,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="358" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="358" s="2" customFormat="1" spans="1:6">
       <c r="A358" s="2">
         <v>300017</v>
       </c>
@@ -11808,7 +12408,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="359" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="359" s="2" customFormat="1" spans="1:6">
       <c r="A359" s="2">
         <v>300018</v>
       </c>
@@ -11828,7 +12428,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="360" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="360" s="2" customFormat="1" spans="1:6">
       <c r="A360" s="2">
         <v>300019</v>
       </c>
@@ -11848,7 +12448,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="361" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" s="2" customFormat="1" spans="1:6">
       <c r="A361" s="2">
         <v>300020</v>
       </c>
@@ -11868,7 +12468,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="362" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" s="2" customFormat="1" spans="1:6">
       <c r="A362" s="2">
         <v>300021</v>
       </c>
@@ -11888,7 +12488,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="363" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="363" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A363" s="2">
         <v>300022</v>
       </c>
@@ -11908,7 +12508,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="364" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" s="2" customFormat="1" spans="1:6">
       <c r="A364" s="2">
         <v>300023</v>
       </c>
@@ -11928,7 +12528,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="365" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="365" s="2" customFormat="1" spans="1:6">
       <c r="A365" s="2">
         <v>300024</v>
       </c>
@@ -11948,7 +12548,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="366" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" s="2" customFormat="1" spans="1:6">
       <c r="A366" s="2">
         <v>300025</v>
       </c>
@@ -11968,7 +12568,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="367" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" s="2" customFormat="1" spans="1:6">
       <c r="A367" s="2">
         <v>300026</v>
       </c>
@@ -11988,7 +12588,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="368" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="368" s="2" customFormat="1" spans="1:6">
       <c r="A368" s="2">
         <v>300027</v>
       </c>
@@ -12008,7 +12608,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="369" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="369" s="2" customFormat="1" spans="1:6">
       <c r="A369" s="2">
         <v>300028</v>
       </c>
@@ -12028,7 +12628,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="370" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="370" s="2" customFormat="1" spans="1:6">
       <c r="A370" s="2">
         <v>300029</v>
       </c>
@@ -12048,7 +12648,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="371" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="371" s="2" customFormat="1" spans="1:6">
       <c r="A371" s="2">
         <v>300030</v>
       </c>
@@ -12068,7 +12668,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="372" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="372" s="2" customFormat="1" spans="1:6">
       <c r="A372" s="2">
         <v>300031</v>
       </c>
@@ -12088,7 +12688,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="373" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" s="2" customFormat="1" spans="1:6">
       <c r="A373" s="2">
         <v>300032</v>
       </c>
@@ -12108,7 +12708,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="374" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="374" s="2" customFormat="1" spans="1:6">
       <c r="A374" s="2">
         <v>300033</v>
       </c>
@@ -12128,7 +12728,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="375" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" s="2" customFormat="1" spans="1:6">
       <c r="A375" s="2">
         <v>300034</v>
       </c>
@@ -12148,7 +12748,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="376" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" s="2" customFormat="1" spans="1:6">
       <c r="A376" s="2">
         <v>300035</v>
       </c>
@@ -12168,7 +12768,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="377" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="377" s="2" customFormat="1" spans="1:6">
       <c r="A377" s="2">
         <v>300036</v>
       </c>
@@ -12188,7 +12788,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="378" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="378" s="2" customFormat="1" spans="1:6">
       <c r="A378" s="2">
         <v>300037</v>
       </c>
@@ -12208,7 +12808,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="379" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="379" s="2" customFormat="1" spans="1:6">
       <c r="A379" s="2">
         <v>300038</v>
       </c>
@@ -12228,7 +12828,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="380" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="380" s="2" customFormat="1" spans="1:6">
       <c r="A380" s="2">
         <v>300039</v>
       </c>
@@ -12244,7 +12844,7 @@
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
-    <row r="381" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="381" s="2" customFormat="1" spans="1:6">
       <c r="A381" s="2">
         <v>300040</v>
       </c>
@@ -12264,7 +12864,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="382" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="382" s="2" customFormat="1" spans="1:6">
       <c r="A382" s="2">
         <v>300041</v>
       </c>
@@ -12284,7 +12884,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="383" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="383" s="2" customFormat="1" spans="1:6">
       <c r="A383" s="2">
         <v>300042</v>
       </c>
@@ -12304,7 +12904,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="384" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="384" s="2" customFormat="1" spans="1:6">
       <c r="A384" s="2">
         <v>300043</v>
       </c>
@@ -12324,7 +12924,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="385" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="385" s="2" customFormat="1" spans="1:6">
       <c r="A385" s="2">
         <v>300044</v>
       </c>
@@ -12344,7 +12944,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="386" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="386" s="2" customFormat="1" spans="1:6">
       <c r="A386" s="2">
         <v>300045</v>
       </c>
@@ -12364,7 +12964,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="387" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="387" s="2" customFormat="1" spans="1:6">
       <c r="A387" s="2">
         <v>300046</v>
       </c>
@@ -12384,7 +12984,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="388" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="388" s="2" customFormat="1" spans="1:6">
       <c r="A388" s="2">
         <v>300047</v>
       </c>
@@ -12404,7 +13004,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="389" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="389" s="2" customFormat="1" spans="1:6">
       <c r="A389" s="2">
         <v>300048</v>
       </c>
@@ -12424,7 +13024,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="390" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="390" s="2" customFormat="1" spans="1:6">
       <c r="A390" s="2">
         <v>300049</v>
       </c>
@@ -12444,7 +13044,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="391" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="391" s="2" customFormat="1" spans="1:6">
       <c r="A391" s="2">
         <v>300050</v>
       </c>
@@ -12464,7 +13064,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="392" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="392" s="2" customFormat="1" spans="1:6">
       <c r="A392" s="2">
         <v>300051</v>
       </c>
@@ -12472,384 +13072,452 @@
         <v>1414</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="393" s="2" customFormat="1" spans="1:6">
       <c r="A393" s="2">
         <v>300052</v>
       </c>
       <c r="B393" s="18" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="394" s="2" customFormat="1" spans="1:6">
       <c r="A394" s="2">
         <v>300053</v>
       </c>
       <c r="B394" s="18" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="395" s="2" customFormat="1" spans="1:6">
       <c r="A395" s="2">
         <v>300054</v>
       </c>
       <c r="B395" s="18" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B396" s="18"/>
-    </row>
-    <row r="397" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B397" s="18"/>
-    </row>
-    <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B398" s="18"/>
-    </row>
-    <row r="399" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B399" s="18"/>
-    </row>
-    <row r="400" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B400" s="18"/>
-    </row>
-    <row r="401" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B401" s="18"/>
-    </row>
-    <row r="402" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="396" s="2" customFormat="1" spans="1:4">
+      <c r="A396" s="2">
+        <v>300055</v>
+      </c>
+      <c r="B396" s="18" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C396" s="2">
+        <v>111</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="397" s="2" customFormat="1" spans="1:4">
+      <c r="A397" s="2">
+        <v>300056</v>
+      </c>
+      <c r="B397" s="18" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C397" s="2">
+        <v>111</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="398" s="2" customFormat="1" spans="1:4">
+      <c r="A398" s="2">
+        <v>300057</v>
+      </c>
+      <c r="B398" s="18" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C398" s="2">
+        <v>111</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="399" s="2" customFormat="1" spans="1:4">
+      <c r="A399" s="2">
+        <v>300058</v>
+      </c>
+      <c r="B399" s="18" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C399" s="2">
+        <v>111</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="400" s="2" customFormat="1" spans="1:4">
+      <c r="A400" s="2">
+        <v>300059</v>
+      </c>
+      <c r="B400" s="18" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C400" s="2">
+        <v>111</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="401" s="2" customFormat="1" spans="1:4">
+      <c r="A401" s="2">
+        <v>300060</v>
+      </c>
+      <c r="B401" s="18" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C401" s="2">
+        <v>111</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="402" s="2" customFormat="1" spans="2:2">
       <c r="B402" s="18"/>
     </row>
-    <row r="403" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="562" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="563" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="564" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="567" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="568" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="569" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="570" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="571" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="572" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="573" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="580" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="581" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="582" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="583" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="584" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="585" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="586" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="587" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="589" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="590" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="591" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="592" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="593" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="594" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="595" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="596" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="597" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="598" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="599" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="600" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="601" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="602" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="603" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="604" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="605" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="606" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="607" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="608" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="609" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="610" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="611" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="612" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="613" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="614" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="617" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="621" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="622" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="623" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="646" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="648" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="649" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="650" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="651" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="652" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="653" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="654" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="655" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="656" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="657" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="658" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="659" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="660" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="661" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="662" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="663" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="664" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="665" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="666" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="667" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="668" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="669" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="670" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="671" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="672" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="403" s="2" customFormat="1" spans="2:2">
+      <c r="B403" s="18"/>
+    </row>
+    <row r="404" s="2" customFormat="1"/>
+    <row r="405" s="2" customFormat="1"/>
+    <row r="406" s="2" customFormat="1"/>
+    <row r="407" s="2" customFormat="1"/>
+    <row r="408" s="2" customFormat="1"/>
+    <row r="409" s="2" customFormat="1"/>
+    <row r="410" s="2" customFormat="1"/>
+    <row r="411" s="2" customFormat="1"/>
+    <row r="412" s="2" customFormat="1"/>
+    <row r="413" s="2" customFormat="1"/>
+    <row r="414" s="2" customFormat="1"/>
+    <row r="415" s="2" customFormat="1"/>
+    <row r="416" s="2" customFormat="1"/>
+    <row r="417" s="2" customFormat="1"/>
+    <row r="418" s="2" customFormat="1"/>
+    <row r="419" s="2" customFormat="1"/>
+    <row r="420" s="2" customFormat="1"/>
+    <row r="421" s="2" customFormat="1"/>
+    <row r="422" s="2" customFormat="1"/>
+    <row r="423" s="2" customFormat="1"/>
+    <row r="424" s="2" customFormat="1"/>
+    <row r="425" s="2" customFormat="1"/>
+    <row r="426" s="2" customFormat="1"/>
+    <row r="427" s="2" customFormat="1"/>
+    <row r="428" s="2" customFormat="1"/>
+    <row r="429" s="2" customFormat="1"/>
+    <row r="430" s="2" customFormat="1"/>
+    <row r="431" s="2" customFormat="1"/>
+    <row r="432" s="2" customFormat="1"/>
+    <row r="433" s="2" customFormat="1"/>
+    <row r="434" s="2" customFormat="1"/>
+    <row r="435" s="2" customFormat="1"/>
+    <row r="436" s="2" customFormat="1"/>
+    <row r="437" s="2" customFormat="1"/>
+    <row r="438" s="2" customFormat="1"/>
+    <row r="439" s="2" customFormat="1"/>
+    <row r="440" s="2" customFormat="1"/>
+    <row r="441" s="2" customFormat="1"/>
+    <row r="442" s="2" customFormat="1"/>
+    <row r="443" s="2" customFormat="1"/>
+    <row r="444" s="2" customFormat="1"/>
+    <row r="445" s="2" customFormat="1"/>
+    <row r="446" s="2" customFormat="1"/>
+    <row r="447" s="2" customFormat="1"/>
+    <row r="448" s="2" customFormat="1"/>
+    <row r="449" s="2" customFormat="1"/>
+    <row r="450" s="2" customFormat="1"/>
+    <row r="451" s="2" customFormat="1"/>
+    <row r="452" s="2" customFormat="1"/>
+    <row r="453" s="2" customFormat="1"/>
+    <row r="454" s="2" customFormat="1"/>
+    <row r="455" s="2" customFormat="1"/>
+    <row r="456" s="2" customFormat="1"/>
+    <row r="457" s="2" customFormat="1"/>
+    <row r="458" s="2" customFormat="1"/>
+    <row r="459" s="2" customFormat="1"/>
+    <row r="460" s="2" customFormat="1"/>
+    <row r="461" s="2" customFormat="1"/>
+    <row r="462" s="2" customFormat="1"/>
+    <row r="463" s="2" customFormat="1"/>
+    <row r="464" s="2" customFormat="1"/>
+    <row r="465" s="2" customFormat="1"/>
+    <row r="466" s="2" customFormat="1"/>
+    <row r="467" s="2" customFormat="1"/>
+    <row r="468" s="2" customFormat="1"/>
+    <row r="469" s="2" customFormat="1"/>
+    <row r="470" s="2" customFormat="1"/>
+    <row r="471" s="2" customFormat="1"/>
+    <row r="472" s="2" customFormat="1"/>
+    <row r="473" s="2" customFormat="1"/>
+    <row r="474" s="2" customFormat="1"/>
+    <row r="475" s="2" customFormat="1"/>
+    <row r="476" s="2" customFormat="1"/>
+    <row r="477" s="2" customFormat="1"/>
+    <row r="478" s="2" customFormat="1"/>
+    <row r="479" s="2" customFormat="1"/>
+    <row r="480" s="2" customFormat="1"/>
+    <row r="481" s="2" customFormat="1"/>
+    <row r="482" s="2" customFormat="1"/>
+    <row r="483" s="2" customFormat="1"/>
+    <row r="484" s="2" customFormat="1"/>
+    <row r="485" s="2" customFormat="1"/>
+    <row r="486" s="2" customFormat="1"/>
+    <row r="487" s="2" customFormat="1"/>
+    <row r="488" s="2" customFormat="1"/>
+    <row r="489" s="2" customFormat="1"/>
+    <row r="490" s="2" customFormat="1"/>
+    <row r="491" s="2" customFormat="1"/>
+    <row r="492" s="2" customFormat="1"/>
+    <row r="493" s="2" customFormat="1"/>
+    <row r="494" s="2" customFormat="1"/>
+    <row r="495" s="2" customFormat="1"/>
+    <row r="496" s="2" customFormat="1"/>
+    <row r="497" s="2" customFormat="1"/>
+    <row r="498" s="2" customFormat="1"/>
+    <row r="499" s="2" customFormat="1"/>
+    <row r="500" s="2" customFormat="1"/>
+    <row r="501" s="2" customFormat="1"/>
+    <row r="502" s="2" customFormat="1"/>
+    <row r="503" s="2" customFormat="1"/>
+    <row r="504" s="2" customFormat="1"/>
+    <row r="505" s="2" customFormat="1"/>
+    <row r="506" s="2" customFormat="1"/>
+    <row r="507" s="2" customFormat="1"/>
+    <row r="508" s="2" customFormat="1"/>
+    <row r="509" s="2" customFormat="1"/>
+    <row r="510" s="2" customFormat="1"/>
+    <row r="511" s="2" customFormat="1"/>
+    <row r="512" s="2" customFormat="1"/>
+    <row r="513" s="2" customFormat="1"/>
+    <row r="514" s="2" customFormat="1"/>
+    <row r="515" s="2" customFormat="1"/>
+    <row r="516" s="2" customFormat="1"/>
+    <row r="517" s="2" customFormat="1"/>
+    <row r="518" s="2" customFormat="1"/>
+    <row r="519" s="2" customFormat="1"/>
+    <row r="520" s="2" customFormat="1"/>
+    <row r="521" s="2" customFormat="1"/>
+    <row r="522" s="2" customFormat="1"/>
+    <row r="523" s="2" customFormat="1"/>
+    <row r="524" s="2" customFormat="1"/>
+    <row r="525" s="2" customFormat="1"/>
+    <row r="526" s="2" customFormat="1"/>
+    <row r="527" s="2" customFormat="1"/>
+    <row r="528" s="2" customFormat="1"/>
+    <row r="529" s="2" customFormat="1"/>
+    <row r="530" s="2" customFormat="1"/>
+    <row r="531" s="2" customFormat="1"/>
+    <row r="532" s="2" customFormat="1"/>
+    <row r="533" s="2" customFormat="1"/>
+    <row r="534" s="2" customFormat="1"/>
+    <row r="535" s="2" customFormat="1"/>
+    <row r="536" s="2" customFormat="1"/>
+    <row r="537" s="2" customFormat="1"/>
+    <row r="538" s="2" customFormat="1"/>
+    <row r="539" s="2" customFormat="1"/>
+    <row r="540" s="2" customFormat="1"/>
+    <row r="541" s="2" customFormat="1"/>
+    <row r="542" s="2" customFormat="1"/>
+    <row r="543" s="2" customFormat="1"/>
+    <row r="544" s="2" customFormat="1"/>
+    <row r="545" s="2" customFormat="1"/>
+    <row r="546" s="2" customFormat="1"/>
+    <row r="547" s="2" customFormat="1"/>
+    <row r="548" s="2" customFormat="1"/>
+    <row r="549" s="2" customFormat="1"/>
+    <row r="550" s="2" customFormat="1"/>
+    <row r="551" s="2" customFormat="1"/>
+    <row r="552" s="2" customFormat="1"/>
+    <row r="553" s="2" customFormat="1"/>
+    <row r="554" s="2" customFormat="1"/>
+    <row r="555" s="2" customFormat="1"/>
+    <row r="556" s="2" customFormat="1"/>
+    <row r="557" s="2" customFormat="1"/>
+    <row r="558" s="2" customFormat="1"/>
+    <row r="559" s="2" customFormat="1"/>
+    <row r="560" s="2" customFormat="1"/>
+    <row r="561" s="2" customFormat="1"/>
+    <row r="562" s="2" customFormat="1"/>
+    <row r="563" s="2" customFormat="1"/>
+    <row r="564" s="2" customFormat="1"/>
+    <row r="565" s="2" customFormat="1"/>
+    <row r="566" s="2" customFormat="1"/>
+    <row r="567" s="2" customFormat="1"/>
+    <row r="568" s="2" customFormat="1"/>
+    <row r="569" s="2" customFormat="1"/>
+    <row r="570" s="2" customFormat="1"/>
+    <row r="571" s="2" customFormat="1"/>
+    <row r="572" s="2" customFormat="1"/>
+    <row r="573" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="574" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="575" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="576" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="577" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="578" s="2" customFormat="1" ht="18.75" customHeight="1"/>
+    <row r="579" s="2" customFormat="1"/>
+    <row r="580" s="2" customFormat="1"/>
+    <row r="581" s="2" customFormat="1"/>
+    <row r="582" s="2" customFormat="1"/>
+    <row r="583" s="2" customFormat="1"/>
+    <row r="584" s="2" customFormat="1"/>
+    <row r="585" s="2" customFormat="1"/>
+    <row r="586" s="2" customFormat="1"/>
+    <row r="587" s="2" customFormat="1"/>
+    <row r="588" s="2" customFormat="1"/>
+    <row r="589" s="2" customFormat="1"/>
+    <row r="590" s="2" customFormat="1"/>
+    <row r="591" s="2" customFormat="1"/>
+    <row r="592" s="2" customFormat="1"/>
+    <row r="593" s="2" customFormat="1"/>
+    <row r="594" s="2" customFormat="1"/>
+    <row r="595" s="2" customFormat="1"/>
+    <row r="596" s="2" customFormat="1"/>
+    <row r="597" s="2" customFormat="1"/>
+    <row r="598" s="2" customFormat="1"/>
+    <row r="599" s="2" customFormat="1"/>
+    <row r="600" s="2" customFormat="1"/>
+    <row r="601" s="2" customFormat="1"/>
+    <row r="602" s="2" customFormat="1"/>
+    <row r="603" s="2" customFormat="1"/>
+    <row r="604" s="2" customFormat="1"/>
+    <row r="605" s="2" customFormat="1"/>
+    <row r="606" s="2" customFormat="1"/>
+    <row r="607" s="2" customFormat="1"/>
+    <row r="608" s="2" customFormat="1"/>
+    <row r="609" s="2" customFormat="1"/>
+    <row r="610" s="2" customFormat="1"/>
+    <row r="611" s="2" customFormat="1"/>
+    <row r="612" s="2" customFormat="1"/>
+    <row r="613" s="2" customFormat="1"/>
+    <row r="614" s="2" customFormat="1"/>
+    <row r="615" s="2" customFormat="1"/>
+    <row r="616" s="2" customFormat="1"/>
+    <row r="617" s="2" customFormat="1"/>
+    <row r="618" s="2" customFormat="1"/>
+    <row r="619" s="2" customFormat="1"/>
+    <row r="620" s="2" customFormat="1"/>
+    <row r="621" s="2" customFormat="1"/>
+    <row r="622" s="2" customFormat="1"/>
+    <row r="623" s="2" customFormat="1"/>
+    <row r="624" s="2" customFormat="1"/>
+    <row r="625" s="2" customFormat="1"/>
+    <row r="626" s="2" customFormat="1"/>
+    <row r="627" s="2" customFormat="1"/>
+    <row r="628" s="2" customFormat="1"/>
+    <row r="629" s="2" customFormat="1"/>
+    <row r="630" s="2" customFormat="1"/>
+    <row r="631" s="2" customFormat="1"/>
+    <row r="632" s="2" customFormat="1"/>
+    <row r="633" s="2" customFormat="1"/>
+    <row r="634" s="2" customFormat="1"/>
+    <row r="635" s="2" customFormat="1"/>
+    <row r="636" s="2" customFormat="1"/>
+    <row r="637" s="2" customFormat="1"/>
+    <row r="638" s="2" customFormat="1"/>
+    <row r="639" s="2" customFormat="1"/>
+    <row r="640" s="2" customFormat="1"/>
+    <row r="641" s="2" customFormat="1"/>
+    <row r="642" s="2" customFormat="1"/>
+    <row r="643" s="2" customFormat="1"/>
+    <row r="644" s="2" customFormat="1"/>
+    <row r="645" s="2" customFormat="1"/>
+    <row r="646" s="2" customFormat="1" ht="18" customHeight="1"/>
+    <row r="647" s="2" customFormat="1"/>
+    <row r="648" s="2" customFormat="1"/>
+    <row r="649" s="2" customFormat="1"/>
+    <row r="650" s="2" customFormat="1"/>
+    <row r="651" s="2" customFormat="1"/>
+    <row r="652" s="2" customFormat="1"/>
+    <row r="653" s="2" customFormat="1"/>
+    <row r="654" s="2" customFormat="1"/>
+    <row r="655" s="2" customFormat="1"/>
+    <row r="656" s="2" customFormat="1"/>
+    <row r="657" s="2" customFormat="1"/>
+    <row r="658" s="2" customFormat="1"/>
+    <row r="659" s="2" customFormat="1"/>
+    <row r="660" s="2" customFormat="1"/>
+    <row r="661" s="2" customFormat="1"/>
+    <row r="662" s="2" customFormat="1"/>
+    <row r="663" s="2" customFormat="1"/>
+    <row r="664" s="2" customFormat="1"/>
+    <row r="665" s="2" customFormat="1"/>
+    <row r="666" s="2" customFormat="1"/>
+    <row r="667" s="2" customFormat="1"/>
+    <row r="668" s="2" customFormat="1"/>
+    <row r="669" s="2" customFormat="1"/>
+    <row r="670" s="2" customFormat="1"/>
+    <row r="671" s="2" customFormat="1"/>
+    <row r="672" s="2" customFormat="1"/>
+    <row r="673" spans="1:1">
       <c r="A673" s="2"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:1">
       <c r="A674" s="2"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:1">
       <c r="A675" s="2"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:1">
       <c r="A676" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB99B3-64A2-41D8-B977-F363CA216DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C43694-8B7C-4C9D-B800-F0AF17C2C6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="1432">
   <si>
     <t>int</t>
   </si>
@@ -3903,12 +3903,6 @@
     <t>CurrentRoomId</t>
   </si>
   <si>
-    <t>Current room id:{0}</t>
-  </si>
-  <si>
-    <t>當前房間Id：{0}</t>
-  </si>
-  <si>
     <t>JumpGameFailed</t>
   </si>
   <si>
@@ -3937,9 +3931,6 @@
   </si>
   <si>
     <t>JumpRoomText002</t>
-  </si>
-  <si>
-    <t>Please enter the room ID</t>
   </si>
   <si>
     <t>請輸入房間id</t>
@@ -4339,6 +4330,18 @@
   </si>
   <si>
     <t>Rushing Water</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room ID: {0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>房間ID: {0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the Room ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4420,7 +4423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4474,6 +4477,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4859,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C371" sqref="C371"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8863,7 +8869,9 @@
       </c>
     </row>
     <row r="205" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>105651</v>
+      </c>
       <c r="B205" s="4" t="s">
         <v>810</v>
       </c>
@@ -8872,7 +8880,9 @@
       </c>
     </row>
     <row r="206" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>105652</v>
+      </c>
       <c r="B206" s="4" t="s">
         <v>812</v>
       </c>
@@ -8881,7 +8891,9 @@
       </c>
     </row>
     <row r="207" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>105653</v>
+      </c>
       <c r="B207" s="4" t="s">
         <v>814</v>
       </c>
@@ -8890,7 +8902,9 @@
       </c>
     </row>
     <row r="208" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1">
+        <v>105654</v>
+      </c>
       <c r="B208" s="4" t="s">
         <v>816</v>
       </c>
@@ -11465,17 +11479,17 @@
       <c r="B341" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="C341" s="14" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E341" s="14" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F341" s="14" t="s">
-        <v>1287</v>
+      <c r="C341" s="20" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D341" s="19" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E341" s="20" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F341" s="20" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11483,19 +11497,19 @@
         <v>300001</v>
       </c>
       <c r="B342" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C342" s="14" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D342" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="C342" s="14" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>1291</v>
-      </c>
       <c r="E342" s="14" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F342" s="14" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11503,19 +11517,19 @@
         <v>300002</v>
       </c>
       <c r="B343" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D343" s="3" t="s">
         <v>1292</v>
       </c>
-      <c r="C343" s="3" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>1294</v>
-      </c>
       <c r="E343" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11523,19 +11537,19 @@
         <v>300003</v>
       </c>
       <c r="B344" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D344" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="C344" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>1297</v>
-      </c>
       <c r="E344" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11543,19 +11557,19 @@
         <v>300004</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>1299</v>
+        <v>1296</v>
+      </c>
+      <c r="C345" s="19" t="s">
+        <v>1431</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E345" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
+      </c>
+      <c r="E345" s="19" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F345" s="19" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11563,19 +11577,19 @@
         <v>300005</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11583,19 +11597,19 @@
         <v>300006</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11603,19 +11617,19 @@
         <v>300007</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11623,19 +11637,19 @@
         <v>300008</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11643,19 +11657,19 @@
         <v>300009</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11663,19 +11677,19 @@
         <v>300010</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11683,19 +11697,19 @@
         <v>300011</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11703,19 +11717,19 @@
         <v>300012</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11723,19 +11737,19 @@
         <v>300013</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11743,7 +11757,7 @@
         <v>300014</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>455</v>
@@ -11763,19 +11777,19 @@
         <v>300015</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="357" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11783,19 +11797,19 @@
         <v>300016</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="358" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11803,19 +11817,19 @@
         <v>300017</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="359" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11823,19 +11837,19 @@
         <v>300018</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="360" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11843,19 +11857,19 @@
         <v>300019</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="361" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11863,19 +11877,19 @@
         <v>300020</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="362" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11883,19 +11897,19 @@
         <v>300021</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="363" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -11903,19 +11917,19 @@
         <v>300022</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="364" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11923,19 +11937,19 @@
         <v>300023</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="365" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -11943,7 +11957,7 @@
         <v>300024</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>309</v>
@@ -11963,7 +11977,7 @@
         <v>300025</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>305</v>
@@ -11983,7 +11997,7 @@
         <v>300026</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>301</v>
@@ -12003,19 +12017,19 @@
         <v>300027</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="F368" s="16" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="369" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12023,7 +12037,7 @@
         <v>300028</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>313</v>
@@ -12043,19 +12057,19 @@
         <v>300029</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="371" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12063,19 +12077,19 @@
         <v>300030</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="372" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12083,19 +12097,19 @@
         <v>300031</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="373" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12103,19 +12117,19 @@
         <v>300032</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="374" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12123,19 +12137,19 @@
         <v>300033</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="375" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12143,19 +12157,19 @@
         <v>300034</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="376" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12163,19 +12177,19 @@
         <v>300035</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="377" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12183,7 +12197,7 @@
         <v>300036</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>317</v>
@@ -12203,19 +12217,19 @@
         <v>300037</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="379" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12223,19 +12237,19 @@
         <v>300038</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="380" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12243,35 +12257,39 @@
         <v>300039</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C380" s="19" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="D380" s="19" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E380" s="3"/>
-      <c r="F380" s="3"/>
+        <v>1422</v>
+      </c>
+      <c r="E380" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F380" s="19" t="s">
+        <v>1422</v>
+      </c>
     </row>
     <row r="381" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>300040</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C381" s="19" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="E381" s="19" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="F381" s="19" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="382" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12279,19 +12297,19 @@
         <v>300041</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="383" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12299,19 +12317,19 @@
         <v>300042</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="384" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12319,19 +12337,19 @@
         <v>300043</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="385" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12339,19 +12357,19 @@
         <v>300044</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E385" s="19" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="F385" s="19" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="386" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12359,19 +12377,19 @@
         <v>300045</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="E386" s="19" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="F386" s="19" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="387" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12379,19 +12397,19 @@
         <v>300046</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="388" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12399,19 +12417,19 @@
         <v>300047</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="389" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12419,19 +12437,19 @@
         <v>300048</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="390" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12439,19 +12457,19 @@
         <v>300049</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="391" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12459,19 +12477,19 @@
         <v>300050</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="392" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12479,19 +12497,19 @@
         <v>300051</v>
       </c>
       <c r="B392" s="18" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="393" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12499,19 +12517,19 @@
         <v>300052</v>
       </c>
       <c r="B393" s="18" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="394" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12519,19 +12537,19 @@
         <v>300053</v>
       </c>
       <c r="B394" s="18" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="395" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12539,19 +12557,19 @@
         <v>300054</v>
       </c>
       <c r="B395" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="396" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/dragon-verse/Excels/Language_多语言表.xlsx
+++ b/dragon-verse/Excels/Language_多语言表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\dragon-verse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C43694-8B7C-4C9D-B800-F0AF17C2C6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBE563C-AE24-4977-B16E-D748EC3D0404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,12 +276,6 @@
     <t>BagItemName0001</t>
   </si>
   <si>
-    <t>DragonBall</t>
-  </si>
-  <si>
-    <t>Dragon位面球</t>
-  </si>
-  <si>
     <t>ドラゴンボール</t>
   </si>
   <si>
@@ -1572,12 +1566,6 @@
     <t>Catch_004</t>
   </si>
   <si>
-    <t>Insufficient Dragonball, try again.</t>
-  </si>
-  <si>
-    <t>您的DragonBall不足，無法捕捉。</t>
-  </si>
-  <si>
     <t>ドラゴンボールがありません</t>
   </si>
   <si>
@@ -2562,69 +2550,21 @@
     <t>Dialogue0010</t>
   </si>
   <si>
-    <t>Hey, new adventurer! Welcome to Dragonverse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: DragonBalls.</t>
-  </si>
-  <si>
-    <t>喲，新來的冒險家！歡迎來到Dragonverse Neo，這裡可是個充滿奇妙的世界。看到地上那些五光十色的物體了嗎？那可是我們這裡的寶貝DragonBall。</t>
-  </si>
-  <si>
-    <t>こんにちは、新米の冒険者さん！Dragonverse Neoへようこそ！ここは不思議な世界でいっぱいのんですよ。地面にキラキラ光る色とりどりのオブジェクトが見えますか？それは當地の寶物、DragonBallなんです。</t>
-  </si>
-  <si>
     <t>Dialogue0011</t>
   </si>
   <si>
-    <t>Dragonball? looks pretty cool?</t>
-  </si>
-  <si>
-    <t>DragonBall？很厲害的樣子？</t>
-  </si>
-  <si>
-    <t>DragonBall？それってすごそう？</t>
-  </si>
-  <si>
     <t>Dialogue0012</t>
   </si>
   <si>
-    <t>You bet! Dragonballs are preciously unique in this land, it's designed to capture DragonBorns or as an crafting material for mysterious items! Let me help you recognize them.</t>
-  </si>
-  <si>
-    <t>沒錯！DragonBall是這片大陸上獨有的特產。你可以用它們來捕捉Modragon，也能用來合成一些有趣的東西。來，我教你如何辨認DragonBall。</t>
-  </si>
-  <si>
-    <t>そうなんです！DragonBallはこの大陸ならではの特産品なんです。Modragonを捕まえるためにも使えますし、面白いアイテムを合成するのにも使えるんですよ。さあ、どうやってDragonBallを見分けるか教えてあげるね。</t>
-  </si>
-  <si>
     <t>Dialogue0013</t>
   </si>
   <si>
-    <t>The rarities of these DragonBalls are determined by their colors and textures. Rare DragonBalls have higher odds in capturing DragonBorns.</t>
-  </si>
-  <si>
-    <t>這些DragonBall有不同的顏色和紋理，代表著它們的不同稀有度，越稀有的DragonBall捕獲成功率越高。</t>
-  </si>
-  <si>
-    <t>これらのDragonBallには異なる色と質感があり、それが異なる希少度を表しています。希少なDragonBallほど、捕獲の成功率が高まるんです。</t>
-  </si>
-  <si>
     <t>Dialogue0014</t>
   </si>
   <si>
-    <t>How can I get Dragonball?</t>
-  </si>
-  <si>
-    <t>我要如何獲得DragonBall呢？</t>
-  </si>
-  <si>
-    <t>DragonBallを入手するにはどうすればいいの？</t>
-  </si>
-  <si>
     <t>Dialogue0015</t>
   </si>
   <si>
-    <t>Eazy peasy! Just aim at the Dragonball and hit "collect".</t>
-  </si>
-  <si>
     <t>對準它們，按下採集按鈕，就能輕鬆採集到手。</t>
   </si>
   <si>
@@ -2730,15 +2670,6 @@
     <t>Dialogue0024</t>
   </si>
   <si>
-    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Dragonballs, Pitaya and Gold Coins. Your adventure is await.</t>
-  </si>
-  <si>
-    <t>僅此一家，也只有在Dragonverse Neo中你才能體會到這種樂趣了！去吧，嘗試著採集一些DragonBall,火龍果和金幣吧。</t>
-  </si>
-  <si>
-    <t>これはDragonverse Neoだけの特別な楽しみなんだよ！さあ、DragonBall、火龍果、金貨を集める楽しさを味わってみてね。</t>
-  </si>
-  <si>
     <t>Dialogue0025</t>
   </si>
   <si>
@@ -2766,27 +2697,9 @@
     <t>Dialogue0027</t>
   </si>
   <si>
-    <t>Your honesty is... quite straightfoward. You will need to use your Dragonballs to capture them, I will show you how.</t>
-  </si>
-  <si>
-    <t>你倒是很坦誠嘛！其實，只需要使用DragonBall就可以捕捉到屬於你的Dragon了。先來瞭解一下如何使用DragonBall吧。</t>
-  </si>
-  <si>
-    <t>あなたは率直なんだね！実はDragonBallを使うだけで、自分だけのDragonを捕まえることができるんだよ。まずはDragonBallの使い方を知っておこう。</t>
-  </si>
-  <si>
     <t>Dialogue0028</t>
   </si>
   <si>
-    <t>You see this Dragonball? All you have to do is capture them using the "Capture" controller, select your Dragonball and tose it to the Dragonborn you wish to capture. But it's not easy! Dragonborns could be quite stubborn to capture!</t>
-  </si>
-  <si>
-    <t>看到這顆DragonBall了嗎？你可以通過Modragon捕獲面板的操縱杆，選擇它，然後投擲到想要捕捉的Modragon附近。不過，這可不是一件簡單的事情，每個Modragon都有自己的個性。</t>
-  </si>
-  <si>
-    <t>あのDragonBallを見たかい？Modragonを捕まえるパネルのスティックを使ってそれを選び、捕まえたいModragonの近くに投げるだけ。でも、これは簡単なことじゃないんだよ、それぞれのModragonは自分の個性を持っているんだ。</t>
-  </si>
-  <si>
     <t>Dialogue0029</t>
   </si>
   <si>
@@ -2799,9 +2712,6 @@
     <t>Dialogue0030</t>
   </si>
   <si>
-    <t>That's right, there are 5 traits Dragonborns might have: Vigilant; Grumpy; Timid; Irritable or Gentle. traits are crucial when it comes to capturing them, so you might want to know their traits before you waste your dragonball.</t>
-  </si>
-  <si>
     <t>沒錯，每個Dragon都有五種個性，包括機警的、暴躁的、膽小的、易怒的、溫和的。而且，它們的個性還會影響到捕捉的難度。所以在捕捉之前，最好先瞭解一下你要捕捉的Modragon的個性。</t>
   </si>
   <si>
@@ -3621,15 +3531,6 @@
     <t>Dialogue0102</t>
   </si>
   <si>
-    <t>Like Dragonball, designed to capture wild Modragons! and Pitaya as well, your Modragons loves Pitaya!</t>
-  </si>
-  <si>
-    <t>比如說Dragonball，這是這片大陸上獨有的特產，你可以用它們來捕捉Modragon。當然還有火龍果，你的龍娘寶寶們可全靠它吃飽肚子！</t>
-  </si>
-  <si>
-    <t>たとえばDragonball、これはこの大陸でしか手に入らない特産品で、Modragonを捕まえるために使用できます。もちろん、Fire Dragon Fruitもあります。あなたのドラゴンの子供たちはこれでお腹を満たします！</t>
-  </si>
-  <si>
     <t>Dialogue0103</t>
   </si>
   <si>
@@ -3744,15 +3645,6 @@
     <t>Dialogue0113</t>
   </si>
   <si>
-    <t>Just use your capture controller, but make sure you have sufficient Dragonball in your bag.</t>
-  </si>
-  <si>
-    <t>利用你的捕捉操縱杆即可，不過首先你要確保你的背包裡有Dragonball</t>
-  </si>
-  <si>
-    <t>捕獲レバーを使用すれば簡単ですが、まず最初にバックパックにDragonballがあることを確認してください。</t>
-  </si>
-  <si>
     <t>Dialogue0114</t>
   </si>
   <si>
@@ -3768,15 +3660,6 @@
     <t>Dialogue0115</t>
   </si>
   <si>
-    <t>Not that easy, but if you wanna increase the odds, make sure you release your dragonball in the "perfect zone". Also, it takes luck to box Modragons with tough personalities.</t>
-  </si>
-  <si>
-    <t>可沒那麼容易，想要提高你的捕捉成功率，你必須在完美區域釋放你的Dragonball。性格不好的龍娘尤其難抓！</t>
-  </si>
-  <si>
-    <t>そう簡単にはいきません。捕獲の成功率を上げたい場合は、Dragonballを完璧なエリアで放出する必要があります。性格の悪いドラゴンのお嬢様は特に捕まえるのが難しいですよ！</t>
-  </si>
-  <si>
     <t>Dialogue0116</t>
   </si>
   <si>
@@ -3787,15 +3670,6 @@
   </si>
   <si>
     <t>Dialogue0117</t>
-  </si>
-  <si>
-    <t>That's right, each Modragons has unique personality. Observe their personality in their name tag, helps you save your dragonball for sure!</t>
-  </si>
-  <si>
-    <t>沒錯，每個龍娘都有自己的性格。多觀察龍娘頭頂的性格，不要浪費自己的Dragonball哦！</t>
-  </si>
-  <si>
-    <t>そうですね、それぞれのドラゴンのお嬢様には獨自の性格があります。ドラゴンのお嬢様の頭上の性格をよく観察し、Dragonballを無駄にしないようにしてくださいね！</t>
   </si>
   <si>
     <t>Dialogue0118</t>
@@ -4337,12 +4211,138 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>房間ID: {0}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Please enter the Room ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>房間ID：{0}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Snitch</t>
+  </si>
+  <si>
+    <t>Insufficient Blue Snitch, try again.</t>
+  </si>
+  <si>
+    <t>您的Blue Snitch不足，無法捕捉。</t>
+  </si>
+  <si>
+    <t>Hey, new adventurer! Welcome to Dragonverse Neo. This is a world of dragon fantasy! See those colorful objects on the ground? Those are the true treasures in this land: Blue Snitchs.</t>
+  </si>
+  <si>
+    <t>喲，新來的冒險家！歡迎來到Dragonverse Neo，這裡可是個充滿奇妙的世界。看到地上那些五光十色的物體了嗎？那可是我們這裡的寶貝Blue Snitch。</t>
+  </si>
+  <si>
+    <t>こんにちは、新米の冒険者さん！Dragonverse Neoへようこそ！ここは不思議な世界でいっぱいのんですよ。地面にキラキラ光る色とりどりのオブジェクトが見えますか？それは當地の寶物、Blue Snitchなんです。</t>
+  </si>
+  <si>
+    <t>Blue Snitch? looks pretty cool?</t>
+  </si>
+  <si>
+    <t>Blue Snitch？很厲害的樣子？</t>
+  </si>
+  <si>
+    <t>Blue Snitch？それってすごそう？</t>
+  </si>
+  <si>
+    <t>You bet! Blue Snitchs are preciously unique in this land, it's designed to capture DragonBorns or as an crafting material for mysterious items! Let me help you recognize them.</t>
+  </si>
+  <si>
+    <t>沒錯！Blue Snitch是這片大陸上獨有的特產。你可以用它們來捕捉Modragon，也能用來合成一些有趣的東西。來，我教你如何辨認Blue Snitch。</t>
+  </si>
+  <si>
+    <t>そうなんです！Blue Snitchはこの大陸ならではの特産品なんです。Modragonを捕まえるためにも使えますし、面白いアイテムを合成するのにも使えるんですよ。さあ、どうやってBlue Snitchを見分けるか教えてあげるね。</t>
+  </si>
+  <si>
+    <t>The rarities of these Blue Snitchs are determined by their colors and textures. Rare Blue Snitchs have higher odds in capturing DragonBorns.</t>
+  </si>
+  <si>
+    <t>這些Blue Snitch有不同的顏色和紋理，代表著它們的不同稀有度，越稀有的Blue Snitch捕獲成功率越高。</t>
+  </si>
+  <si>
+    <t>これらのBlue Snitchには異なる色と質感があり、それが異なる希少度を表しています。希少なBlue Snitchほど、捕獲の成功率が高まるんです。</t>
+  </si>
+  <si>
+    <t>How can I get Blue Snitch?</t>
+  </si>
+  <si>
+    <t>我要如何獲得Blue Snitch呢？</t>
+  </si>
+  <si>
+    <t>Blue Snitchを入手するにはどうすればいいの？</t>
+  </si>
+  <si>
+    <t>Eazy peasy! Just aim at the Blue Snitch and hit "collect".</t>
+  </si>
+  <si>
+    <t>Exclusively in Dragonverse Neo! Now go and collect some of those Blue Snitchs, Pitaya and Gold Coins. Your adventure is await.</t>
+  </si>
+  <si>
+    <t>僅此一家，也只有在Dragonverse Neo中你才能體會到這種樂趣了！去吧，嘗試著採集一些Blue Snitch,火龍果和金幣吧。</t>
+  </si>
+  <si>
+    <t>これはDragonverse Neoだけの特別な楽しみなんだよ！さあ、Blue Snitch、火龍果、金貨を集める楽しさを味わってみてね。</t>
+  </si>
+  <si>
+    <t>Your honesty is... quite straightfoward. You will need to use your Blue Snitchs to capture them, I will show you how.</t>
+  </si>
+  <si>
+    <t>你倒是很坦誠嘛！其實，只需要使用Blue Snitch就可以捕捉到屬於你的Dragon了。先來瞭解一下如何使用Blue Snitch吧。</t>
+  </si>
+  <si>
+    <t>あなたは率直なんだね！実はBlue Snitchを使うだけで、自分だけのDragonを捕まえることができるんだよ。まずはBlue Snitchの使い方を知っておこう。</t>
+  </si>
+  <si>
+    <t>You see this Blue Snitch? All you have to do is capture them using the "Capture" controller, select your Blue Snitch and tose it to the Dragonborn you wish to capture. But it's not easy! Dragonborns could be quite stubborn to capture!</t>
+  </si>
+  <si>
+    <t>看到這顆Blue Snitch了嗎？你可以通過Modragon捕獲面板的操縱杆，選擇它，然後投擲到想要捕捉的Modragon附近。不過，這可不是一件簡單的事情，每個Modragon都有自己的個性。</t>
+  </si>
+  <si>
+    <t>あのBlue Snitchを見たかい？Modragonを捕まえるパネルのスティックを使ってそれを選び、捕まえたいModragonの近くに投げるだけ。でも、これは簡単なことじゃないんだよ、それぞれのModragonは自分の個性を持っているんだ。</t>
+  </si>
+  <si>
+    <t>That's right, there are 5 traits Dragonborns might have: Vigilant; Grumpy; Timid; Irritable or Gentle. traits are crucial when it comes to capturing them, so you might want to know their traits before you waste your Blue Snitch.</t>
+  </si>
+  <si>
+    <t>Like Blue Snitch, designed to capture wild Modragons! and Pitaya as well, your Modragons loves Pitaya!</t>
+  </si>
+  <si>
+    <t>比如說Blue Snitch，這是這片大陸上獨有的特產，你可以用它們來捕捉Modragon。當然還有火龍果，你的龍娘寶寶們可全靠它吃飽肚子！</t>
+  </si>
+  <si>
+    <t>たとえばBlue Snitch、これはこの大陸でしか手に入らない特産品で、Modragonを捕まえるために使用できます。もちろん、Fire Dragon Fruitもあります。あなたのドラゴンの子供たちはこれでお腹を満たします！</t>
+  </si>
+  <si>
+    <t>Just use your capture controller, but make sure you have sufficient Blue Snitch in your bag.</t>
+  </si>
+  <si>
+    <t>利用你的捕捉操縱杆即可，不過首先你要確保你的背包裡有Blue Snitch</t>
+  </si>
+  <si>
+    <t>捕獲レバーを使用すれば簡単ですが、まず最初にバックパックにBlue Snitchがあることを確認してください。</t>
+  </si>
+  <si>
+    <t>Not that easy, but if you wanna increase the odds, make sure you release your Blue Snitch in the "perfect zone". Also, it takes luck to box Modragons with tough personalities.</t>
+  </si>
+  <si>
+    <t>可沒那麼容易，想要提高你的捕捉成功率，你必須在完美區域釋放你的Blue Snitch。性格不好的龍娘尤其難抓！</t>
+  </si>
+  <si>
+    <t>そう簡単にはいきません。捕獲の成功率を上げたい場合は、Blue Snitchを完璧なエリアで放出する必要があります。性格の悪いドラゴンのお嬢様は特に捕まえるのが難しいですよ！</t>
+  </si>
+  <si>
+    <t>That's right, each Modragons has unique personality. Observe their personality in their name tag, helps you save your Blue Snitch for sure!</t>
+  </si>
+  <si>
+    <t>沒錯，每個龍娘都有自己的性格。多觀察龍娘頭頂的性格，不要浪費自己的Blue Snitch哦！</t>
+  </si>
+  <si>
+    <t>そうですね、それぞれのドラゴンのお嬢様には獨自の性格があります。ドラゴンのお嬢様の頭上の性格をよく観察し、Blue Snitchを無駄にしないようにしてくださいね！</t>
+  </si>
+  <si>
+    <t>蓝色飞贼</t>
   </si>
 </sst>
 </file>
@@ -4865,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D332" sqref="D332"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5223,16 +5223,16 @@
         <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5240,19 +5240,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5260,19 +5260,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5280,19 +5280,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5300,19 +5300,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5320,19 +5320,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5340,19 +5340,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5360,19 +5360,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5380,19 +5380,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5400,19 +5400,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5420,19 +5420,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
+        